--- a/QALD9-Plus-testing/baseline-model/baseline-dbpedia-wikidata/baseline_mistral_dbpedia_wikidata_results_comparison.xlsx
+++ b/QALD9-Plus-testing/baseline-model/baseline-dbpedia-wikidata/baseline_mistral_dbpedia_wikidata_results_comparison.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Alpide_belt']</t>
+          <t>['http://www.wikidata.org/entity/Q123374100']</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['33']</t>
+          <t>['38']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/RCA_Victor']</t>
+          <t>['http://www.wikidata.org/entity/Q202585']</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Assassination_of_Wissam_al-Hassan']</t>
+          <t>['http://www.wikidata.org/entity/Q12152']</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Mont_Blanc']</t>
+          <t>['http://www.wikidata.org/entity/Q102174232']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Alfred_Kleiner']</t>
+          <t>['http://www.wikidata.org/entity/Q116635', 'http://www.wikidata.org/entity/Q4175282', 'http://www.wikidata.org/entity/Q97154']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -583,7 +583,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['446828803']</t>
+          <t>['447706209']</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -603,7 +603,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Renminbi']</t>
+          <t>['http://www.wikidata.org/entity/Q39099']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -623,7 +623,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['1616-04-23']</t>
+          <t>['1616-05-03T00:00:00Z']</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -643,7 +643,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Ainoshima_(Shingū)', 'http://dbpedia.org/resource/Aka_Island', 'http://dbpedia.org/resource/Akusekijima', 'http://dbpedia.org/resource/Amami_Islands', 'http://dbpedia.org/resource/Amami_Ōshima', 'http://dbpedia.org/resource/Aragusuku_Islands', 'http://dbpedia.org/resource/Awaji_Island', 'http://dbpedia.org/resource/Bayonnaise_Rocks', 'http://dbpedia.org/resource/Benten-jima_(Wakkanai)', 'http://dbpedia.org/resource/Chichijima', 'http://dbpedia.org/resource/Daikon_Island', 'http://dbpedia.org/resource/Daitō_Islands', 'http://dbpedia.org/resource/Dejima', 'http://dbpedia.org/resource/Denshima', 'http://dbpedia.org/resource/Engetsu_Island', 'http://dbpedia.org/resource/Fukaji_Island', 'http://dbpedia.org/resource/Gajajima', 'http://dbpedia.org/resource/Genkai_Island', 'http://dbpedia.org/resource/Geruma_Island', 'http://dbpedia.org/resource/Gotō_Islands', 'http://dbpedia.org/resource/Hachijō-kojima', 'http://dbpedia.org/resource/Hahajima', 'http://dbpedia.org/resource/Hamahiga_Island', 'http://dbpedia.org/resource/Hario_Island', 'http://dbpedia.org/resource/Hashima_Island', 'http://dbpedia.org/resource/Hateruma', 'http://dbpedia.org/resource/Hatsushima', 'http://dbpedia.org/resource/Hegurajima', 'http://dbpedia.org/resource/Henza_Island', 'http://dbpedia.org/resource/Hokkaido__Hokkaidō__1', 'http://dbpedia.org/resource/Ibuki_island', 'http://dbpedia.org/resource/Iejima', 'http://dbpedia.org/resource/Iheya_Island', 'http://dbpedia.org/resource/Iki_Island', 'http://dbpedia.org/resource/Ikuchi-jima', 'http://dbpedia.org/resource/Inamba-jima', 'http://dbpedia.org/resource/Iōjima_(Kagoshima)__Iōjima__1', 'http://dbpedia.org/resource/Irabu_Island', 'http://dbpedia.org/resource/Iriomote_Island', 'http://dbpedia.org/resource/Ishigaki_Island', 'http://dbpedia.org/resource/Itsukushima', 'http://dbpedia.org/resource/Izena_Island', 'http://dbpedia.org/resource/Japanese_archipelago', 'http://dbpedia.org/resource/Jinai-tō', 'http://dbpedia.org/resource/Kabushima', 'http://dbpedia.org/resource/Kaminonejima', 'http://dbpedia.org/resource/Kamishima_Island,_Amakusa', 'http://dbpedia.org/resource/Kamome_Island', 'http://dbpedia.org/resource/Kayama_Island', 'http://dbpedia.org/resource/Kii_Ōshima', 'http://dbpedia.org/resource/Kinkasan', 'http://dbpedia.org/resource/Kitadaitōjima', 'http://dbpedia.org/resource/Kogajajima', 'http://dbpedia.org/resource/Kojima_(Hokkaido)', 'http://dbpedia.org/resource/Kōjima', 'http://dbpedia.org/resource/Kozukumi_Island', 'http://dbpedia.org/resource/Kume_Island', 'http://dbpedia.org/resource/Kurima-jima', 'http://dbpedia.org/resource/Kuroshima_(Kagoshima)', 'http://dbpedia.org/resource/Kurushima', 'http://dbpedia.org/resource/Kutsujima,_Kyoto', 'http://dbpedia.org/resource/Kyūroku-jima', 'http://dbpedia.org/resource/Kyushu', "http://dbpedia.org/resource/Lot's_Wife_(crag)", 'http://dbpedia.org/resource/Mageshima', 'http://dbpedia.org/resource/Maishima', 'http://dbpedia.org/resource/Manabeshima', 'http://dbpedia.org/resource/Minamidaitōjima', 'http://dbpedia.org/resource/Minamiukibaru_Island', 'http://dbpedia.org/resource/Minna_Island_(Tarama,_Okinawa)', 'http://dbpedia.org/resource/Miyagi_Island_(Uruma,_Okinawa)', 'http://dbpedia.org/resource/Miyake-jima', 'http://dbpedia.org/resource/Miyako_Islands', 'http://dbpedia.org/resource/Miyako-jima', 'http://dbpedia.org/resource/Nakadōri_Island', 'http://dbpedia.org/resource/Nakanoshima_(Kagoshima)', 'http://dbpedia.org/resource/Naru_Island_(Japan)', 'http://dbpedia.org/resource/Naval_Base_Iwo_Jima', 'http://dbpedia.org/resource/Nii_Ōshima', 'http://dbpedia.org/resource/Nishinoshima_(Ogasawara)', 'http://dbpedia.org/resource/Noshima', 'http://dbpedia.org/resource/Noto_Peninsula', 'http://dbpedia.org/resource/Notojima', 'http://dbpedia.org/resource/Okamura_Island', 'http://dbpedia.org/resource/Oki_Islands', 'http://dbpedia.org/resource/Okidaitōjima', 'http://dbpedia.org/resource/Okinawa_Islands', 'http://dbpedia.org/resource/Okinoshima_(Fukuoka)', 'http://dbpedia.org/resource/Okinotorishima', 'http://dbpedia.org/resource/Ōkunoshima', 'http://dbpedia.org/resource/Ōnohara_Islands', 'http://dbpedia.org/resource/Oshima_(Hokkaido)', 'http://dbpedia.org/resource/Ōsumi_Islands', 'http://dbpedia.org/resource/Ou_Island_(Nanjō)', 'http://dbpedia.org/resource/Ōyano-jima', 'http://dbpedia.org/resource/Ōzushima', 'http://dbpedia.org/resource/Ryukyu_Islands', 'http://dbpedia.org/resource/Sado_Island', 'http://dbpedia.org/resource/Sakishima_Islands', 'http://dbpedia.org/resource/Shikoku', 'http://dbpedia.org/resource/Shimoji-shima', 'http://dbpedia.org/resource/Shishijima', 'http://dbpedia.org/resource/Shōdoshima', 'http://dbpedia.org/resource/Shōwa_Iōjima__Shōwa_Iōjima__1', 'http://dbpedia.org/resource/Smith_Island_(Japan)', 'http://dbpedia.org/resource/Sukomobanare_Island', 'http://dbpedia.org/resource/Tairajima', 'http://dbpedia.org/resource/Takashima,_Shimane', 'http://dbpedia.org/resource/Takeshima_(Kagoshima)', 'http://dbpedia.org/resource/Taketomi_Island', 'http://dbpedia.org/resource/Tanegashima', 'http://dbpedia.org/resource/Tobishima,_Yamagata', 'http://dbpedia.org/resource/Tokara_Islands', 'http://dbpedia.org/resource/Tokunoshima', 'http://dbpedia.org/resource/Tori-shima_(Izu_Islands)', 'http://dbpedia.org/resource/Tsuken_Island', 'http://dbpedia.org/resource/Udone-shima', 'http://dbpedia.org/resource/Umashima,_Shimane', 'http://dbpedia.org/resource/Uni_Island', 'http://dbpedia.org/resource/Yaeyama_Islands', 'http://dbpedia.org/resource/Yagishiri_Island', 'http://dbpedia.org/resource/Yokatsu_Islands', 'http://dbpedia.org/resource/Yokoate-jima', 'http://dbpedia.org/resource/Yonaguni', 'http://dbpedia.org/resource/Yubu_Island', 'http://dbpedia.org/resource/Yugeshima', 'http://dbpedia.org/resource/Zamami_Island']</t>
+          <t xml:space="preserve">['http://www.wikidata.org/entity/Q100695440', 'http://www.wikidata.org/entity/Q1019313', 'http://www.wikidata.org/entity/Q102245375', 'http://www.wikidata.org/entity/Q1039445', 'http://www.wikidata.org/entity/Q104186080', 'http://www.wikidata.org/entity/Q10449219', 'http://www.wikidata.org/entity/Q1047492', 'http://www.wikidata.org/entity/Q1061394', 'http://www.wikidata.org/entity/Q106150403', 'http://www.wikidata.org/entity/Q106363078', 'http://www.wikidata.org/entity/Q1072125', 'http://www.wikidata.org/entity/Q1083890', 'http://www.wikidata.org/entity/Q10855760', 'http://www.wikidata.org/entity/Q10855761', 'http://www.wikidata.org/entity/Q10856210', 'http://www.wikidata.org/entity/Q10859834', 'http://www.wikidata.org/entity/Q10860535', 'http://www.wikidata.org/entity/Q10889854', 'http://www.wikidata.org/entity/Q109368351', 'http://www.wikidata.org/entity/Q10938711', 'http://www.wikidata.org/entity/Q109405713', 'http://www.wikidata.org/entity/Q10943140', 'http://www.wikidata.org/entity/Q109673419', 'http://www.wikidata.org/entity/Q1111504', 'http://www.wikidata.org/entity/Q112224546', 'http://www.wikidata.org/entity/Q11234719', 'http://www.wikidata.org/entity/Q11241368', 'http://www.wikidata.org/entity/Q11261668', 'http://www.wikidata.org/entity/Q112673064', 'http://www.wikidata.org/entity/Q11276631', 'http://www.wikidata.org/entity/Q11285385', 'http://www.wikidata.org/entity/Q11286923', 'http://www.wikidata.org/entity/Q11353972', 'http://www.wikidata.org/entity/Q11354008', 'http://www.wikidata.org/entity/Q11356195', 'http://www.wikidata.org/entity/Q11357220', 'http://www.wikidata.org/entity/Q11358913', 'http://www.wikidata.org/entity/Q11360086', 'http://www.wikidata.org/entity/Q11360847', 'http://www.wikidata.org/entity/Q11361905', 'http://www.wikidata.org/entity/Q11362796', 'http://www.wikidata.org/entity/Q11362797', 'http://www.wikidata.org/entity/Q11362799', 'http://www.wikidata.org/entity/Q11369263', 'http://www.wikidata.org/entity/Q11369927', 'http://www.wikidata.org/entity/Q11370029', 'http://www.wikidata.org/entity/Q11370104', 'http://www.wikidata.org/entity/Q11371742', 'http://www.wikidata.org/entity/Q11373491', 'http://www.wikidata.org/entity/Q11376329', 'http://www.wikidata.org/entity/Q11377524', 'http://www.wikidata.org/entity/Q11378204', 'http://www.wikidata.org/entity/Q11379228', 'http://www.wikidata.org/entity/Q11379335', 'http://www.wikidata.org/entity/Q11382608', 'http://www.wikidata.org/entity/Q11383201', 'http://www.wikidata.org/entity/Q11383217', 'http://www.wikidata.org/entity/Q11385812', 'http://www.wikidata.org/entity/Q11386818', 'http://www.wikidata.org/entity/Q11390867', 'http://www.wikidata.org/entity/Q11390868', 'http://www.wikidata.org/entity/Q11392330', 'http://www.wikidata.org/entity/Q11394726', 'http://www.wikidata.org/entity/Q11395612', 'http://www.wikidata.org/entity/Q11395786', 'http://www.wikidata.org/entity/Q11397118', 'http://www.wikidata.org/entity/Q11398556', 'http://www.wikidata.org/entity/Q11399769', 'http://www.wikidata.org/entity/Q11401908', 'http://www.wikidata.org/entity/Q11402215', 'http://www.wikidata.org/entity/Q11402223', 'http://www.wikidata.org/entity/Q11407776', 'http://www.wikidata.org/entity/Q11409587', 'http://www.wikidata.org/entity/Q11410659', 'http://www.wikidata.org/entity/Q11415949', 'http://www.wikidata.org/entity/Q11415951', 'http://www.wikidata.org/entity/Q11415952', 'http://www.wikidata.org/entity/Q11415953', 'http://www.wikidata.org/entity/Q11416626', 'http://www.wikidata.org/entity/Q11418533', 'http://www.wikidata.org/entity/Q11419386', 'http://www.wikidata.org/entity/Q11419637', 'http://www.wikidata.org/entity/Q11420237', 'http://www.wikidata.org/entity/Q11424450', 'http://www.wikidata.org/entity/Q11424752', 'http://www.wikidata.org/entity/Q11425641', 'http://www.wikidata.org/entity/Q11430798', 'http://www.wikidata.org/entity/Q11431830', 'http://www.wikidata.org/entity/Q11432478', 'http://www.wikidata.org/entity/Q11434172', 'http://www.wikidata.org/entity/Q11434804', 'http://www.wikidata.org/entity/Q11434805', 'http://www.wikidata.org/entity/Q11434806', 'http://www.wikidata.org/entity/Q11434807', 'http://www.wikidata.org/entity/Q11434809', 'http://www.wikidata.org/entity/Q11434813', 'http://www.wikidata.org/entity/Q11434815', 'http://www.wikidata.org/entity/Q11434816', 'http://www.wikidata.org/entity/Q11434819', 'http://www.wikidata.org/entity/Q11435005', 'http://www.wikidata.org/entity/Q11435006', 'http://www.wikidata.org/entity/Q11436454', 'http://www.wikidata.org/entity/Q11436765', 'http://www.wikidata.org/entity/Q11437275', 'http://www.wikidata.org/entity/Q11438136', 'http://www.wikidata.org/entity/Q11438379', 'http://www.wikidata.org/entity/Q11439590', 'http://www.wikidata.org/entity/Q11442082', 'http://www.wikidata.org/entity/Q11443237', 'http://www.wikidata.org/entity/Q11445536', 'http://www.wikidata.org/entity/Q11446412', 'http://www.wikidata.org/entity/Q11447403', 'http://www.wikidata.org/entity/Q11447404', 'http://www.wikidata.org/entity/Q11449014', 'http://www.wikidata.org/entity/Q11449464', 'http://www.wikidata.org/entity/Q11450585', 'http://www.wikidata.org/entity/Q11454772', 'http://www.wikidata.org/entity/Q11458850', 'http://www.wikidata.org/entity/Q11459344', 'http://www.wikidata.org/entity/Q11459579', 'http://www.wikidata.org/entity/Q11460065', 'http://www.wikidata.org/entity/Q11460438', 'http://www.wikidata.org/entity/Q11464517', 'http://www.wikidata.org/entity/Q11465691', 'http://www.wikidata.org/entity/Q11474307', 'http://www.wikidata.org/entity/Q11474346', 'http://www.wikidata.org/entity/Q11475712', 'http://www.wikidata.org/entity/Q11476827', 'http://www.wikidata.org/entity/Q11476897', 'http://www.wikidata.org/entity/Q11477129', 'http://www.wikidata.org/entity/Q11477305', 'http://www.wikidata.org/entity/Q11477410', 'http://www.wikidata.org/entity/Q11481155', 'http://www.wikidata.org/entity/Q11482668', 'http://www.wikidata.org/entity/Q11482669', 'http://www.wikidata.org/entity/Q11483492', 'http://www.wikidata.org/entity/Q11483589', 'http://www.wikidata.org/entity/Q11483827', 'http://www.wikidata.org/entity/Q11484404', 'http://www.wikidata.org/entity/Q11486132', 'http://www.wikidata.org/entity/Q11486908', 'http://www.wikidata.org/entity/Q11486909', 'http://www.wikidata.org/entity/Q11486910', 'http://www.wikidata.org/entity/Q11486911', 'http://www.wikidata.org/entity/Q11487067', 'http://www.wikidata.org/entity/Q11487395', 'http://www.wikidata.org/entity/Q11488768', 'http://www.wikidata.org/entity/Q11489067', 'http://www.wikidata.org/entity/Q11489240', 'http://www.wikidata.org/entity/Q11489251', 'http://www.wikidata.org/entity/Q11490807', 'http://www.wikidata.org/entity/Q11491460', 'http://www.wikidata.org/entity/Q11491674', 'http://www.wikidata.org/entity/Q11492404', 'http://www.wikidata.org/entity/Q11492410', 'http://www.wikidata.org/entity/Q11492883', 'http://www.wikidata.org/entity/Q11492884', 'http://www.wikidata.org/entity/Q11496323', 'http://www.wikidata.org/entity/Q11496324', 'http://www.wikidata.org/entity/Q11496670', 'http://www.wikidata.org/entity/Q11497087', 'http://www.wikidata.org/entity/Q11497519', 'http://www.wikidata.org/entity/Q11500406', 'http://www.wikidata.org/entity/Q11501924', 'http://www.wikidata.org/entity/Q11502024', 'http://www.wikidata.org/entity/Q11502876', 'http://www.wikidata.org/entity/Q11504920', 'http://www.wikidata.org/entity/Q11505281', 'http://www.wikidata.org/entity/Q11505343', 'http://www.wikidata.org/entity/Q11511249', 'http://www.wikidata.org/entity/Q11516644', 'http://www.wikidata.org/entity/Q11520216', 'http://www.wikidata.org/entity/Q11530091', 'http://www.wikidata.org/entity/Q11530093', 'http://www.wikidata.org/entity/Q11532746', 'http://www.wikidata.org/entity/Q11533729', 'http://www.wikidata.org/entity/Q11542683', 'http://www.wikidata.org/entity/Q11542685', 'http://www.wikidata.org/entity/Q11543672', 'http://www.wikidata.org/entity/Q11544654', 'http://www.wikidata.org/entity/Q11544655', 'http://www.wikidata.org/entity/Q11545996', 'http://www.wikidata.org/entity/Q11547731', 'http://www.wikidata.org/entity/Q11548193', 'http://www.wikidata.org/entity/Q11548462', 'http://www.wikidata.org/entity/Q11550173', 'http://www.wikidata.org/entity/Q11550842', 'http://www.wikidata.org/entity/Q11550845', 'http://www.wikidata.org/entity/Q11551591', 'http://www.wikidata.org/entity/Q11552439', 'http://www.wikidata.org/entity/Q11552466', 'http://www.wikidata.org/entity/Q11552477', 'http://www.wikidata.org/entity/Q11552498', 'http://www.wikidata.org/entity/Q11552502', 'http://www.wikidata.org/entity/Q11552549', 'http://www.wikidata.org/entity/Q11553027', 'http://www.wikidata.org/entity/Q11555929', 'http://www.wikidata.org/entity/Q11555966', 'http://www.wikidata.org/entity/Q11556058', 'http://www.wikidata.org/entity/Q11556221', 'http://www.wikidata.org/entity/Q11558501', 'http://www.wikidata.org/entity/Q11558503', 'http://www.wikidata.org/entity/Q11558824', 'http://www.wikidata.org/entity/Q11559068', 'http://www.wikidata.org/entity/Q11559418', 'http://www.wikidata.org/entity/Q11559763', 'http://www.wikidata.org/entity/Q11559986', 'http://www.wikidata.org/entity/Q11562837', 'http://www.wikidata.org/entity/Q11563518', 'http://www.wikidata.org/entity/Q11567224', 'http://www.wikidata.org/entity/Q11567245', 'http://www.wikidata.org/entity/Q11567267', 'http://www.wikidata.org/entity/Q11572200', 'http://www.wikidata.org/entity/Q11572311', 'http://www.wikidata.org/entity/Q11573306', 'http://www.wikidata.org/entity/Q11573823', 'http://www.wikidata.org/entity/Q11574179', 'http://www.wikidata.org/entity/Q11574434', 'http://www.wikidata.org/entity/Q11574442', 'http://www.wikidata.org/entity/Q11574503', 'http://www.wikidata.org/entity/Q11574566', 'http://www.wikidata.org/entity/Q11574873', 'http://www.wikidata.org/entity/Q11576597', 'http://www.wikidata.org/entity/Q11577548', 'http://www.wikidata.org/entity/Q11577742', 'http://www.wikidata.org/entity/Q11578144', 'http://www.wikidata.org/entity/Q11578192', 'http://www.wikidata.org/entity/Q11578542', 'http://www.wikidata.org/entity/Q11579570', 'http://www.wikidata.org/entity/Q11580729', 'http://www.wikidata.org/entity/Q11580862', 'http://www.wikidata.org/entity/Q11580911', 'http://www.wikidata.org/entity/Q11581974', 'http://www.wikidata.org/entity/Q11581975', 'http://www.wikidata.org/entity/Q11583780', 'http://www.wikidata.org/entity/Q11583965', 'http://www.wikidata.org/entity/Q11588028', 'http://www.wikidata.org/entity/Q11588453', 'http://www.wikidata.org/entity/Q11589438', 'http://www.wikidata.org/entity/Q11589594', 'http://www.wikidata.org/entity/Q11591024', 'http://www.wikidata.org/entity/Q11592984', 'http://www.wikidata.org/entity/Q11596394', 'http://www.wikidata.org/entity/Q11598512', 'http://www.wikidata.org/entity/Q11598646', 'http://www.wikidata.org/entity/Q11598647', 'http://www.wikidata.org/entity/Q11599897', 'http://www.wikidata.org/entity/Q11602695', 'http://www.wikidata.org/entity/Q11603507', 'http://www.wikidata.org/entity/Q11603714', 'http://www.wikidata.org/entity/Q11604580', 'http://www.wikidata.org/entity/Q11604657', 'http://www.wikidata.org/entity/Q11605347', 'http://www.wikidata.org/entity/Q11607173', 'http://www.wikidata.org/entity/Q11610036', 'http://www.wikidata.org/entity/Q11612025', 'http://www.wikidata.org/entity/Q11613384', 'http://www.wikidata.org/entity/Q11614676', 'http://www.wikidata.org/entity/Q11616271', 'http://www.wikidata.org/entity/Q11622569', 'http://www.wikidata.org/entity/Q11625567', 'http://www.wikidata.org/entity/Q11626891', 'http://www.wikidata.org/entity/Q11630243', 'http://www.wikidata.org/entity/Q11631382', 'http://www.wikidata.org/entity/Q11633491', 'http://www.wikidata.org/entity/Q11633492', 'http://www.wikidata.org/entity/Q11634353', 'http://www.wikidata.org/entity/Q11635889', 'http://www.wikidata.org/entity/Q11636071', 'http://www.wikidata.org/entity/Q11636883', 'http://www.wikidata.org/entity/Q116373818', 'http://www.wikidata.org/entity/Q11645346', 'http://www.wikidata.org/entity/Q11645453', 'http://www.wikidata.org/entity/Q11647939', 'http://www.wikidata.org/entity/Q11648162', 'http://www.wikidata.org/entity/Q11648224', 'http://www.wikidata.org/entity/Q11650283', 'http://www.wikidata.org/entity/Q11650626', 'http://www.wikidata.org/entity/Q11652193', 'http://www.wikidata.org/entity/Q11652198', 'http://www.wikidata.org/entity/Q11652204', 'http://www.wikidata.org/entity/Q11652207', 'http://www.wikidata.org/entity/Q11655424', 'http://www.wikidata.org/entity/Q11657147', 'http://www.wikidata.org/entity/Q11657359', 'http://www.wikidata.org/entity/Q11659209', 'http://www.wikidata.org/entity/Q11661369', 'http://www.wikidata.org/entity/Q11661370', 'http://www.wikidata.org/entity/Q11661371', 'http://www.wikidata.org/entity/Q11661373', 'http://www.wikidata.org/entity/Q11662600', 'http://www.wikidata.org/entity/Q11664922', 'http://www.wikidata.org/entity/Q11664932', 'http://www.wikidata.org/entity/Q11665527', 'http://www.wikidata.org/entity/Q11665758', 'http://www.wikidata.org/entity/Q11665759', 'http://www.wikidata.org/entity/Q11667955', 'http://www.wikidata.org/entity/Q11667995', 'http://www.wikidata.org/entity/Q11668024', 'http://www.wikidata.org/entity/Q11668037', 'http://www.wikidata.org/entity/Q11668718', 'http://www.wikidata.org/entity/Q11669590', 'http://www.wikidata.org/entity/Q11669595', 'http://www.wikidata.org/entity/Q11669597', 'http://www.wikidata.org/entity/Q11669598', 'http://www.wikidata.org/entity/Q11669599', 'http://www.wikidata.org/entity/Q11669603', 'http://www.wikidata.org/entity/Q11669605', 'http://www.wikidata.org/entity/Q11670635', 'http://www.wikidata.org/entity/Q11673959', 'http://www.wikidata.org/entity/Q11674270', 'http://www.wikidata.org/entity/Q11675635', 'http://www.wikidata.org/entity/Q11675694', 'http://www.wikidata.org/entity/Q11675705', 'http://www.wikidata.org/entity/Q11675721', 'http://www.wikidata.org/entity/Q11675825', 'http://www.wikidata.org/entity/Q11676467', 'http://www.wikidata.org/entity/Q11677072', 'http://www.wikidata.org/entity/Q116774724', 'http://www.wikidata.org/entity/Q11678083', 'http://www.wikidata.org/entity/Q11678144', 'http://www.wikidata.org/entity/Q11678145', 'http://www.wikidata.org/entity/Q11678146', 'http://www.wikidata.org/entity/Q11678147', 'http://www.wikidata.org/entity/Q11678919', 'http://www.wikidata.org/entity/Q1204188', 'http://www.wikidata.org/entity/Q12122598', 'http://www.wikidata.org/entity/Q12168088', 'http://www.wikidata.org/entity/Q122792969', 'http://www.wikidata.org/entity/Q123092880', 'http://www.wikidata.org/entity/Q123554758', 'http://www.wikidata.org/entity/Q123554899', 'http://www.wikidata.org/entity/Q123563180', 'http://www.wikidata.org/entity/Q123568579', 'http://www.wikidata.org/entity/Q123592347', 'http://www.wikidata.org/entity/Q123592528', 'http://www.wikidata.org/entity/Q123630881', 'http://www.wikidata.org/entity/Q123631133', 'http://www.wikidata.org/entity/Q123848497', 'http://www.wikidata.org/entity/Q126617200', 'http://www.wikidata.org/entity/Q130120', 'http://www.wikidata.org/entity/Q130535', 'http://www.wikidata.org/entity/Q1344326', 'http://www.wikidata.org/entity/Q137962', 'http://www.wikidata.org/entity/Q13987', 'http://www.wikidata.org/entity/Q13991', 'http://www.wikidata.org/entity/Q1414691', 'http://www.wikidata.org/entity/Q145371', 'http://www.wikidata.org/entity/Q1475428', 'http://www.wikidata.org/entity/Q14948405', 'http://www.wikidata.org/entity/Q14948406', 'http://www.wikidata.org/entity/Q15231937', 'http://www.wikidata.org/entity/Q15233224', 'http://www.wikidata.org/entity/Q1532472', 'http://www.wikidata.org/entity/Q15914611', 'http://www.wikidata.org/entity/Q15914636', 'http://www.wikidata.org/entity/Q15914793', 'http://www.wikidata.org/entity/Q15914839', 'http://www.wikidata.org/entity/Q15914850', 'http://www.wikidata.org/entity/Q15914965', 'http://www.wikidata.org/entity/Q15915038', 'http://www.wikidata.org/entity/Q15915094', 'http://www.wikidata.org/entity/Q15915371', 'http://www.wikidata.org/entity/Q15915516', 'http://www.wikidata.org/entity/Q15915542', 'http://www.wikidata.org/entity/Q15915739', 'http://www.wikidata.org/entity/Q15915768', 'http://www.wikidata.org/entity/Q15915877', 'http://www.wikidata.org/entity/Q15915985', 'http://www.wikidata.org/entity/Q15916001', 'http://www.wikidata.org/entity/Q15916180', 'http://www.wikidata.org/entity/Q15916186', 'http://www.wikidata.org/entity/Q15916187', 'http://www.wikidata.org/entity/Q15916216', 'http://www.wikidata.org/entity/Q15916253', 'http://www.wikidata.org/entity/Q15916254', 'http://www.wikidata.org/entity/Q15916285', 'http://www.wikidata.org/entity/Q15916297', 'http://www.wikidata.org/entity/Q15916298', 'http://www.wikidata.org/entity/Q15916369', 'http://www.wikidata.org/entity/Q15916370', 'http://www.wikidata.org/entity/Q15916387', 'http://www.wikidata.org/entity/Q15916410', 'http://www.wikidata.org/entity/Q15916434', 'http://www.wikidata.org/entity/Q15916435', 'http://www.wikidata.org/entity/Q15916437', 'http://www.wikidata.org/entity/Q15916438', 'http://www.wikidata.org/entity/Q15916508', 'http://www.wikidata.org/entity/Q15923957', 'http://www.wikidata.org/entity/Q15924538', 'http://www.wikidata.org/entity/Q15925138', 'http://www.wikidata.org/entity/Q15925270', 'http://www.wikidata.org/entity/Q1676132', 'http://www.wikidata.org/entity/Q169589', 'http://www.wikidata.org/entity/Q17021654', 'http://www.wikidata.org/entity/Q17023687', 'http://www.wikidata.org/entity/Q17031459', 'http://www.wikidata.org/entity/Q17039990', 'http://www.wikidata.org/entity/Q17191315', 'http://www.wikidata.org/entity/Q17191378', 'http://www.wikidata.org/entity/Q17192049', 'http://www.wikidata.org/entity/Q17192826', 'http://www.wikidata.org/entity/Q17193690', 'http://www.wikidata.org/entity/Q17210135', 'http://www.wikidata.org/entity/Q17210185', 'http://www.wikidata.org/entity/Q17211889', 'http://www.wikidata.org/entity/Q17214084', 'http://www.wikidata.org/entity/Q17215469', 'http://www.wikidata.org/entity/Q17216064', 'http://www.wikidata.org/entity/Q17216375', 'http://www.wikidata.org/entity/Q17217423', 'http://www.wikidata.org/entity/Q17219919', 'http://www.wikidata.org/entity/Q17221048', 'http://www.wikidata.org/entity/Q17222656', 'http://www.wikidata.org/entity/Q17223389', 'http://www.wikidata.org/entity/Q17225029', 'http://www.wikidata.org/entity/Q17989148', 'http://www.wikidata.org/entity/Q17989626', 'http://www.wikidata.org/entity/Q17992764', 'http://www.wikidata.org/entity/Q17993734', 'http://www.wikidata.org/entity/Q17995776', 'http://www.wikidata.org/entity/Q18003098', 'http://www.wikidata.org/entity/Q18009413', 'http://www.wikidata.org/entity/Q18010599', 'http://www.wikidata.org/entity/Q1803811', 'http://www.wikidata.org/entity/Q18335728', 'http://www.wikidata.org/entity/Q18336591', 'http://www.wikidata.org/entity/Q18336657', 'http://www.wikidata.org/entity/Q18338827', 'http://www.wikidata.org/entity/Q18338974', 'http://www.wikidata.org/entity/Q18339013', 'http://www.wikidata.org/entity/Q18339157', 'http://www.wikidata.org/entity/Q18339362', 'http://www.wikidata.org/entity/Q18339537', 'http://www.wikidata.org/entity/Q18339548', 'http://www.wikidata.org/entity/Q18700735', 'http://www.wikidata.org/entity/Q187366', 'http://www.wikidata.org/entity/Q196701', 'http://www.wikidata.org/entity/Q19926707', 'http://www.wikidata.org/entity/Q19927579', 'http://www.wikidata.org/entity/Q19927913', 'http://www.wikidata.org/entity/Q19928028', 'http://www.wikidata.org/entity/Q1995509', 'http://www.wikidata.org/entity/Q19969455', 'http://www.wikidata.org/entity/Q19969456', 'http://www.wikidata.org/entity/Q19969457', 'http://www.wikidata.org/entity/Q19969459', 'http://www.wikidata.org/entity/Q19969461', 'http://www.wikidata.org/entity/Q19969462', 'http://www.wikidata.org/entity/Q19969463', 'http://www.wikidata.org/entity/Q20043639', 'http://www.wikidata.org/entity/Q20160219', 'http://www.wikidata.org/entity/Q2018422', 'http://www.wikidata.org/entity/Q20207875', 'http://www.wikidata.org/entity/Q20208336', 'http://www.wikidata.org/entity/Q20208605', 'http://www.wikidata.org/entity/Q20220282', 'http://www.wikidata.org/entity/Q20220291', 'http://www.wikidata.org/entity/Q20249559', 'http://www.wikidata.org/entity/Q20251315', 'http://www.wikidata.org/entity/Q20267482', 'http://www.wikidata.org/entity/Q20441459', 'http://www.wikidata.org/entity/Q20441495', 'http://www.wikidata.org/entity/Q20441538', 'http://www.wikidata.org/entity/Q20441672', 'http://www.wikidata.org/entity/Q20441835', 'http://www.wikidata.org/entity/Q20442833', 'http://www.wikidata.org/entity/Q20442886', 'http://www.wikidata.org/entity/Q20454159', 'http://www.wikidata.org/entity/Q20652984', 'http://www.wikidata.org/entity/Q20653009', 'http://www.wikidata.org/entity/Q20653020', 'http://www.wikidata.org/entity/Q20653048', 'http://www.wikidata.org/entity/Q20653083', 'http://www.wikidata.org/entity/Q20653128', 'http://www.wikidata.org/entity/Q20655767', 'http://www.wikidata.org/entity/Q20655779', 'http://www.wikidata.org/entity/Q20655824', 'http://www.wikidata.org/entity/Q20655829', 'http://www.wikidata.org/entity/Q20655854', 'http://www.wikidata.org/entity/Q20655861', 'http://www.wikidata.org/entity/Q20656218', 'http://www.wikidata.org/entity/Q20662194', 'http://www.wikidata.org/entity/Q20662421', 'http://www.wikidata.org/entity/Q20665543', 'http://www.wikidata.org/entity/Q20669152', 'http://www.wikidata.org/entity/Q20669173', 'http://www.wikidata.org/entity/Q20669188', 'http://www.wikidata.org/entity/Q20669201', 'http://www.wikidata.org/entity/Q20669474', 'http://www.wikidata.org/entity/Q20670485', 'http://www.wikidata.org/entity/Q20670486', 'http://www.wikidata.org/entity/Q20670489', 'http://www.wikidata.org/entity/Q20670490', 'http://www.wikidata.org/entity/Q20670802', 'http://www.wikidata.org/entity/Q20670818', 'http://www.wikidata.org/entity/Q20670842', 'http://www.wikidata.org/entity/Q20680346', 'http://www.wikidata.org/entity/Q20681784', 'http://www.wikidata.org/entity/Q20681836', 'http://www.wikidata.org/entity/Q20687296', 'http://www.wikidata.org/entity/Q20706572', 'http://www.wikidata.org/entity/Q20706579', 'http://www.wikidata.org/entity/Q20706699', 'http://www.wikidata.org/entity/Q20709285', 'http://www.wikidata.org/entity/Q2118388', 'http://www.wikidata.org/entity/Q21652956', 'http://www.wikidata.org/entity/Q21652975', 'http://www.wikidata.org/entity/Q21653337', 'http://www.wikidata.org/entity/Q21653909', 'http://www.wikidata.org/entity/Q21654565', 'http://www.wikidata.org/entity/Q2166413', 'http://www.wikidata.org/entity/Q220701', 'http://www.wikidata.org/entity/Q23069893', 'http://www.wikidata.org/entity/Q2407298', 'http://www.wikidata.org/entity/Q242176', 'http://www.wikidata.org/entity/Q24488445', 'http://www.wikidata.org/entity/Q247515', 'http://www.wikidata.org/entity/Q24871573', 'http://www.wikidata.org/entity/Q24872138', 'http://www.wikidata.org/entity/Q24875184', 'http://www.wikidata.org/entity/Q24898648', 'http://www.wikidata.org/entity/Q24902485', 'http://www.wikidata.org/entity/Q27560716', 'http://www.wikidata.org/entity/Q277035', 'http://www.wikidata.org/entity/Q28155659', 'http://www.wikidata.org/entity/Q285468', 'http://www.wikidata.org/entity/Q28682242', 'http://www.wikidata.org/entity/Q28682892', 'http://www.wikidata.org/entity/Q28682901', 'http://www.wikidata.org/entity/Q28683300', 'http://www.wikidata.org/entity/Q28684991', 'http://www.wikidata.org/entity/Q28684995', 'http://www.wikidata.org/entity/Q28687509', 'http://www.wikidata.org/entity/Q28687512', 'http://www.wikidata.org/entity/Q28687517', 'http://www.wikidata.org/entity/Q28687518', 'http://www.wikidata.org/entity/Q28687526', 'http://www.wikidata.org/entity/Q28687528', 'http://www.wikidata.org/entity/Q28687549', 'http://www.wikidata.org/entity/Q28687551', 'http://www.wikidata.org/entity/Q28687556', 'http://www.wikidata.org/entity/Q28687561', 'http://www.wikidata.org/entity/Q28687591', 'http://www.wikidata.org/entity/Q28693411', 'http://www.wikidata.org/entity/Q29980548', 'http://www.wikidata.org/entity/Q30925772', 'http://www.wikidata.org/entity/Q30925773', 'http://www.wikidata.org/entity/Q30931692', 'http://www.wikidata.org/entity/Q30931979', 'http://www.wikidata.org/entity/Q3108859', 'http://www.wikidata.org/entity/Q3199146', 'http://www.wikidata.org/entity/Q3285144', 'http://www.wikidata.org/entity/Q328533', 'http://www.wikidata.org/entity/Q3349795', 'http://www.wikidata.org/entity/Q339004', 'http://www.wikidata.org/entity/Q34783955', 'http://www.wikidata.org/entity/Q34783964', 'http://www.wikidata.org/entity/Q34783974', 'http://www.wikidata.org/entity/Q34784035', 'http://www.wikidata.org/entity/Q34784045', 'http://www.wikidata.org/entity/Q34784074', 'http://www.wikidata.org/entity/Q34784082', 'http://www.wikidata.org/entity/Q34784090', 'http://www.wikidata.org/entity/Q34784099', 'http://www.wikidata.org/entity/Q34784108', 'http://www.wikidata.org/entity/Q34784117', 'http://www.wikidata.org/entity/Q34784145', 'http://www.wikidata.org/entity/Q34784154', 'http://www.wikidata.org/entity/Q34784163', 'http://www.wikidata.org/entity/Q34784172', 'http://www.wikidata.org/entity/Q34784180', 'http://www.wikidata.org/entity/Q34784236', 'http://www.wikidata.org/entity/Q34784245', 'http://www.wikidata.org/entity/Q34784264', 'http://www.wikidata.org/entity/Q34784309', 'http://www.wikidata.org/entity/Q34784328', 'http://www.wikidata.org/entity/Q34784514', 'http://www.wikidata.org/entity/Q34785535', 'http://www.wikidata.org/entity/Q34785547', 'http://www.wikidata.org/entity/Q34787923', 'http://www.wikidata.org/entity/Q34787927', 'http://www.wikidata.org/entity/Q34787936', 'http://www.wikidata.org/entity/Q34787940', 'http://www.wikidata.org/entity/Q34787945', 'http://www.wikidata.org/entity/Q34787948', 'http://www.wikidata.org/entity/Q34787955', 'http://www.wikidata.org/entity/Q34787960', 'http://www.wikidata.org/entity/Q34787964', 'http://www.wikidata.org/entity/Q34787968', 'http://www.wikidata.org/entity/Q34787980', 'http://www.wikidata.org/entity/Q34787985', 'http://www.wikidata.org/entity/Q34788048', 'http://www.wikidata.org/entity/Q34788086', 'http://www.wikidata.org/entity/Q34788091', 'http://www.wikidata.org/entity/Q34788095', 'http://www.wikidata.org/entity/Q34788578', 'http://www.wikidata.org/entity/Q34788581', 'http://www.wikidata.org/entity/Q34788617', 'http://www.wikidata.org/entity/Q34788621', 'http://www.wikidata.org/entity/Q34788699', 'http://www.wikidata.org/entity/Q34795633', 'http://www.wikidata.org/entity/Q34795652', 'http://www.wikidata.org/entity/Q34795659', 'http://www.wikidata.org/entity/Q34795671', 'http://www.wikidata.org/entity/Q34795678', 'http://www.wikidata.org/entity/Q34795686', 'http://www.wikidata.org/entity/Q34795693', 'http://www.wikidata.org/entity/Q34795722', 'http://www.wikidata.org/entity/Q34795734', 'http://www.wikidata.org/entity/Q34795744', 'http://www.wikidata.org/entity/Q34795753', 'http://www.wikidata.org/entity/Q34795770', 'http://www.wikidata.org/entity/Q34795778', 'http://www.wikidata.org/entity/Q34795788', 'http://www.wikidata.org/entity/Q34795804', 'http://www.wikidata.org/entity/Q34795808', 'http://www.wikidata.org/entity/Q34795832', 'http://www.wikidata.org/entity/Q34795844', 'http://www.wikidata.org/entity/Q34795856', 'http://www.wikidata.org/entity/Q34795867', 'http://www.wikidata.org/entity/Q34795874', 'http://www.wikidata.org/entity/Q34795887', 'http://www.wikidata.org/entity/Q34795901', 'http://www.wikidata.org/entity/Q34795907', 'http://www.wikidata.org/entity/Q34795913', 'http://www.wikidata.org/entity/Q34795937', 'http://www.wikidata.org/entity/Q34795942', 'http://www.wikidata.org/entity/Q34795954', 'http://www.wikidata.org/entity/Q34795961', 'http://www.wikidata.org/entity/Q34795967', 'http://www.wikidata.org/entity/Q34795972', 'http://www.wikidata.org/entity/Q34795984', 'http://www.wikidata.org/entity/Q34795990', 'http://www.wikidata.org/entity/Q34795996', 'http://www.wikidata.org/entity/Q34796002', 'http://www.wikidata.org/entity/Q34796008', 'http://www.wikidata.org/entity/Q34796015', 'http://www.wikidata.org/entity/Q34796021', 'http://www.wikidata.org/entity/Q34796028', 'http://www.wikidata.org/entity/Q34796033', 'http://www.wikidata.org/entity/Q34796043', 'http://www.wikidata.org/entity/Q34796055', 'http://www.wikidata.org/entity/Q34796071', 'http://www.wikidata.org/entity/Q34796095', 'http://www.wikidata.org/entity/Q34796102', 'http://www.wikidata.org/entity/Q34796119', 'http://www.wikidata.org/entity/Q34796134', 'http://www.wikidata.org/entity/Q34796146', 'http://www.wikidata.org/entity/Q34796151', 'http://www.wikidata.org/entity/Q34796158', 'http://www.wikidata.org/entity/Q34796163', 'http://www.wikidata.org/entity/Q34796170', 'http://www.wikidata.org/entity/Q34796175', 'http://www.wikidata.org/entity/Q34796180', 'http://www.wikidata.org/entity/Q34861379', 'http://www.wikidata.org/entity/Q34861390', 'http://www.wikidata.org/entity/Q34861523', 'http://www.wikidata.org/entity/Q34861562', 'http://www.wikidata.org/entity/Q34861821', 'http://www.wikidata.org/entity/Q34862653', 'http://www.wikidata.org/entity/Q3579074', 'http://www.wikidata.org/entity/Q3594049', 'http://www.wikidata.org/entity/Q3623017', 'http://www.wikidata.org/entity/Q3785700', 'http://www.wikidata.org/entity/Q382082', 'http://www.wikidata.org/entity/Q38266996', 'http://www.wikidata.org/entity/Q385313', 'http://www.wikidata.org/entity/Q385710', 'http://www.wikidata.org/entity/Q393031', 'http://www.wikidata.org/entity/Q398636', 'http://www.wikidata.org/entity/Q432124', 'http://www.wikidata.org/entity/Q4419675', 'http://www.wikidata.org/entity/Q4419682', 'http://www.wikidata.org/entity/Q4478859', 'http://www.wikidata.org/entity/Q4497854', 'http://www.wikidata.org/entity/Q4518163', 'http://www.wikidata.org/entity/Q4518364', 'http://www.wikidata.org/entity/Q4518483', 'http://www.wikidata.org/entity/Q4518560', 'http://www.wikidata.org/entity/Q4518632', 'http://www.wikidata.org/entity/Q4518662', 'http://www.wikidata.org/entity/Q4518698', 'http://www.wikidata.org/entity/Q4518728', 'http://www.wikidata.org/entity/Q4518764', 'http://www.wikidata.org/entity/Q4518813', 'http://www.wikidata.org/entity/Q4518835', 'http://www.wikidata.org/entity/Q4518882', 'http://www.wikidata.org/entity/Q4518914', 'http://www.wikidata.org/entity/Q4518946', 'http://www.wikidata.org/entity/Q4519060', 'http://www.wikidata.org/entity/Q4519100', 'http://www.wikidata.org/entity/Q4519127', 'http://www.wikidata.org/entity/Q4519202', 'http://www.wikidata.org/entity/Q4519334', 'http://www.wikidata.org/entity/Q4519416', 'http://www.wikidata.org/entity/Q4519472', 'http://www.wikidata.org/entity/Q4520401', 'http://www.wikidata.org/entity/Q4520501', 'http://www.wikidata.org/entity/Q4520623', 'http://www.wikidata.org/entity/Q4520676', 'http://www.wikidata.org/entity/Q4520740', 'http://www.wikidata.org/entity/Q473472', 'http://www.wikidata.org/entity/Q474560', 'http://www.wikidata.org/entity/Q48752569', 'http://www.wikidata.org/entity/Q48752621', 'http://www.wikidata.org/entity/Q490610', 'http://www.wikidata.org/entity/Q49333374', 'http://www.wikidata.org/entity/Q494914', 'http://www.wikidata.org/entity/Q49493', 'http://www.wikidata.org/entity/Q49500', 'http://www.wikidata.org/entity/Q49507', 'http://www.wikidata.org/entity/Q49511', 'http://www.wikidata.org/entity/Q49513', 'http://www.wikidata.org/entity/Q49631357', 'http://www.wikidata.org/entity/Q49631388', 'http://www.wikidata.org/entity/Q49631402', 'http://www.wikidata.org/entity/Q49631408', 'http://www.wikidata.org/entity/Q49631415', 'http://www.wikidata.org/entity/Q49631418', 'http://www.wikidata.org/entity/Q49631448', 'http://www.wikidata.org/entity/Q49631449', 'http://www.wikidata.org/entity/Q49631468', 'http://www.wikidata.org/entity/Q49631471', 'http://www.wikidata.org/entity/Q49631484', 'http://www.wikidata.org/entity/Q49631487', 'http://www.wikidata.org/entity/Q49631489', 'http://www.wikidata.org/entity/Q49631490', 'http://www.wikidata.org/entity/Q49631492', 'http://www.wikidata.org/entity/Q49631493', 'http://www.wikidata.org/entity/Q49631495', 'http://www.wikidata.org/entity/Q49631497', 'http://www.wikidata.org/entity/Q49631501', 'http://www.wikidata.org/entity/Q49631532', 'http://www.wikidata.org/entity/Q49631657', 'http://www.wikidata.org/entity/Q49631707', 'http://www.wikidata.org/entity/Q49631712', 'http://www.wikidata.org/entity/Q49631766', 'http://www.wikidata.org/entity/Q49631801', 'http://www.wikidata.org/entity/Q49631841', 'http://www.wikidata.org/entity/Q49631849', 'http://www.wikidata.org/entity/Q49631851', 'http://www.wikidata.org/entity/Q49631852', 'http://www.wikidata.org/entity/Q49631855', 'http://www.wikidata.org/entity/Q49631874', 'http://www.wikidata.org/entity/Q49631881', 'http://www.wikidata.org/entity/Q49631883', </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -663,7 +663,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Aleksandr_Pletnev', 'http://dbpedia.org/resource/Aleksandr_Samsonov', 'http://dbpedia.org/resource/Aleksey_Matveyev', 'http://dbpedia.org/resource/Alexandra_Patskevich', 'http://dbpedia.org/resource/Alexey_Zinovyev', 'http://dbpedia.org/resource/Alla_Shishkina', 'http://dbpedia.org/resource/Anastasia_Chaun', 'http://dbpedia.org/resource/Anastasia_Davydova', 'http://dbpedia.org/resource/Anastasia_Gloushkov', 'http://dbpedia.org/resource/Anastasiya_Yermakova', 'http://dbpedia.org/resource/Andrey_Dunayev', 'http://dbpedia.org/resource/Anisya_Olkhova', 'http://dbpedia.org/resource/Anton_Chupkov', 'http://dbpedia.org/resource/Artem_Lobuzov', 'http://dbpedia.org/resource/Daniela_Inácio', 'http://dbpedia.org/resource/Daniil_Pasynkov', 'http://dbpedia.org/resource/Danil_Haustov', 'http://dbpedia.org/resource/Daria_Vaskina', 'http://dbpedia.org/resource/Elena_Prokofyeva', 'http://dbpedia.org/resource/Elena_Sokolova_(swimmer)', 'http://dbpedia.org/resource/Elvira_Khasyanova', 'http://dbpedia.org/resource/Galina_Sosnova', 'http://dbpedia.org/resource/Gelena_Topilina', 'http://dbpedia.org/resource/Irina_Pozdnyakova', 'http://dbpedia.org/resource/Kliment_Kolesnikov', 'http://dbpedia.org/resource/Lyubov_Kobzova', 'http://dbpedia.org/resource/Maria_Gromova_(swimmer)', 'http://dbpedia.org/resource/Maria_Shurochkina', 'http://dbpedia.org/resource/Maria_Ugolkova', 'http://dbpedia.org/resource/Marina_Chepurkova', 'http://dbpedia.org/resource/Marina_Klyuchnikova', 'http://dbpedia.org/resource/Mariya_Chernyayeva', 'http://dbpedia.org/resource/Mariya_Gromova', 'http://dbpedia.org/resource/Mikhail_Dovgalyuk', 'http://dbpedia.org/resource/Mikhail_Polischuk', 'http://dbpedia.org/resource/Natalya_Mikhaylova', 'http://dbpedia.org/resource/Nika_Godun', 'http://dbpedia.org/resource/Nikolai_Pankin', 'http://dbpedia.org/resource/Nikolay_Suhorukov', 'http://dbpedia.org/resource/Oleg_Fotin', 'http://dbpedia.org/resource/Olesya_Vladykina', 'http://dbpedia.org/resource/Olga_Sedakova_(synchronised_swimmer)', 'http://dbpedia.org/resource/Rozaliya_Nasretdinova', 'http://dbpedia.org/resource/Ruslan_Gaziev', 'http://dbpedia.org/resource/Semyon_Belits-Geiman', 'http://dbpedia.org/resource/Sergey_Gusev_(swimmer)', 'http://dbpedia.org/resource/Sergey_Lavrenov', 'http://dbpedia.org/resource/Svetlana_Chimrova', 'http://dbpedia.org/resource/Svetlana_Romashina', 'http://dbpedia.org/resource/Tamara_Sosnova', 'http://dbpedia.org/resource/Tatyana_Titova_(synchronised_swimmer)', 'http://dbpedia.org/resource/Valentin_Kuzmin', 'http://dbpedia.org/resource/Valentina_Poznyak', 'http://dbpedia.org/resource/Valentina_Tutayeva', 'http://dbpedia.org/resource/Viktor_Drobinsky', 'http://dbpedia.org/resource/Viktor_Mazanov', 'http://dbpedia.org/resource/Vladimir_Kravchenko', 'http://dbpedia.org/resource/Vladimir_Mikheyev', 'http://dbpedia.org/resource/Vladislav_Grinev', 'http://dbpedia.org/resource/Yekaterina_Vinogradova', 'http://dbpedia.org/resource/Yelena_Makarova', 'http://dbpedia.org/resource/Yevgeny_Korotyshkin', 'http://dbpedia.org/resource/Yevhen_Mykhailov']</t>
+          <t>['http://www.wikidata.org/entity/Q1031959', 'http://www.wikidata.org/entity/Q107353823', 'http://www.wikidata.org/entity/Q107634702', 'http://www.wikidata.org/entity/Q107638361', 'http://www.wikidata.org/entity/Q108305735', 'http://www.wikidata.org/entity/Q10860087', 'http://www.wikidata.org/entity/Q108658638', 'http://www.wikidata.org/entity/Q11750372', 'http://www.wikidata.org/entity/Q124302084', 'http://www.wikidata.org/entity/Q124313747', 'http://www.wikidata.org/entity/Q1439850', 'http://www.wikidata.org/entity/Q14504132', 'http://www.wikidata.org/entity/Q14560946', 'http://www.wikidata.org/entity/Q16054123', 'http://www.wikidata.org/entity/Q16221402', 'http://www.wikidata.org/entity/Q17154793', 'http://www.wikidata.org/entity/Q17523891', 'http://www.wikidata.org/entity/Q17644417', 'http://www.wikidata.org/entity/Q18021520', 'http://www.wikidata.org/entity/Q18639533', 'http://www.wikidata.org/entity/Q19578089', 'http://www.wikidata.org/entity/Q19867395', 'http://www.wikidata.org/entity/Q19915730', 'http://www.wikidata.org/entity/Q20862334', 'http://www.wikidata.org/entity/Q21094770', 'http://www.wikidata.org/entity/Q2113545', 'http://www.wikidata.org/entity/Q21622402', 'http://www.wikidata.org/entity/Q21623147', 'http://www.wikidata.org/entity/Q2356473', 'http://www.wikidata.org/entity/Q2372089', 'http://www.wikidata.org/entity/Q2391239', 'http://www.wikidata.org/entity/Q24048969', 'http://www.wikidata.org/entity/Q242776', 'http://www.wikidata.org/entity/Q24955683', 'http://www.wikidata.org/entity/Q2509125', 'http://www.wikidata.org/entity/Q2567381', 'http://www.wikidata.org/entity/Q26229689', 'http://www.wikidata.org/entity/Q26236434', 'http://www.wikidata.org/entity/Q26250653', 'http://www.wikidata.org/entity/Q2668457', 'http://www.wikidata.org/entity/Q27063571', 'http://www.wikidata.org/entity/Q2734147', 'http://www.wikidata.org/entity/Q27538037', 'http://www.wikidata.org/entity/Q2754815', 'http://www.wikidata.org/entity/Q27805393', 'http://www.wikidata.org/entity/Q27995584', 'http://www.wikidata.org/entity/Q2901829', 'http://www.wikidata.org/entity/Q29021564', 'http://www.wikidata.org/entity/Q299747', 'http://www.wikidata.org/entity/Q3049594', 'http://www.wikidata.org/entity/Q33259050', 'http://www.wikidata.org/entity/Q3801963', 'http://www.wikidata.org/entity/Q3870583', 'http://www.wikidata.org/entity/Q4015878', 'http://www.wikidata.org/entity/Q4113367', 'http://www.wikidata.org/entity/Q4244582', 'http://www.wikidata.org/entity/Q460043', 'http://www.wikidata.org/entity/Q4715115', 'http://www.wikidata.org/entity/Q4715355', 'http://www.wikidata.org/entity/Q4715366', 'http://www.wikidata.org/entity/Q4715396', 'http://www.wikidata.org/entity/Q4715965', 'http://www.wikidata.org/entity/Q4721350', 'http://www.wikidata.org/entity/Q4730244', 'http://www.wikidata.org/entity/Q4751854', 'http://www.wikidata.org/entity/Q4759167', 'http://www.wikidata.org/entity/Q4759191', 'http://www.wikidata.org/entity/Q4767053', 'http://www.wikidata.org/entity/Q4797426', 'http://www.wikidata.org/entity/Q50221013', 'http://www.wikidata.org/entity/Q508250', 'http://www.wikidata.org/entity/Q5219224', 'http://www.wikidata.org/entity/Q5219549', 'http://www.wikidata.org/entity/Q5348229', 'http://www.wikidata.org/entity/Q556111', 'http://www.wikidata.org/entity/Q55972891', 'http://www.wikidata.org/entity/Q56043337', 'http://www.wikidata.org/entity/Q56073370', 'http://www.wikidata.org/entity/Q57114357', 'http://www.wikidata.org/entity/Q6069817', 'http://www.wikidata.org/entity/Q6069906', 'http://www.wikidata.org/entity/Q65589494', 'http://www.wikidata.org/entity/Q66317885', 'http://www.wikidata.org/entity/Q6761242', 'http://www.wikidata.org/entity/Q6763800', 'http://www.wikidata.org/entity/Q6763906', 'http://www.wikidata.org/entity/Q6968363', 'http://www.wikidata.org/entity/Q6968364', 'http://www.wikidata.org/entity/Q7035893', 'http://www.wikidata.org/entity/Q7038078', 'http://www.wikidata.org/entity/Q7086047', 'http://www.wikidata.org/entity/Q7086663', 'http://www.wikidata.org/entity/Q7086674', 'http://www.wikidata.org/entity/Q7263180', 'http://www.wikidata.org/entity/Q7454107', 'http://www.wikidata.org/entity/Q7680835', 'http://www.wikidata.org/entity/Q7910781', 'http://www.wikidata.org/entity/Q7910881', 'http://www.wikidata.org/entity/Q7910896', 'http://www.wikidata.org/entity/Q7929719', 'http://www.wikidata.org/entity/Q7929757', 'http://www.wikidata.org/entity/Q7929832', 'http://www.wikidata.org/entity/Q7938430', 'http://www.wikidata.org/entity/Q7938643', 'http://www.wikidata.org/entity/Q8051367', 'http://www.wikidata.org/entity/Q8053274', 'http://www.wikidata.org/entity/Q87832143', 'http://www.wikidata.org/entity/Q9146400', 'http://www.wikidata.org/entity/Q9323051']</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Chagan_(closed_city)']</t>
+          <t>['http://www.wikidata.org/entity/Q2590944']</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -703,7 +703,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Washington,_D.C.']</t>
+          <t>['http://www.wikidata.org/entity/Q4799733']</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -723,7 +723,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['1.9812']</t>
+          <t>['198']</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -743,7 +743,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['40462701']</t>
+          <t>['38274618']</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -763,7 +763,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Brigitte_Mira', 'http://dbpedia.org/resource/David_Epley_(entertainer)', 'http://dbpedia.org/resource/Friederike_Caroline_Neuber', 'http://dbpedia.org/resource/Gordon_Hopkirk', 'http://dbpedia.org/resource/Shimon_Schwarzschild', 'http://dbpedia.org/resource/Walter_Bluhm', 'http://dbpedia.org/resource/Walther_Süssenguth']</t>
+          <t>['http://www.wikidata.org/entity/Q1000089', 'http://www.wikidata.org/entity/Q100028', 'http://www.wikidata.org/entity/Q1000309', 'http://www.wikidata.org/entity/Q1000631', 'http://www.wikidata.org/entity/Q1001088', 'http://www.wikidata.org/entity/Q1001175', 'http://www.wikidata.org/entity/Q100122', 'http://www.wikidata.org/entity/Q1001257', 'http://www.wikidata.org/entity/Q1001304', 'http://www.wikidata.org/entity/Q100149495', 'http://www.wikidata.org/entity/Q100151770', 'http://www.wikidata.org/entity/Q100152085', 'http://www.wikidata.org/entity/Q100175', 'http://www.wikidata.org/entity/Q100220', 'http://www.wikidata.org/entity/Q100224', 'http://www.wikidata.org/entity/Q100227', 'http://www.wikidata.org/entity/Q100248945', 'http://www.wikidata.org/entity/Q100251', 'http://www.wikidata.org/entity/Q100264', 'http://www.wikidata.org/entity/Q100269', 'http://www.wikidata.org/entity/Q100277164', 'http://www.wikidata.org/entity/Q100293', 'http://www.wikidata.org/entity/Q100299', 'http://www.wikidata.org/entity/Q100318', 'http://www.wikidata.org/entity/Q100322', 'http://www.wikidata.org/entity/Q100333', 'http://www.wikidata.org/entity/Q100337', 'http://www.wikidata.org/entity/Q100338', 'http://www.wikidata.org/entity/Q100347140', 'http://www.wikidata.org/entity/Q100356', 'http://www.wikidata.org/entity/Q100361853', 'http://www.wikidata.org/entity/Q100395', 'http://www.wikidata.org/entity/Q100414', 'http://www.wikidata.org/entity/Q100415', 'http://www.wikidata.org/entity/Q100417', 'http://www.wikidata.org/entity/Q100422', 'http://www.wikidata.org/entity/Q100451', 'http://www.wikidata.org/entity/Q1004594', 'http://www.wikidata.org/entity/Q1004736', 'http://www.wikidata.org/entity/Q100491593', 'http://www.wikidata.org/entity/Q100506', 'http://www.wikidata.org/entity/Q100535', 'http://www.wikidata.org/entity/Q100545', 'http://www.wikidata.org/entity/Q100562', 'http://www.wikidata.org/entity/Q100571', 'http://www.wikidata.org/entity/Q100572', 'http://www.wikidata.org/entity/Q100602', 'http://www.wikidata.org/entity/Q100658', 'http://www.wikidata.org/entity/Q100673', 'http://www.wikidata.org/entity/Q100675530', 'http://www.wikidata.org/entity/Q100708', 'http://www.wikidata.org/entity/Q100781', 'http://www.wikidata.org/entity/Q100784561', 'http://www.wikidata.org/entity/Q100841', 'http://www.wikidata.org/entity/Q100844', 'http://www.wikidata.org/entity/Q100893', 'http://www.wikidata.org/entity/Q100903', 'http://www.wikidata.org/entity/Q100954855', 'http://www.wikidata.org/entity/Q100981152', 'http://www.wikidata.org/entity/Q100989', 'http://www.wikidata.org/entity/Q100989640', 'http://www.wikidata.org/entity/Q101019', 'http://www.wikidata.org/entity/Q101059', 'http://www.wikidata.org/entity/Q101079', 'http://www.wikidata.org/entity/Q101094', 'http://www.wikidata.org/entity/Q101104', 'http://www.wikidata.org/entity/Q101112792', 'http://www.wikidata.org/entity/Q101120', 'http://www.wikidata.org/entity/Q101149', 'http://www.wikidata.org/entity/Q101171', 'http://www.wikidata.org/entity/Q101177', 'http://www.wikidata.org/entity/Q101189', 'http://www.wikidata.org/entity/Q101200085', 'http://www.wikidata.org/entity/Q101203', 'http://www.wikidata.org/entity/Q101209739', 'http://www.wikidata.org/entity/Q101210090', 'http://www.wikidata.org/entity/Q101218', 'http://www.wikidata.org/entity/Q101223', 'http://www.wikidata.org/entity/Q101228', 'http://www.wikidata.org/entity/Q101231', 'http://www.wikidata.org/entity/Q101238', 'http://www.wikidata.org/entity/Q101243', 'http://www.wikidata.org/entity/Q101243079', 'http://www.wikidata.org/entity/Q101252599', 'http://www.wikidata.org/entity/Q101267', 'http://www.wikidata.org/entity/Q101347', 'http://www.wikidata.org/entity/Q101380', 'http://www.wikidata.org/entity/Q101381', 'http://www.wikidata.org/entity/Q101392', 'http://www.wikidata.org/entity/Q101434', 'http://www.wikidata.org/entity/Q10147562', 'http://www.wikidata.org/entity/Q101476', 'http://www.wikidata.org/entity/Q101507816', 'http://www.wikidata.org/entity/Q101524', 'http://www.wikidata.org/entity/Q101554634', 'http://www.wikidata.org/entity/Q101598', 'http://www.wikidata.org/entity/Q101615', 'http://www.wikidata.org/entity/Q101618', 'http://www.wikidata.org/entity/Q1016445', 'http://www.wikidata.org/entity/Q1016492', 'http://www.wikidata.org/entity/Q101705', 'http://www.wikidata.org/entity/Q101719', 'http://www.wikidata.org/entity/Q101720', 'http://www.wikidata.org/entity/Q101734', 'http://www.wikidata.org/entity/Q101768', 'http://www.wikidata.org/entity/Q101775', 'http://www.wikidata.org/entity/Q101782', 'http://www.wikidata.org/entity/Q101840', 'http://www.wikidata.org/entity/Q101855', 'http://www.wikidata.org/entity/Q101888', 'http://www.wikidata.org/entity/Q101897', 'http://www.wikidata.org/entity/Q1019017', 'http://www.wikidata.org/entity/Q1019427', 'http://www.wikidata.org/entity/Q101969', 'http://www.wikidata.org/entity/Q101973', 'http://www.wikidata.org/entity/Q102047618', 'http://www.wikidata.org/entity/Q102050', 'http://www.wikidata.org/entity/Q1020684', 'http://www.wikidata.org/entity/Q1020694', 'http://www.wikidata.org/entity/Q102109528', 'http://www.wikidata.org/entity/Q102115662', 'http://www.wikidata.org/entity/Q102127', 'http://www.wikidata.org/entity/Q102140621', 'http://www.wikidata.org/entity/Q102260', 'http://www.wikidata.org/entity/Q102280', 'http://www.wikidata.org/entity/Q102287149', 'http://www.wikidata.org/entity/Q102288', 'http://www.wikidata.org/entity/Q102294', 'http://www.wikidata.org/entity/Q102302', 'http://www.wikidata.org/entity/Q102332', 'http://www.wikidata.org/entity/Q102337', 'http://www.wikidata.org/entity/Q102352', 'http://www.wikidata.org/entity/Q102354', 'http://www.wikidata.org/entity/Q102356959', 'http://www.wikidata.org/entity/Q102363', 'http://www.wikidata.org/entity/Q102374', 'http://www.wikidata.org/entity/Q102450', 'http://www.wikidata.org/entity/Q102504', 'http://www.wikidata.org/entity/Q102530', 'http://www.wikidata.org/entity/Q102572', 'http://www.wikidata.org/entity/Q102574', 'http://www.wikidata.org/entity/Q102606', 'http://www.wikidata.org/entity/Q102611', 'http://www.wikidata.org/entity/Q102627', 'http://www.wikidata.org/entity/Q102630', 'http://www.wikidata.org/entity/Q102633', 'http://www.wikidata.org/entity/Q102635', 'http://www.wikidata.org/entity/Q1026499', 'http://www.wikidata.org/entity/Q102650', 'http://www.wikidata.org/entity/Q102651', 'http://www.wikidata.org/entity/Q102672', 'http://www.wikidata.org/entity/Q102678', 'http://www.wikidata.org/entity/Q102693', 'http://www.wikidata.org/entity/Q102712', 'http://www.wikidata.org/entity/Q102743', 'http://www.wikidata.org/entity/Q102783', 'http://www.wikidata.org/entity/Q102796', 'http://www.wikidata.org/entity/Q102802', 'http://www.wikidata.org/entity/Q1028813', 'http://www.wikidata.org/entity/Q1028955', 'http://www.wikidata.org/entity/Q102923', 'http://www.wikidata.org/entity/Q102929', 'http://www.wikidata.org/entity/Q102936', 'http://www.wikidata.org/entity/Q102937', 'http://www.wikidata.org/entity/Q102947', 'http://www.wikidata.org/entity/Q102961', 'http://www.wikidata.org/entity/Q102976', 'http://www.wikidata.org/entity/Q102990', 'http://www.wikidata.org/entity/Q1029964', 'http://www.wikidata.org/entity/Q102998', 'http://www.wikidata.org/entity/Q103000', 'http://www.wikidata.org/entity/Q103002', 'http://www.wikidata.org/entity/Q1030539', 'http://www.wikidata.org/entity/Q103158', 'http://www.wikidata.org/entity/Q1031845', 'http://www.wikidata.org/entity/Q103197', 'http://www.wikidata.org/entity/Q103223179', 'http://www.wikidata.org/entity/Q103256', 'http://www.wikidata.org/entity/Q103271', 'http://www.wikidata.org/entity/Q103361', 'http://www.wikidata.org/entity/Q103362', 'http://www.wikidata.org/entity/Q103391', 'http://www.wikidata.org/entity/Q103394', 'http://www.wikidata.org/entity/Q103415', 'http://www.wikidata.org/entity/Q103416', 'http://www.wikidata.org/entity/Q103430', 'http://www.wikidata.org/entity/Q103433', 'http://www.wikidata.org/entity/Q103476', 'http://www.wikidata.org/entity/Q103544', 'http://www.wikidata.org/entity/Q103611', 'http://www.wikidata.org/entity/Q1036168', 'http://www.wikidata.org/entity/Q103623', 'http://www.wikidata.org/entity/Q103637', 'http://www.wikidata.org/entity/Q103643', 'http://www.wikidata.org/entity/Q103656', 'http://www.wikidata.org/entity/Q103696', 'http://www.wikidata.org/entity/Q103702', 'http://www.wikidata.org/entity/Q103718', 'http://www.wikidata.org/entity/Q103727', 'http://www.wikidata.org/entity/Q103746', 'http://www.wikidata.org/entity/Q103755600', 'http://www.wikidata.org/entity/Q103760', 'http://www.wikidata.org/entity/Q103775022', 'http://www.wikidata.org/entity/Q103805', 'http://www.wikidata.org/entity/Q103827144', 'http://www.wikidata.org/entity/Q103844323', 'http://www.wikidata.org/entity/Q103845', 'http://www.wikidata.org/entity/Q103851', 'http://www.wikidata.org/entity/Q103863', 'http://www.wikidata.org/entity/Q103868', 'http://www.wikidata.org/entity/Q1038953', 'http://www.wikidata.org/entity/Q103920', 'http://www.wikidata.org/entity/Q1039299', 'http://www.wikidata.org/entity/Q103948', 'http://www.wikidata.org/entity/Q103961', 'http://www.wikidata.org/entity/Q103980542', 'http://www.wikidata.org/entity/Q103986', 'http://www.wikidata.org/entity/Q1039868', 'http://www.wikidata.org/entity/Q104006', 'http://www.wikidata.org/entity/Q104006972', 'http://www.wikidata.org/entity/Q104008', 'http://www.wikidata.org/entity/Q1040432', 'http://www.wikidata.org/entity/Q104084', 'http://www.wikidata.org/entity/Q104094', 'http://www.wikidata.org/entity/Q104120371', 'http://www.wikidata.org/entity/Q104121', 'http://www.wikidata.org/entity/Q104141', 'http://www.wikidata.org/entity/Q1041500', 'http://www.wikidata.org/entity/Q1041514', 'http://www.wikidata.org/entity/Q104153430', 'http://www.wikidata.org/entity/Q1041535', 'http://www.wikidata.org/entity/Q104154734', 'http://www.wikidata.org/entity/Q104155641', 'http://www.wikidata.org/entity/Q104155750', 'http://www.wikidata.org/entity/Q1041559', 'http://www.wikidata.org/entity/Q104156172', 'http://www.wikidata.org/entity/Q104156463', 'http://www.wikidata.org/entity/Q104157044', 'http://www.wikidata.org/entity/Q1041582', 'http://www.wikidata.org/entity/Q104160134', 'http://www.wikidata.org/entity/Q104161808', 'http://www.wikidata.org/entity/Q104162235', 'http://www.wikidata.org/entity/Q104172860', 'http://www.wikidata.org/entity/Q104176819', 'http://www.wikidata.org/entity/Q104178588', 'http://www.wikidata.org/entity/Q104180930', 'http://www.wikidata.org/entity/Q1041870', 'http://www.wikidata.org/entity/Q104196', 'http://www.wikidata.org/entity/Q104198093', 'http://www.wikidata.org/entity/Q104198269', 'http://www.wikidata.org/entity/Q104208', 'http://www.wikidata.org/entity/Q104211573', 'http://www.wikidata.org/entity/Q104212560', 'http://www.wikidata.org/entity/Q104213', 'http://www.wikidata.org/entity/Q104218050', 'http://www.wikidata.org/entity/Q1043589', 'http://www.wikidata.org/entity/Q1043681', 'http://www.wikidata.org/entity/Q1043709', 'http://www.wikidata.org/entity/Q104371', 'http://www.wikidata.org/entity/Q104383260', 'http://www.wikidata.org/entity/Q104383283', 'http://www.wikidata.org/entity/Q104385', 'http://www.wikidata.org/entity/Q104418200', 'http://www.wikidata.org/entity/Q104427', 'http://www.wikidata.org/entity/Q1044342', 'http://www.wikidata.org/entity/Q1044346', 'http://www.wikidata.org/entity/Q1044348', 'http://www.wikidata.org/entity/Q104437885', 'http://www.wikidata.org/entity/Q104439569', 'http://www.wikidata.org/entity/Q1044477', 'http://www.wikidata.org/entity/Q1044494', 'http://www.wikidata.org/entity/Q1044514', 'http://www.wikidata.org/entity/Q1044559', 'http://www.wikidata.org/entity/Q104468053', 'http://www.wikidata.org/entity/Q104476', 'http://www.wikidata.org/entity/Q104520659', 'http://www.wikidata.org/entity/Q104521370', 'http://www.wikidata.org/entity/Q104522001', 'http://www.wikidata.org/entity/Q104523', 'http://www.wikidata.org/entity/Q104544', 'http://www.wikidata.org/entity/Q1045477', 'http://www.wikidata.org/entity/Q104568', 'http://www.wikidata.org/entity/Q1045680', 'http://www.wikidata.org/entity/Q1045683', 'http://www.wikidata.org/entity/Q1045722', 'http://www.wikidata.org/entity/Q104576', 'http://www.wikidata.org/entity/Q104578', 'http://www.wikidata.org/entity/Q104579681', 'http://www.wikidata.org/entity/Q104587770', 'http://www.wikidata.org/entity/Q104590907', 'http://www.wikidata.org/entity/Q104599978', 'http://www.wikidata.org/entity/Q104601', 'http://www.wikidata.org/entity/Q104604', 'http://www.wikidata.org/entity/Q104604553', 'http://www.wikidata.org/entity/Q104613862', 'http://www.wikidata.org/entity/Q104615564', 'http://www.wikidata.org/entity/Q104626181', 'http://www.wikidata.org/entity/Q104631795', 'http://www.wikidata.org/entity/Q104659505', 'http://www.wikidata.org/entity/Q104663127', 'http://www.wikidata.org/entity/Q104665', 'http://www.wikidata.org/entity/Q104665277', 'http://www.wikidata.org/entity/Q104667', 'http://www.wikidata.org/entity/Q104670', 'http://www.wikidata.org/entity/Q104696788', 'http://www.wikidata.org/entity/Q104700634', 'http://www.wikidata.org/entity/Q104702', 'http://www.wikidata.org/entity/Q104730', 'http://www.wikidata.org/entity/Q104737', 'http://www.wikidata.org/entity/Q104741', 'http://www.wikidata.org/entity/Q104760625', 'http://www.wikidata.org/entity/Q104762922', 'http://www.wikidata.org/entity/Q104764834', 'http://www.wikidata.org/entity/Q104764873', 'http://www.wikidata.org/entity/Q104764874', 'http://www.wikidata.org/entity/Q104764949', 'http://www.wikidata.org/entity/Q104764974', 'http://www.wikidata.org/entity/Q104765018', 'http://www.wikidata.org/entity/Q104766', 'http://www.wikidata.org/entity/Q104782393', 'http://www.wikidata.org/entity/Q104787', 'http://www.wikidata.org/entity/Q104815', 'http://www.wikidata.org/entity/Q104832', 'http://www.wikidata.org/entity/Q104845706', 'http://www.wikidata.org/entity/Q104866', 'http://www.wikidata.org/entity/Q104869469', 'http://www.wikidata.org/entity/Q104876', 'http://www.wikidata.org/entity/Q104878044', 'http://www.wikidata.org/entity/Q104879', 'http://www.wikidata.org/entity/Q104884382', 'http://www.wikidata.org/entity/Q104902', 'http://www.wikidata.org/entity/Q104923', 'http://www.wikidata.org/entity/Q104925', 'http://www.wikidata.org/entity/Q104925281', 'http://www.wikidata.org/entity/Q104929865', 'http://www.wikidata.org/entity/Q104977', 'http://www.wikidata.org/entity/Q105047008', 'http://www.wikidata.org/entity/Q105047482', 'http://www.wikidata.org/entity/Q105052', 'http://www.wikidata.org/entity/Q105058', 'http://www.wikidata.org/entity/Q105064646', 'http://www.wikidata.org/entity/Q105065', 'http://www.wikidata.org/entity/Q105070220', 'http://www.wikidata.org/entity/Q105082', 'http://www.wikidata.org/entity/Q105102', 'http://www.wikidata.org/entity/Q105104', 'http://www.wikidata.org/entity/Q1051091', 'http://www.wikidata.org/entity/Q1051126', 'http://www.wikidata.org/entity/Q105114', 'http://www.wikidata.org/entity/Q105116505', 'http://www.wikidata.org/entity/Q105118747', 'http://www.wikidata.org/entity/Q105129', 'http://www.wikidata.org/entity/Q105133286', 'http://www.wikidata.org/entity/Q105134406', 'http://www.wikidata.org/entity/Q105136295', 'http://www.wikidata.org/entity/Q105138', 'http://www.wikidata.org/entity/Q105147', 'http://www.wikidata.org/entity/Q105149', 'http://www.wikidata.org/entity/Q105166', 'http://www.wikidata.org/entity/Q105193', 'http://www.wikidata.org/entity/Q1051939', 'http://www.wikidata.org/entity/Q105199568', 'http://www.wikidata.org/entity/Q1052372', 'http://www.wikidata.org/entity/Q105283', 'http://www.wikidata.org/entity/Q105297', 'http://www.wikidata.org/entity/Q105309404', 'http://www.wikidata.org/entity/Q105336746', 'http://www.wikidata.org/entity/Q105338506', 'http://www.wikidata.org/entity/Q105373', 'http://www.wikidata.org/entity/Q105391976', 'http://www.wikidata.org/entity/Q105451432', 'http://www.wikidata.org/entity/Q105478', 'http://www.wikidata.org/entity/Q105491', 'http://www.wikidata.org/entity/Q105494121', 'http://www.wikidata.org/entity/Q105549643', 'http://www.wikidata.org/entity/Q105549794', 'http://www.wikidata.org/entity/Q105559', 'http://www.wikidata.org/entity/Q105585136', 'http://www.wikidata.org/entity/Q105607', 'http://www.wikidata.org/entity/Q105610', 'http://www.wikidata.org/entity/Q105613', 'http://www.wikidata.org/entity/Q105613248', 'http://www.wikidata.org/entity/Q105627147', 'http://www.wikidata.org/entity/Q105631', 'http://www.wikidata.org/entity/Q10563757', 'http://www.wikidata.org/entity/Q105642', 'http://www.wikidata.org/entity/Q105665', 'http://www.wikidata.org/entity/Q105671328', 'http://www.wikidata.org/entity/Q105675820', 'http://www.wikidata.org/entity/Q105679', 'http://www.wikidata.org/entity/Q105681', 'http://www.wikidata.org/entity/Q105691', 'http://www.wikidata.org/entity/Q105716', 'http://www.wikidata.org/entity/Q105716679', 'http://www.wikidata.org/entity/Q105724333', 'http://www.wikidata.org/entity/Q105737724', 'http://www.wikidata.org/entity/Q105754846', 'http://www.wikidata.org/entity/Q105755335', 'http://www.wikidata.org/entity/Q105767098', 'http://www.wikidata.org/entity/Q105770', 'http://www.wikidata.org/entity/Q105770599', 'http://www.wikidata.org/entity/Q105785', 'http://www.wikidata.org/entity/Q105832784', 'http://www.wikidata.org/entity/Q105848334', 'http://www.wikidata.org/entity/Q105901', 'http://www.wikidata.org/entity/Q105914', 'http://www.wikidata.org/entity/Q105915', 'http://www.wikidata.org/entity/Q105918', 'http://www.wikidata.org/entity/Q105925', 'http://www.wikidata.org/entity/Q105944757', 'http://www.wikidata.org/entity/Q105992322', 'http://www.wikidata.org/entity/Q105992955', 'http://www.wikidata.org/entity/Q106000338', 'http://www.wikidata.org/entity/Q106006759', 'http://www.wikidata.org/entity/Q106035', 'http://www.wikidata.org/entity/Q106041', 'http://www.wikidata.org/entity/Q106061', 'http://www.wikidata.org/entity/Q106098372', 'http://www.wikidata.org/entity/Q106126', 'http://www.wikidata.org/entity/Q106127', 'http://www.wikidata.org/entity/Q106135271', 'http://www.wikidata.org/entity/Q106159611', 'http://www.wikidata.org/entity/Q106177', 'http://www.wikidata.org/entity/Q106188490', 'http://www.wikidata.org/entity/Q106223560', 'http://www.wikidata.org/entity/Q106254', 'http://www.wikidata.org/entity/Q106260', 'http://www.wikidata.org/entity/Q106298187', 'http://www.wikidata.org/entity/Q106311564', 'http://www.wikidata.org/entity/Q106311574', 'http://www.wikidata.org/entity/Q106322507', 'http://www.wikidata.org/entity/Q106323314', 'http://www.wikidata.org/entity/Q106358178', 'http://www.wikidata.org/entity/Q106368', 'http://www.wikidata.org/entity/Q106373', 'http://www.wikidata.org/entity/Q106390', 'http://www.wikidata.org/entity/Q106393', 'http://www.wikidata.org/entity/Q106395745', 'http://www.wikidata.org/entity/Q106412', 'http://www.wikidata.org/entity/Q106423', 'http://www.wikidata.org/entity/Q106438', 'http://www.wikidata.org/entity/Q106455', 'http://www.wikidata.org/entity/Q106460', 'http://www.wikidata.org/entity/Q106461', 'http://www.wikidata.org/entity/Q106479', 'http://www.wikidata.org/entity/Q106493', 'http://www.wikidata.org/entity/Q106496', 'http://www.wikidata.org/entity/Q106512329', 'http://www.wikidata.org/entity/Q106518946', 'http://www.wikidata.org/entity/Q106519848', 'http://www.wikidata.org/entity/Q1065321', 'http://www.wikidata.org/entity/Q106548568', 'http://www.wikidata.org/entity/Q106553', 'http://www.wikidata.org/entity/Q106564535', 'http://www.wikidata.org/entity/Q106572', 'http://www.wikidata.org/entity/Q106578', 'http://www.wikidata.org/entity/Q106594046', 'http://www.wikidata.org/entity/Q106595246', 'http://www.wikidata.org/entity/Q106631203', 'http://www.wikidata.org/entity/Q106637474', 'http://www.wikidata.org/entity/Q106661', 'http://www.wikidata.org/entity/Q106664319', 'http://www.wikidata.org/entity/Q106675767', 'http://www.wikidata.org/entity/Q106689558', 'http://www.wikidata.org/entity/Q1067102', 'http://www.wikidata.org/entity/Q1067206', 'http://www.wikidata.org/entity/Q1067219', 'http://www.wikidata.org/entity/Q1067238', 'http://www.wikidata.org/entity/Q1067243', 'http://www.wikidata.org/entity/Q1067327', 'http://www.wikidata.org/entity/Q1067337', 'http://www.wikidata.org/entity/Q106744', 'http://www.wikidata.org/entity/Q1067500', 'http://www.wikidata.org/entity/Q1067523', 'http://www.wikidata.org/entity/Q106754', 'http://www.wikidata.org/entity/Q106768194', 'http://www.wikidata.org/entity/Q106799', 'http://www.wikidata.org/entity/Q106819841', 'http://www.wikidata.org/entity/Q106831105', 'http://www.wikidata.org/entity/Q106841995', 'http://www.wikidata.org/entity/Q106869', 'http://www.wikidata.org/entity/Q106878335', 'http://www.wikidata.org/entity/Q106890375', 'http://www.wikidata.org/entity/Q106936826', 'http://www.wikidata.org/entity/Q106939', 'http://www.wikidata.org/entity/Q107036249', 'http://www.wikidata.org/entity/Q107045040', 'http://www.wikidata.org/entity/Q107112297', 'http://www.wikidata.org/entity/Q1071648', 'http://www.wikidata.org/entity/Q107190753', 'http://www.wikidata.org/entity/Q107204799', 'http://www.wikidata.org/entity/Q107219', 'http://www.wikidata.org/entity/Q107274', 'http://www.wikidata.org/entity/Q107286074', 'http://www.wikidata.org/entity/Q107291', 'http://www.wikidata.org/entity/Q1073163', 'http://www.wikidata.org/entity/Q107345', 'http://www.wikidata.org/entity/Q107349965', 'http://www.wikidata.org/entity/Q107350', 'http://www.wikidata.org/entity/Q107362784', 'http://www.wikidata.org/entity/Q107364', 'http://www.wikidata.org/entity/Q107375', 'http://www.wikidata.org/entity/Q107379896', 'http://www.wikidata.org/entity/Q107410916', 'http://www.wikidata.org/entity/Q107438', 'http://www.wikidata.org/entity/Q107474234', 'http://www.wikidata.org/entity/Q107483', 'http://www.wikidata.org/entity/Q107500877', 'http://www.wikidata.org/entity/Q107514', 'http://www.wikidata.org/entity/Q107538718', 'http://www.wikidata.org/entity/Q107583', 'http://www.wikidata.org/entity/Q107599', 'http://www.wikidata.org/entity/Q107605', 'http://www.wikidata.org/entity/Q107609122', 'http://www.wikidata.org/entity/Q107628', 'http://www.wikidata.org/entity/Q107630', 'http://www.wikidata.org/entity/Q107646', 'http://www.wikidata.org/entity/Q107651', 'http://www.wikidata.org/entity/Q107679210', 'http://www.wikidata.org/entity/Q107683', 'http://www.wikidata.org/entity/Q107711622', 'http://www.wikidata.org/entity/Q107740134', 'http://www.wikidata.org/entity/Q107743', 'http://www.wikidata.org/entity/Q107753', 'http://www.wikidata.org/entity/Q107782', 'http://www.wikidata.org/entity/Q107788', 'http://www.wikidata.org/entity/Q107790473', 'http://www.wikidata.org/entity/Q1078028', 'http://www.wikidata.org/entity/Q107805', 'http://www.wikidata.org/entity/Q1078106', 'http://www.wikidata.org/entity/Q1078277', 'http://www.wikidata.org/entity/Q107849', 'http://www.wikidata.org/entity/Q107869', 'http://www.wikidata.org/entity/Q1078911', 'http://www.wikidata.org/entity/Q107924', 'http://www.wikidata.org/entity/Q1079558', 'http://www.wikidata.org/entity/Q107973784', 'http://www.wikidata.org/entity/Q107983', 'http://www.wikidata.org/entity/Q107987303', 'http://www.wikidata.org/entity/Q1080253', 'http://www.wikidata.org/entity/Q108029097', 'http://www.wikidata.org/entity/Q1080329', 'http://www.wikidata.org/entity/Q108035', 'http://www.wikidata.org/entity/Q1080540', 'http://www.wikidata.org/entity/Q108057', 'http://www.wikidata.org/entity/Q1080623', 'http://www.wikidata.org/entity/Q1080649', 'http://www.wikidata.org/entity/Q108070', 'http://www.wikidata.org/entity/Q1080716', 'http://www.wikidata.org/entity/Q1080732', 'http://www.wikidata.org/entity/Q1080816', 'http://www.wikidata.org/entity/Q1080819', 'http://www.wikidata.org/entity/Q108097', 'http://www.wikidata.org/entity/Q108104', 'http://www.wikidata.org/entity/Q1081113', 'http://www.wikidata.org/entity/Q108114', 'http://www.wikidata.org/entity/Q108127805', 'http://www.wikidata.org/entity/Q1081287', 'http://www.wikidata.org/entity/Q1081437', 'http://www.wikidata.org/entity/Q108153', 'http://www.wikidata.org/entity/Q1081561', 'http://www.wikidata.org/entity/Q1081599', 'http://www.wikidata.org/entity/Q1081610', 'http://www.wikidata.org/entity/Q108164', 'http://www.wikidata.org/entity/Q1081758', 'http://www.wikidata.org/entity/Q108176', 'http://www.wikidata.org/entity/Q108192', 'http://www.wikidata.org/entity/Q108196632', 'http://www.wikidata.org/entity/Q108201130', 'http://www.wikidata.org/entity/Q108202', 'http://www.wikidata.org/entity/Q1082198', 'http://www.wikidata.org/entity/Q1082288', 'http://www.wikidata.org/entity/Q108230', 'http://www.wikidata.org/entity/Q108233', 'http://www.wikidata.org/entity/Q108236', 'http://www.wikidata.org/entity/Q108255', 'http://www.wikidata.org/entity/Q1082640', 'http://www.wikidata.org/entity/Q1082673', 'http://www.wikidata.org/entity/Q1082749', 'http://www.wikidata.org/entity/Q1082754', 'http://www.wikidata.org/entity/Q1082761', 'http://www.wikidata.org/entity/Q1082798', 'http://www.wikidata.org/entity/Q108285546', 'http://www.wikidata.org/entity/Q108287276', 'http://www.wikidata.org/entity/Q1082880', 'http://www.wikidata.org/entity/Q108294049', 'http://www.wikidata.org/entity/Q108294329', 'http://www.wikidata.org/entity/Q108294870', 'http://www.wikidata.org/entity/Q108296218', 'http://www.wikidata.org/entity/Q108296809', 'http://www.wikidata.org/entity/Q108302', 'http://www.wikidata.org/entity/Q108306', 'http://www.wikidata.org/entity/Q1083077', 'http://www.wikidata.org/entity/Q1083086', 'http://www.wikidata.org/entity/Q1083099', 'http://www.wikidata.org/entity/Q108311', 'http://www.wikidata.org/entity/Q1083125', 'http://www.wikidata.org/entity/Q1083162', 'http://www.wikidata.org/entity/Q1083168', 'http://www.wikidata.org/entity/Q108319856', 'http://www.wikidata.org/entity/Q1083435', 'http://www.wikidata.org/entity/Q1083539', 'http://www.wikidata.org/entity/Q1083559', 'http://www.wikidata.org/entity/Q1083566', 'http://www.wikidata.org/entity/Q108358', 'http://www.wikidata.org/entity/Q1083583', 'http://www.wikidata.org/entity/Q1083622', 'http://www.wikidata.org/entity/Q1083624', 'http://www.wikidata.org/entity/Q1083644', 'http://www.wikidata.org/entity/Q108365', 'http://www.wikidata.org/entity/Q1083730', 'http://www.wikidata.org/entity/Q108378294', 'http://www.wikidata.org/entity/Q1083806', 'http://www.wikidata.org/entity/Q1083827', 'http://www.wikidata.org/entity/Q108393', 'http://www.wikidata.org/entity/Q108434', 'http://www.wikidata.org/entity/Q108436220', 'http://www.wikidata.org/entity/Q1084549', 'http://www.wikidata.org/entity/Q1084557', 'http://www.wikidata.org/entity/Q1084596', 'http://www.wikidata.org/entity/Q108469', 'http://www.wikidata.org/entity/Q1084818', 'http://www.wikidata.org/entity/Q1084956', 'http://www.wikidata.org/entity/Q1084985', 'http://www.wikidata.org/entity/Q1085038', 'http://www.wikidata.org/entity/Q108504516', 'http://www.wikidata.org/entity/Q1085172', 'http://www.wikidata.org/entity/Q1085185', 'http://www.wikidata.org/entity/Q1085225', 'http://www.wikidata.org/entity/Q1085257', 'http://www.wikidata.org/entity/Q108526446', 'http://www.wikidata.org/entity/Q1085341', 'http://www.wikidata.org/entity/Q1085356', 'http://www.wikidata.org/entity/Q1085410', 'http://www.wikidata.org/entity/Q108554', 'http://www.wikidata.org/entity/Q108595256', 'http://www.wikidata.org/entity/Q1086005', 'http://www.wikidata.org/entity/Q108617', 'http://www.wikidata.org/entity/Q108617374', 'http://www.wikidata.org/entity/Q108630', 'http://www.wikidata.org/entity/Q1086472', 'http://www.wikidata.org/entity/Q108660', 'http://www.wikidata.org/entity/Q108662429', 'http://www.wikidata.org/entity/Q108665648', 'http://www.wikidata.org/entity/Q1086799', 'http://www.wikidata.org/entity/Q108693451', 'http://www.wikidata.org/entity/Q108733443', 'http://www.wikidata.org/entity/Q108760927', 'http://www.wikidata.org/entity/Q108763', 'http://www.wikidata.org/entity/Q108773', 'http://www.wikidata.org/entity/Q108792', 'http://www.wikidata.org/entity/Q108803590', 'http://www.wikidata.org/entity/Q108805554', 'http://www.wikidata.org/entity/Q108811390', 'http://www.wikidata.org/entity/Q108828331', 'http://www.wikidata.org/entity/Q108839248', 'http://www.wikidata.org/entity/Q108845', 'http://www.wikidata.org/entity/Q108853', 'http://www.wikidata.org/entity/Q108861150', 'http://www.wikidata.org/entity/Q108861193', 'http://www.wikidata.org/entity/Q108862137', 'http://www.wikidata.org/entity/Q108867', 'http://www.wikidata.org/entity/Q108872482', 'http://www.wikidata.org/entity/Q108873', 'http://www.wikidata.org/entity/Q108873296', 'http://www.wikidata.org/entity/Q108884586', 'http://www.wikidata.org/entity/Q108914380', 'http://www.wikidata.org/entity/Q108920', 'http://www.wikidata.org/entity/Q108928', 'http://www.wikidata.org/entity/Q108936', 'http://www.wikidata.org/entity/Q108942', 'http://www.wikidata.org/entity/Q108964', 'http://www.wikidata.org/entity/Q108965', 'http://www.wikidata.org/entity/Q108972', 'http://www.wikidata.org/entity/Q108978', 'http://www.wikidata.org/entity/Q108984', 'http://www.wikidata.org/entity/Q108987', 'http://www.wikidata.org/entity/Q108989', 'http://www.wikidata.org/entity/Q109001', 'http://www.wikidata.org/entity/Q109028', 'http://www.wikidata.org/entity/Q109050', 'http://www.wikidata.org/entity/Q109104', 'http://www.wikidata.org/entity/Q109123', 'http://www.wikidata.org/entity/Q109124517', 'http://www.wikidata.org/entity/Q109127', 'http://www.wikidata.org/entity/Q109131', 'http://www.wikidata.org/entity/Q109141', 'http://www.wikidata.org/entity/Q109148', 'http://www.wikidata.org/entity/Q1091893', 'http://www.wikidata.org/entity/Q1091975', 'http://www.wikidata.org/entity/Q109200280', 'http://www.wikidata.org/entity/Q109211', 'http://www.wikidata.org/entity/Q109225', 'http://www.wikidata.org/entity/Q1092317', 'http://www.wikidata.org/entity/Q109252043', 'http://www.wikidata.org/entity/Q109253595', 'http://www.wikidata.org/entity/Q109271422', 'http://www.wikidata.org/entity/Q109286', 'http://www.wikidata.org/entity/Q109304', 'http://www.wikidata.org/entity/Q109306', 'http://www.wikidata.org/entity/Q109316729', 'http://www.wikidata.org/entity/Q109335', 'http://www.wikidata.org/entity/Q109355446', 'http://www.wikidata.org/entity/Q109356764', 'http://www.wikidata.org/entity/Q109357', 'http://www.wikidata.org/entity/Q109358', 'http://www.wikidata.org/entity/Q109366', 'http://www.wikidata.org/entity/Q109375705', 'http://www.wikidata.org/entity/Q109382417', 'http://www.wikidata.org/entity/Q109443', 'http://www.wikidata.org/entity/Q109444', 'http://www.wikidata.org/entity/Q1094818', 'http://www.wikidata.org/entity/Q109492', 'http://www.wikidata.org/entity/Q109505', 'http://www.wikidata.org/entity/Q109507264', 'http://www.wikidata.org/entity/Q109516', 'http://www.wikidata.org/entity/Q109526534', 'http://www.wikidata.org/entity/Q109534', 'http://www.wikidata.org/entity/Q109551709', 'http://www.wikidata.org/entity/Q109556', 'http://www.wikidata.org/entity/Q109566877', 'http://www.wikidata.org/entity/Q109581', 'http://www.wikidata.org/entity/Q109587133', 'http://www.wikidata.org/entity/Q109595', 'http://www.wikidata.org/entity/Q109603', 'http://www.wikidata.org/entity/Q109608', 'http://www.wikidata.org/entity/Q109619', 'http://www.wikidata.org/entity/Q109623', 'http://www.wikidata.org/entity/Q109628', 'http://www.wikidata.org/entity/Q109629', 'http://www.wikidata.org/entity/Q109648', 'http://www.wikidata.org/entity/Q109650102', 'http://www.wikidata.org/entity/Q109653134', 'http://www.wikidata.org/entity/Q109656492', 'http://www.wikidata.org/entity/Q109718', 'http://www.wikidata.org/entity/Q109720', 'http://www.wikidata.org/entity/Q1097341', 'http://www.wikidata.org/entity/Q1097365', 'http://www.wikidata.org/entity/Q1097434', 'http://www.wikidata.org/entity/Q1097461', 'http://www.wikidata.org/entity/Q1097463', 'http://www.wikidata.org/entity/Q1097471', 'http://www.wikidata.org/entity/Q1097480', 'http://www.wikidata.org/entity/Q1097526', 'http://www.wikidata.org/entity/Q1097527', 'http://www.wikidata.org/entity/Q1097592', 'http://www.wikidata.org/entity/Q1097610', 'http://www.wikidata.org/entity/Q1097620', 'http://www.wikidata.org/entity/Q1097640', 'http://www.wikidata.org/entity/Q1097686', 'http://www.wikidata.org/entity/Q1097701', 'http://www.wikidata.org/entity/Q1097712', 'http://www.wikidata.org/entity/Q1097756', 'http://www.wikidata.org/entity/Q1097774', 'http://www.wikidata.org/entity/Q109778', 'http://www.wikidata.org/entity/Q1097857', 'http://www.wikidata.org/entity/Q1097863', 'http://www.wikidata.org/entity/Q1097915', 'http://www.wikidata.org/entity/Q109796', 'http://www.wikidata.org/entity/Q1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Apocalypse_Now_Redux', 'http://dbpedia.org/resource/Battle_Beyond_the_Sun', "http://dbpedia.org/resource/Bram_Stoker's_Dracula_(1992_film)", 'http://dbpedia.org/resource/Captain_EO', 'http://dbpedia.org/resource/Dementia_13', 'http://dbpedia.org/resource/Distant_Vision', "http://dbpedia.org/resource/Finian's_Rainbow_(1968_film)", 'http://dbpedia.org/resource/Gardens_of_Stone', 'http://dbpedia.org/resource/Jack_(1996_film)', 'http://dbpedia.org/resource/Megalopolis_(film)', 'http://dbpedia.org/resource/New_York_Stories', 'http://dbpedia.org/resource/One_from_the_Heart', 'http://dbpedia.org/resource/Peggy_Sue_Got_Married', 'http://dbpedia.org/resource/Rumble_Fish', 'http://dbpedia.org/resource/Supernova_(2000_film)', 'http://dbpedia.org/resource/Tetro', 'http://dbpedia.org/resource/The_Bellboy_and_the_Playgirls', 'http://dbpedia.org/resource/The_Conversation', 'http://dbpedia.org/resource/The_Cotton_Club_(film)', 'http://dbpedia.org/resource/The_Godfather_(film_series)', 'http://dbpedia.org/resource/The_Godfather_Part_II', 'http://dbpedia.org/resource/The_Godfather_Part_III', 'http://dbpedia.org/resource/The_Godfather_Saga__The_Godfather_Trilogy:_1901–1980__1', 'http://dbpedia.org/resource/The_Godfather', 'http://dbpedia.org/resource/The_Outsiders_(film)', 'http://dbpedia.org/resource/The_Rain_People', 'http://dbpedia.org/resource/The_Rainmaker_(1997_film)', 'http://dbpedia.org/resource/The_Terror_(1963_film)', 'http://dbpedia.org/resource/Tonight_for_Sure', 'http://dbpedia.org/resource/Tucker:_The_Man_and_His_Dream', 'http://dbpedia.org/resource/Twixt_(film)', "http://dbpedia.org/resource/You're_a_Big_Boy_Now", 'http://dbpedia.org/resource/Youth_Without_Youth_(film)']</t>
+          <t>['http://www.wikidata.org/entity/Q1009788', 'http://www.wikidata.org/entity/Q1055332', 'http://www.wikidata.org/entity/Q107325', 'http://www.wikidata.org/entity/Q115175910', 'http://www.wikidata.org/entity/Q1185312', 'http://www.wikidata.org/entity/Q1196157', 'http://www.wikidata.org/entity/Q1198750', 'http://www.wikidata.org/entity/Q1199648', 'http://www.wikidata.org/entity/Q1307044', 'http://www.wikidata.org/entity/Q1421355', 'http://www.wikidata.org/entity/Q1471358', 'http://www.wikidata.org/entity/Q16207076', 'http://www.wikidata.org/entity/Q1749974', 'http://www.wikidata.org/entity/Q182692', 'http://www.wikidata.org/entity/Q184768', 'http://www.wikidata.org/entity/Q1968139', 'http://www.wikidata.org/entity/Q202326', 'http://www.wikidata.org/entity/Q2309964', 'http://www.wikidata.org/entity/Q2408534', 'http://www.wikidata.org/entity/Q2547631', 'http://www.wikidata.org/entity/Q28222734', 'http://www.wikidata.org/entity/Q3620669', 'http://www.wikidata.org/entity/Q3993102', 'http://www.wikidata.org/entity/Q4243278', 'http://www.wikidata.org/entity/Q44408', 'http://www.wikidata.org/entity/Q47703', 'http://www.wikidata.org/entity/Q553194', 'http://www.wikidata.org/entity/Q639387', 'http://www.wikidata.org/entity/Q7716410', 'http://www.wikidata.org/entity/Q785351', 'http://www.wikidata.org/entity/Q845102', 'http://www.wikidata.org/entity/Q858584', 'http://www.wikidata.org/entity/Q903257', 'http://www.wikidata.org/entity/Q977372']</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Czech_koruna']</t>
+          <t>['http://www.wikidata.org/entity/Q131016']</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -843,7 +843,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Adolf_Klein', 'http://dbpedia.org/resource/Eduard_von_Winterstein', 'http://dbpedia.org/resource/Eleonore_de_Ahna', 'http://dbpedia.org/resource/Emil_Justitz', 'http://dbpedia.org/resource/Erik_Jan_Hanussen', 'http://dbpedia.org/resource/Eva_Schmidt-Kolmer', 'http://dbpedia.org/resource/Gerda_Laski', 'http://dbpedia.org/resource/Guido_von_List', 'http://dbpedia.org/resource/Hans_Fidesser', 'http://dbpedia.org/resource/Heinrich_Belohlavek', 'http://dbpedia.org/resource/Hugo_Flink', 'http://dbpedia.org/resource/Josephine_Pagay', 'http://dbpedia.org/resource/Karl_Etlinger', 'http://dbpedia.org/resource/Karl_Hellmer', 'http://dbpedia.org/resource/La_Jana_(actress)', 'http://dbpedia.org/resource/Luise_Begas-Parmentier', 'http://dbpedia.org/resource/Mathilde_Danegger', 'http://dbpedia.org/resource/Michael_von_Newlinsky', 'http://dbpedia.org/resource/Richard_Thurnwald', 'http://dbpedia.org/resource/Robert_Bodanzky', 'http://dbpedia.org/resource/Steffie_Spira', 'http://dbpedia.org/resource/Therese_Grünbaum', 'http://dbpedia.org/resource/Tom_Seidmann-Freud']</t>
+          <t>['http://www.wikidata.org/entity/Q95199838', 'http://www.wikidata.org/entity/Q55451835', 'http://www.wikidata.org/entity/Q19966956', 'http://www.wikidata.org/entity/Q125207247', 'http://www.wikidata.org/entity/Q11764172', 'http://www.wikidata.org/entity/Q105047314', 'http://www.wikidata.org/entity/Q124369289', 'http://www.wikidata.org/entity/Q114245296', 'http://www.wikidata.org/entity/Q129847804', 'http://www.wikidata.org/entity/Q106689415', 'http://www.wikidata.org/entity/Q125168660', 'http://www.wikidata.org/entity/Q125134505', 'http://www.wikidata.org/entity/Q125141527', 'http://www.wikidata.org/entity/Q13578778', 'http://www.wikidata.org/entity/Q12271681', 'http://www.wikidata.org/entity/Q105953781', 'http://www.wikidata.org/entity/Q1234160', 'http://www.wikidata.org/entity/Q100706635', 'http://www.wikidata.org/entity/Q123474414', 'http://www.wikidata.org/entity/Q126418132', 'http://www.wikidata.org/entity/Q128222132', 'http://www.wikidata.org/entity/Q1360278', 'http://www.wikidata.org/entity/Q128209458', 'http://www.wikidata.org/entity/Q125224535', 'http://www.wikidata.org/entity/Q125207322', 'http://www.wikidata.org/entity/Q113027456', 'http://www.wikidata.org/entity/Q128255861', 'http://www.wikidata.org/entity/Q105953', 'http://www.wikidata.org/entity/Q1246642', 'http://www.wikidata.org/entity/Q109745', 'http://www.wikidata.org/entity/Q114557', 'http://www.wikidata.org/entity/Q124365519', 'http://www.wikidata.org/entity/Q125381657', 'http://www.wikidata.org/entity/Q11923016', 'http://www.wikidata.org/entity/Q124821984', 'http://www.wikidata.org/entity/Q124823586', 'http://www.wikidata.org/entity/Q1289012', 'http://www.wikidata.org/entity/Q110162770', 'http://www.wikidata.org/entity/Q124823640', 'http://www.wikidata.org/entity/Q1338621', 'http://www.wikidata.org/entity/Q124825392', 'http://www.wikidata.org/entity/Q112057', 'http://www.wikidata.org/entity/Q124826025', 'http://www.wikidata.org/entity/Q124821935', 'http://www.wikidata.org/entity/Q124826477', 'http://www.wikidata.org/entity/Q124827127', 'http://www.wikidata.org/entity/Q124834393', 'http://www.wikidata.org/entity/Q124835415', 'http://www.wikidata.org/entity/Q1036737', 'http://www.wikidata.org/entity/Q1336307', 'http://www.wikidata.org/entity/Q112376', 'http://www.wikidata.org/entity/Q124959174', 'http://www.wikidata.org/entity/Q124798509', 'http://www.wikidata.org/entity/Q124848868', 'http://www.wikidata.org/entity/Q1336841', 'http://www.wikidata.org/entity/Q111241', 'http://www.wikidata.org/entity/Q124747852', 'http://www.wikidata.org/entity/Q1604844', 'http://www.wikidata.org/entity/Q1558906', 'http://www.wikidata.org/entity/Q1510986', 'http://www.wikidata.org/entity/Q16029991', 'http://www.wikidata.org/entity/Q1449083', 'http://www.wikidata.org/entity/Q1735870', 'http://www.wikidata.org/entity/Q1449370', 'http://www.wikidata.org/entity/Q18508198', 'http://www.wikidata.org/entity/Q1379473', 'http://www.wikidata.org/entity/Q15439910', 'http://www.wikidata.org/entity/Q1546037', 'http://www.wikidata.org/entity/Q1555666', 'http://www.wikidata.org/entity/Q1707482', 'http://www.wikidata.org/entity/Q18508531', 'http://www.wikidata.org/entity/Q1465742', 'http://www.wikidata.org/entity/Q1379309', 'http://www.wikidata.org/entity/Q18029152', 'http://www.wikidata.org/entity/Q1708747', 'http://www.wikidata.org/entity/Q1705540', 'http://www.wikidata.org/entity/Q14842646', 'http://www.wikidata.org/entity/Q1484506', 'http://www.wikidata.org/entity/Q1501097', 'http://www.wikidata.org/entity/Q1691423', 'http://www.wikidata.org/entity/Q1500209', 'http://www.wikidata.org/entity/Q1614614', 'http://www.wikidata.org/entity/Q1732733', 'http://www.wikidata.org/entity/Q16663352', 'http://www.wikidata.org/entity/Q1527091', 'http://www.wikidata.org/entity/Q18027381', 'http://www.wikidata.org/entity/Q1579455', 'http://www.wikidata.org/entity/Q15430458', 'http://www.wikidata.org/entity/Q15810299', 'http://www.wikidata.org/entity/Q1581174', 'http://www.wikidata.org/entity/Q1505019', 'http://www.wikidata.org/entity/Q1446365', 'http://www.wikidata.org/entity/Q18223339', 'http://www.wikidata.org/entity/Q1414628', 'http://www.wikidata.org/entity/Q1701554', 'http://www.wikidata.org/entity/Q15979728', 'http://www.wikidata.org/entity/Q1707099', 'http://www.wikidata.org/entity/Q1570857', 'http://www.wikidata.org/entity/Q1781063', 'http://www.wikidata.org/entity/Q1368561', 'http://www.wikidata.org/entity/Q15734397', 'http://www.wikidata.org/entity/Q1511264', 'http://www.wikidata.org/entity/Q15452195', 'http://www.wikidata.org/entity/Q1819735', 'http://www.wikidata.org/entity/Q1903438', 'http://www.wikidata.org/entity/Q22249925', 'http://www.wikidata.org/entity/Q22482410', 'http://www.wikidata.org/entity/Q19288504', 'http://www.wikidata.org/entity/Q55675291', 'http://www.wikidata.org/entity/Q55676433', 'http://www.wikidata.org/entity/Q2588636', 'http://www.wikidata.org/entity/Q2517436', 'http://www.wikidata.org/entity/Q550639', 'http://www.wikidata.org/entity/Q4058928', 'http://www.wikidata.org/entity/Q20801784', 'http://www.wikidata.org/entity/Q2077276', 'http://www.wikidata.org/entity/Q475749', 'http://www.wikidata.org/entity/Q28999', 'http://www.wikidata.org/entity/Q2581891', 'http://www.wikidata.org/entity/Q2040666', 'http://www.wikidata.org/entity/Q19273686', 'http://www.wikidata.org/entity/Q194563', 'http://www.wikidata.org/entity/Q4191716', 'http://www.wikidata.org/entity/Q551155', 'http://www.wikidata.org/entity/Q493058', 'http://www.wikidata.org/entity/Q27672503', 'http://www.wikidata.org/entity/Q54862358', 'http://www.wikidata.org/entity/Q43378651', 'http://www.wikidata.org/entity/Q2645934', 'http://www.wikidata.org/entity/Q326252', 'http://www.wikidata.org/entity/Q27670830', 'http://www.wikidata.org/entity/Q36668532', 'http://www.wikidata.org/entity/Q362952', 'http://www.wikidata.org/entity/Q2338888', 'http://www.wikidata.org/entity/Q354466', 'http://www.wikidata.org/entity/Q347559', 'http://www.wikidata.org/entity/Q21168969', 'http://www.wikidata.org/entity/Q20056905', 'http://www.wikidata.org/entity/Q33011834', 'http://www.wikidata.org/entity/Q23928916', 'http://www.wikidata.org/entity/Q51886108', 'http://www.wikidata.org/entity/Q55674501', 'http://www.wikidata.org/entity/Q2020596', 'http://www.wikidata.org/entity/Q51844316', 'http://www.wikidata.org/entity/Q51844339', 'http://www.wikidata.org/entity/Q45927183', 'http://www.wikidata.org/entity/Q1908687', 'http://www.wikidata.org/entity/Q86323', 'http://www.wikidata.org/entity/Q62076483', 'http://www.wikidata.org/entity/Q650151', 'http://www.wikidata.org/entity/Q7782918', 'http://www.wikidata.org/entity/Q94938005', 'http://www.wikidata.org/entity/Q77736', 'http://www.wikidata.org/entity/Q86293', 'http://www.wikidata.org/entity/Q56487519', 'http://www.wikidata.org/entity/Q6373188', 'http://www.wikidata.org/entity/Q94906393', 'http://www.wikidata.org/entity/Q71198', 'http://www.wikidata.org/entity/Q7983614', 'http://www.wikidata.org/entity/Q94753105', 'http://www.wikidata.org/entity/Q94922778', 'http://www.wikidata.org/entity/Q78614', 'http://www.wikidata.org/entity/Q90462', 'http://www.wikidata.org/entity/Q94761001', 'http://www.wikidata.org/entity/Q63485351', 'http://www.wikidata.org/entity/Q85448', 'http://www.wikidata.org/entity/Q94887584', 'http://www.wikidata.org/entity/Q85692', 'http://www.wikidata.org/entity/Q61971231', 'http://www.wikidata.org/entity/Q94040', 'http://www.wikidata.org/entity/Q710106', 'http://www.wikidata.org/entity/Q61930459', 'http://www.wikidata.org/entity/Q94872174', 'http://www.wikidata.org/entity/Q55885976', 'http://www.wikidata.org/entity/Q87698', 'http://www.wikidata.org/entity/Q87595', 'http://www.wikidata.org/entity/Q87593', 'http://www.wikidata.org/entity/Q87498', 'http://www.wikidata.org/entity/Q60820294', 'http://www.wikidata.org/entity/Q60822973', 'http://www.wikidata.org/entity/Q96452', 'http://www.wikidata.org/entity/Q95227952', 'http://www.wikidata.org/entity/Q88140', 'http://www.wikidata.org/entity/Q95249180', 'http://www.wikidata.org/entity/Q911548', 'http://www.wikidata.org/entity/Q89164', 'http://www.wikidata.org/entity/Q55681103', 'http://www.wikidata.org/entity/Q872165', 'http://www.wikidata.org/entity/Q94731605', 'http://www.wikidata.org/entity/Q95805826', 'http://www.wikidata.org/entity/Q60528', 'http://www.wikidata.org/entity/Q76143', 'http://www.wikidata.org/entity/Q95389052', 'http://www.wikidata.org/entity/Q88627', 'http://www.wikidata.org/entity/Q86718', 'http://www.wikidata.org/entity/Q88835', 'http://www.wikidata.org/entity/Q86516', 'http://www.wikidata.org/entity/Q94777816', 'http://www.wikidata.org/entity/Q90014', 'http://www.wikidata.org/entity/Q94577', 'http://www.wikidata.org/entity/Q57385917', 'http://www.wikidata.org/entity/Q24078', 'http://www.wikidata.org/entity/Q1441046', 'http://www.wikidata.org/entity/Q16563052', 'http://www.wikidata.org/entity/Q87735', 'http://www.wikidata.org/entity/Q111031308', 'http://www.wikidata.org/entity/Q125347249', 'http://www.wikidata.org/entity/Q112469746', 'http://www.wikidata.org/entity/Q15436531', 'http://www.wikidata.org/entity/Q1468949', 'http://www.wikidata.org/entity/Q1604844', 'http://www.wikidata.org/entity/Q5946570', 'http://www.wikidata.org/entity/Q43382717', 'http://www.wikidata.org/entity/Q85051', 'http://www.wikidata.org/entity/Q78934', 'http://www.wikidata.org/entity/Q697055', 'http://www.wikidata.org/entity/Q113027456', 'http://www.wikidata.org/entity/Q124369289', 'http://www.wikidata.org/entity/Q111241', 'http://www.wikidata.org/entity/Q105047314', 'http://www.wikidata.org/entity/Q11923016', 'http://www.wikidata.org/entity/Q114245296', 'http://www.wikidata.org/entity/Q114557', 'http://www.wikidata.org/entity/Q112057', 'http://www.wikidata.org/entity/Q109745', 'http://www.wikidata.org/entity/Q124365519', 'http://www.wikidata.org/entity/Q1234160', 'http://www.wikidata.org/entity/Q11764172', 'http://www.wikidata.org/entity/Q105953', 'http://www.wikidata.org/entity/Q12271681', 'http://www.wikidata.org/entity/Q105953781', 'http://www.wikidata.org/entity/Q112376', 'http://www.wikidata.org/entity/Q1246642', 'http://www.wikidata.org/entity/Q106689415', 'http://www.wikidata.org/entity/Q123474414', 'http://www.wikidata.org/entity/Q100706635', 'http://www.wikidata.org/entity/Q110162770', 'http://www.wikidata.org/entity/Q1036737', 'http://www.wikidata.org/entity/Q21168969', 'http://www.wikidata.org/entity/Q2020596', 'http://www.wikidata.org/entity/Q128255861', 'http://www.wikidata.org/entity/Q125207322', 'http://www.wikidata.org/entity/Q124823640', 'http://www.wikidata.org/entity/Q124827127', 'http://www.wikidata.org/entity/Q124798509', 'http://www.wikidata.org/entity/Q2040666', 'http://www.wikidata.org/entity/Q128222132', 'http://www.wikidata.org/entity/Q124825392', 'http://www.wikidata.org/entity/Q20056905', 'http://www.wikidata.org/entity/Q128209458', 'http://www.wikidata.org/entity/Q124826025', 'http://www.wikidata.org/entity/Q125141527', 'http://www.wikidata.org/entity/Q124821935', 'http://www.wikidata.org/entity/Q124821984', 'http://www.wikidata.org/entity/Q125381657', 'http://www.wikidata.org/entity/Q125224535', 'http://www.wikidata.org/entity/Q126418132', 'http://www.wikidata.org/entity/Q125134505', 'http://www.wikidata.org/entity/Q124747852', 'http://www.wikidata.org/entity/Q124848868', 'http://www.wikidata.org/entity/Q124835415', 'http://www.wikidata.org/entity/Q125207247', 'http://www.wikidata.org/entity/Q124834393', 'http://www.wikidata.org/entity/Q20801784', 'http://www.wikidata.org/entity/Q124823586', 'http://www.wikidata.org/entity/Q125168660', 'http://www.wikidata.org/entity/Q2077276', 'http://www.wikidata.org/entity/Q124959174', 'http://www.wikidata.org/entity/Q124826477', 'http://www.wikidata.org/entity/Q1379309', 'http://www.wikidata.org/entity/Q16029991', 'http://www.wikidata.org/entity/Q1707099', 'http://www.wikidata.org/entity/Q18508531', 'http://www.wikidata.org/entity/Q19273686', 'http://www.wikidata.org/entity/Q1449083', 'http://www.wikidata.org/entity/Q1449370', 'http://www.wikidata.org/entity/Q1705540', 'http://www.wikidata.org/entity/Q15979728', 'http://www.wikidata.org/entity/Q1701554', 'http://www.wikidata.org/entity/Q15439910', 'http://www.wikidata.org/entity/Q1338621', 'http://www.wikidata.org/entity/Q1465742', 'http://www.wikidata.org/entity/Q1691423', 'http://www.wikidata.org/entity/Q1336841', 'http://www.wikidata.org/entity/Q15430458', 'http://www.wikidata.org/entity/Q18508198', 'http://www.wikidata.org/entity/Q14842646', 'http://www.wikidata.org/entity/Q1908687', 'http://www.wikidata.org/entity/Q1484506', 'http://www.wikidata.org/entity/Q1903438', 'http://www.wikidata.org/entity/Q1604844', 'http://www.wikidata.org/entity/Q1527091', 'http://www.wikidata.org/entity/Q1336307', 'http://www.wikidata.org/entity/Q16663352', 'http://www.wikidata.org/entity/Q1500209', 'http://www.wikidata.org/entity/Q1614614', 'http://www.wikidata.org/entity/Q1501097', 'http://www.wikidata.org/entity/Q1511264', 'http://www.wikidata.org/entity/Q1510986', 'http://www.wikidata.org/entity/Q1505019', 'http://www.wikidata.org/entity/Q13578778', 'http://www.wikidata.org/entity/Q1570857', 'http://www.wikidata.org/entity/Q1360278', 'http://www.wikidata.org/entity/Q15734397', 'http://www.wikidata.org/entity/Q18027381', 'http://www.wikidata.org/entity/Q1368561', 'http://www.wikidata.org/entity/Q1579455', 'http://www.wikidata.org/entity/Q1558906', 'http://www.wikidata.org/entity/Q1781063', 'http://www.wikidata.org/entity/Q15810299', 'http://www.wikidata.org/entity/Q1819735', 'http://www.wikidata.org/entity/Q1379473', 'http://www.wikidata.org/entity/Q1289012', 'http://www.wikidata.org/entity/Q1581174', 'http://www.wikidata.org/entity/Q19288504', 'http://www.wikidata.org/entity/Q1735870', 'http://www.wikidata.org/entity/Q194563', 'http://www.wikidata.org/entity/Q1414628', 'http://www.wikidata.org/entity/Q1555666', 'http://www.wikidata.org/entity/Q1732733', 'http://www.wikidata.org/entity/Q129847804', 'http://www.wikidata.org/entity/Q18223339', 'http://www.wikidata.org/entity/Q1546037', 'http://www.wikidata.org/entity/Q1446365', 'http://www.wikidata.org/entity/Q1708747', 'http://www.wikidata.org/entity/Q1707482', 'http://www.wikidata.org/entity/Q15452195', 'http://www.wikidata.org/entity/Q18029152', 'http://www.wikidata.org/entity/Q493058', 'http://www.wikidata.org/entity/Q55681103', 'http://www.wikidata.org/entity/Q2581891', 'http://www.wikidata.org/entity/Q33011834', 'http://www.wikidata.org/entity/Q22249925', 'http://www.wikidata.org/entity/Q2338888', 'http://www.wikidata.org/entity/Q36668532', 'http://www.wikidata.org/entity/Q51886108', 'http://www.wikidata.org/entity/Q22482410', 'http://www.wikidata.org/entity/Q2588636', 'http://www.wikidata.org/entity/Q475749', 'http://www.wikidata.org/entity/Q43378651', 'http://www.wikidata.org/entity/Q51844339', 'http://www.wikidata.org/entity/Q362952', 'http://www.wikidata.org/entity/Q51844316', 'http://www.wikidata.org/entity/Q354466', 'http://www.wikidata.org/entity/Q60528', 'http://www.wikidata.org/entity/Q2645934', 'http://www.wikidata.org/entity/Q45927183', 'http://www.wikidata.org/entity/Q347559', 'http://www.wikidata.org/entity/Q4058928', 'http://www.wikidata.org/entity/Q2517436', 'http://www.wikidata.org/entity/Q28999', 'http://www.wikidata.org/entity/Q55676433', 'http://www.wikidata.org/entity/Q57385917', 'http://www.wikidata.org/entity/Q27672503', 'http://www.wikidata.org/entity/Q27670830', 'http://www.wikidata.org/entity/Q54862358', 'http://www.wikidata.org/entity/Q23928916', 'http://www.wikidata.org/entity/Q55674501', 'http://www.wikidata.org/entity/Q550639', 'http://www.wikidata.org/entity/Q326252', 'http://www.wikidata.org/entity/Q56487519', 'http://www.wikidata.org/entity/Q551155', 'http://www.wikidata.org/entity/Q55675291', 'http://www.wikidata.org/entity/Q4191716', 'http://www.wikidata.org/entity/Q55885976', 'http://www.wikidata.org/entity/Q911548', 'http://www.wikidata.org/entity/Q71198', 'http://www.wikidata.org/entity/Q94761001', 'http://www.wikidata.org/entity/Q78614', 'http://www.wikidata.org/entity/Q94906393', 'http://www.wikidata.org/entity/Q61930459', 'http://www.wikidata.org/entity/Q90014', 'http://www.wikidata.org/entity/Q94777816', 'http://www.wikidata.org/entity/Q63485351', 'http://www.wikidata.org/entity/Q88835', 'http://www.wikidata.org/entity/Q94938005', 'http://www.wikidata.org/entity/Q87698', 'http://www.wikidata.org/entity/Q88627', 'http://www.wikidata.org/entity/Q94577', 'http://www.wikidata.org/entity/Q60822973', 'http://www.wikidata.org/entity/Q95249180', 'http://www.wikidata.org/entity/Q85692', 'http://www.wikidata.org/entity/Q94872174', 'http://www.wikidata.org/entity/Q76143', 'http://www.wikidata.org/entity/Q94887584', 'http://www.wikidata.org/entity/Q85448', 'http://www.wikidata.org/entity/Q60820294', 'http://www.wikidata.org/entity/Q77736', 'http://www.wikidata.org/entity/Q6373188', 'http://www.wikidata.org/entity/Q88140', 'http://www.wikidata.org/entity/Q95389052', 'http://www.wikidata.org/entity/Q94731605', 'http://www.wikidata.org/entity/Q7782918', 'http://www.wikidata.org/entity/Q710106', 'http://www.wikidata.org/entity/Q86293', 'http://www.wikidata.org/entity/Q96452', 'http://www.wikidata.org/entity/Q86718', 'http://www.wikidata.org/entity/Q7983614', 'http://www.wikidata.org/entity/Q86516', 'http://www.wikidata.org/entity/Q90462', 'http://www.wikidata.org/entity/Q94922778', 'http://www.wikidata.org/entity/Q61971231', 'http://www.wikidata.org/entity/Q872165', 'http://www.wikidata.org/entity/Q86323', 'http://www.wikidata.org/entity/Q89164', 'http://www.wikidata.org/entity/Q62076483', 'http://www.wikidata.org/entity/Q94040', 'http://www.wikidata.org/entity/Q650151', 'http://www.wikidata.org/entity/Q87498', 'http://www.wikidata.org/entity/Q95805826', 'http://www.wikidata.org/entity/Q95227952', 'http://www.wikidata.org/entity/Q94753105', 'http://www.wikidata.org/entity/Q87593', 'http://www.wikidata.org/entity/Q87595', 'http://www.wikidata.org/entity/Q33011834', 'http://www.wikidata.org/entity/Q55682962', 'http://www.wikidata.org/entity/Q12028148', 'http://www.wikidata.org/entity/Q19309506', 'http://www.wikidata.org/entity/Q78793', 'http://www.wikidata.org/entity/Q2173626', 'http://www.wikidata.org/entity/Q51844338', 'http://www.wikidata.org/entity/Q61199008', 'http://www.wikidata.org/entity/Q94743563']</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Cass_Browne']</t>
+          <t>['http://www.wikidata.org/entity/Q113669']</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/A._J._Bramlett', 'http://dbpedia.org/resource/A._J._Brodeur', 'http://dbpedia.org/resource/A._J._Davis_(basketball)', 'http://dbpedia.org/resource/A._J._Edu', 'http://dbpedia.org/resource/A._J._Granger', 'http://dbpedia.org/resource/A._J._Hammons', 'http://dbpedia.org/resource/A._W._Davis', 'http://dbpedia.org/resource/A._W._Holt', 'http://dbpedia.org/resource/A.C._Green', "http://dbpedia.org/resource/A'Darius_Pegues", 'http://dbpedia.org/resource/Aamir_Simms', 'http://dbpedia.org/resource/Aaric_Murray', 'http://dbpedia.org/resource/Aaron_Anderson_(basketball)', 'http://dbpedia.org/resource/Aaron_Epps', 'http://dbpedia.org/resource/Aaron_Falzon', 'http://dbpedia.org/resource/Aaron_Gordon', 'http://dbpedia.org/resource/Aaron_Gray', 'http://dbpedia.org/resource/Aaron_Harper_(basketball)', 'http://dbpedia.org/resource/Aaron_James_(basketball)', 'http://dbpedia.org/resource/Aaron_McGhee', 'http://dbpedia.org/resource/Aaron_White_(basketball)', 'http://dbpedia.org/resource/Aaron_Williams_(basketball)', 'http://dbpedia.org/resource/Abdel_Kader_Sylla', 'http://dbpedia.org/resource/Abdelrahman_Abdelhaleem', 'http://dbpedia.org/resource/Abdou_Badji', 'http://dbpedia.org/resource/Abdoul_Karim_Coulibaly', 'http://dbpedia.org/resource/Abdul_Jeelani', 'http://dbpedia.org/resource/Abdul_Shamsid-Deen', 'http://dbpedia.org/resource/Abdul_Yahaya', 'http://dbpedia.org/resource/Abdul-Malik_Abu', 'http://dbpedia.org/resource/Abdullah_Matalkeh', 'http://dbpedia.org/resource/Abdullahi_Kuso', 'http://dbpedia.org/resource/Abibou_Toure', 'http://dbpedia.org/resource/Abu_Kigab', 'http://dbpedia.org/resource/Ace_Custis', 'http://dbpedia.org/resource/Ace_Gruenig', 'http://dbpedia.org/resource/Acie_Earl', 'http://dbpedia.org/resource/AD_Smith', 'http://dbpedia.org/resource/Adam_Chubb', 'http://dbpedia.org/resource/Adam_Hrycaniuk', 'http://dbpedia.org/resource/Adam_Keefe_(basketball)', 'http://dbpedia.org/resource/Adam_Kemp', 'http://dbpedia.org/resource/Adam_Koch', 'http://dbpedia.org/resource/Adam_Łapeta', 'http://dbpedia.org/resource/Adam_Morrison', 'http://dbpedia.org/resource/Adam_Parada', 'http://dbpedia.org/resource/Adam_Pecháček', 'http://dbpedia.org/resource/Adam_Woodbury', 'http://dbpedia.org/resource/Adama_Diakhite', 'http://dbpedia.org/resource/Adama_Sanogo', 'http://dbpedia.org/resource/Adarrial_Smylie', 'http://dbpedia.org/resource/Adem_Bona', 'http://dbpedia.org/resource/Adem_Ören', 'http://dbpedia.org/resource/Adnan_Hodžić', 'http://dbpedia.org/resource/Adonal_Foyle', 'http://dbpedia.org/resource/Adreian_Payne', 'http://dbpedia.org/resource/Adrian_Branch', 'http://dbpedia.org/resource/Adrian_Caldwell', 'http://dbpedia.org/resource/Adrian_Moss_(basketball,_born_1981)', 'http://dbpedia.org/resource/Adrián_Zamora', 'http://dbpedia.org/resource/Aerick_Sanders', 'http://dbpedia.org/resource/Agustín_Caffaro', 'http://dbpedia.org/resource/Aher_Uguak', 'http://dbpedia.org/resource/Ahmad_Ibrahim_(basketball)', 'http://dbpedia.org/resource/Ahmad_Nivins', 'http://dbpedia.org/resource/Ahsan_Asadullah', 'http://dbpedia.org/resource/Aidan_Igiehon', 'http://dbpedia.org/resource/Ajak_Magot', 'http://dbpedia.org/resource/Ajdin_Penava', 'http://dbpedia.org/resource/Ajou_Deng', 'http://dbpedia.org/resource/Akin_Akingbala', 'http://dbpedia.org/resource/Al_Beard', 'http://dbpedia.org/resource/Al_Bunge', 'http://dbpedia.org/resource/Al_Carlson_(basketball)', 'http://dbpedia.org/resource/Al_Cueto', 'http://dbpedia.org/resource/Al_Fleming_(basketball)', 'http://dbpedia.org/resource/Al_Harrington', 'http://dbpedia.org/resource/Al_Henry', 'http://dbpedia.org/resource/Al_Horford', 'http://dbpedia.org/resource/Al_Jefferson', 'http://dbpedia.org/resource/Al_Miksis', 'http://dbpedia.org/resource/Al_Salvadori', 'http://dbpedia.org/resource/Al_Sanders_(basketball)', 'http://dbpedia.org/resource/Al_Thornton', 'http://dbpedia.org/resource/Al_Tucker', 'http://dbpedia.org/resource/Al-Farouq_Aminu', 'http://dbpedia.org/resource/Alaa_Abdelnaby', 'http://dbpedia.org/resource/Alade_Aminu', 'http://dbpedia.org/resource/Alain_Koffi', 'http://dbpedia.org/resource/Alan_Hardy_(basketball)', 'http://dbpedia.org/resource/Alan_Henderson', 'http://dbpedia.org/resource/Alan_Ogg', 'http://dbpedia.org/resource/Alan_Wiggins_Jr.', 'http://dbpedia.org/resource/Alan_Williams_(basketball)', 'http://dbpedia.org/resource/Albert_Almanza', 'http://dbpedia.org/resource/Albert_Burditt', 'http://dbpedia.org/resource/Albert_Culton', 'http://dbpedia.org/resource/Alberto_Corbacho', 'http://dbpedia.org/resource/Alberto_Herreros', 'http://dbpedia.org/resource/Alec_Brown', 'http://dbpedia.org/resource/Alec_Kessler', 'http://dbpedia.org/resource/Alec_Peters', 'http://dbpedia.org/resource/Aleem_Ford', 'http://dbpedia.org/resource/Alekos_Petroulas', 'http://dbpedia.org/resource/Aleks_Marić', 'http://dbpedia.org/resource/Aleksandar_Lazić', 'http://dbpedia.org/resource/Aleksandar_Pavlović', 'http://dbpedia.org/resource/Aleksandar_Radojević', 'http://dbpedia.org/resource/Aleksandar_Šterjov', 'http://dbpedia.org/resource/Aleksandar_Todorović', 'http://dbpedia.org/resource/Aleksandar_Vezenkov', 'http://dbpedia.org/resource/Aleksandar_Zečević_(basketball,_born_1996)', 'http://dbpedia.org/resource/Aleksandr_Boloshev', 'http://dbpedia.org/resource/Aleksej_Pokuševski', 'http://dbpedia.org/resource/Alen_Smailagić', 'http://dbpedia.org/resource/Alessandro_Tonolli', 'http://dbpedia.org/resource/Alex_Chubrevich', 'http://dbpedia.org/resource/Alex_Crisano', 'http://dbpedia.org/resource/Alex_Davis_(basketball)', 'http://dbpedia.org/resource/Alex_English', 'http://dbpedia.org/resource/Alex_Galindo', 'http://dbpedia.org/resource/Alex_Gilbert_(basketball)', 'http://dbpedia.org/resource/Alex_Groza', 'http://dbpedia.org/resource/Alex_Hannum', 'http://dbpedia.org/resource/Alex_Holcombe', 'http://dbpedia.org/resource/Alex_Jensen', 'http://dbpedia.org/resource/Alex_Jones_(basketball)', 'http://dbpedia.org/resource/Alex_King_(basketball)', 'http://dbpedia.org/resource/Alex_Kirk', 'http://dbpedia.org/resource/Alex_Len', 'http://dbpedia.org/resource/Alex_Liatsos', 'http://dbpedia.org/resource/Álex_Mumbrú', 'http://dbpedia.org/resource/Alex_Murphy_(basketball)', 'http://dbpedia.org/resource/Alex_Oriakhi', 'http://dbpedia.org/resource/Alex_Poythress', 'http://dbpedia.org/resource/Alex_Rosenberg_(basketball)', 'http://dbpedia.org/resource/Alex_Stepheson', 'http://dbpedia.org/resource/Alex_Stivrins', 'http://dbpedia.org/resource/Álex_Suárez_(basketball)', 'http://dbpedia.org/resource/Alex_Tyus', 'http://dbpedia.org/resource/Alexander_Belov', 'http://dbpedia.org/resource/Alexander_Ermolinskij', 'http://dbpedia.org/resource/Alexander_Johnson_(basketball)__Alexander_Johnson__1', 'http://dbpedia.org/resource/Alexander_Kühl', 'http://dbpedia.org/resource/Alexander_Lokhmanchuk', 'http://dbpedia.org/resource/Alexander_Nelcha', 'http://dbpedia.org/resource/Alexander_Petrenko', 'http://dbpedia.org/resource/Alexander_Sizonenko', 'http://dbpedia.org/resource/Alexander_Volkov_(basketball)', 'http://dbpedia.org/resource/Alexander_Zakharov_(basketball)', 'http://dbpedia.org/resource/Alexandros_Sigkounas', 'http://dbpedia.org/resource/Alexandros_Varitimiadis', 'http://dbpedia.org/resource/Alexandru_Olah', 'http://dbpedia.org/resource/Alexis_Ajinça', 'http://dbpedia.org/resource/Alexis_Wangmene', 'http://dbpedia.org/resource/Alexis_Yetna', 'http://dbpedia.org/resource/Alfa_Ntiallo', 'http://dbpedia.org/resource/Alfons_Alzamora', 'http://dbpedia.org/resource/Alfonso_Reyes_(basketball)', 'http://dbpedia.org/resource/Alfonzo_McKinnie', 'http://dbpedia.org/resource/Alfred_Aboya', 'http://dbpedia.org/resource/Ali_Demić', 'http://dbpedia.org/resource/Ali_Doraghi', 'http://dbpedia.org/resource/Ali_Fakhreddine', 'http://dbpedia.org/resource/Ali_Haidar_(basketball)', 'http://dbpedia.org/resource/Ali_Jamal_Zaghab', 'http://dbpedia.org/resource/Ali_Traoré', 'http://dbpedia.org/resource/Alihan_Demir', 'http://dbpedia.org/resource/Alison_Bales', 'http://dbpedia.org/resource/Alize_Johnson', 'http://dbpedia.org/resource/Allan_Bristow', 'http://dbpedia.org/resource/Alonzo_Mourning', 'http://dbpedia.org/resource/Alperen_Şengün', 'http://dbpedia.org/resource/Alpha_Diallo_(basketball,_born_1997)', 'http://dbpedia.org/resource/Alpha_Kaba', 'http://dbpedia.org/resource/Alton_Ford', 'http://dbpedia.org/resource/Alton_Lister', 'http://dbpedia.org/resource/Alvan_Adams', 'http://dbpedia.org/resource/Álvaro_Teherán', 'http://dbpedia.org/resource/Alvin_Heggs', 'http://dbpedia.org/resource/Alvin_Jones_(basketball)', 'http://dbpedia.org/resource/Alvin_Scott', 'http://dbpedia.org/resource/Alzhan_Zharmukhamedov', 'http://dbpedia.org/resource/Amadou_Aboubakar_Zaki', 'http://dbpedia.org/resource/Amal_McCaskill', 'http://dbpedia.org/resource/Amanze_Egekeze', "http://dbpedia.org/resource/Amar'e_Stoudemire", 'http://dbpedia.org/resource/Amara_Sy', "http://dbpedia.org/resource/Amath_M'Baye", 'http://dbpedia.org/resource/Amen_Thompson', 'http://dbpedia.org/resource/Amida_Brimah', 'http://dbpedia.org/resource/Amile_Jefferson', 'http://dbpedia.org/resource/Amir_Coffey', 'http://dbpedia.org/resource/Amir_Johnson', 'http://dbpedia.org/resource/Amir_Sedighi', 'http://dbpedia.org/resource/Amjyot_Singh', 'http://dbpedia.org/resource/Amos_Thomas_(basketball)', 'http://dbpedia.org/resource/Anas_Mahmoud', 'http://dbpedia.org/resource/Anatoli_Polivoda', 'http://dbpedia.org/resource/Anatoly_Myshkin', 'http://dbpedia.org/resource/Anatoly_Zourpenko', 'http://dbpedia.org/resource/Anderson_Varejão', 'http://dbpedia.org/resource/Andrae_Patterson__Andrae_Patterson__1', 'http://dbpedia.org/resource/Andray_Blatche', 'http://dbpedia.org/resource/Andre_Brown_(basketball)', 'http://dbpedia.org/resource/Andre_Drummond', 'http://dbpedia.org/resource/André_Ernesto_Stoffel', 'http://dbpedia.org/resource/Andre_Hutson', 'http://dbpedia.org/resource/Andre_Moore', 'http://dbpedia.org/resource/Andre_Patterson', 'http://dbpedia.org/resource/Andre_Riddick', 'http://dbpedia.org/resource/André_Roberson', 'http://dbpedia.org/resource/Andre_Smith_(basketball,_born_1985)', 'http://dbpedia.org/resource/Andre_Smith_(Nebraska_basketball)', 'http://dbpedia.org/resource/Andrea_Bargnani', 'http://dbpedia.org/resource/Andrea_Conti_(basketball)', 'http://dbpedia.org/resource/Andrea_Crosariol', 'http://dbpedia.org/resource/Andrea_Meneghin', 'http://dbpedia.org/resource/Andreas_Glyniadakis', 'http://dbpedia.org/resource/Andreas_Kanonidis', 'http://dbpedia.org/resource/Andreas_Pelekoudas', 'http://dbpedia.org/resource/Andreas_Schreiber', 'http://dbpedia.org/resource/Andreas_Tsoumanis', 'http://dbpedia.org/resource/Andrei_Fetisov', 'http://dbpedia.org/resource/Andrei_Kirilenko', 'http://dbpedia.org/resource/Andrej_Stojaković', 'http://dbpedia.org/resource/Andrés_Guibert', 'http://dbpedia.org/resource/Andrés_Jiménez_(basketball)', 'http://dbpedia.org/resource/Andrés_Nocioni', 'http://dbpedia.org/resource/Andrew_Betts', 'http://dbpedia.org/resource/Andrew_Bogut', 'http://dbpedia.org/resource/Andrew_Bynum', 'http://dbpedia.org/resource/Andrew_DeClercq', 'http://dbpedia.org/resource/Andrew_Fields', 'http://dbpedia.org/resource/Andrew_Fitzgerald_(basketball)', 'http://dbpedia.org/resource/Andrew_Kennedy_(basketball)', 'http://dbpedia.org/resource/Andrew_Lang_(basketball)', 'http://dbpedia.org/resource/Andrew_Nicholson_(basketball)', 'http://dbpedia.org/resource/Andrew_Smith_(basketball,_born_1990)', 'http://dbpedia.org/resource/Andrew_Sullivan_(basketball)', 'http://dbpedia.org/resource/Andrew_Vlahov', 'http://dbpedia.org/resource/Andrew_White_(basketball)', 'http://dbpedia.org/resource/Andrew_Wiggins', 'http://dbpedia.org/resource/Andrey_Desyatnikov', 'http://dbpedia.org/resource/Andrey_Lopatov', 'http://dbpedia.org/resource/Andrianos_Perdikaris', 'http://dbpedia.org/resource/Andris_Biedriņš', 'http://dbpedia.org/resource/Andrius_Jurkūnas', 'http://dbpedia.org/resource/Andrius_Šležas', 'http://dbpedia.org/resource/Andriy_Malysh', 'http://dbpedia.org/resource/Andro_Knego', 'http://dbpedia.org/resource/Andronikos_Gizogiannis', 'http://dbpedia.org/resource/Andy_Ogide', 'http://dbpedia.org/resource/Andy_Panko', 'http://dbpedia.org/resource/Andy_Seigle', 'http://dbpedia.org/resource/Andy_Van_Vliet', 'http://dbpedia.org/resource/Ange_Kouame', 'http://dbpedia.org/resource/Ángel_Delgado', 'http://dbpedia.org/resource/Ángel_García_(basketball,_born_1988)__Ángel_García__1', 'http://dbpedia.org/resource/Angelo_Caloiaro', 'http://dbpedia.org/resource/Angelo_Chol', 'http://dbpedia.org/resource/Angelo_Gigli', 'http://dbpedia.org/resource/Angelo_Reyes_(basketball)', 'http://dbpedia.org/resource/Angelos_Siamandouras', 'http://dbpedia.org/resource/Anna_Prins', 'http://dbpedia.org/resource/Anne_Donovan', 'http://dbpedia.org/resource/Ansley_Truitt', 'http://dbpedia.org/resource/Ansu_Sesay', 'http://dbpedia.org/resource/Antanas_Kavaliauskas', 'http://dbpedia.org/resource/Antawn_Jamison', 'http://dbpedia.org/resource/Ante_Đugum', 'http://dbpedia.org/resource/Ante_Grgurević', 'http://dbpedia.org/resource/Ante_Krapić', 'http://dbpedia.org/resource/Ante_Mašić', 'http://dbpedia.org/resource/Ante_Žižić', 'http://dbpedia.org/resource/Anthony_Avent', 'http://dbpedia.org/resource/Anthony_Bennett_(basketball)', 'http://dbpedia.org/resource/Anthony_Bonner__Anthony_Bonner__1', 'http://dbpedia.org/resource/Anthony_Brown_(basketball)', 'http://dbpedia.org/resource/Anthony_Cook_(basketball)', 'http://dbpedia.org/resource/Anthony_Davis', 'http://dbpedia.org/resource/Anthony_Duruji', 'http://dbpedia.org/resource/Anthony_Elechi', 'http://dbpedia.org/resource/Anthony_Fernandez', 'http://dbpedia.org/resource/Anthony_Frederick', 'http://dbpedia.org/resource/Anthony_Gill_(basketball)', 'http://dbpedia.org/resource/Anthony_Jones_(basketball,_born_1967)', 'http://dbpedia.org/resource/Anthony_King_(basketball)', 'http://dbpedia.org/resource/Anthony_Lawrence_(basketball)', 'http://dbpedia.org/resource/Anthony_Mason_(basketball)', 'http://dbpedia.org/resource/Anthony_McHenry', 'http://dbpedia.org/resource/Anthony_Miller_(basketball)', 'http://dbpedia.org/resource/Anthony_Myles_(basketball,_born_1982)', 'http://dbpedia.org/resource/Anthony_Pelle', 'http://dbpedia.org/resource/Anthony_Pérez_(basketball)', 'http://dbpedia.org/resource/Anthony_Pullard', 'http://dbpedia.org/resource/Anthony_Randolph', 'http://dbpedia.org/resource/Anthony_Richardson_(basketball)', 'http://dbpedia.org/resource/Anthony_Smith_(basketball)', 'http://dbpedia.org/resource/Anthony_Stover', 'http://dbpedia.org/resource/Anthony_Teachey', 'http://dbpedia.org/resource/Anthony_Tolliver', 'http://dbpedia.org/resource/Anthony_Tucker_(basketball)', 'http://dbpedia.org/resource/Antoine_Carr', 'http://dbpedia.org/resource/Antoine_Joseph', 'http://dbpedia.org/resource/Antoine_Rigaudeau', 'http://dbpedia.org/resource/Antoine_Walker', 'http://dbpedia.org/resource/Antoine_Wright_(basketball)', 'http://dbpedia.org/resource/Anton_Odabasi', 'http://dbpedia.org/resource/Anton_Pushkov', 'http://dbpedia.org/resource/Anton_Shoutvin', 'http://dbpedia.org/resource/Anton_Watson', 'http://dbpedia.org/resource/Antone_Warren', 'http://dbpedia.org/resource/Antonio_Campbell', 'http://dbpedia.org/resource/Antonio_Davis__Antonio_Davis__1', 'http://dbpedia.org/resource/Antonio_Granger', 'http://dbpedia.org/resource/Antonio_Harvey', 'http://dbpedia.org/resource/Antonio_Lang', 'http://dbpedia.org/resource/Antonio_Martín_Espina', 'http://dbpedia.org/resource/Antonio_McDyess', 'http://dbpedia.org/resource/Antonio_Meeking', 'http://dbpedia.org/resource/Antonio_Reynolds-Dean', 'http://dbpedia.org/resource/Antonios_Asimakopoulos', 'http://dbpedia.org/resource/Antonis_Fotsis', 'http://dbpedia.org/resource/Antonis_Michaloglou', 'http://dbpedia.org/resource/Antti_Nikkilä', 'http://dbpedia.org/resource/Antwain_Smith', 'http://dbpedia.org/resource/Antwaine_Wiggins', 'http://dbpedia.org/resource/Antwan_January', 'http://dbpedia.org/resource/Antywane_Robinson', 'http://dbpedia.org/resource/Anwar_Ferguson', 'http://dbpedia.org/resource/Anžejs_Pasečņiks', 'http://dbpedia.org/resource/Aramis_Naglić', 'http://dbpedia.org/resource/Archie_Dees', 'http://dbpedia.org/resource/Archie_Marshall_(basketball)', 'http://dbpedia.org/resource/Argiris_Kambouris', 'http://dbpedia.org/resource/Argiris_Papapetrou', 'http://dbpedia.org/resource/Aric_Holman', 'http://dbpedia.org/resource/Arijan_Komazec', 'http://dbpedia.org/resource/Arinze_Onuaku', 'http://dbpedia.org/resource/Aristides_Josuel_dos_Santos', 'http://dbpedia.org/resource/Arman_Zangeneh', 'http://dbpedia.org/resource/Armando_Bacot', 'http://dbpedia.org/resource/Armen_Gilliam', 'http://dbpedia.org/resource/Arnaud_Cotture', 'http://dbpedia.org/resource/Arnett_Moultrie', 'http://dbpedia.org/resource/Arnette_Hallman', 'http://dbpedia.org/resource/Arnie_Risen', 'http://dbpedia.org/resource/Arnis_Vecvagars', 'http://dbpedia.org/resource/Arnold_Van_Opstal', 'http://dbpedia.org/resource/Aron_Baynes', 'http://dbpedia.org/resource/Arsalan_Kazemi', 'http://dbpedia.org/resource/Art_Becker', 'http://dbpedia.org/resource/Art_Hillhouse', 'http://dbpedia.org/resource/Art_Long', 'http://dbpedia.org/resource/Art_Spoelstra', 'http://dbpedia.org/resource/Artem_Zabelin', 'http://dbpedia.org/resource/Arthur_Johnson_(basketball)', 'http://dbpedia.org/resource/Arthur_Kaluma', 'http://dbpedia.org/resource/Arthur_Kenney_(basketball)', 'http://dbpedia.org/resource/Artis_Gilmore', 'http://dbpedia.org/resource/Artsiom_Parakhouski', 'http://dbpedia.org/resource/Artūras_Javtokas', 'http://dbpedia.org/resource/Artūras_Jomantas', 'http://dbpedia.org/resource/Artūras_Masiulis', 'http://dbpedia.org/resource/Arvid_Kramer', 'http://dbpedia.org/resource/Arvydas_Sabonis', 'http://dbpedia.org/resource/Asbjørn_Midtgaard', 'http://dbpedia.org/resource/Asghar_Kardoust', 'http://dbpedia.org/resource/Ashante_Johnson', 'http://dbpedia.org/resource/Ashley_Hamilton_(basketball)', 'http://dbpedia.org/resource/Ashraf_Amaya', 'http://dbpedia.org/resource/Ashton_Pankey', 'http://dbpedia.org/resource/Asi_Taulava', 'http://dbpedia.org/resource/Asım_Pars', 'http://dbpedia.org/resource/Asko_Paade', 'http://dbpedia.org/resource/Assem_Marei', 'http://dbpedia.org/resource/Astan_Dabo', 'http://dbpedia.org/resource/Atanas_Golomeev', 'http://dbpedia.org/resource/Ater_Majok', 'http://dbpedia.org/resource/Atsuya_Ota', 'http://dbpedia.org/resource/Attarius_Norwood', 'http://dbpedia.org/resource/Audie_Norris', 'http://dbpedia.org/resource/Augustine_Rubit', 'http://dbpedia.org/resource/Augusto_Binelli', 'http://dbpedia.org/resource/Augusto_Lima', 'http://dbpedia.org/resource/Augustus_Gilchrist', 'http://dbpedia.org/resource/Aulcie_Perry', 'http://dbpedia.org/resource/Aurimas_Kieža', 'http://dbpedia.org/resource/Aurimas_Majauskas', 'http://dbpedia.org/resource/Ausar_Thompson', 'http://dbpedia.org/resource/Austin_Croshere', 'http://dbpedia.org/resource/Austin_Dufault', 'http://dbpedia.org/resource/Austin_Nichols_(basketball)', 'http://dbpedia.org/resource/Austin_Steed', 'http://dbpedia.org/resource/Austin_Wiley', 'http://dbpedia.org/resource/Axel_Bouteille', 'http://dbpedia.org/resource/Axel_Hervelle', 'http://dbpedia.org/resource/Axel_Toupane', 'http://dbpedia.org/resource/Ayberk_Olmaz', 'http://dbpedia.org/resource/Ayman_Adais', 'http://dbpedia.org/resource/B._B._Davis', 'http://dbpedia.org/resource/B._H._Born', 'http://dbpedia.org/resource/B._J._Johnson_(basketball)', 'http://dbpedia.org/resource/Babacar_Camara', 'http://dbpedia.org/resource/Babacar_Sané', 'http://dbpedia.org/resource/Babacar_Touré', 'http://dbpedia.org/resource/Bailey_Howell', 'http://dbpedia.org/resource/Bakari_Hendrix', 'http://dbpedia.org/resource/Balša_Koprivica', 'http://dbpedia.org/resource/Balša_Radunović', 'http://dbpedia.org/resource/Bam_Adebayo', 'http://dbpedia.org/resource/Bamba_Fall', 'http://dbpedia.org/resource/Bambale_Osby', 'http://dbpedia.org/resource/Bara_Diop', 'http://dbpedia.org/resource/Bariša_Krasić', 'http://dbpedia.org/resource/Barış_Hersek', 'http://dbpedia.org/resource/Barney_Cable', 'http://dbpedia.org/resource/Barry_Mungar', 'http://dbpedia.org/resource/Barry_Nelson_(basketball)', 'http://dbpedia.org/resource/Barry_Sumpter', 'http://dbpedia.org/resource/Barry_Yates', 'http://dbpedia.org/resource/Bas_Veenstra', 'http://dbpedia.org/resource/Bassel_Bawji', 'http://dbpedia.org/resource/Bayard_Forrest', 'http://dbpedia.org/resource/Baye_Fall_(basketball)', 'http://dbpedia.org/resource/Beau_Beech', 'http://dbpedia.org/resource/Bechir_Hadidane', 'http://dbpedia.org/resource/BeeJay_Anya', 'http://dbpedia.org/resource/Beka_Burjanadze', 'http://dbpedia.org/resource/Bekir_Yarangüme', 'http://dbpedia.org/resource/Ben_Altit', 'http://dbpedia.org/resource/Ben_Carter_(basketball)', 'http://dbpedia.org/resource/Ben_Clyde', 'http://dbpedia.org/resource/Ben_Coleman_(basketball)', 'http://dbpedia.org/resource/Ben_Davis_(basketball)', 'http://dbpedia.org/resource/Ben_Eisenhardt', 'http://dbpedia.org/resource/Ben_Gillery', 'http://dbpedia.org/resource/Ben_Handlogten', 'http://dbpedia.org/resource/Ben_Lammers', 'http://dbpedia.org/resource/Ben_Lawson_(basketball)', 'http://dbpedia.org/resource/Ben_McCauley', 'http://dbpedia.org/resource/Ben_McDonald_(basketball)', 'http://dbpedia.org/resource/Ben_Moore_(basketball)', 'http://dbpedia.org/resource/Ben_Poquette', 'http://dbpedia.org/resource/Ben_Simmons', 'http://dbpedia.org/resource/Ben_Strong_(basketball)', 'http://dbpedia.org/resource/Ben_Sullivan_(basketball)', 'http://dbpedia.org/resource/Ben_Vander_Plas', 'http://dbpedia.org/resource/Ben_Wallace_(basketball)', 'http://dbpedia.org/resource/Ben_Wilson_(basketball)', 'http://dbpedia.org/resource/Benjamin_Eze', 'http://dbpedia.org/resource/Benjamin_Ortner', 'http://dbpedia.org/resource/Bennett_Davison', 'http://dbpedia.org/resource/Bennett_Koch', 'http://dbpedia.org/resource/Bennie_Boatwright', 'http://dbpedia.org/resource/Bennie_Swain', 'http://dbpedia.org/resource/Benny_Williams_(basketball)', 'http://dbpedia.org/resource/Benoit_Benjamin', 'http://dbpedia.org/resource/Berend_Weijs', 'http://dbpedia.org/resource/Berk_Demir', 'http://dbpedia.org/resource/Berkan_Durmaz', 'http://dbpedia.org/resource/Berkay_Candan', 'http://dbpedia.org/resource/Bernadett_Határ', 'http://dbpedia.org/resource/Bernard_James', 'http://dbpedia.org/resource/Bernard_King', 'http://dbpedia.org/resource/Bernard_Toone', 'http://dbpedia.org/resource/Berni_Tamames', 'http://dbpedia.org/resource/Bernie_Harris_(basketball)', 'http://dbpedia.org/resource/Betinho_(basketball)', 'http://dbpedia.org/resource/Bevo_Francis', 'http://dbpedia.org/resource/Bevo_Nordmann', 'http://dbpedia.org/resource/Big_Moose_Meyer', 'http://dbpedia.org/resource/Bill_Allen_(basketball)', 'http://dbpedia.org/resource/Bill_Amis', 'http://dbpedia.org/resource/Bill_Buntin', 'http://dbpedia.org/resource/Bill_Bunting', 'http://dbpedia.org/resource/Bill_Campion', 'http://dbpedia.org/resource/Bill_Cartwright', 'http://dbpedia.org/resource/Bill_Chmielewski', 'http://dbpedia.org/resource/Bill_Coven', 'http://dbpedia.org/resource/Bill_Curley', 'http://dbpedia.org/resource/Bill_Dinwiddie', 'http://dbpedia.org/resource/Bill_Garner_(basketball)', 'http://dbpedia.org/resource/Bill_Garnett', 'http://dbpedia.org/resource/Bill_Gossett', 'http://dbpedia.org/resource/Bill_Hanzlik', 'http://dbpedia.org/resource/Bill_Henry_(basketball)', 'http://dbpedia.org/resource/Bill_Hewitt_(basketball)', 'http://dbpedia.org/resource/Bill_Hosket_Jr.', 'http://dbpedia.org/resource/Bill_Jones_(basketball,_born_1966)', 'http://dbpedia.org/resource/Bill_Laimbeer', 'http://dbpedia.org/resource/Bill_Logan_(basketball)', 'http://dbpedia.org/resource/Bill_Martin_(basketball)', 'http://dbpedia.org/resource/Bill_Mayfield', 'http://dbpedia.org/resource/Bill_McGill', 'http://dbpedia.org/resource/Bill_Melis', 'http://dbpedia.org/resource/Bill_Newton_(basketball)', 'http://dbpedia.org/resource/Bill_Roberts_(basketball)', 'http://dbpedia.org/resource/Bill_Robinzine', 'http://dbpedia.org/resource/Bill_Russell', 'http://dbpedia.org/resource/Bill_Sattler', 'http://dbpedia.org/resource/Bill_Schrader', 'http://dbpedia.org/resource/Bill_Spivey', 'http://dbpedia.org/resource/Bill_Stricker', 'http://dbpedia.org/resource/Bill_Thieben', 'http://dbpedia.org/resource/Bill_Turner_(basketball)', 'http://dbpedia.org/resource/Bill_Uhl', 'http://dbpedia.org/resource/Bill_Varner', 'http://dbpedia.org/resource/Bill_Walton', 'http://dbpedia.org/resource/Bill_Wennington', 'http://dbpedia.org/resource/Bill_Willoughby', 'http://dbpedia.org/resource/Billy_McShepard', 'http://dbpedia.org/resource/Billy_Owens', 'http://dbpedia.org/resource/Billy_Paultz', 'http://dbpedia.org/resource/Billy_Preston_(basketball)', 'http://dbpedia.org/resource/Billy_Singleton', 'http://dbpedia.org/resource/Billy_Thompson_(basketball)', 'http://dbpedia.org/resource/Billy_White_(basketball)', 'http://dbpedia.org/resource/Bismack_Biyombo', 'http://dbpedia.org/resource/Bison_Dele', 'http://dbpedia.org/resource/Blagota_Sekulić', 'http://dbpedia.org/resource/Blair_Rasmussen', 'http://dbpedia.org/resource/Blake_Aoki_Borysewicz', 'http://dbpedia.org/resource/Blake_Griffin', 'http://dbpedia.org/resource/Blerim_Mazreku', 'http://dbpedia.org/resource/Bo_Ellis__Bo_Ellis__1', 'http://dbpedia.org/resource/Bo_Outlaw', 'http://dbpedia.org/resource/Bob_Allen_(basketball)', 'http://dbpedia.org/resource/Bob_Armstrong_(basketball,_born_1933)', 'http://dbpedia.org/resource/Bob_Bedell', 'http://dbpedia.org/resource/Bob_Bigelow', 'http://dbpedia.org/resource/Bob_Boozer', 'http://dbpedia.org/resource/Bob_Brown_(basketball,_born_1921)', 'http://dbpedia.org/resource/Bob_Burrow', 'http://dbpedia.org/resource/Bob_Christian_(basketball)', 'http://dbpedia.org/resource/Bob_Cluggish', 'http://dbpedia.org/resource/Bob_Davis_(basketball_player)__Bob_Davis__1', 'http://dbpedia.org/resource/Bob_Dykstra', 'http://dbpedia.org/resource/Bob_Elliott_(basketball)', 'http://dbpedia.org/resource/Bob_Ferry', 'http://dbpedia.org/resource/Bob_Ford_(basketball)', 'http://dbpedia.org/resource/Bob_Greacen', 'http://dbpedia.org/resource/Bob_Hahn', 'http://dbpedia.org/resource/Bob_Harris_(basketball)', 'http://dbpedia.org/resource/Bob_Hogsett', 'http://dbpedia.org/resource/Bob_Hopkins__Bob_Hopkins__1', 'http://dbpedia.org/resource/Bob_Houbregs', 'http://dbpedia.org/resource/Bob_Kauffman', 'http://dbpedia.org/resource/Bob_Kurland', 'http://dbpedia.org/resource/Bob_Lanier', 'http://dbpedia.org/resource/Bob_Lavoy', 'http://dbpedia.org/resource/Bob_Lienhard', 'http://dbpedia.org/resource/Bob_Love', 'http://dbpedia.org/resource/Bob_Martin_(basketball)', 'http://dbpedia.org/resource/Bob_Mattick', 'http://dbpedia.org/resource/Bob_McAdoo', 'http://dbpedia.org/resource/Bob_McCurdy', 'http://dbpedia.org/resource/Bob_McKeen', 'http://dbpedia.org/resource/Bob_Miller_(basketball)', 'http://dbpedia.org/resource/Bob_Morse', 'http://dbpedia.org/resource/Bob_Myers', 'http://dbpedia.org/resource/Bob_Nash_(basketball)', 'http://dbpedia.org/resource/Bob_Netolicky', 'http://dbpedia.org/resource/Bob_Pelkington', 'http://dbpedia.org/resource/Bob_Pettit', 'http://dbpedia.org/resource/Bob_Riley_(basketball)', 'http://dbpedia.org/resource/Bob_Rule', 'http://dbpedia.org/resource/Bob_Spessard', 'http://dbpedia.org/resource/Bob_Thornton', 'http://dbpedia.org/resource/Bob_Woollard', 'http://dbpedia.org/resource/Boban_Janković', 'http://dbpedia.org/resource/Boban_Marjanović', 'http://dbpedia.org/resource/Bobby_Cattage', 'http://dbpedia.org/resource/Bobby_Croft', 'http://dbpedia.org/resource/Bobby_Jones_(basketball,_born_1951)', 'http://dbpedia.org/resource/Bobby_Jones_(basketball,_born_1984)', 'http://dbpedia.org/resource/Bobby_Lee_Hurt', 'http://dbpedia.org/resource/Bobby_Portis', 'http://dbpedia.org/resource/Bobby_Simmons', 'http://dbpedia.org/resource/Bobby_Speight', 'http://dbpedia.org/resource/Bobby_Watson_(basketball_coach)', 'http://dbpedia.org/resource/Bobby_Wilson_(basketball,_born_1944)', 'http://dbpedia.org/resource/Bojan_Subotić', 'http://dbpedia.org/resource/Bol_Bol', 'http://dbpedia.org/resource/Bonel_Balingit', "http://dbpedia.org/resource/Boniface_N'Dong", 'http://dbpedia.org/resource/Boo_Jackson__Boo_Jackson__1', 'http://dbpedia.org/resource/Bora_Paçun', 'http://dbpedia.org/resource/Boris_Diaw', 'http://dbpedia.org/resource/Boštjan_Nachbar', 'http://dbpedia.org/resource/Boubacar_Aw', 'http://dbpedia.org/resource/Boubacar_Coly', 'http://dbpedia.org/resource/Boubacar_Toure', 'http://dbpedia.org/resource/Brad_Branson', 'http://dbpedia.org/resource/Brad_Daugherty_(basketball)', 'http://dbpedia.org/resource/Brad_Lohaus', 'http://dbpedia.org/resource/Brad_Miley', 'http://dbpedia.org/resource/Brad_Miller_(basketball)', 'http://dbpedia.org/resource/Brad_Robinson_(basketball)', 'http://dbpedia.org/resource/Brad_Waldow', 'http://dbpedia.org/resource/Brad_Wright_(basketball)', 'http://dbpedia.org/resource/Bradley_Buckman', 'http://dbpedia.org/resource/Brady_Manek', 'http://dbpedia.org/resource/Brandan_Wright', 'http://dbpedia.org/resource/Brandon_Bass', 'http://dbpedia.org/resource/Brandon_Bowman', 'http://dbpedia.org/resource/Brandon_Clarke', 'http://dbpedia.org/resource/Brandon_Cole', 'http://dbpedia.org/resource/Brandon_Costner', 'http://dbpedia.org/resource/Brandon_Davies', 'http://dbpedia.org/resource/Brandon_Gilbeck', 'http://dbpedia.org/resource/Brandon_Hunter', 'http://dbpedia.org/resource/Brandon_Huntley-Hatfield', 'http://dbpedia.org/resource/Brandon_Ingram', 'http://dbpedia.org/resource/Brandon_McCoy', 'http://dbpedia.org/resource/Brandon_Miller_(basketball,_born_2002)', 'http://dbpedia.org/resource/Brandon_Penn', 'http://dbpedia.org/resource/Brandon_Sebirumbi', 'http://dbpedia.org/resource/Brandon_Slater', 'http://dbpedia.org/resource/Brandon_Ubel', 'http://dbpedia.org/resource/Brandon_Wallace', 'http://dbpedia.org/resource/Brant_Weidner', 'http://dbpedia.org/resource/Braxton_Key', 'http://dbpedia.org/resource/Brayon_Blake', 'http://dbpedia.org/resource/Brekkott_Chapman', 'http://dbpedia.org/resource/Brendan_Haywood', 'http://dbpedia.org/resource/Brendan_Lane_(basketball)', 'http://dbpedia.org/resource/Brennan_McElroy', 'http://dbpedia.org/resource/Brent_Barry', 'http://dbpedia.org/resource/Brent_Petway', 'http://dbpedia.org/resource/Brent_Scott_(basketball)', 'http://dbpedia.org/resource/Brent_Wright', 'http://dbpedia.org/resource/Bret_Brielmaier', 'http://dbpedia.org/resource/Brett_Roberts', 'http://dbpedia.org/resource/Brett_Szabo', 'http://dbpedia.org/resource/Brett_Vroman', 'http://dbpedia.org/resource/Brian_Beshara', 'http://dbpedia.org/resource/Brian_Butch', 'http://dbpedia.org/resource/Brian_Cardinal', 'http://dbpedia.org/resource/Brian_Cook_(basketball)', 'http://dbpedia.org/resource/Brian_Cusworth', 'http://dbpedia.org/resource/Brian_Davis_(basketball)', 'http://dbpedia.org/resource/Brian_Evans_(basketball)', 'http://dbpedia.org/resource/Brian_Fitzpatrick_(basketball)', 'http://dbpedia.org/resource/Brian_Grant', 'http://dbpedia.org/resource/Brian_Jackson_(basketball)', 'http://dbpedia.org/resource/Brian_Kerle', 'http://dbpedia.org/resource/Brian_Martin_(basketball)', 'http://dbpedia.org/resource/Brian_Oliver_(basketball,_born_1990)', 'http://dbpedia.org/resource/Brian_Quinnett', 'http://dbpedia.org/resource/Brian_Qvale', 'http://dbpedia.org/resource/Brian_Randle__Brian_Randle__1', 'http://dbpedia.org/resource/Brian_Rowsom', 'http://dbpedia.org/resource/Brian_Scalabrine', 'http://dbpedia.org/resource/Brian_Skinner', 'http://dbpedia.org/resource/Brian_Zoubek', 'http://dbpedia.org/resource/Brice_Assie__Brice_Assie__1', 'http://dbpedia.org/resource/Brice_Johnson', 'http://dbpedia.org/resource/Brice_Vounang', 'http://dbpedia.org/resource/Bright_Akhuetie', 'http://dbpedia.org/resource/Britton_Johnsen', 'http://dbpedia.org/resource/Brock_Motum', 'http://dbpedia.org/resource/Brook_Lopez', 'http://dbpedia.org/resource/Bruce_Bolden', 'http://dbpedia.org/resource/Bruce_Bowen', 'http://dbpedia.org/resource/Bruce_Flowers', 'http://dbpedia.org/resource/Bruce_Kuczenski', 'http://dbpedia.org/resource/Bruce_Seals', 'http://dbpedia.org/resource/Bruno_Boin', 'http://dbpedia.org/resource/Bruno_Caboclo', 'http://dbpedia.org/resource/Bruno_Coqueran', 'http://dbpedia.org/resource/Bruno_Fernando', 'http://dbpedia.org/resource/Bruno_Šundov', 'http://dbpedia.org/resource/Bruno-Nazaire_Kongaouin', 'http://dbpedia.org/resource/Bryan_Bracey', 'http://dbpedia.org/resource/Bryan_Davis_(basketball)', 'http://dbpedia.org/resource/Bryant_Dunston', 'http://dbpedia.org/resource/Bryant_Reeves', 'http://dbpedia.org/resource/Bryant_Smith', 'http://dbpedia.org/resource/Bryce_Douvier', 'http://dbpedia.org/resource/Bryce_Washington_(basketball)', 'http://dbpedia.org/resource/Bryon_Russell', 'http://dbpedia.org/resource/Bryson_Williams', '</t>
+          <t>['http://www.wikidata.org/entity/Q100149428', 'http://www.wikidata.org/entity/Q100159428', 'http://www.wikidata.org/entity/Q100159740', 'http://www.wikidata.org/entity/Q100233973', 'http://www.wikidata.org/entity/Q100234056', 'http://www.wikidata.org/entity/Q100255739', 'http://www.wikidata.org/entity/Q100268106', 'http://www.wikidata.org/entity/Q100718552', 'http://www.wikidata.org/entity/Q100718566', 'http://www.wikidata.org/entity/Q100719358', 'http://www.wikidata.org/entity/Q100720834', 'http://www.wikidata.org/entity/Q100721176', 'http://www.wikidata.org/entity/Q100723552', 'http://www.wikidata.org/entity/Q100723716', 'http://www.wikidata.org/entity/Q100741864', 'http://www.wikidata.org/entity/Q100747188', 'http://www.wikidata.org/entity/Q100751464', 'http://www.wikidata.org/entity/Q100753561', 'http://www.wikidata.org/entity/Q100753967', 'http://www.wikidata.org/entity/Q100759002', 'http://www.wikidata.org/entity/Q100759458', 'http://www.wikidata.org/entity/Q100761605', 'http://www.wikidata.org/entity/Q100766876', 'http://www.wikidata.org/entity/Q100766896', 'http://www.wikidata.org/entity/Q100768753', 'http://www.wikidata.org/entity/Q100769398', 'http://www.wikidata.org/entity/Q100769656', 'http://www.wikidata.org/entity/Q100769714', 'http://www.wikidata.org/entity/Q100770818', 'http://www.wikidata.org/entity/Q100771309', 'http://www.wikidata.org/entity/Q100771698', 'http://www.wikidata.org/entity/Q100774597', 'http://www.wikidata.org/entity/Q100775493', 'http://www.wikidata.org/entity/Q100776047', 'http://www.wikidata.org/entity/Q100776321', 'http://www.wikidata.org/entity/Q100779909', 'http://www.wikidata.org/entity/Q100779924', 'http://www.wikidata.org/entity/Q100781781', 'http://www.wikidata.org/entity/Q100782988', 'http://www.wikidata.org/entity/Q100784464', 'http://www.wikidata.org/entity/Q100785232', 'http://www.wikidata.org/entity/Q100787706', 'http://www.wikidata.org/entity/Q100789903', 'http://www.wikidata.org/entity/Q100792158', 'http://www.wikidata.org/entity/Q100793447', 'http://www.wikidata.org/entity/Q100793756', 'http://www.wikidata.org/entity/Q100794271', 'http://www.wikidata.org/entity/Q100794996', 'http://www.wikidata.org/entity/Q100795231', 'http://www.wikidata.org/entity/Q100796414', 'http://www.wikidata.org/entity/Q100796580', 'http://www.wikidata.org/entity/Q100798031', 'http://www.wikidata.org/entity/Q100798302', 'http://www.wikidata.org/entity/Q100798640', 'http://www.wikidata.org/entity/Q100798922', 'http://www.wikidata.org/entity/Q100801342', 'http://www.wikidata.org/entity/Q100802268', 'http://www.wikidata.org/entity/Q100805424', 'http://www.wikidata.org/entity/Q100806402', 'http://www.wikidata.org/entity/Q100806617', 'http://www.wikidata.org/entity/Q100808900', 'http://www.wikidata.org/entity/Q100819704', 'http://www.wikidata.org/entity/Q100868390', 'http://www.wikidata.org/entity/Q100869366', 'http://www.wikidata.org/entity/Q100870520', 'http://www.wikidata.org/entity/Q100871090', 'http://www.wikidata.org/entity/Q100874361', 'http://www.wikidata.org/entity/Q100874765', 'http://www.wikidata.org/entity/Q100876161', 'http://www.wikidata.org/entity/Q100877072', 'http://www.wikidata.org/entity/Q100880911', 'http://www.wikidata.org/entity/Q100884422', 'http://www.wikidata.org/entity/Q100884743', 'http://www.wikidata.org/entity/Q100888756', 'http://www.wikidata.org/entity/Q100889736', 'http://www.wikidata.org/entity/Q100890360', 'http://www.wikidata.org/entity/Q100892340', 'http://www.wikidata.org/entity/Q100892958', 'http://www.wikidata.org/entity/Q100893004', 'http://www.wikidata.org/entity/Q100893220', 'http://www.wikidata.org/entity/Q100893856', 'http://www.wikidata.org/entity/Q100894411', 'http://www.wikidata.org/entity/Q100894417', 'http://www.wikidata.org/entity/Q100905529', 'http://www.wikidata.org/entity/Q100907217', 'http://www.wikidata.org/entity/Q100907395', 'http://www.wikidata.org/entity/Q100907778', 'http://www.wikidata.org/entity/Q100911168', 'http://www.wikidata.org/entity/Q100911312', 'http://www.wikidata.org/entity/Q100914058', 'http://www.wikidata.org/entity/Q100917187', 'http://www.wikidata.org/entity/Q100917336', 'http://www.wikidata.org/entity/Q100918539', 'http://www.wikidata.org/entity/Q100919123', 'http://www.wikidata.org/entity/Q100922723', 'http://www.wikidata.org/entity/Q100922847', 'http://www.wikidata.org/entity/Q100924163', 'http://www.wikidata.org/entity/Q100925349', 'http://www.wikidata.org/entity/Q100929792', 'http://www.wikidata.org/entity/Q100930247', 'http://www.wikidata.org/entity/Q100934497', 'http://www.wikidata.org/entity/Q100935310', 'http://www.wikidata.org/entity/Q100935721', 'http://www.wikidata.org/entity/Q100935989', 'http://www.wikidata.org/entity/Q100939038', 'http://www.wikidata.org/entity/Q100940712', 'http://www.wikidata.org/entity/Q100942674', 'http://www.wikidata.org/entity/Q1009435', 'http://www.wikidata.org/entity/Q100944889', 'http://www.wikidata.org/entity/Q100951898', 'http://www.wikidata.org/entity/Q100952898', 'http://www.wikidata.org/entity/Q100958614', 'http://www.wikidata.org/entity/Q100961111', 'http://www.wikidata.org/entity/Q100963772', 'http://www.wikidata.org/entity/Q100963834', 'http://www.wikidata.org/entity/Q100964085', 'http://www.wikidata.org/entity/Q100981581', 'http://www.wikidata.org/entity/Q100981767', 'http://www.wikidata.org/entity/Q100981910', 'http://www.wikidata.org/entity/Q100987430', 'http://www.wikidata.org/entity/Q100987618', 'http://www.wikidata.org/entity/Q101072753', 'http://www.wikidata.org/entity/Q101385200', 'http://www.wikidata.org/entity/Q102007152', 'http://www.wikidata.org/entity/Q102282451', 'http://www.wikidata.org/entity/Q102400266', 'http://www.wikidata.org/entity/Q10261637', 'http://www.wikidata.org/entity/Q102955', 'http://www.wikidata.org/entity/Q10307612', 'http://www.wikidata.org/entity/Q1032471', 'http://www.wikidata.org/entity/Q1032693', 'http://www.wikidata.org/entity/Q1034012', 'http://www.wikidata.org/entity/Q1039453', 'http://www.wikidata.org/entity/Q104165992', 'http://www.wikidata.org/entity/Q104166462', 'http://www.wikidata.org/entity/Q104361', 'http://www.wikidata.org/entity/Q104375', 'http://www.wikidata.org/entity/Q104870461', 'http://www.wikidata.org/entity/Q105101971', 'http://www.wikidata.org/entity/Q105102366', 'http://www.wikidata.org/entity/Q105394701', 'http://www.wikidata.org/entity/Q1053971', 'http://www.wikidata.org/entity/Q105465865', 'http://www.wikidata.org/entity/Q105501473', 'http://www.wikidata.org/entity/Q1055229', 'http://www.wikidata.org/entity/Q105622399', 'http://www.wikidata.org/entity/Q105632314', 'http://www.wikidata.org/entity/Q1056335', 'http://www.wikidata.org/entity/Q1056746', 'http://www.wikidata.org/entity/Q1058595', 'http://www.wikidata.org/entity/Q1061731', 'http://www.wikidata.org/entity/Q1061776', 'http://www.wikidata.org/entity/Q106279', 'http://www.wikidata.org/entity/Q106338045', 'http://www.wikidata.org/entity/Q106448577', 'http://www.wikidata.org/entity/Q106451', 'http://www.wikidata.org/entity/Q106473444', 'http://www.wikidata.org/entity/Q106519612', 'http://www.wikidata.org/entity/Q106524904', 'http://www.wikidata.org/entity/Q106616516', 'http://www.wikidata.org/entity/Q106627490', 'http://www.wikidata.org/entity/Q106635227', 'http://www.wikidata.org/entity/Q106660414', 'http://www.wikidata.org/entity/Q106671635', 'http://www.wikidata.org/entity/Q106671703', 'http://www.wikidata.org/entity/Q106677205', 'http://www.wikidata.org/entity/Q106680697', 'http://www.wikidata.org/entity/Q106720122', 'http://www.wikidata.org/entity/Q106778918', 'http://www.wikidata.org/entity/Q106781914', 'http://www.wikidata.org/entity/Q106806341', 'http://www.wikidata.org/entity/Q106817973', 'http://www.wikidata.org/entity/Q106818099', 'http://www.wikidata.org/entity/Q106818169', 'http://www.wikidata.org/entity/Q106818559', 'http://www.wikidata.org/entity/Q106818739', 'http://www.wikidata.org/entity/Q106825117', 'http://www.wikidata.org/entity/Q106963403', 'http://www.wikidata.org/entity/Q106963499', 'http://www.wikidata.org/entity/Q106977533', 'http://www.wikidata.org/entity/Q107093740', 'http://www.wikidata.org/entity/Q107118384', 'http://www.wikidata.org/entity/Q107151952', 'http://www.wikidata.org/entity/Q107152625', 'http://www.wikidata.org/entity/Q107178241', 'http://www.wikidata.org/entity/Q107178269', 'http://www.wikidata.org/entity/Q107185703', 'http://www.wikidata.org/entity/Q107207765', 'http://www.wikidata.org/entity/Q107253264', 'http://www.wikidata.org/entity/Q107287851', 'http://www.wikidata.org/entity/Q107287942', 'http://www.wikidata.org/entity/Q107305764', 'http://www.wikidata.org/entity/Q107309089', 'http://www.wikidata.org/entity/Q107314128', 'http://www.wikidata.org/entity/Q107327655', 'http://www.wikidata.org/entity/Q107337984', 'http://www.wikidata.org/entity/Q107344389', 'http://www.wikidata.org/entity/Q107355280', 'http://www.wikidata.org/entity/Q107363162', 'http://www.wikidata.org/entity/Q107369214', 'http://www.wikidata.org/entity/Q107378373', 'http://www.wikidata.org/entity/Q107419969', 'http://www.wikidata.org/entity/Q107422938', 'http://www.wikidata.org/entity/Q107504019', 'http://www.wikidata.org/entity/Q107504309', 'http://www.wikidata.org/entity/Q107530183', 'http://www.wikidata.org/entity/Q107549720', 'http://www.wikidata.org/entity/Q107585991', 'http://www.wikidata.org/entity/Q107586380', 'http://www.wikidata.org/entity/Q107588913', 'http://www.wikidata.org/entity/Q1075978', 'http://www.wikidata.org/entity/Q1075984', 'http://www.wikidata.org/entity/Q1076942', 'http://www.wikidata.org/entity/Q1077184', 'http://www.wikidata.org/entity/Q1077193', 'http://www.wikidata.org/entity/Q1077292', 'http://www.wikidata.org/entity/Q1077437', 'http://www.wikidata.org/entity/Q107752619', 'http://www.wikidata.org/entity/Q1077607', 'http://www.wikidata.org/entity/Q1077613', 'http://www.wikidata.org/entity/Q1077634', 'http://www.wikidata.org/entity/Q108112686', 'http://www.wikidata.org/entity/Q108113174', 'http://www.wikidata.org/entity/Q108152227', 'http://www.wikidata.org/entity/Q108170613', 'http://www.wikidata.org/entity/Q1081976', 'http://www.wikidata.org/entity/Q108291', 'http://www.wikidata.org/entity/Q108293322', 'http://www.wikidata.org/entity/Q1082954', 'http://www.wikidata.org/entity/Q108307199', 'http://www.wikidata.org/entity/Q10831393', 'http://www.wikidata.org/entity/Q108314957', 'http://www.wikidata.org/entity/Q108333', 'http://www.wikidata.org/entity/Q108444645', 'http://www.wikidata.org/entity/Q108464191', 'http://www.wikidata.org/entity/Q108502580', 'http://www.wikidata.org/entity/Q108560985', 'http://www.wikidata.org/entity/Q108561381', 'http://www.wikidata.org/entity/Q108650400', 'http://www.wikidata.org/entity/Q108697360', 'http://www.wikidata.org/entity/Q1086985', 'http://www.wikidata.org/entity/Q108733631', 'http://www.wikidata.org/entity/Q108757835', 'http://www.wikidata.org/entity/Q108761974', 'http://www.wikidata.org/entity/Q10877291', 'http://www.wikidata.org/entity/Q108809817', 'http://www.wikidata.org/entity/Q108822235', 'http://www.wikidata.org/entity/Q108823000', 'http://www.wikidata.org/entity/Q108858175', 'http://www.wikidata.org/entity/Q108870659', 'http://www.wikidata.org/entity/Q108915542', 'http://www.wikidata.org/entity/Q1089188', 'http://www.wikidata.org/entity/Q10917065', 'http://www.wikidata.org/entity/Q1091785', 'http://www.wikidata.org/entity/Q109336431', 'http://www.wikidata.org/entity/Q1093458', 'http://www.wikidata.org/entity/Q109425776', 'http://www.wikidata.org/entity/Q109463904', 'http://www.wikidata.org/entity/Q109468740', 'http://www.wikidata.org/entity/Q109524417', 'http://www.wikidata.org/entity/Q109540571', 'http://www.wikidata.org/entity/Q109540589', 'http://www.wikidata.org/entity/Q109544933', 'http://www.wikidata.org/entity/Q109553878', 'http://www.wikidata.org/entity/Q109728722', 'http://www.wikidata.org/entity/Q1097554', 'http://www.wikidata.org/entity/Q109780503', 'http://www.wikidata.org/entity/Q109780810', 'http://www.wikidata.org/entity/Q109829337', 'http://www.wikidata.org/entity/Q109829404', 'http://www.wikidata.org/entity/Q10983515', 'http://www.wikidata.org/entity/Q109851380', 'http://www.wikidata.org/entity/Q109853277', 'http://www.wikidata.org/entity/Q109933627', 'http://www.wikidata.org/entity/Q109967900', 'http://www.wikidata.org/entity/Q109983648', 'http://www.wikidata.org/entity/Q110024215', 'http://www.wikidata.org/entity/Q110070283', 'http://www.wikidata.org/entity/Q1101335', 'http://www.wikidata.org/entity/Q11019119', 'http://www.wikidata.org/entity/Q1102088', 'http://www.wikidata.org/entity/Q110252034', 'http://www.wikidata.org/entity/Q110271131', 'http://www.wikidata.org/entity/Q110322226', 'http://www.wikidata.org/entity/Q1103788', 'http://www.wikidata.org/entity/Q1103821', 'http://www.wikidata.org/entity/Q110457791', 'http://www.wikidata.org/entity/Q110546841', 'http://www.wikidata.org/entity/Q110619093', 'http://www.wikidata.org/entity/Q110619637', 'http://www.wikidata.org/entity/Q110637006', 'http://www.wikidata.org/entity/Q110664194', 'http://www.wikidata.org/entity/Q110914467', 'http://www.wikidata.org/entity/Q110983769', 'http://www.wikidata.org/entity/Q111008', 'http://www.wikidata.org/entity/Q111025353', 'http://www.wikidata.org/entity/Q111025906', 'http://www.wikidata.org/entity/Q111031599', 'http://www.wikidata.org/entity/Q111049849', 'http://www.wikidata.org/entity/Q111049873', 'http://www.wikidata.org/entity/Q111049881', 'http://www.wikidata.org/entity/Q111049894', 'http://www.wikidata.org/entity/Q1111021', 'http://www.wikidata.org/entity/Q1111167', 'http://www.wikidata.org/entity/Q1111983', 'http://www.wikidata.org/entity/Q1112016', 'http://www.wikidata.org/entity/Q1112771', 'http://www.wikidata.org/entity/Q1112996', 'http://www.wikidata.org/entity/Q1113963', 'http://www.wikidata.org/entity/Q1114256', 'http://www.wikidata.org/entity/Q111508849', 'http://www.wikidata.org/entity/Q1115784', 'http://www.wikidata.org/entity/Q1115975', 'http://www.wikidata.org/entity/Q1116123', 'http://www.wikidata.org/entity/Q111631232', 'http://www.wikidata.org/entity/Q111765767', 'http://www.wikidata.org/entity/Q1117816', 'http://www.wikidata.org/entity/Q1118250', 'http://www.wikidata.org/entity/Q1119099', 'http://www.wikidata.org/entity/Q1119288', 'http://www.wikidata.org/entity/Q112062135', 'http://www.wikidata.org/entity/Q112073280', 'http://www.wikidata.org/entity/Q112080040', 'http://www.wikidata.org/entity/Q1120880', 'http://www.wikidata.org/entity/Q112148353', 'http://www.wikidata.org/entity/Q112183592', 'http://www.wikidata.org/entity/Q112435', 'http://www.wikidata.org/entity/Q112449', 'http://www.wikidata.org/entity/Q1125388', 'http://www.wikidata.org/entity/Q1125913', 'http://www.wikidata.org/entity/Q1125990', 'http://www.wikidata.org/entity/Q112625459', 'http://www.wikidata.org/entity/Q1126347', 'http://www.wikidata.org/entity/Q112659357', 'http://www.wikidata.org/entity/Q112687854', 'http://www.wikidata.org/entity/Q112726895', 'http://www.wikidata.org/entity/Q112894312', 'http://www.wikidata.org/entity/Q11289612', 'http://www.wikidata.org/entity/Q112913802', 'http://www.wikidata.org/entity/Q11299322', 'http://www.wikidata.org/entity/Q11299342', 'http://www.wikidata.org/entity/Q113112644', 'http://www.wikidata.org/entity/Q113202398', 'http://www.wikidata.org/entity/Q113214570', 'http://www.wikidata.org/entity/Q113215147', 'http://www.wikidata.org/entity/Q1132365', 'http://www.wikidata.org/entity/Q1132507', 'http://www.wikidata.org/entity/Q1132527', 'http://www.wikidata.org/entity/Q1132528', 'http://www.wikidata.org/entity/Q1132658', 'http://www.wikidata.org/entity/Q1132738', 'http://www.wikidata.org/entity/Q1132834', 'http://www.wikidata.org/entity/Q113291458', 'http://www.wikidata.org/entity/Q113292358', 'http://www.wikidata.org/entity/Q113292554', 'http://www.wikidata.org/entity/Q113292603', 'http://www.wikidata.org/entity/Q113298428', 'http://www.wikidata.org/entity/Q1134048', 'http://www.wikidata.org/entity/Q1134258', 'http://www.wikidata.org/entity/Q113494597', 'http://www.wikidata.org/entity/Q113549293', 'http://www.wikidata.org/entity/Q113566316', 'http://www.wikidata.org/entity/Q113569', 'http://www.wikidata.org/entity/Q113576', 'http://www.wikidata.org/entity/Q113649755', 'http://www.wikidata.org/entity/Q113661680', 'http://www.wikidata.org/entity/Q113674416', 'http://www.wikidata.org/entity/Q11379850', 'http://www.wikidata.org/entity/Q1138128', 'http://www.wikidata.org/entity/Q1138514', 'http://www.wikidata.org/entity/Q1138783', 'http://www.wikidata.org/entity/Q11401248', 'http://www.wikidata.org/entity/Q114032183', 'http://www.wikidata.org/entity/Q114045156', 'http://www.wikidata.org/entity/Q1141637', 'http://www.wikidata.org/entity/Q1142331', 'http://www.wikidata.org/entity/Q114349752', 'http://www.wikidata.org/entity/Q114566945', 'http://www.wikidata.org/entity/Q114667692', 'http://www.wikidata.org/entity/Q1147376', 'http://www.wikidata.org/entity/Q114857113', 'http://www.wikidata.org/entity/Q114863064', 'http://www.wikidata.org/entity/Q11500583', 'http://www.wikidata.org/entity/Q1150317', 'http://www.wikidata.org/entity/Q115102703', 'http://www.wikidata.org/entity/Q1151037', 'http://www.wikidata.org/entity/Q115119808', 'http://www.wikidata.org/entity/Q115154999', 'http://www.wikidata.org/entity/Q115161001', 'http://www.wikidata.org/entity/Q115161434', 'http://www.wikidata.org/entity/Q1152506', 'http://www.wikidata.org/entity/Q115475940', 'http://www.wikidata.org/entity/Q115581265', 'http://www.wikidata.org/entity/Q115629', 'http://www.wikidata.org/entity/Q115634', 'http://www.wikidata.org/entity/Q115722', 'http://www.wikidata.org/entity/Q1159084', 'http://www.wikidata.org/entity/Q115915', 'http://www.wikidata.org/entity/Q1160342', 'http://www.wikidata.org/entity/Q116037', 'http://www.wikidata.org/entity/Q116176311', 'http://www.wikidata.org/entity/Q116176433', 'http://www.wikidata.org/entity/Q116185196', 'http://www.wikidata.org/entity/Q116186160', 'http://www.wikidata.org/entity/Q116189529', 'http://www.wikidata.org/entity/Q116195972', 'http://www.wikidata.org/entity/Q116198', 'http://www.wikidata.org/entity/Q116198940', 'http://www.wikidata.org/entity/Q116254', 'http://www.wikidata.org/entity/Q116257813', 'http://www.wikidata.org/entity/Q116431030', 'http://www.wikidata.org/entity/Q1164595', 'http://www.wikidata.org/entity/Q116551', 'http://www.wikidata.org/entity/Q1165980', 'http://www.wikidata.org/entity/Q1166617', 'http://www.wikidata.org/entity/Q116699', 'http://www.wikidata.org/entity/Q116783152', 'http://www.wikidata.org/entity/Q11685267', 'http://www.wikidata.org/entity/Q11693116', 'http://www.wikidata.org/entity/Q11699292', 'http://www.wikidata.org/entity/Q11699400', 'http://www.wikidata.org/entity/Q11702775', 'http://www.wikidata.org/entity/Q117037725', 'http://www.wikidata.org/entity/Q117038081', 'http://www.wikidata.org/entity/Q1170394', 'http://www.wikidata.org/entity/Q11716504', 'http://www.wikidata.org/entity/Q11720871', 'http://www.wikidata.org/entity/Q11721059', 'http://www.wikidata.org/entity/Q117220242', 'http://www.wikidata.org/entity/Q11722423', 'http://www.wikidata.org/entity/Q11722534', 'http://www.wikidata.org/entity/Q11724895', 'http://www.wikidata.org/entity/Q11727964', 'http://www.wikidata.org/entity/Q1173006', 'http://www.wikidata.org/entity/Q117348117', 'http://www.wikidata.org/entity/Q117350394', 'http://www.wikidata.org/entity/Q117360100', 'http://www.wikidata.org/entity/Q11739472', 'http://www.wikidata.org/entity/Q11743625', 'http://www.wikidata.org/entity/Q11748193', 'http://www.wikidata.org/entity/Q11748226', 'http://www.wikidata.org/entity/Q11749180', 'http://www.wikidata.org/entity/Q11749793', 'http://www.wikidata.org/entity/Q11753337', 'http://www.wikidata.org/entity/Q11754931', 'http://www.wikidata.org/entity/Q11754983', 'http://www.wikidata.org/entity/Q11765656', 'http://www.wikidata.org/entity/Q11767971', 'http://www.wikidata.org/entity/Q11768324', 'http://www.wikidata.org/entity/Q11768382', 'http://www.wikidata.org/entity/Q11768625', 'http://www.wikidata.org/entity/Q11770209', 'http://www.wikidata.org/entity/Q11770367', 'http://www.wikidata.org/entity/Q11771408', 'http://www.wikidata.org/entity/Q11778743', 'http://www.wikidata.org/entity/Q11778794', 'http://www.wikidata.org/entity/Q11779346', 'http://www.wikidata.org/entity/Q11781314', 'http://www.wikidata.org/entity/Q11781980', 'http://www.wikidata.org/entity/Q1178241', 'http://www.wikidata.org/entity/Q11790090', 'http://www.wikidata.org/entity/Q11791016', 'http://www.wikidata.org/entity/Q1179612', 'http://www.wikidata.org/entity/Q11798199', 'http://www.wikidata.org/entity/Q118067', 'http://www.wikidata.org/entity/Q11813536', 'http://www.wikidata.org/entity/Q11813953', 'http://www.wikidata.org/entity/Q11813969', 'http://www.wikidata.org/entity/Q11814182', 'http://www.wikidata.org/entity/Q11814272', 'http://www.wikidata.org/entity/Q11814493', 'http://www.wikidata.org/entity/Q11817884', 'http://www.wikidata.org/entity/Q11818115', 'http://www.wikidata.org/entity/Q11818159', 'http://www.wikidata.org/entity/Q118235978', 'http://www.wikidata.org/entity/Q11833807', 'http://www.wikidata.org/entity/Q11835010', 'http://www.wikidata.org/entity/Q11857841', 'http://www.wikidata.org/entity/Q118842860', 'http://www.wikidata.org/entity/Q1188603', 'http://www.wikidata.org/entity/Q11891970', 'http://www.wikidata.org/entity/Q11892200', 'http://www.wikidata.org/entity/Q1189243', 'http://www.wikidata.org/entity/Q118929123', 'http://www.wikidata.org/entity/Q1189516', 'http://www.wikidata.org/entity/Q119478026', 'http://www.wikidata.org/entity/Q1195813', 'http://www.wikidata.org/entity/Q1200325', 'http://www.wikidata.org/entity/Q1200330', 'http://www.wikidata.org/entity/Q1200332', 'http://www.wikidata.org/entity/Q120098', 'http://www.wikidata.org/entity/Q12023140', 'http://www.wikidata.org/entity/Q12058834', 'http://www.wikidata.org/entity/Q1206898', 'http://www.wikidata.org/entity/Q120758808', 'http://www.wikidata.org/entity/Q121345616', 'http://www.wikidata.org/entity/Q121509892', 'http://www.wikidata.org/entity/Q121647', 'http://www.wikidata.org/entity/Q121819110', 'http://www.wikidata.org/entity/Q1225976', 'http://www.wikidata.org/entity/Q1226046', 'http://www.wikidata.org/entity/Q122618263', 'http://www.wikidata.org/entity/Q12269620', 'http://www.wikidata.org/entity/Q1227980', 'http://www.wikidata.org/entity/Q122906791', 'http://www.wikidata.org/entity/Q122917377', 'http://www.wikidata.org/entity/Q122920596', 'http://www.wikidata.org/entity/Q122943752', 'http://www.wikidata.org/entity/Q122952', 'http://www.wikidata.org/entity/Q123040', 'http://www.wikidata.org/entity/Q123146620', 'http://www.wikidata.org/entity/Q123248759', 'http://www.wikidata.org/entity/Q123248763', 'http://www.wikidata.org/entity/Q123248782', 'http://www.wikidata.org/entity/Q123248783', 'http://www.wikidata.org/entity/Q123258476', 'http://www.wikidata.org/entity/Q123258478', 'http://www.wikidata.org/entity/Q123259128', 'http://www.wikidata.org/entity/Q123335401', 'http://www.wikidata.org/entity/Q123379966', 'http://www.wikidata.org/entity/Q12360491', 'http://www.wikidata.org/entity/Q123684928', 'http://www.wikidata.org/entity/Q123741611', 'http://www.wikidata.org/entity/Q1238103', 'http://www.wikidata.org/entity/Q12387305', 'http://www.wikidata.org/entity/Q124048598', 'http://www.wikidata.org/entity/Q124131733', 'http://www.wikidata.org/entity/Q1242197', 'http://www.wikidata.org/entity/Q124328139', 'http://www.wikidata.org/entity/Q124540519', 'http://www.wikidata.org/entity/Q124620825', 'http://www.wikidata.org/entity/Q124637208', 'http://www.wikidata.org/entity/Q124694773', 'http://www.wikidata.org/entity/Q124694878', 'http://www.wikidata.org/entity/Q125017196', 'http://www.wikidata.org/entity/Q125080586', 'http://www.wikidata.org/entity/Q1254600', 'http://www.wikidata.org/entity/Q125563664', 'http://www.wikidata.org/entity/Q125563895', 'http://www.wikidata.org/entity/Q125563998', 'http://www.wikidata.org/entity/Q125569524', 'http://www.wikidata.org/entity/Q126114396', 'http://www.wikidata.org/entity/Q12633139', 'http://www.wikidata.org/entity/Q12633230', 'http://www.wikidata.org/entity/Q12641301', 'http://www.wikidata.org/entity/Q12643733', 'http://www.wikidata.org/entity/Q1264436', 'http://www.wikidata.org/entity/Q126487461', 'http://www.wikidata.org/entity/Q126487462', 'http://www.wikidata.org/entity/Q12649488', 'http://www.wikidata.org/entity/Q12659740', 'http://www.wikidata.org/entity/Q1267570', 'http://www.wikidata.org/entity/Q1267622', 'http://www.wikidata.org/entity/Q126923070', 'http://www.wikidata.org/entity/Q126947594', 'http://www.wikidata.org/entity/Q1270684', 'http://www.wikidata.org/entity/Q1273047', 'http://www.wikidata.org/entity/Q12749074', 'http://www.wikidata.org/entity/Q127561', 'http://www.wikidata.org/entity/Q12756207', 'http://www.wikidata.org/entity/Q1277708', 'http://www.wikidata.org/entity/Q1279010', 'http://www.wikidata.org/entity/Q127925147', 'http://www.wikidata.org/entity/Q1279973', 'http://www.wikidata.org/entity/Q128188', 'http://www.wikidata.org/entity/Q1282320', 'http://www.wikidata.org/entity/Q1282809', 'http://www.wikidata.org/entity/Q128530', 'http://www.wikidata.org/entity/Q12858621', 'http://www.wikidata.org/entity/Q1286476', 'http://www.wikidata.org/entity/Q12875341', 'http://www.wikidata.org/entity/Q12880385', 'http://www.wikidata.org/entity/Q1289729', 'http://www.wikidata.org/entity/Q129041', 'http://www.wikidata.org/entity/Q12911186', 'http://www.wikidata.org/entity/Q1291124', 'http://www.wikidata.org/entity/Q1292529', 'http://www.wikidata.org/entity/Q1293573', 'http://www.wikidata.org/entity/Q1296648', 'http://www.wikidata.org/entity/Q12981769', 'http://www.wikidata.org/entity/Q130215388', 'http://www.wikidata.org/entity/Q130221109', 'http://www.wikidata.org/entity/Q130240633', 'http://www.wikidata.org/entity/Q130242077', 'http://www.wikidata.org/entity/Q130298106', 'http://www.wikidata.org/entity/Q1314733', 'http://www.wikidata.org/entity/Q131942', 'http://www.wikidata.org/entity/Q132208', 'http://www.wikidata.org/entity/Q1327649', 'http://www.wikidata.org/entity/Q1328504', 'http://www.wikidata.org/entity/Q1332856', 'http://www.wikidata.org/entity/Q1334238', 'http://www.wikidata.org/entity/Q1336737', 'http://www.wikidata.org/entity/Q1338315', 'http://www.wikidata.org/entity/Q1339658', 'http://www.wikidata.org/entity/Q13410394', 'http://www.wikidata.org/entity/Q13416839', 'http://www.wikidata.org/entity/Q134183', 'http://www.wikidata.org/entity/Q1343292', 'http://www.wikidata.org/entity/Q13464007', 'http://www.wikidata.org/entity/Q135109', 'http://www.wikidata.org/entity/Q13512907', 'http://www.wikidata.org/entity/Q13515766', 'http://www.wikidata.org/entity/Q135167', 'http://www.wikidata.org/entity/Q1351678', 'http://www.wikidata.org/entity/Q1353620', 'http://www.wikidata.org/entity/Q1355070', 'http://www.wikidata.org/entity/Q13561021', 'http://www.wikidata.org/entity/Q13563911', 'http://www.wikidata.org/entity/Q1356519', 'http://www.wikidata.org/entity/Q13582445', 'http://www.wikidata.org/entity/Q1358452', 'http://www.wikidata.org/entity/Q1359588', 'http://www.wikidata.org/entity/Q13605907', 'http://www.wikidata.org/entity/Q13605931', 'http://www.wikidata.org/entity/Q13605936', 'http://www.wikidata.org/entity/Q13605944', 'http://www.wikidata.org/entity/Q13605975', 'http://www.wikidata.org/entity/Q13605982', 'http://www.wikidata.org/entity/Q13606007', 'http://www.wikidata.org/entity/Q1361081', 'http://www.wikidata.org/entity/Q1362580', 'http://www.wikidata.org/entity/Q1362664', 'http://www.wikidata.org/entity/Q1362904', 'http://www.wikidata.org/entity/Q1363177', 'http://www.wikidata.org/entity/Q1363787', 'http://www.wikidata.org/entity/Q1363884', 'http://www.wikidata.org/entity/Q1363974', 'http://www.wikidata.org/entity/Q1364009', 'http://www.wikidata.org/entity/Q1364223', 'http://www.wikidata.org/entity/Q1365630', 'http://www.wikidata.org/entity/Q1365645', 'http://www.wikidata.org/entity/Q1366501', 'http://www.wikidata.org/entity/Q1370831', 'http://www.wikidata.org/entity/Q13708767', 'http://www.wikidata.org/entity/Q13709114', 'http://www.wikidata.org/entity/Q1370925', 'http://www.wikidata.org/entity/Q1371485', 'http://www.wikidata.org/entity/Q1373712', 'http://www.wikidata.org/entity/Q137450', 'http://www.wikidata.org/entity/Q1375461', 'http://www.wikidata.org/entity/Q1375950', 'http://www.wikidata.org/entity/Q1377443', 'http://www.wikidata.org/entity/Q1380489', 'http://www.wikidata.org/entity/Q1380719', 'http://www.wikidata.org/entity/Q1381445', 'http://www.wikidata.org/entity/Q1381732', 'http://www.wikidata.org/entity/Q13860876', 'http://www.wikidata.org/entity/Q13876407', 'http://www.wikidata.org/entity/Q1387820', 'http://www.wikidata.org/entity/Q13899976', 'http://www.wikidata.org/entity/Q1390262', 'http://www.wikidata.org/entity/Q1392517', 'http://www.wikidata.org/entity/Q13930506', 'http://www.wikidata.org/entity/Q13930814', 'http://www.wikidata.org/entity/Q1393378', 'http://www.wikidata.org/entity/Q1393433', 'http://www.wikidata.org/entity/Q139376', 'http://www.wikidata.org/entity/Q1398536', 'http://www.wikidata.org/entity/Q1401783', 'http://www.wikidata.org/entity/Q1406261', 'http://www.wikidata.org/entity/Q14073727', 'http://www.wikidata.org/entity/Q1407902', 'http://www.wikidata.org/entity/Q1408291', 'http://www.wikidata.org/entity/Q14088570', 'http://www.wikidata.org/entity/Q1413920', 'http://www.wikidata.org/entity/Q14163514', 'http://www.wikidata.org/entity/Q14172158', 'http://www.wikidata.org/entity/Q14172238', 'http://www.wikidata.org/entity/Q1421720', 'http://www.wikidata.org/entity/Q142214', 'http://www.wikidata.org/entity/Q1422575', 'http://www.wikidata.org/entity/Q1424128', 'http://www.wikidata.org/entity/Q1424134', 'http://www.wikidata.org/entity/Q1424165', 'http://www.wikidata.org/entity/Q1424414', 'http://www.wikidata.org/entity/Q1424455', 'http://www.wikidata.org/entity/Q1424462', 'http://www.wikidata.org/entity/Q1424475', 'http://www.wikidata.org/entity/Q1424495', 'http://www.wikidata.org/entity/Q1424502', 'http://www.wikidata.org/entity/Q1429702', 'http://www.wikidata.org/entity/Q14320215', 'http://www.wikidata.org/entity/Q14324145', 'http://www.wikidata.org/entity/Q14324284', 'http://www.wikidata.org/entity/Q14324339', 'http://www.wikidata.org/entity/Q14324358', 'http://www.wikidata.org/entity/Q14324364', 'http://www.wikidata.org/entity/Q14325764', 'http://www.wikidata.org/entity/Q14325768', 'http://www.wikidata.org/entity/Q1432596', 'http://www.wikidata.org/entity/Q14326804', 'http://www.wikidata.org/entity/Q14327036', 'http://www.wikidata.org/entity/Q14327270', 'http://www.wikidata.org/entity/Q14327391', 'http://www.wikidata.org/entity/Q14327750', 'http://www.wikidata.org/entity/Q14329123', 'http://www.wikidata.org/entity/Q14329138', 'http://www.wikidata.org/entity/Q14329365', 'http://www.wikidata.org/entity/Q14329497', 'http://www.wikidata.org/entity/Q14329695', 'http://www.wikidata.org/entity/Q14330245', 'http://www.wikidata.org/entity/Q14330465', 'http://www.wikidata.org/entity/Q14330469', 'http://www.wikidata.org/entity/Q1435883', 'http://www.wikidata.org/entity/Q1438347', 'http://www.wikidata.org/entity/Q1438348', 'http://www.wikidata.org/entity/Q1439529', 'http://www.wikidata.org/entity/Q1439541', 'http://www.wikidata.org/entity/Q14399923', 'http://www.wikidata.org/entity/Q1440606', 'http://www.wikidata.org/entity/Q1441343', 'http://www.wikidata.org/entity/Q1441397', 'http://www.wikidata.org/entity/Q1441492', 'http://www.wikidata.org/entity/Q1441499', 'http://www.wikidata.org/entity/Q1442053', 'http://www.wikidata.org/entity/Q1442329', 'http://www.wikidata.org/entity/Q14425572', 'http://www.wikidata.org/entity/Q14427097', 'http://www.wikidata.org/entity/Q14432081', 'http://www.wikidata.org/entity/Q1444910', 'http://www.wikidata.org/entity/Q1444934', 'http://www.wikidata.org/entity/Q1445196', 'http://www.wikidata.org/entity/Q1445455', 'http://www.wikidata.org/entity/Q1445762', 'http://www.wikidata.org/entity/Q1445827', 'http://www.wikidata.org/entity/Q144703', 'http://www.wikidata.org/entity/Q1449836', 'http://www.wikidata.org/entity/Q1449882', 'http://www.wikidata.org/entity/Q1452892', 'http://www.wikidata.org/entity/Q1453383', 'http://www.wikidata.org/entity/Q1454479', 'http://www.wikidata.org/entity/Q1455079', 'http://www.wikidata.org/entity/Q1458225', 'http://www.wikidata.org/entity/Q1458255', 'http://www.wikidata.org/entity/Q1458276', 'http://www.wikidata.org/entity/Q1458282', 'http://www.wikidata.org/entity/Q1458307', 'http://www.wikidata.org/entity/Q1458320', 'http://www.wikidata.org/entity/Q1458331', 'http://www.wikidata.org/entity/Q1458344', 'http://www.wikidata.org/entity/Q1458359', 'http://www.wikidata.org/entity/Q145840</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Ottawa']</t>
+          <t>['http://www.wikidata.org/entity/Q1930']</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -923,7 +923,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Yaoundé']</t>
+          <t>['http://www.wikidata.org/entity/Q3808']</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -943,7 +943,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>['1325']</t>
+          <t>['1811']</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>['34084130000']</t>
+          <t>['34112.5']</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -983,7 +983,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/A_Summer_Tale', 'http://dbpedia.org/resource/Afghan_Muscles', 'http://dbpedia.org/resource/After_the_Wedding_(2006_film)', 'http://dbpedia.org/resource/Ai_Weiwei:_The_Fake_Case', 'http://dbpedia.org/resource/Another_Round_(film)', 'http://dbpedia.org/resource/Antichrist_(film)__Antichrist__1', 'http://dbpedia.org/resource/Arn:_The_Knight_Templar', 'http://dbpedia.org/resource/Bag_Københavns_kulisser', 'http://dbpedia.org/resource/Barefoot_(2017_film)', "http://dbpedia.org/resource/Benny's_Bathtub", 'http://dbpedia.org/resource/Bionicle:_Mask_of_Light', 'http://dbpedia.org/resource/Bornholms_stemme', 'http://dbpedia.org/resource/Breaking_the_Waves', 'http://dbpedia.org/resource/Busters_verden', 'http://dbpedia.org/resource/Constance_(film)', 'http://dbpedia.org/resource/Crying_for_Love', 'http://dbpedia.org/resource/De_besejrede_Pebersvende', 'http://dbpedia.org/resource/De_Udstillede', 'http://dbpedia.org/resource/Den_farlige_alder', 'http://dbpedia.org/resource/Den_kulørte_Slavehandler', 'http://dbpedia.org/resource/Der_var_engang_en_vicevært', 'http://dbpedia.org/resource/Ditte,_Child_of_Man', 'http://dbpedia.org/resource/Domino_(2019_film)', 'http://dbpedia.org/resource/Don_Olsen_kommer_til_byen', 'http://dbpedia.org/resource/Driving_with_Greenland_Dogs', 'http://dbpedia.org/resource/Echo_(2007_film)', 'http://dbpedia.org/resource/Eddy_Merckx_in_the_Vicinity_of_a_Cup_of_Coffee', 'http://dbpedia.org/resource/Eksperimentet', 'http://dbpedia.org/resource/En_slem_Dreng', 'http://dbpedia.org/resource/Eye_of_the_Eagle_(1997_film)', 'http://dbpedia.org/resource/Familien_Pille_som_Spejdere', 'http://dbpedia.org/resource/Family_Matters_(film)', 'http://dbpedia.org/resource/Farlig_Ungdom', 'http://dbpedia.org/resource/Fidibus', 'http://dbpedia.org/resource/Five_Get_into_Trouble_(film)', 'http://dbpedia.org/resource/Flee_(film)', 'http://dbpedia.org/resource/Flickering_Lights', 'http://dbpedia.org/resource/Frække_Frida_og_de_frygtløse_spioner', 'http://dbpedia.org/resource/Frk._Møllers_jubilæum', 'http://dbpedia.org/resource/Frode_og_alle_de_andre_rødder__Frode_og_alle_de_andre_rødder__1', "http://dbpedia.org/resource/Gasolin'_(film)", 'http://dbpedia.org/resource/Ghost_Train_International', 'http://dbpedia.org/resource/Giv_Gud_en_chance_om_søndagen', "http://dbpedia.org/resource/Goutte_d'Or_(film)", "http://dbpedia.org/resource/Help!_I'm_a_Fish", 'http://dbpedia.org/resource/Herberg_for_Hjemløse', 'http://dbpedia.org/resource/His_New_Grey_Trousers', 'http://dbpedia.org/resource/Højt_paa_en_kvist', 'http://dbpedia.org/resource/Holes_in_the_Soup', 'http://dbpedia.org/resource/Human_Remains_(film)', 'http://dbpedia.org/resource/Ikíngut', 'http://dbpedia.org/resource/Jag_är_din_krigare', 'http://dbpedia.org/resource/Jeg_har_elsket_og_levet', 'http://dbpedia.org/resource/Journey_to_Saturn', 'http://dbpedia.org/resource/Kærlighed_og_Mobilisering', "http://dbpedia.org/resource/Karla's_World", 'http://dbpedia.org/resource/Khartoum_Offside', "http://dbpedia.org/resource/Kira's_Reason:_A_Love_Story", 'http://dbpedia.org/resource/Klown_Forever', 'http://dbpedia.org/resource/København,_Kalundborg_og_-_%3F', 'http://dbpedia.org/resource/Koko-di_Koko-da', 'http://dbpedia.org/resource/Kun_en_Tigger', 'http://dbpedia.org/resource/Little_Brother,_Big_Trouble:_A_Christmas_Adventure', 'http://dbpedia.org/resource/Løvejagten', 'http://dbpedia.org/resource/Manslaughter_(2005_film)', 'http://dbpedia.org/resource/Margrete:_Queen_of_the_North', 'http://dbpedia.org/resource/Matador_(Danish_TV_series)', 'http://dbpedia.org/resource/Melody_of_Murder', 'http://dbpedia.org/resource/Minor_Mishaps', 'http://dbpedia.org/resource/Monas_verden', 'http://dbpedia.org/resource/Murderous_Trance', 'http://dbpedia.org/resource/Murk_(film)', 'http://dbpedia.org/resource/Nation_Estate', 'http://dbpedia.org/resource/Next_Stop_Paradise_(1980_film)', 'http://dbpedia.org/resource/Nøddebo_Præstegård_(1934_film)', 'http://dbpedia.org/resource/Nøddebo_Præstegård_(1974_film)', 'http://dbpedia.org/resource/Nordhavets_mænd', 'http://dbpedia.org/resource/Nynne', "http://dbpedia.org/resource/O'_Horten", 'http://dbpedia.org/resource/Pelle_the_Conqueror', 'http://dbpedia.org/resource/Pervert_Park', 'http://dbpedia.org/resource/Princess_(2006_film)', 'http://dbpedia.org/resource/Pusher_(film_series)', 'http://dbpedia.org/resource/Regel_nr._1', 'http://dbpedia.org/resource/Reptilicus', 'http://dbpedia.org/resource/Return_to_Sender_(2004_film)', 'http://dbpedia.org/resource/Samson_&amp;_Sally', 'http://dbpedia.org/resource/Sekstet', 'http://dbpedia.org/resource/Smiling_in_a_War_Zone', 'http://dbpedia.org/resource/Something_Better_to_Come', 'http://dbpedia.org/resource/Songs_from_the_Second_Floor', 'http://dbpedia.org/resource/Sons_of_the_Soil', 'http://dbpedia.org/resource/Speed_Sisters', 'http://dbpedia.org/resource/Speed_Walking', 'http://dbpedia.org/resource/Stealing_Rembrandt', 'http://dbpedia.org/resource/Stjerneskud', 'http://dbpedia.org/resource/Stolen_Spring_(film)', 'http://dbpedia.org/resource/Storm_(2009_film)', 'http://dbpedia.org/resource/Strømer', 'http://dbpedia.org/resource/Sun_over_Denmark', 'http://dbpedia.org/resource/Sunes_familie', 'http://dbpedia.org/resource/Supervoksen', 'http://dbpedia.org/resource/Susanne_(1950_film)', 'http://dbpedia.org/resource/Teddy_Bear_(2012_film)', 'http://dbpedia.org/resource/Terribly_Happy', "http://dbpedia.org/resource/That's_Me,_Too", 'http://dbpedia.org/resource/The_Crimson_Circle_(1960_film)', 'http://dbpedia.org/resource/The_Forbidden_Team', 'http://dbpedia.org/resource/The_House_of_the_Spirits_(film)', 'http://dbpedia.org/resource/The_Inheritance_(2003_film)', "http://dbpedia.org/resource/The_King's_Choice", 'http://dbpedia.org/resource/The_Lego_Ninjago_Movie', 'http://dbpedia.org/resource/The_Mahabharata_(1989_film)', 'http://dbpedia.org/resource/The_Monastery:_Mr._Vig_and_the_Nun', 'http://dbpedia.org/resource/The_Perfect_Human', 'http://dbpedia.org/resource/The_Red_Meadows', 'http://dbpedia.org/resource/The_Thralls', 'http://dbpedia.org/resource/The_Viking_Watch_of_the_Danish_Seaman', 'http://dbpedia.org/resource/The_White_Slave_Trade', 'http://dbpedia.org/resource/Those_Blasted_Kids', 'http://dbpedia.org/resource/Torremolinos_73', 'http://dbpedia.org/resource/Valhalla_(1986_film)', 'http://dbpedia.org/resource/Vildledt_Elskov', "http://dbpedia.org/resource/We_Meet_at_Tove's", 'http://dbpedia.org/resource/Webmaster_(film)', 'http://dbpedia.org/resource/What_No_One_Knows', 'http://dbpedia.org/resource/You_Are_Not_Alone_(film)']</t>
+          <t>['http://www.wikidata.org/entity/Q100165776', 'http://www.wikidata.org/entity/Q100235422', 'http://www.wikidata.org/entity/Q100272327', 'http://www.wikidata.org/entity/Q100272328', 'http://www.wikidata.org/entity/Q100272330', 'http://www.wikidata.org/entity/Q100272332', 'http://www.wikidata.org/entity/Q100272333', 'http://www.wikidata.org/entity/Q100272334', 'http://www.wikidata.org/entity/Q100272335', 'http://www.wikidata.org/entity/Q100272336', 'http://www.wikidata.org/entity/Q100272337', 'http://www.wikidata.org/entity/Q100272338', 'http://www.wikidata.org/entity/Q100272339', 'http://www.wikidata.org/entity/Q100272340', 'http://www.wikidata.org/entity/Q100272341', 'http://www.wikidata.org/entity/Q100272342', 'http://www.wikidata.org/entity/Q100272343', 'http://www.wikidata.org/entity/Q100272344', 'http://www.wikidata.org/entity/Q100272345', 'http://www.wikidata.org/entity/Q100272346', 'http://www.wikidata.org/entity/Q100272347', 'http://www.wikidata.org/entity/Q100272348', 'http://www.wikidata.org/entity/Q100272349', 'http://www.wikidata.org/entity/Q100272350', 'http://www.wikidata.org/entity/Q100272351', 'http://www.wikidata.org/entity/Q100272354', 'http://www.wikidata.org/entity/Q100272355', 'http://www.wikidata.org/entity/Q100272356', 'http://www.wikidata.org/entity/Q100272357', 'http://www.wikidata.org/entity/Q100272358', 'http://www.wikidata.org/entity/Q100272359', 'http://www.wikidata.org/entity/Q100272360', 'http://www.wikidata.org/entity/Q100272361', 'http://www.wikidata.org/entity/Q100272364', 'http://www.wikidata.org/entity/Q100272365', 'http://www.wikidata.org/entity/Q100272366', 'http://www.wikidata.org/entity/Q100272367', 'http://www.wikidata.org/entity/Q100272368', 'http://www.wikidata.org/entity/Q100272369', 'http://www.wikidata.org/entity/Q100272370', 'http://www.wikidata.org/entity/Q100272371', 'http://www.wikidata.org/entity/Q100272372', 'http://www.wikidata.org/entity/Q100272373', 'http://www.wikidata.org/entity/Q100272374', 'http://www.wikidata.org/entity/Q100272375', 'http://www.wikidata.org/entity/Q100272377', 'http://www.wikidata.org/entity/Q100272378', 'http://www.wikidata.org/entity/Q100272379', 'http://www.wikidata.org/entity/Q100272380', 'http://www.wikidata.org/entity/Q100272381', 'http://www.wikidata.org/entity/Q100272383', 'http://www.wikidata.org/entity/Q100272385', 'http://www.wikidata.org/entity/Q100272386', 'http://www.wikidata.org/entity/Q100272388', 'http://www.wikidata.org/entity/Q100272389', 'http://www.wikidata.org/entity/Q100272390', 'http://www.wikidata.org/entity/Q100272391', 'http://www.wikidata.org/entity/Q100272392', 'http://www.wikidata.org/entity/Q100272393', 'http://www.wikidata.org/entity/Q100272394', 'http://www.wikidata.org/entity/Q100272395', 'http://www.wikidata.org/entity/Q100272396', 'http://www.wikidata.org/entity/Q100272398', 'http://www.wikidata.org/entity/Q100272399', 'http://www.wikidata.org/entity/Q100272400', 'http://www.wikidata.org/entity/Q100272401', 'http://www.wikidata.org/entity/Q100272402', 'http://www.wikidata.org/entity/Q100272403', 'http://www.wikidata.org/entity/Q100272404', 'http://www.wikidata.org/entity/Q100272405', 'http://www.wikidata.org/entity/Q100272406', 'http://www.wikidata.org/entity/Q100272407', 'http://www.wikidata.org/entity/Q100272408', 'http://www.wikidata.org/entity/Q100272409', 'http://www.wikidata.org/entity/Q100272410', 'http://www.wikidata.org/entity/Q100272411', 'http://www.wikidata.org/entity/Q100272412', 'http://www.wikidata.org/entity/Q100272413', 'http://www.wikidata.org/entity/Q100272415', 'http://www.wikidata.org/entity/Q100272416', 'http://www.wikidata.org/entity/Q100272417', 'http://www.wikidata.org/entity/Q100272418', 'http://www.wikidata.org/entity/Q100272419', 'http://www.wikidata.org/entity/Q100272420', 'http://www.wikidata.org/entity/Q100272421', 'http://www.wikidata.org/entity/Q100272422', 'http://www.wikidata.org/entity/Q100272423', 'http://www.wikidata.org/entity/Q100272424', 'http://www.wikidata.org/entity/Q100272425', 'http://www.wikidata.org/entity/Q100272426', 'http://www.wikidata.org/entity/Q100272427', 'http://www.wikidata.org/entity/Q100272428', 'http://www.wikidata.org/entity/Q100272429', 'http://www.wikidata.org/entity/Q100272430', 'http://www.wikidata.org/entity/Q100272431', 'http://www.wikidata.org/entity/Q100272432', 'http://www.wikidata.org/entity/Q100272433', 'http://www.wikidata.org/entity/Q100272434', 'http://www.wikidata.org/entity/Q100272435', 'http://www.wikidata.org/entity/Q100272436', 'http://www.wikidata.org/entity/Q100272437', 'http://www.wikidata.org/entity/Q100272438', 'http://www.wikidata.org/entity/Q100334343', 'http://www.wikidata.org/entity/Q100334344', 'http://www.wikidata.org/entity/Q100334346', 'http://www.wikidata.org/entity/Q100334347', 'http://www.wikidata.org/entity/Q100334350', 'http://www.wikidata.org/entity/Q100334352', 'http://www.wikidata.org/entity/Q100334354', 'http://www.wikidata.org/entity/Q100334355', 'http://www.wikidata.org/entity/Q100334357', 'http://www.wikidata.org/entity/Q100334358', 'http://www.wikidata.org/entity/Q100334360', 'http://www.wikidata.org/entity/Q100334363', 'http://www.wikidata.org/entity/Q100334364', 'http://www.wikidata.org/entity/Q100334367', 'http://www.wikidata.org/entity/Q100334369', 'http://www.wikidata.org/entity/Q100334371', 'http://www.wikidata.org/entity/Q100334373', 'http://www.wikidata.org/entity/Q100334376', 'http://www.wikidata.org/entity/Q100334377', 'http://www.wikidata.org/entity/Q100334379', 'http://www.wikidata.org/entity/Q100334381', 'http://www.wikidata.org/entity/Q100334384', 'http://www.wikidata.org/entity/Q100334386', 'http://www.wikidata.org/entity/Q100334389', 'http://www.wikidata.org/entity/Q100334391', 'http://www.wikidata.org/entity/Q100334393', 'http://www.wikidata.org/entity/Q100334395', 'http://www.wikidata.org/entity/Q100334397', 'http://www.wikidata.org/entity/Q100334400', 'http://www.wikidata.org/entity/Q100334402', 'http://www.wikidata.org/entity/Q100334404', 'http://www.wikidata.org/entity/Q100334406', 'http://www.wikidata.org/entity/Q100334408', 'http://www.wikidata.org/entity/Q100334410', 'http://www.wikidata.org/entity/Q100334412', 'http://www.wikidata.org/entity/Q100334414', 'http://www.wikidata.org/entity/Q100334415', 'http://www.wikidata.org/entity/Q100334418', 'http://www.wikidata.org/entity/Q100334419', 'http://www.wikidata.org/entity/Q100334421', 'http://www.wikidata.org/entity/Q100334423', 'http://www.wikidata.org/entity/Q100334426', 'http://www.wikidata.org/entity/Q100334429', 'http://www.wikidata.org/entity/Q100334431', 'http://www.wikidata.org/entity/Q100334433', 'http://www.wikidata.org/entity/Q100334435', 'http://www.wikidata.org/entity/Q100334437', 'http://www.wikidata.org/entity/Q100334439', 'http://www.wikidata.org/entity/Q100334442', 'http://www.wikidata.org/entity/Q100334444', 'http://www.wikidata.org/entity/Q100334447', 'http://www.wikidata.org/entity/Q100334449', 'http://www.wikidata.org/entity/Q100334450', 'http://www.wikidata.org/entity/Q100334452', 'http://www.wikidata.org/entity/Q100334454', 'http://www.wikidata.org/entity/Q100334456', 'http://www.wikidata.org/entity/Q100334458', 'http://www.wikidata.org/entity/Q100334462', 'http://www.wikidata.org/entity/Q100334464', 'http://www.wikidata.org/entity/Q100334467', 'http://www.wikidata.org/entity/Q100334469', 'http://www.wikidata.org/entity/Q100334471', 'http://www.wikidata.org/entity/Q100334473', 'http://www.wikidata.org/entity/Q100334476', 'http://www.wikidata.org/entity/Q100334477', 'http://www.wikidata.org/entity/Q100334480', 'http://www.wikidata.org/entity/Q100334482', 'http://www.wikidata.org/entity/Q100334485', 'http://www.wikidata.org/entity/Q100334487', 'http://www.wikidata.org/entity/Q100334489', 'http://www.wikidata.org/entity/Q100334492', 'http://www.wikidata.org/entity/Q100334494', 'http://www.wikidata.org/entity/Q100334498', 'http://www.wikidata.org/entity/Q100334500', 'http://www.wikidata.org/entity/Q100334502', 'http://www.wikidata.org/entity/Q100334504', 'http://www.wikidata.org/entity/Q100334507', 'http://www.wikidata.org/entity/Q100334509', 'http://www.wikidata.org/entity/Q100334511', 'http://www.wikidata.org/entity/Q100334514', 'http://www.wikidata.org/entity/Q100334516', 'http://www.wikidata.org/entity/Q100334519', 'http://www.wikidata.org/entity/Q100334521', 'http://www.wikidata.org/entity/Q100334523', 'http://www.wikidata.org/entity/Q100334525', 'http://www.wikidata.org/entity/Q100334527', 'http://www.wikidata.org/entity/Q100334531', 'http://www.wikidata.org/entity/Q100334533', 'http://www.wikidata.org/entity/Q100334534', 'http://www.wikidata.org/entity/Q100334537', 'http://www.wikidata.org/entity/Q100334538', 'http://www.wikidata.org/entity/Q100334540', 'http://www.wikidata.org/entity/Q100334542', 'http://www.wikidata.org/entity/Q100334545', 'http://www.wikidata.org/entity/Q100334547', 'http://www.wikidata.org/entity/Q100334549', 'http://www.wikidata.org/entity/Q100334550', 'http://www.wikidata.org/entity/Q100334552', 'http://www.wikidata.org/entity/Q100334553', 'http://www.wikidata.org/entity/Q100334555', 'http://www.wikidata.org/entity/Q100334558', 'http://www.wikidata.org/entity/Q100334560', 'http://www.wikidata.org/entity/Q100334564', 'http://www.wikidata.org/entity/Q100334566', 'http://www.wikidata.org/entity/Q100334568', 'http://www.wikidata.org/entity/Q100334570', 'http://www.wikidata.org/entity/Q100334572', 'http://www.wikidata.org/entity/Q100334575', 'http://www.wikidata.org/entity/Q100334577', 'http://www.wikidata.org/entity/Q100334581', 'http://www.wikidata.org/entity/Q100334583', 'http://www.wikidata.org/entity/Q100334585', 'http://www.wikidata.org/entity/Q100334587', 'http://www.wikidata.org/entity/Q100334589', 'http://www.wikidata.org/entity/Q100334591', 'http://www.wikidata.org/entity/Q100334593', 'http://www.wikidata.org/entity/Q100334595', 'http://www.wikidata.org/entity/Q100334598', 'http://www.wikidata.org/entity/Q100334600', 'http://www.wikidata.org/entity/Q100334602', 'http://www.wikidata.org/entity/Q100334604', 'http://www.wikidata.org/entity/Q100334606', 'http://www.wikidata.org/entity/Q100334608', 'http://www.wikidata.org/entity/Q100334611', 'http://www.wikidata.org/entity/Q100334614', 'http://www.wikidata.org/entity/Q100334617', 'http://www.wikidata.org/entity/Q100334620', 'http://www.wikidata.org/entity/Q100334624', 'http://www.wikidata.org/entity/Q100334625', 'http://www.wikidata.org/entity/Q100334628', 'http://www.wikidata.org/entity/Q100334631', 'http://www.wikidata.org/entity/Q100334633', 'http://www.wikidata.org/entity/Q100334634', 'http://www.wikidata.org/entity/Q100334636', 'http://www.wikidata.org/entity/Q100334638', 'http://www.wikidata.org/entity/Q100334640', 'http://www.wikidata.org/entity/Q100334642', 'http://www.wikidata.org/entity/Q100334644', 'http://www.wikidata.org/entity/Q100334647', 'http://www.wikidata.org/entity/Q100334649', 'http://www.wikidata.org/entity/Q100334651', 'http://www.wikidata.org/entity/Q100334652', 'http://www.wikidata.org/entity/Q100334654', 'http://www.wikidata.org/entity/Q100334656', 'http://www.wikidata.org/entity/Q100334660', 'http://www.wikidata.org/entity/Q100334662', 'http://www.wikidata.org/entity/Q100334664', 'http://www.wikidata.org/entity/Q100334667', 'http://www.wikidata.org/entity/Q100334669', 'http://www.wikidata.org/entity/Q100334671', 'http://www.wikidata.org/entity/Q100334674', 'http://www.wikidata.org/entity/Q100334678', 'http://www.wikidata.org/entity/Q100334683', 'http://www.wikidata.org/entity/Q100334685', 'http://www.wikidata.org/entity/Q100334688', 'http://www.wikidata.org/entity/Q100334691', 'http://www.wikidata.org/entity/Q100334695', 'http://www.wikidata.org/entity/Q100334698', 'http://www.wikidata.org/entity/Q100334701', 'http://www.wikidata.org/entity/Q100334704', 'http://www.wikidata.org/entity/Q100334707', 'http://www.wikidata.org/entity/Q100334710', 'http://www.wikidata.org/entity/Q100334713', 'http://www.wikidata.org/entity/Q100334715', 'http://www.wikidata.org/entity/Q100334716', 'http://www.wikidata.org/entity/Q100334719', 'http://www.wikidata.org/entity/Q100334722', 'http://www.wikidata.org/entity/Q100334726', 'http://www.wikidata.org/entity/Q100334731', 'http://www.wikidata.org/entity/Q100334735', 'http://www.wikidata.org/entity/Q100334738', 'http://www.wikidata.org/entity/Q100334741', 'http://www.wikidata.org/entity/Q100334744', 'http://www.wikidata.org/entity/Q100334747', 'http://www.wikidata.org/entity/Q100334751', 'http://www.wikidata.org/entity/Q100334754', 'http://www.wikidata.org/entity/Q100334759', 'http://www.wikidata.org/entity/Q100334762', 'http://www.wikidata.org/entity/Q100334767', 'http://www.wikidata.org/entity/Q100334771', 'http://www.wikidata.org/entity/Q100334774', 'http://www.wikidata.org/entity/Q100334777', 'http://www.wikidata.org/entity/Q100334780', 'http://www.wikidata.org/entity/Q100334784', 'http://www.wikidata.org/entity/Q100334787', 'http://www.wikidata.org/entity/Q100334790', 'http://www.wikidata.org/entity/Q100334794', 'http://www.wikidata.org/entity/Q100334799', 'http://www.wikidata.org/entity/Q100334803', 'http://www.wikidata.org/entity/Q100334807', 'http://www.wikidata.org/entity/Q100334811', 'http://www.wikidata.org/entity/Q100334816', 'http://www.wikidata.org/entity/Q100334818', 'http://www.wikidata.org/entity/Q100334823', 'http://www.wikidata.org/entity/Q100334828', 'http://www.wikidata.org/entity/Q100334831', 'http://www.wikidata.org/entity/Q100334836', 'http://www.wikidata.org/entity/Q100334838', 'http://www.wikidata.org/entity/Q100334841', 'http://www.wikidata.org/entity/Q100334845', 'http://www.wikidata.org/entity/Q100334848', 'http://www.wikidata.org/entity/Q100334851', 'http://www.wikidata.org/entity/Q100334855', 'http://www.wikidata.org/entity/Q100334858', 'http://www.wikidata.org/entity/Q100334861', 'http://www.wikidata.org/entity/Q100334867', 'http://www.wikidata.org/entity/Q100334871', 'http://www.wikidata.org/entity/Q100334878', 'http://www.wikidata.org/entity/Q100334882', 'http://www.wikidata.org/entity/Q100334885', 'http://www.wikidata.org/entity/Q100334887', 'http://www.wikidata.org/entity/Q100334890', 'http://www.wikidata.org/entity/Q100334893', 'http://www.wikidata.org/entity/Q100334895', 'http://www.wikidata.org/entity/Q100334898', 'http://www.wikidata.org/entity/Q100334900', 'http://www.wikidata.org/entity/Q100334904', 'http://www.wikidata.org/entity/Q100334907', 'http://www.wikidata.org/entity/Q100334911', 'http://www.wikidata.org/entity/Q100334913', 'http://www.wikidata.org/entity/Q100334916', 'http://www.wikidata.org/entity/Q100334918', 'http://www.wikidata.org/entity/Q100334922', 'http://www.wikidata.org/entity/Q100334925', 'http://www.wikidata.org/entity/Q100334928', 'http://www.wikidata.org/entity/Q100334930', 'http://www.wikidata.org/entity/Q100334933', 'http://www.wikidata.org/entity/Q100334937', 'http://www.wikidata.org/entity/Q100334940', 'http://www.wikidata.org/entity/Q100334943', 'http://www.wikidata.org/entity/Q100334947', 'http://www.wikidata.org/entity/Q100334950', 'http://www.wikidata.org/entity/Q100334954', 'http://www.wikidata.org/entity/Q100334958', 'http://www.wikidata.org/entity/Q100334963', 'http://www.wikidata.org/entity/Q100334967', 'http://www.wikidata.org/entity/Q100334970', 'http://www.wikidata.org/entity/Q100334975', 'http://www.wikidata.org/entity/Q100334978', 'http://www.wikidata.org/entity/Q100334981', 'http://www.wikidata.org/entity/Q100334983', 'http://www.wikidata.org/entity/Q100334985', 'http://www.wikidata.org/entity/Q100334989', 'http://www.wikidata.org/entity/Q100334992', 'http://www.wikidata.org/entity/Q100334995', 'http://www.wikidata.org/entity/Q100334999', 'http://www.wikidata.org/entity/Q100335003', 'http://www.wikidata.org/entity/Q100335005', 'http://www.wikidata.org/entity/Q100335009', 'http://www.wikidata.org/entity/Q100335013', 'http://www.wikidata.org/entity/Q100335015', 'http://www.wikidata.org/entity/Q100335019', 'http://www.wikidata.org/entity/Q100335023', 'http://www.wikidata.org/entity/Q100335026', 'http://www.wikidata.org/entity/Q100335032', 'http://www.wikidata.org/entity/Q100335035', 'http://www.wikidata.org/entity/Q100335038', 'http://www.wikidata.org/entity/Q100335041', 'http://www.wikidata.org/entity/Q100335043', 'http://www.wikidata.org/entity/Q100335046', 'http://www.wikidata.org/entity/Q100335049', 'http://www.wikidata.org/entity/Q100335051', 'http://www.wikidata.org/entity/Q100335055', 'http://www.wikidata.org/entity/Q100335058', 'http://www.wikidata.org/entity/Q100335061', 'http://www.wikidata.org/entity/Q100335062', 'http://www.wikidata.org/entity/Q100335066', 'http://www.wikidata.org/entity/Q100335068', 'http://www.wikidata.org/entity/Q100335070', 'http://www.wikidata.org/entity/Q100335073', 'http://www.wikidata.org/entity/Q100335074', 'http://www.wikidata.org/entity/Q100335078', 'http://www.wikidata.org/entity/Q100335081', 'http://www.wikidata.org/entity/Q100335082', 'http://www.wikidata.org/entity/Q100335085', 'http://www.wikidata.org/entity/Q100335090', 'http://www.wikidata.org/entity/Q100335093', 'http://www.wikidata.org/entity/Q100335095', 'http://www.wikidata.org/entity/Q100335098', 'http://www.wikidata.org/entity/Q100335102', 'http://www.wikidata.org/entity/Q100335104', 'http://www.wikidata.org/entity/Q100335107', 'http://www.wikidata.org/entity/Q100335110', 'http://www.wikidata.org/entity/Q100335112', 'http://www.wikidata.org/entity/Q100335115', 'http://www.wikidata.org/entity/Q100335118', 'http://www.wikidata.org/entity/Q100335120', 'http://www.wikidata.org/entity/Q100335123', 'http://www.wikidata.org/entity/Q100335126', 'http://www.wikidata.org/entity/Q100335129', 'http://www.wikidata.org/entity/Q100335132', 'http://www.wikidata.org/entity/Q100335134', 'http://www.wikidata.org/entity/Q100335136', 'http://www.wikidata.org/entity/Q100335139', 'http://www.wikidata.org/entity/Q100335141', 'http://www.wikidata.org/entity/Q100335144', 'http://www.wikidata.org/entity/Q100335147', 'http://www.wikidata.org/entity/Q100335148', 'http://www.wikidata.org/entity/Q100335152', 'http://www.wikidata.org/entity/Q100335154', 'http://www.wikidata.org/entity/Q100335157', 'http://www.wikidata.org/entity/Q100335159', 'http://www.wikidata.org/entity/Q100335161', 'http://www.wikidata.org/entity/Q100335163', 'http://www.wikidata.org/entity/Q100335164', 'http://www.wikidata.org/entity/Q100335166', 'http://www.wikidata.org/entity/Q100335168', 'http://www.wikidata.org/entity/Q100335170', 'http://www.wikidata.org/entity/Q100335174', 'http://www.wikidata.org/entity/Q100335176', 'http://www.wikidata.org/entity/Q100335178', 'http://www.wikidata.org/entity/Q100335180', 'http://www.wikidata.org/entity/Q100335181', 'http://www.wikidata.org/entity/Q100335183', 'http://www.wikidata.org/entity/Q100335185', 'http://www.wikidata.org/entity/Q100335187', 'http://www.wikidata.org/entity/Q100335189', 'http://www.wikidata.org/entity/Q100335191', 'http://www.wikidata.org/entity/Q100335194', 'http://www.wikidata.org/entity/Q100335196', 'http://www.wikidata.org/entity/Q100335198', 'http://www.wikidata.org/entity/Q100335200', 'http://www.wikidata.org/entity/Q100335202', 'http://www.wikidata.org/entity/Q100335204', 'http://www.wikidata.org/entity/Q100335206', 'http://www.wikidata.org/entity/Q100335208', 'http://www.wikidata.org/entity/Q100335209', 'http://www.wikidata.org/entity/Q100335213', 'http://www.wikidata.org/entity/Q100335214', 'http://www.wikidata.org/entity/Q100335216', 'http://www.wikidata.org/entity/Q100335218', 'http://www.wikidata.org/entity/Q100335220', 'http://www.wikidata.org/entity/Q100335222', 'http://www.wikidata.org/entity/Q100335223', 'http://www.wikidata.org/entity/Q100335225', 'http://www.wikidata.org/entity/Q100335227', 'http://www.wikidata.org/entity/Q100335230', 'http://www.wikidata.org/entity/Q100335232', 'http://www.wikidata.org/entity/Q100335233', 'http://www.wikidata.org/entity/Q100335236', 'http://www.wikidata.org/entity/Q100335238', 'http://www.wikidata.org/entity/Q100335240', 'http://www.wikidata.org/entity/Q100335241', 'http://www.wikidata.org/entity/Q100335243', 'http://www.wikidata.org/entity/Q100335245', 'http://www.wikidata.org/entity/Q100335248', 'http://www.wikidata.org/entity/Q100335249', 'http://www.wikidata.org/entity/Q100335251', 'http://www.wikidata.org/entity/Q100335253', 'http://www.wikidata.org/entity/Q100335255', 'http://www.wikidata.org/entity/Q100335257', 'http://www.wikidata.org/entity/Q100335259', 'http://www.wikidata.org/entity/Q100335262', 'http://www.wikidata.org/entity/Q100335263', 'http://www.wikidata.org/entity/Q100335265', 'http://www.wikidata.org/entity/Q100335267', 'http://www.wikidata.org/entity/Q100335269', 'http://www.wikidata.org/entity/Q100335270', 'http://www.wikidata.org/entity/Q100335272', 'http://www.wikidata.org/entity/Q100335274', 'http://www.wikidata.org/entity/Q100335276', 'http://www.wikidata.org/entity/Q100335278', 'http://www.wikidata.org/entity/Q100335280', 'http://www.wikidata.org/entity/Q100335282', 'http://www.wikidata.org/entity/Q100335285', 'http://www.wikidata.org/entity/Q100335286', 'http://www.wikidata.org/entity/Q100335288', 'http://www.wikidata.org/entity/Q100335290', 'http://www.wikidata.org/entity/Q100335293', 'http://www.wikidata.org/entity/Q100335295', 'http://www.wikidata.org/entity/Q100335297', 'http://www.wikidata.org/entity/Q100335299', 'http://www.wikidata.org/entity/Q100335301', 'http://www.wikidata.org/entity/Q100335304', 'http://www.wikidata.org/entity/Q100335306', 'http://www.wikidata.org/entity/Q100335307', 'http://www.wikidata.org/entity/Q100335309', 'http://www.wikidata.org/entity/Q100335312', 'http://www.wikidata.org/entity/Q100335315', 'http://www.wikidata.org/entity/Q100335317', 'http://www.wikidata.org/entity/Q100335320', 'http://www.wikidata.org/entity/Q100335324', 'http://www.wikidata.org/entity/Q100335328', 'http://www.wikidata.org/entity/Q100335331', 'http://www.wikidata.org/entity/Q100335334', 'http://www.wikidata.org/entity/Q100335337', 'http://www.wikidata.org/entity/Q100335341', 'http://www.wikidata.org/entity/Q100335344', 'http://www.wikidata.org/entity/Q100335346', 'http://www.wikidata.org/entity/Q100335352', 'http://www.wikidata.org/entity/Q100335356', 'http://www.wikidata.org/entity/Q100335359', 'http://www.wikidata.org/entity/Q100335362', 'http://www.wikidata.org/entity/Q100335365', 'http://www.wikidata.org/entity/Q100335368', 'http://www.wikidata.org/entity/Q100335371', 'http://www.wikidata.org/entity/Q100335374', 'http://www.wikidata.org/entity/Q100335377', 'http://www.wikidata.org/entity/Q100335379', 'http://www.wikidata.org/entity/Q100335383', 'http://www.wikidata.org/entity/Q100335387', 'http://www.wikidata.org/entity/Q100335390', 'http://www.wikidata.org/entity/Q100335393', 'http://www.wikidata.org/entity/Q100335396', 'http://www.wikidata.org/entity/Q100335399', 'http://www.wikidata.org/entity/Q100335403', 'http://www.wikidata.org/entity/Q100335405', 'http://www.wikidata.org/entity/Q100335408', 'http://www.wikidata.org/entity/Q100335411', 'http://www.wikidata.org/entity/Q100335415', 'http://www.wikidata.org/entity/Q100335418', 'http://www.wikidata.org/entity/Q100335421', 'http://www.wikidata.org/entity/Q100335424', 'http://www.wikidata.org/entity/Q100335428', 'http://www.wikidata.org/entity/Q100335431', 'http://www.wikidata.org/entity/Q100335434', 'http://www.wikidata.org/entity/Q100335437', 'http://www.wikidata.org/entity/Q100335440', 'http://www.wikidata.org/entity/Q100335444', 'http://www.wikidata.org/entity/Q100335446', 'http://www.wikidata.org/entity/Q100335450', 'http://www.wikidata.org/entity/Q100335453', 'http://www.wikidata.org/entity/Q100335455', 'http://www.wikidata.org/entity/Q100335458', 'http://www.wikidata.org/entity/Q100335461', 'http://www.wikidata.org/entity/Q100335463', 'http://www.wikidata.org/entity/Q100335466', 'http://www.wikidata.org/entity/Q100335469', 'http://www.wikidata.org/entity/Q100335472', 'http://www.wikidata.org/entity/Q100335475', 'http://www.wikidata.org/entity/Q100335479', 'http://www.wikidata.org/entity/Q100335482', 'http://www.wikidata.org/entity/Q100335485', 'http://www.wikidata.org/entity/Q100335488', 'http://www.wikidata.org/entity/Q100335491', 'http://www.wikidata.org/entity/Q100335494', 'http://www.wikidata.org/entity/Q100335497', 'http://www.wikidata.org/entity/Q100335501', 'http://www.wikidata.org/entity/Q100335504', 'http://www.wikidata.org/entity/Q100335507', 'http://www.wikidata.org/entity/Q100335508', 'http://www.wikidata.org/entity/Q100335512', 'http://www.wikidata.org/entity/Q100335515', 'http://www.wikidata.org/entity/Q100335518', 'http://www.wikidata.org/entity/Q100335521', 'http://www.wikidata.org/entity/Q100335524', 'http://www.wikidata.org/entity/Q100335528', 'http://www.wikidata.org/entity/Q100335531', 'http://www.wikidata.org/entity/Q100335534', 'http://www.wikidata.org/entity/Q100335540', 'http://www.wikidata.org/entity/Q100335542', 'http://www.wikidata.org/entity/Q100335545', 'http://www.wikidata.org/entity/Q100335547', 'http://www.wikidata.org/entity/Q100335550', 'http://www.wikidata.org/entity/Q100335553', 'http://www.wikidata.org/entity/Q100335556', 'http://www.wikidata.org/entity/Q100335560', 'http://www.wikidata.org/entity/Q100335563', 'http://www.wikidata.org/entity/Q100335566', 'http://www.wikidata.org/entity/Q100335570', 'http://www.wikidata.org/entity/Q100335573', 'http://www.wikidata.org/entity/Q100335575', 'http://www.wikidata.org/entity/Q100335578', 'http://www.wikidata.org/entity/Q100335581', 'http://www.wikidata.org/entity/Q100335584', 'http://www.wikidata.org/entity/Q100335588', 'http://www.wikidata.org/entity/Q100335591', 'http://www.wikidata.org/entity/Q100335594', 'http://www.wikidata.org/entity/Q100335596', 'http://www.wikidata.org/entity/Q100335599', 'http://www.wikidata.org/entity/Q100335602', 'http://www.wikidata.org/entity/Q100335605', 'http://www.wikidata.org/entity/Q100335608', 'http://www.wikidata.org/entity/Q100335611', 'http://www.wikidata.org/entity/Q100335614', 'http://www.wikidata.org/entity/Q100335617', 'http://www.wikidata.org/entity/Q100335621', 'http://www.wikidata.org/entity/Q100335624', 'http://www.wikidata.org/entity/Q100335626', 'http://www.wikidata.org/entity/Q100335629', 'http://www.wikidata.org/entity/Q100335632', 'http://www.wikidata.org/entity/Q100335634', 'http://www.wikidata.org/entity/Q100335637', 'http://www.wikidata.org/entity/Q100335641', 'http://www.wikidata.org/entity/Q100335643', 'http://www.wikidata.org/entity/Q100335647', 'http://www.wikidata.org/entity/Q100335649', 'http://www.wikidata.org/entity/Q100335652', 'http://www.wikidata.org/entity/Q100335656', 'http://www.wikidata.org/entity/Q100335659', 'http://www.wikidata.org/entity/Q100335662', 'http://www.wikidata.org/entity/Q100335665', 'http://www.wikidata.org/entity/Q100335668', 'http://www.wikidata.org/entity/Q100335672', 'http://www.wikidata.org/entity/Q100335675', 'http://www.wikidata.org/entity/Q100335677', 'http://www.wikidata.org/entity/Q100335681', 'http://www.wikidata.org/entity/Q100335684', 'http://www.wikidata.org/entity/Q100335687', 'http://www.wikidata.org/entity/Q100335690', 'http://www.wikidata.org/entity/Q100335693', 'http://www.wikidata.org/entity/Q100335696', 'http://www.wikidata.org/entity/Q100335700', 'http://www.wikidata.org/entity/Q100335703', 'http://www.wikidata.org/entity/Q100335706', 'http://www.wikidata.org/entity/Q100335708', 'http://www.wikidata.org/entity/Q100335711', 'http://www.wikidata.org/entity/Q100335714', 'http://www.wikidata.org/entity/Q100335718', 'http://www.wikidata.org/entity/Q100335722', 'http://www.wikidata.org/entity/Q100335726', 'http://www.wikidata.org/entity/Q100335729', 'http://www.wikidata.org/entity/Q100335731', 'http://www.wikidata.org/entity/Q100335734', 'http://www.wikidata.org/entity/Q100335737', 'http://www.wikidata.org/entity/Q100335740', 'http://www.wikidata.org/entity/Q100335742', 'http://www.wikidata.org/entity/Q100335745', 'http://www.wikidata.org/entity/Q100335748', 'http://www.wikidata.org/entity/Q100335751', 'http://www.wikidata.org/entity/Q100335754', 'http://www.wikidata.org/entity/Q100335757', 'http://www.wikidata.org/entity/Q100335759', 'http://www.wikidata.org/entity/Q100335762', 'http://www.wikidata.org/entity/Q100335765', 'http://www.wikidata.org/entity/Q100335768', 'http://www.wikidata.org/entity/Q100335771', 'http://www.wikidata.org/entity/Q100335775', 'http://www.wikidata.org/entity/Q100335779', 'http://www.wikidata.org/entity/Q100335782', 'http://www.wikidata.org/entity/Q100335785', 'http://www.wikidata.org/entity/Q100335788', 'http://www.wikidata.org/entity/Q100335791', 'http://www.wikidata.org/entity/Q100335794', 'http://www.wikidata.org/entity/Q100335797', 'http://www.wikidata.org/entity/Q100335800', 'http://www.wikidata.org/entity/Q100335804', 'http://www.wikidata.org/entity/Q100335808', 'http://www.wikidata.org/entity/Q100335811', 'http://www.wikidata.org/entity/Q100335814', 'http://www.wikidata.org/entity/Q100335817', 'http://www.wikidata.org/entity/Q100335820', 'http://www.wikidata.org/entity/Q100335823', 'http://www.wikidata.org/entity/Q100335826', 'http://www.wikidata.org/entity/Q100335829', 'http://www.wikidata.org/entity/Q100335832', 'http://www.wikidata.org/entity/Q100335836', 'http://www.wikidata.org/entity/Q100335839', 'http://www.wikidata.org/entity/Q100335843', 'http://www.wikidata.org/entity/Q100335846', 'http://www.wikidata.org/entity/Q100335849', 'http://www.wikidata.org/entity/Q100335851', 'http://www.wikidata.org/entity/Q100335858', 'http://www.wikidata.org/entity/Q100335861', 'http://www.wikidata.org/entity/Q100335864', 'http://www.wikidata.org/entity/Q100335867', 'http://www.wikidata.org/entity/Q100335870', 'http://www.wikidata.org/entity/Q100335873', 'http://www.wikidata.org/entity/Q100335877', 'http://www.wikidata.org/entity/Q100335879', 'http://www.wikidata.org/entity/Q100335883', 'http://www.wikidata.org/entity/Q100335887', 'http://www.wikidata.org/entity/Q100335888', 'http://www.wikidata.org/entity/Q100335893', 'http://www.wikidata.org/entity/Q100335895', 'http://www.wikidata.org/entity/Q100335897', 'http://www.wikidata.org/entity/Q100335900', 'http://www.wikidata.org/entity/Q100335904', 'http://www.wikidata.org/entity/Q100335906', 'http://www.wikidata.org/entity/Q100335909', 'http://www.wikidata.org/entity/Q100335913', 'http://www.wikidata.org/entity/Q100335916', 'http://www.wikidata.org/entity/Q100335920', 'http://www.wikidata.org/entity/Q100335922', 'http://www.wikidata.org/entity/Q100335924', 'http://www.wikidata.org/entity/Q100335926', 'http://www.wikidata.org/entity/Q100335929', 'http://www.wikidata.org/entity/Q100335931', 'http://www.wikidata.org/entity/Q100335932', 'http://www.wikidata.org/entity/Q100335934', 'http://www.wikidata.org/entity/Q100335936', 'http://www.wikidata.org/entity/Q100335939', 'http://www.wikidata.org/entity/Q100335940', 'http://www.wikidata.org/entity/Q100335943', 'http://www.wikidata.org/entity/Q100335945', 'http://www.wikidata.org/entity/Q100335947', 'http://www.wikidata.org/entity/Q100335949', 'http://www.wikidata.org/entity/Q100335951', 'http://www.wikidata.org/entity/Q100335954', 'http://www.wikidata.org/entity/Q100335955', 'http://www.wikidata.org/entity/Q100335958', 'http://www.wikidata.org/entity/Q100335959', 'http://www.wikidata.org/entity/Q100335961', 'http://www.wikidata.org/entity/Q100335963', 'http://www.wikidata.org/entity/Q100335965', 'http://www.wikidata.org/entity/Q100335967', 'http://www.wikidata.org/entity/Q100335969', 'http://www.wikidata.org/entity/Q100335970', 'http://www.wikidata.org/entity/Q100335973', 'http://www.wikidata.org/entity/Q100335975', 'http://www.wikidata.org/entity/Q100335976', 'http://www.wikidata.org/entity/Q100335978', 'http://www.wikidata.org/entity/Q100335980', 'http://www.wikidata.org/entity/Q100335982', 'http://www.wikidata.org/entity/Q100335983', 'http://www.wikidata.org/entity/Q100335985', 'http://www.wikidata.org/entity/Q100335987', 'http://www.wikidata.org/entity/Q100335990', 'http://www.wikidata.org/entity/Q100335992', 'http://www.wikidata.org/entity/Q100335994', 'http://www.wikidata.org/entity/Q100335995', 'http://www.wikidata.org/entity/Q100335997', 'http://www.wikidata.org/entity/Q100335998', 'http://www.wikidata.org/entity/Q100336000', 'http://www.wikidata.org/entity/Q100336001', 'http://www.wikidata.org/entity/Q100336004', 'http://www.wikidata.org/entity/Q100336006', 'http://www.wikidata.org/entity/Q100336007', 'http://www.wikidata.org/entity/Q100336009', 'http://www.wikidata.org/entity/Q100336011', 'http://www.wikidata.org/entity/Q100336012', 'http://www.wikidata.org/entity/Q100336014', 'http://www.wikidata.org/entity/Q100336016', 'http://www.wikidata.org/entity/Q100336018', 'http://www.wikidata.org/entity/Q100336020', 'http://www.wikidata.org/entity/Q100336022', 'http:</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">

--- a/QALD9-Plus-testing/baseline-model/baseline-dbpedia-wikidata/baseline_mistral_dbpedia_wikidata_results_comparison.xlsx
+++ b/QALD9-Plus-testing/baseline-model/baseline-dbpedia-wikidata/baseline_mistral_dbpedia_wikidata_results_comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,11 +468,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['17450', 'http://www.wikidata.org/entity/Q123374100']</t>
+          <t>['http://www.wikidata.org/entity/Q123374100']</t>
         </is>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -498,17 +498,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>For which label did Elvis record his first album?</t>
+          <t>When was Olof Palme shot?</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q202585']</t>
+          <t>['http://www.wikidata.org/entity/statement/q53713-5CBE6C03-5BB4-44B8-A01F-639E1678F280']</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q3415083']</t>
+          <t>['2006-12-26T00:00:00Z']</t>
         </is>
       </c>
       <c r="D4" t="b">
@@ -538,37 +538,37 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>What is the highest mountain in Italy?</t>
+          <t>Who was the doctoral supervisor of Albert Einstein?</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q102174232']</t>
+          <t>['http://www.wikidata.org/entity/Q116635', 'http://www.wikidata.org/entity/Q4175282', 'http://www.wikidata.org/entity/Q97154']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['4810', 'http://www.wikidata.org/entity/Q102174232']</t>
+          <t>['http://www.wikidata.org/entity/Q116635', 'http://www.wikidata.org/entity/Q4175282', 'http://www.wikidata.org/entity/Q97154']</t>
         </is>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Who was the doctoral supervisor of Albert Einstein?</t>
+          <t>Give me the currency of China.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q116635', 'http://www.wikidata.org/entity/Q4175282', 'http://www.wikidata.org/entity/Q97154']</t>
+          <t>['http://www.wikidata.org/entity/Q39099']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q116635', 'http://www.wikidata.org/entity/Q4175282', 'http://www.wikidata.org/entity/Q97154']</t>
+          <t>['http://www.wikidata.org/entity/Q39099']</t>
         </is>
       </c>
       <c r="D7" t="b">
@@ -578,17 +578,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>how much is the total population of european union?</t>
+          <t>When was the death of Shakespeare?</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['447706209']</t>
+          <t>['1616-05-03T00:00:00Z']</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['447706209']</t>
+          <t>['1616-05-03T00:00:00Z']</t>
         </is>
       </c>
       <c r="D8" t="b">
@@ -598,17 +598,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Give me the currency of China.</t>
+          <t>Give me all islands that belong to Japan.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q39099']</t>
+          <t xml:space="preserve">['http://www.wikidata.org/entity/Q100695440', 'http://www.wikidata.org/entity/Q1019313', 'http://www.wikidata.org/entity/Q102245375', 'http://www.wikidata.org/entity/Q1039445', 'http://www.wikidata.org/entity/Q104186080', 'http://www.wikidata.org/entity/Q10449219', 'http://www.wikidata.org/entity/Q1047492', 'http://www.wikidata.org/entity/Q1061394', 'http://www.wikidata.org/entity/Q106150403', 'http://www.wikidata.org/entity/Q106363078', 'http://www.wikidata.org/entity/Q1072125', 'http://www.wikidata.org/entity/Q1083890', 'http://www.wikidata.org/entity/Q10855760', 'http://www.wikidata.org/entity/Q10855761', 'http://www.wikidata.org/entity/Q10856210', 'http://www.wikidata.org/entity/Q10859834', 'http://www.wikidata.org/entity/Q10860535', 'http://www.wikidata.org/entity/Q10889854', 'http://www.wikidata.org/entity/Q109368351', 'http://www.wikidata.org/entity/Q10938711', 'http://www.wikidata.org/entity/Q109405713', 'http://www.wikidata.org/entity/Q10943140', 'http://www.wikidata.org/entity/Q109673419', 'http://www.wikidata.org/entity/Q1111504', 'http://www.wikidata.org/entity/Q112224546', 'http://www.wikidata.org/entity/Q11234719', 'http://www.wikidata.org/entity/Q11241368', 'http://www.wikidata.org/entity/Q11261668', 'http://www.wikidata.org/entity/Q112673064', 'http://www.wikidata.org/entity/Q11276631', 'http://www.wikidata.org/entity/Q11285385', 'http://www.wikidata.org/entity/Q11286923', 'http://www.wikidata.org/entity/Q11353972', 'http://www.wikidata.org/entity/Q11354008', 'http://www.wikidata.org/entity/Q11356195', 'http://www.wikidata.org/entity/Q11357220', 'http://www.wikidata.org/entity/Q11358913', 'http://www.wikidata.org/entity/Q11360086', 'http://www.wikidata.org/entity/Q11360847', 'http://www.wikidata.org/entity/Q11361905', 'http://www.wikidata.org/entity/Q11362796', 'http://www.wikidata.org/entity/Q11362797', 'http://www.wikidata.org/entity/Q11362799', 'http://www.wikidata.org/entity/Q11369263', 'http://www.wikidata.org/entity/Q11369927', 'http://www.wikidata.org/entity/Q11370029', 'http://www.wikidata.org/entity/Q11370104', 'http://www.wikidata.org/entity/Q11371742', 'http://www.wikidata.org/entity/Q11373491', 'http://www.wikidata.org/entity/Q11376329', 'http://www.wikidata.org/entity/Q11377524', 'http://www.wikidata.org/entity/Q11378204', 'http://www.wikidata.org/entity/Q11379228', 'http://www.wikidata.org/entity/Q11379335', 'http://www.wikidata.org/entity/Q11382608', 'http://www.wikidata.org/entity/Q11383201', 'http://www.wikidata.org/entity/Q11383217', 'http://www.wikidata.org/entity/Q11385812', 'http://www.wikidata.org/entity/Q11386818', 'http://www.wikidata.org/entity/Q11390867', 'http://www.wikidata.org/entity/Q11390868', 'http://www.wikidata.org/entity/Q11392330', 'http://www.wikidata.org/entity/Q11394726', 'http://www.wikidata.org/entity/Q11395612', 'http://www.wikidata.org/entity/Q11395786', 'http://www.wikidata.org/entity/Q11397118', 'http://www.wikidata.org/entity/Q11398556', 'http://www.wikidata.org/entity/Q11399769', 'http://www.wikidata.org/entity/Q11401908', 'http://www.wikidata.org/entity/Q11402215', 'http://www.wikidata.org/entity/Q11402223', 'http://www.wikidata.org/entity/Q11407776', 'http://www.wikidata.org/entity/Q11409587', 'http://www.wikidata.org/entity/Q11410659', 'http://www.wikidata.org/entity/Q11415949', 'http://www.wikidata.org/entity/Q11415951', 'http://www.wikidata.org/entity/Q11415952', 'http://www.wikidata.org/entity/Q11415953', 'http://www.wikidata.org/entity/Q11416626', 'http://www.wikidata.org/entity/Q11418533', 'http://www.wikidata.org/entity/Q11419386', 'http://www.wikidata.org/entity/Q11419637', 'http://www.wikidata.org/entity/Q11420237', 'http://www.wikidata.org/entity/Q11424450', 'http://www.wikidata.org/entity/Q11424752', 'http://www.wikidata.org/entity/Q11425641', 'http://www.wikidata.org/entity/Q11430798', 'http://www.wikidata.org/entity/Q11431830', 'http://www.wikidata.org/entity/Q11432478', 'http://www.wikidata.org/entity/Q11434172', 'http://www.wikidata.org/entity/Q11434804', 'http://www.wikidata.org/entity/Q11434805', 'http://www.wikidata.org/entity/Q11434806', 'http://www.wikidata.org/entity/Q11434807', 'http://www.wikidata.org/entity/Q11434809', 'http://www.wikidata.org/entity/Q11434813', 'http://www.wikidata.org/entity/Q11434815', 'http://www.wikidata.org/entity/Q11434816', 'http://www.wikidata.org/entity/Q11434819', 'http://www.wikidata.org/entity/Q11435005', 'http://www.wikidata.org/entity/Q11435006', 'http://www.wikidata.org/entity/Q11436454', 'http://www.wikidata.org/entity/Q11436765', 'http://www.wikidata.org/entity/Q11437275', 'http://www.wikidata.org/entity/Q11438136', 'http://www.wikidata.org/entity/Q11438379', 'http://www.wikidata.org/entity/Q11439590', 'http://www.wikidata.org/entity/Q11442082', 'http://www.wikidata.org/entity/Q11443237', 'http://www.wikidata.org/entity/Q11445536', 'http://www.wikidata.org/entity/Q11446412', 'http://www.wikidata.org/entity/Q11447403', 'http://www.wikidata.org/entity/Q11447404', 'http://www.wikidata.org/entity/Q11449014', 'http://www.wikidata.org/entity/Q11449464', 'http://www.wikidata.org/entity/Q11450585', 'http://www.wikidata.org/entity/Q11454772', 'http://www.wikidata.org/entity/Q11458850', 'http://www.wikidata.org/entity/Q11459344', 'http://www.wikidata.org/entity/Q11459579', 'http://www.wikidata.org/entity/Q11460065', 'http://www.wikidata.org/entity/Q11460438', 'http://www.wikidata.org/entity/Q11464517', 'http://www.wikidata.org/entity/Q11465691', 'http://www.wikidata.org/entity/Q11474307', 'http://www.wikidata.org/entity/Q11474346', 'http://www.wikidata.org/entity/Q11475712', 'http://www.wikidata.org/entity/Q11476827', 'http://www.wikidata.org/entity/Q11476897', 'http://www.wikidata.org/entity/Q11477129', 'http://www.wikidata.org/entity/Q11477305', 'http://www.wikidata.org/entity/Q11477410', 'http://www.wikidata.org/entity/Q11481155', 'http://www.wikidata.org/entity/Q11482668', 'http://www.wikidata.org/entity/Q11482669', 'http://www.wikidata.org/entity/Q11483492', 'http://www.wikidata.org/entity/Q11483589', 'http://www.wikidata.org/entity/Q11483827', 'http://www.wikidata.org/entity/Q11484404', 'http://www.wikidata.org/entity/Q11486132', 'http://www.wikidata.org/entity/Q11486908', 'http://www.wikidata.org/entity/Q11486909', 'http://www.wikidata.org/entity/Q11486910', 'http://www.wikidata.org/entity/Q11486911', 'http://www.wikidata.org/entity/Q11487067', 'http://www.wikidata.org/entity/Q11487395', 'http://www.wikidata.org/entity/Q11488768', 'http://www.wikidata.org/entity/Q11489067', 'http://www.wikidata.org/entity/Q11489240', 'http://www.wikidata.org/entity/Q11489251', 'http://www.wikidata.org/entity/Q11490807', 'http://www.wikidata.org/entity/Q11491460', 'http://www.wikidata.org/entity/Q11491674', 'http://www.wikidata.org/entity/Q11492404', 'http://www.wikidata.org/entity/Q11492410', 'http://www.wikidata.org/entity/Q11492883', 'http://www.wikidata.org/entity/Q11492884', 'http://www.wikidata.org/entity/Q11496323', 'http://www.wikidata.org/entity/Q11496324', 'http://www.wikidata.org/entity/Q11496670', 'http://www.wikidata.org/entity/Q11497087', 'http://www.wikidata.org/entity/Q11497519', 'http://www.wikidata.org/entity/Q11500406', 'http://www.wikidata.org/entity/Q11501924', 'http://www.wikidata.org/entity/Q11502024', 'http://www.wikidata.org/entity/Q11502876', 'http://www.wikidata.org/entity/Q11504920', 'http://www.wikidata.org/entity/Q11505281', 'http://www.wikidata.org/entity/Q11505343', 'http://www.wikidata.org/entity/Q11511249', 'http://www.wikidata.org/entity/Q11516644', 'http://www.wikidata.org/entity/Q11520216', 'http://www.wikidata.org/entity/Q11530091', 'http://www.wikidata.org/entity/Q11530093', 'http://www.wikidata.org/entity/Q11532746', 'http://www.wikidata.org/entity/Q11533729', 'http://www.wikidata.org/entity/Q11542683', 'http://www.wikidata.org/entity/Q11542685', 'http://www.wikidata.org/entity/Q11543672', 'http://www.wikidata.org/entity/Q11544654', 'http://www.wikidata.org/entity/Q11544655', 'http://www.wikidata.org/entity/Q11545996', 'http://www.wikidata.org/entity/Q11547731', 'http://www.wikidata.org/entity/Q11548193', 'http://www.wikidata.org/entity/Q11548462', 'http://www.wikidata.org/entity/Q11550173', 'http://www.wikidata.org/entity/Q11550842', 'http://www.wikidata.org/entity/Q11550845', 'http://www.wikidata.org/entity/Q11551591', 'http://www.wikidata.org/entity/Q11552439', 'http://www.wikidata.org/entity/Q11552466', 'http://www.wikidata.org/entity/Q11552477', 'http://www.wikidata.org/entity/Q11552498', 'http://www.wikidata.org/entity/Q11552502', 'http://www.wikidata.org/entity/Q11552549', 'http://www.wikidata.org/entity/Q11553027', 'http://www.wikidata.org/entity/Q11555929', 'http://www.wikidata.org/entity/Q11555966', 'http://www.wikidata.org/entity/Q11556058', 'http://www.wikidata.org/entity/Q11556221', 'http://www.wikidata.org/entity/Q11558501', 'http://www.wikidata.org/entity/Q11558503', 'http://www.wikidata.org/entity/Q11558824', 'http://www.wikidata.org/entity/Q11559068', 'http://www.wikidata.org/entity/Q11559418', 'http://www.wikidata.org/entity/Q11559763', 'http://www.wikidata.org/entity/Q11559986', 'http://www.wikidata.org/entity/Q11562837', 'http://www.wikidata.org/entity/Q11563518', 'http://www.wikidata.org/entity/Q11567224', 'http://www.wikidata.org/entity/Q11567245', 'http://www.wikidata.org/entity/Q11567267', 'http://www.wikidata.org/entity/Q11572200', 'http://www.wikidata.org/entity/Q11572311', 'http://www.wikidata.org/entity/Q11573306', 'http://www.wikidata.org/entity/Q11573823', 'http://www.wikidata.org/entity/Q11574179', 'http://www.wikidata.org/entity/Q11574434', 'http://www.wikidata.org/entity/Q11574442', 'http://www.wikidata.org/entity/Q11574503', 'http://www.wikidata.org/entity/Q11574566', 'http://www.wikidata.org/entity/Q11574873', 'http://www.wikidata.org/entity/Q11576597', 'http://www.wikidata.org/entity/Q11577548', 'http://www.wikidata.org/entity/Q11577742', 'http://www.wikidata.org/entity/Q11578144', 'http://www.wikidata.org/entity/Q11578192', 'http://www.wikidata.org/entity/Q11578542', 'http://www.wikidata.org/entity/Q11579570', 'http://www.wikidata.org/entity/Q11580729', 'http://www.wikidata.org/entity/Q11580862', 'http://www.wikidata.org/entity/Q11580911', 'http://www.wikidata.org/entity/Q11581974', 'http://www.wikidata.org/entity/Q11581975', 'http://www.wikidata.org/entity/Q11583780', 'http://www.wikidata.org/entity/Q11583965', 'http://www.wikidata.org/entity/Q11588028', 'http://www.wikidata.org/entity/Q11588453', 'http://www.wikidata.org/entity/Q11589438', 'http://www.wikidata.org/entity/Q11589594', 'http://www.wikidata.org/entity/Q11591024', 'http://www.wikidata.org/entity/Q11592984', 'http://www.wikidata.org/entity/Q11596394', 'http://www.wikidata.org/entity/Q11598512', 'http://www.wikidata.org/entity/Q11598646', 'http://www.wikidata.org/entity/Q11598647', 'http://www.wikidata.org/entity/Q11599897', 'http://www.wikidata.org/entity/Q11602695', 'http://www.wikidata.org/entity/Q11603507', 'http://www.wikidata.org/entity/Q11603714', 'http://www.wikidata.org/entity/Q11604580', 'http://www.wikidata.org/entity/Q11604657', 'http://www.wikidata.org/entity/Q11605347', 'http://www.wikidata.org/entity/Q11607173', 'http://www.wikidata.org/entity/Q11610036', 'http://www.wikidata.org/entity/Q11612025', 'http://www.wikidata.org/entity/Q11613384', 'http://www.wikidata.org/entity/Q11614676', 'http://www.wikidata.org/entity/Q11616271', 'http://www.wikidata.org/entity/Q11622569', 'http://www.wikidata.org/entity/Q11625567', 'http://www.wikidata.org/entity/Q11626891', 'http://www.wikidata.org/entity/Q11630243', 'http://www.wikidata.org/entity/Q11631382', 'http://www.wikidata.org/entity/Q11633491', 'http://www.wikidata.org/entity/Q11633492', 'http://www.wikidata.org/entity/Q11634353', 'http://www.wikidata.org/entity/Q11635889', 'http://www.wikidata.org/entity/Q11636071', 'http://www.wikidata.org/entity/Q11636883', 'http://www.wikidata.org/entity/Q116373818', 'http://www.wikidata.org/entity/Q11645346', 'http://www.wikidata.org/entity/Q11645453', 'http://www.wikidata.org/entity/Q11647939', 'http://www.wikidata.org/entity/Q11648162', 'http://www.wikidata.org/entity/Q11648224', 'http://www.wikidata.org/entity/Q11650283', 'http://www.wikidata.org/entity/Q11650626', 'http://www.wikidata.org/entity/Q11652193', 'http://www.wikidata.org/entity/Q11652198', 'http://www.wikidata.org/entity/Q11652204', 'http://www.wikidata.org/entity/Q11652207', 'http://www.wikidata.org/entity/Q11655424', 'http://www.wikidata.org/entity/Q11657147', 'http://www.wikidata.org/entity/Q11657359', 'http://www.wikidata.org/entity/Q11659209', 'http://www.wikidata.org/entity/Q11661369', 'http://www.wikidata.org/entity/Q11661370', 'http://www.wikidata.org/entity/Q11661371', 'http://www.wikidata.org/entity/Q11661373', 'http://www.wikidata.org/entity/Q11662600', 'http://www.wikidata.org/entity/Q11664922', 'http://www.wikidata.org/entity/Q11664932', 'http://www.wikidata.org/entity/Q11665527', 'http://www.wikidata.org/entity/Q11665758', 'http://www.wikidata.org/entity/Q11665759', 'http://www.wikidata.org/entity/Q11667955', 'http://www.wikidata.org/entity/Q11667995', 'http://www.wikidata.org/entity/Q11668024', 'http://www.wikidata.org/entity/Q11668037', 'http://www.wikidata.org/entity/Q11668718', 'http://www.wikidata.org/entity/Q11669590', 'http://www.wikidata.org/entity/Q11669595', 'http://www.wikidata.org/entity/Q11669597', 'http://www.wikidata.org/entity/Q11669598', 'http://www.wikidata.org/entity/Q11669599', 'http://www.wikidata.org/entity/Q11669603', 'http://www.wikidata.org/entity/Q11669605', 'http://www.wikidata.org/entity/Q11670635', 'http://www.wikidata.org/entity/Q11673959', 'http://www.wikidata.org/entity/Q11674270', 'http://www.wikidata.org/entity/Q11675635', 'http://www.wikidata.org/entity/Q11675694', 'http://www.wikidata.org/entity/Q11675705', 'http://www.wikidata.org/entity/Q11675721', 'http://www.wikidata.org/entity/Q11675825', 'http://www.wikidata.org/entity/Q11676467', 'http://www.wikidata.org/entity/Q11677072', 'http://www.wikidata.org/entity/Q116774724', 'http://www.wikidata.org/entity/Q11678083', 'http://www.wikidata.org/entity/Q11678144', 'http://www.wikidata.org/entity/Q11678145', 'http://www.wikidata.org/entity/Q11678146', 'http://www.wikidata.org/entity/Q11678147', 'http://www.wikidata.org/entity/Q11678919', 'http://www.wikidata.org/entity/Q1204188', 'http://www.wikidata.org/entity/Q12122598', 'http://www.wikidata.org/entity/Q12168088', 'http://www.wikidata.org/entity/Q122792969', 'http://www.wikidata.org/entity/Q123092880', 'http://www.wikidata.org/entity/Q123554758', 'http://www.wikidata.org/entity/Q123554899', 'http://www.wikidata.org/entity/Q123563180', 'http://www.wikidata.org/entity/Q123568579', 'http://www.wikidata.org/entity/Q123592347', 'http://www.wikidata.org/entity/Q123592528', 'http://www.wikidata.org/entity/Q123630881', 'http://www.wikidata.org/entity/Q123631133', 'http://www.wikidata.org/entity/Q123848497', 'http://www.wikidata.org/entity/Q126617200', 'http://www.wikidata.org/entity/Q130120', 'http://www.wikidata.org/entity/Q130535', 'http://www.wikidata.org/entity/Q1344326', 'http://www.wikidata.org/entity/Q137962', 'http://www.wikidata.org/entity/Q13987', 'http://www.wikidata.org/entity/Q13991', 'http://www.wikidata.org/entity/Q1414691', 'http://www.wikidata.org/entity/Q145371', 'http://www.wikidata.org/entity/Q1475428', 'http://www.wikidata.org/entity/Q14948405', 'http://www.wikidata.org/entity/Q14948406', 'http://www.wikidata.org/entity/Q15231937', 'http://www.wikidata.org/entity/Q15233224', 'http://www.wikidata.org/entity/Q1532472', 'http://www.wikidata.org/entity/Q15914611', 'http://www.wikidata.org/entity/Q15914636', 'http://www.wikidata.org/entity/Q15914793', 'http://www.wikidata.org/entity/Q15914839', 'http://www.wikidata.org/entity/Q15914850', 'http://www.wikidata.org/entity/Q15914965', 'http://www.wikidata.org/entity/Q15915038', 'http://www.wikidata.org/entity/Q15915094', 'http://www.wikidata.org/entity/Q15915371', 'http://www.wikidata.org/entity/Q15915516', 'http://www.wikidata.org/entity/Q15915542', 'http://www.wikidata.org/entity/Q15915739', 'http://www.wikidata.org/entity/Q15915768', 'http://www.wikidata.org/entity/Q15915877', 'http://www.wikidata.org/entity/Q15915985', 'http://www.wikidata.org/entity/Q15916001', 'http://www.wikidata.org/entity/Q15916180', 'http://www.wikidata.org/entity/Q15916186', 'http://www.wikidata.org/entity/Q15916187', 'http://www.wikidata.org/entity/Q15916216', 'http://www.wikidata.org/entity/Q15916253', 'http://www.wikidata.org/entity/Q15916254', 'http://www.wikidata.org/entity/Q15916285', 'http://www.wikidata.org/entity/Q15916297', 'http://www.wikidata.org/entity/Q15916298', 'http://www.wikidata.org/entity/Q15916369', 'http://www.wikidata.org/entity/Q15916370', 'http://www.wikidata.org/entity/Q15916387', 'http://www.wikidata.org/entity/Q15916410', 'http://www.wikidata.org/entity/Q15916434', 'http://www.wikidata.org/entity/Q15916435', 'http://www.wikidata.org/entity/Q15916437', 'http://www.wikidata.org/entity/Q15916438', 'http://www.wikidata.org/entity/Q15916508', 'http://www.wikidata.org/entity/Q15923957', 'http://www.wikidata.org/entity/Q15924538', 'http://www.wikidata.org/entity/Q15925138', 'http://www.wikidata.org/entity/Q15925270', 'http://www.wikidata.org/entity/Q1676132', 'http://www.wikidata.org/entity/Q169589', 'http://www.wikidata.org/entity/Q17021654', 'http://www.wikidata.org/entity/Q17023687', 'http://www.wikidata.org/entity/Q17031459', 'http://www.wikidata.org/entity/Q17039990', 'http://www.wikidata.org/entity/Q17191315', 'http://www.wikidata.org/entity/Q17191378', 'http://www.wikidata.org/entity/Q17192049', 'http://www.wikidata.org/entity/Q17192826', 'http://www.wikidata.org/entity/Q17193690', 'http://www.wikidata.org/entity/Q17210135', 'http://www.wikidata.org/entity/Q17210185', 'http://www.wikidata.org/entity/Q17211889', 'http://www.wikidata.org/entity/Q17214084', 'http://www.wikidata.org/entity/Q17215469', 'http://www.wikidata.org/entity/Q17216064', 'http://www.wikidata.org/entity/Q17216375', 'http://www.wikidata.org/entity/Q17217423', 'http://www.wikidata.org/entity/Q17219919', 'http://www.wikidata.org/entity/Q17221048', 'http://www.wikidata.org/entity/Q17222656', 'http://www.wikidata.org/entity/Q17223389', 'http://www.wikidata.org/entity/Q17225029', 'http://www.wikidata.org/entity/Q17989148', 'http://www.wikidata.org/entity/Q17989626', 'http://www.wikidata.org/entity/Q17992764', 'http://www.wikidata.org/entity/Q17993734', 'http://www.wikidata.org/entity/Q17995776', 'http://www.wikidata.org/entity/Q18003098', 'http://www.wikidata.org/entity/Q18009413', 'http://www.wikidata.org/entity/Q18010599', 'http://www.wikidata.org/entity/Q1803811', 'http://www.wikidata.org/entity/Q18335728', 'http://www.wikidata.org/entity/Q18336591', 'http://www.wikidata.org/entity/Q18336657', 'http://www.wikidata.org/entity/Q18338827', 'http://www.wikidata.org/entity/Q18338974', 'http://www.wikidata.org/entity/Q18339013', 'http://www.wikidata.org/entity/Q18339157', 'http://www.wikidata.org/entity/Q18339362', 'http://www.wikidata.org/entity/Q18339537', 'http://www.wikidata.org/entity/Q18339548', 'http://www.wikidata.org/entity/Q18700735', 'http://www.wikidata.org/entity/Q187366', 'http://www.wikidata.org/entity/Q196701', 'http://www.wikidata.org/entity/Q19926707', 'http://www.wikidata.org/entity/Q19927579', 'http://www.wikidata.org/entity/Q19927913', 'http://www.wikidata.org/entity/Q19928028', 'http://www.wikidata.org/entity/Q1995509', 'http://www.wikidata.org/entity/Q19969455', 'http://www.wikidata.org/entity/Q19969456', 'http://www.wikidata.org/entity/Q19969457', 'http://www.wikidata.org/entity/Q19969459', 'http://www.wikidata.org/entity/Q19969461', 'http://www.wikidata.org/entity/Q19969462', 'http://www.wikidata.org/entity/Q19969463', 'http://www.wikidata.org/entity/Q20043639', 'http://www.wikidata.org/entity/Q20160219', 'http://www.wikidata.org/entity/Q2018422', 'http://www.wikidata.org/entity/Q20207875', 'http://www.wikidata.org/entity/Q20208336', 'http://www.wikidata.org/entity/Q20208605', 'http://www.wikidata.org/entity/Q20220282', 'http://www.wikidata.org/entity/Q20220291', 'http://www.wikidata.org/entity/Q20249559', 'http://www.wikidata.org/entity/Q20251315', 'http://www.wikidata.org/entity/Q20267482', 'http://www.wikidata.org/entity/Q20441459', 'http://www.wikidata.org/entity/Q20441495', 'http://www.wikidata.org/entity/Q20441538', 'http://www.wikidata.org/entity/Q20441672', 'http://www.wikidata.org/entity/Q20441835', 'http://www.wikidata.org/entity/Q20442833', 'http://www.wikidata.org/entity/Q20442886', 'http://www.wikidata.org/entity/Q20454159', 'http://www.wikidata.org/entity/Q20652984', 'http://www.wikidata.org/entity/Q20653009', 'http://www.wikidata.org/entity/Q20653020', 'http://www.wikidata.org/entity/Q20653048', 'http://www.wikidata.org/entity/Q20653083', 'http://www.wikidata.org/entity/Q20653128', 'http://www.wikidata.org/entity/Q20655767', 'http://www.wikidata.org/entity/Q20655779', 'http://www.wikidata.org/entity/Q20655824', 'http://www.wikidata.org/entity/Q20655829', 'http://www.wikidata.org/entity/Q20655854', 'http://www.wikidata.org/entity/Q20655861', 'http://www.wikidata.org/entity/Q20656218', 'http://www.wikidata.org/entity/Q20662194', 'http://www.wikidata.org/entity/Q20662421', 'http://www.wikidata.org/entity/Q20665543', 'http://www.wikidata.org/entity/Q20669152', 'http://www.wikidata.org/entity/Q20669173', 'http://www.wikidata.org/entity/Q20669188', 'http://www.wikidata.org/entity/Q20669201', 'http://www.wikidata.org/entity/Q20669474', 'http://www.wikidata.org/entity/Q20670485', 'http://www.wikidata.org/entity/Q20670486', 'http://www.wikidata.org/entity/Q20670489', 'http://www.wikidata.org/entity/Q20670490', 'http://www.wikidata.org/entity/Q20670802', 'http://www.wikidata.org/entity/Q20670818', 'http://www.wikidata.org/entity/Q20670842', 'http://www.wikidata.org/entity/Q20680346', 'http://www.wikidata.org/entity/Q20681784', 'http://www.wikidata.org/entity/Q20681836', 'http://www.wikidata.org/entity/Q20687296', 'http://www.wikidata.org/entity/Q20706572', 'http://www.wikidata.org/entity/Q20706579', 'http://www.wikidata.org/entity/Q20706699', 'http://www.wikidata.org/entity/Q20709285', 'http://www.wikidata.org/entity/Q2118388', 'http://www.wikidata.org/entity/Q21652956', 'http://www.wikidata.org/entity/Q21652975', 'http://www.wikidata.org/entity/Q21653337', 'http://www.wikidata.org/entity/Q21653909', 'http://www.wikidata.org/entity/Q21654565', 'http://www.wikidata.org/entity/Q2166413', 'http://www.wikidata.org/entity/Q220701', 'http://www.wikidata.org/entity/Q23069893', 'http://www.wikidata.org/entity/Q2407298', 'http://www.wikidata.org/entity/Q242176', 'http://www.wikidata.org/entity/Q24488445', 'http://www.wikidata.org/entity/Q247515', 'http://www.wikidata.org/entity/Q24871573', 'http://www.wikidata.org/entity/Q24872138', 'http://www.wikidata.org/entity/Q24875184', 'http://www.wikidata.org/entity/Q24898648', 'http://www.wikidata.org/entity/Q24902485', 'http://www.wikidata.org/entity/Q27560716', 'http://www.wikidata.org/entity/Q277035', 'http://www.wikidata.org/entity/Q28155659', 'http://www.wikidata.org/entity/Q285468', 'http://www.wikidata.org/entity/Q28682242', 'http://www.wikidata.org/entity/Q28682892', 'http://www.wikidata.org/entity/Q28682901', 'http://www.wikidata.org/entity/Q28683300', 'http://www.wikidata.org/entity/Q28684991', 'http://www.wikidata.org/entity/Q28684995', 'http://www.wikidata.org/entity/Q28687509', 'http://www.wikidata.org/entity/Q28687512', 'http://www.wikidata.org/entity/Q28687517', 'http://www.wikidata.org/entity/Q28687518', 'http://www.wikidata.org/entity/Q28687526', 'http://www.wikidata.org/entity/Q28687528', 'http://www.wikidata.org/entity/Q28687549', 'http://www.wikidata.org/entity/Q28687551', 'http://www.wikidata.org/entity/Q28687556', 'http://www.wikidata.org/entity/Q28687561', 'http://www.wikidata.org/entity/Q28687591', 'http://www.wikidata.org/entity/Q28693411', 'http://www.wikidata.org/entity/Q29980548', 'http://www.wikidata.org/entity/Q30925772', 'http://www.wikidata.org/entity/Q30925773', 'http://www.wikidata.org/entity/Q30931692', 'http://www.wikidata.org/entity/Q30931979', 'http://www.wikidata.org/entity/Q3108859', 'http://www.wikidata.org/entity/Q3199146', 'http://www.wikidata.org/entity/Q3285144', 'http://www.wikidata.org/entity/Q328533', 'http://www.wikidata.org/entity/Q3349795', 'http://www.wikidata.org/entity/Q339004', 'http://www.wikidata.org/entity/Q34783955', 'http://www.wikidata.org/entity/Q34783964', 'http://www.wikidata.org/entity/Q34783974', 'http://www.wikidata.org/entity/Q34784035', 'http://www.wikidata.org/entity/Q34784045', 'http://www.wikidata.org/entity/Q34784074', 'http://www.wikidata.org/entity/Q34784082', 'http://www.wikidata.org/entity/Q34784090', 'http://www.wikidata.org/entity/Q34784099', 'http://www.wikidata.org/entity/Q34784108', 'http://www.wikidata.org/entity/Q34784117', 'http://www.wikidata.org/entity/Q34784145', 'http://www.wikidata.org/entity/Q34784154', 'http://www.wikidata.org/entity/Q34784163', 'http://www.wikidata.org/entity/Q34784172', 'http://www.wikidata.org/entity/Q34784180', 'http://www.wikidata.org/entity/Q34784236', 'http://www.wikidata.org/entity/Q34784245', 'http://www.wikidata.org/entity/Q34784264', 'http://www.wikidata.org/entity/Q34784309', 'http://www.wikidata.org/entity/Q34784328', 'http://www.wikidata.org/entity/Q34784514', 'http://www.wikidata.org/entity/Q34785535', 'http://www.wikidata.org/entity/Q34785547', 'http://www.wikidata.org/entity/Q34787923', 'http://www.wikidata.org/entity/Q34787927', 'http://www.wikidata.org/entity/Q34787936', 'http://www.wikidata.org/entity/Q34787940', 'http://www.wikidata.org/entity/Q34787945', 'http://www.wikidata.org/entity/Q34787948', 'http://www.wikidata.org/entity/Q34787955', 'http://www.wikidata.org/entity/Q34787960', 'http://www.wikidata.org/entity/Q34787964', 'http://www.wikidata.org/entity/Q34787968', 'http://www.wikidata.org/entity/Q34787980', 'http://www.wikidata.org/entity/Q34787985', 'http://www.wikidata.org/entity/Q34788048', 'http://www.wikidata.org/entity/Q34788086', 'http://www.wikidata.org/entity/Q34788091', 'http://www.wikidata.org/entity/Q34788095', 'http://www.wikidata.org/entity/Q34788578', 'http://www.wikidata.org/entity/Q34788581', 'http://www.wikidata.org/entity/Q34788617', 'http://www.wikidata.org/entity/Q34788621', 'http://www.wikidata.org/entity/Q34788699', 'http://www.wikidata.org/entity/Q34795633', 'http://www.wikidata.org/entity/Q34795652', 'http://www.wikidata.org/entity/Q34795659', 'http://www.wikidata.org/entity/Q34795671', 'http://www.wikidata.org/entity/Q34795678', 'http://www.wikidata.org/entity/Q34795686', 'http://www.wikidata.org/entity/Q34795693', 'http://www.wikidata.org/entity/Q34795722', 'http://www.wikidata.org/entity/Q34795734', 'http://www.wikidata.org/entity/Q34795744', 'http://www.wikidata.org/entity/Q34795753', 'http://www.wikidata.org/entity/Q34795770', 'http://www.wikidata.org/entity/Q34795778', 'http://www.wikidata.org/entity/Q34795788', 'http://www.wikidata.org/entity/Q34795804', 'http://www.wikidata.org/entity/Q34795808', 'http://www.wikidata.org/entity/Q34795832', 'http://www.wikidata.org/entity/Q34795844', 'http://www.wikidata.org/entity/Q34795856', 'http://www.wikidata.org/entity/Q34795867', 'http://www.wikidata.org/entity/Q34795874', 'http://www.wikidata.org/entity/Q34795887', 'http://www.wikidata.org/entity/Q34795901', 'http://www.wikidata.org/entity/Q34795907', 'http://www.wikidata.org/entity/Q34795913', 'http://www.wikidata.org/entity/Q34795937', 'http://www.wikidata.org/entity/Q34795942', 'http://www.wikidata.org/entity/Q34795954', 'http://www.wikidata.org/entity/Q34795961', 'http://www.wikidata.org/entity/Q34795967', 'http://www.wikidata.org/entity/Q34795972', 'http://www.wikidata.org/entity/Q34795984', 'http://www.wikidata.org/entity/Q34795990', 'http://www.wikidata.org/entity/Q34795996', 'http://www.wikidata.org/entity/Q34796002', 'http://www.wikidata.org/entity/Q34796008', 'http://www.wikidata.org/entity/Q34796015', 'http://www.wikidata.org/entity/Q34796021', 'http://www.wikidata.org/entity/Q34796028', 'http://www.wikidata.org/entity/Q34796033', 'http://www.wikidata.org/entity/Q34796043', 'http://www.wikidata.org/entity/Q34796055', 'http://www.wikidata.org/entity/Q34796071', 'http://www.wikidata.org/entity/Q34796095', 'http://www.wikidata.org/entity/Q34796102', 'http://www.wikidata.org/entity/Q34796119', 'http://www.wikidata.org/entity/Q34796134', 'http://www.wikidata.org/entity/Q34796146', 'http://www.wikidata.org/entity/Q34796151', 'http://www.wikidata.org/entity/Q34796158', 'http://www.wikidata.org/entity/Q34796163', 'http://www.wikidata.org/entity/Q34796170', 'http://www.wikidata.org/entity/Q34796175', 'http://www.wikidata.org/entity/Q34796180', 'http://www.wikidata.org/entity/Q34861379', 'http://www.wikidata.org/entity/Q34861390', 'http://www.wikidata.org/entity/Q34861523', 'http://www.wikidata.org/entity/Q34861562', 'http://www.wikidata.org/entity/Q34861821', 'http://www.wikidata.org/entity/Q34862653', 'http://www.wikidata.org/entity/Q3579074', 'http://www.wikidata.org/entity/Q3594049', 'http://www.wikidata.org/entity/Q3623017', 'http://www.wikidata.org/entity/Q3785700', 'http://www.wikidata.org/entity/Q382082', 'http://www.wikidata.org/entity/Q38266996', 'http://www.wikidata.org/entity/Q385313', 'http://www.wikidata.org/entity/Q385710', 'http://www.wikidata.org/entity/Q393031', 'http://www.wikidata.org/entity/Q398636', 'http://www.wikidata.org/entity/Q432124', 'http://www.wikidata.org/entity/Q4419675', 'http://www.wikidata.org/entity/Q4419682', 'http://www.wikidata.org/entity/Q4478859', 'http://www.wikidata.org/entity/Q4497854', 'http://www.wikidata.org/entity/Q4518163', 'http://www.wikidata.org/entity/Q4518364', 'http://www.wikidata.org/entity/Q4518483', 'http://www.wikidata.org/entity/Q4518560', 'http://www.wikidata.org/entity/Q4518632', 'http://www.wikidata.org/entity/Q4518662', 'http://www.wikidata.org/entity/Q4518698', 'http://www.wikidata.org/entity/Q4518728', 'http://www.wikidata.org/entity/Q4518764', 'http://www.wikidata.org/entity/Q4518813', 'http://www.wikidata.org/entity/Q4518835', 'http://www.wikidata.org/entity/Q4518882', 'http://www.wikidata.org/entity/Q4518914', 'http://www.wikidata.org/entity/Q4518946', 'http://www.wikidata.org/entity/Q4519060', 'http://www.wikidata.org/entity/Q4519100', 'http://www.wikidata.org/entity/Q4519127', 'http://www.wikidata.org/entity/Q4519202', 'http://www.wikidata.org/entity/Q4519334', 'http://www.wikidata.org/entity/Q4519416', 'http://www.wikidata.org/entity/Q4519472', 'http://www.wikidata.org/entity/Q4520401', 'http://www.wikidata.org/entity/Q4520501', 'http://www.wikidata.org/entity/Q4520623', 'http://www.wikidata.org/entity/Q4520676', 'http://www.wikidata.org/entity/Q4520740', 'http://www.wikidata.org/entity/Q473472', 'http://www.wikidata.org/entity/Q474560', 'http://www.wikidata.org/entity/Q48752569', 'http://www.wikidata.org/entity/Q48752621', 'http://www.wikidata.org/entity/Q490610', 'http://www.wikidata.org/entity/Q49333374', 'http://www.wikidata.org/entity/Q494914', 'http://www.wikidata.org/entity/Q49493', 'http://www.wikidata.org/entity/Q49500', 'http://www.wikidata.org/entity/Q49507', 'http://www.wikidata.org/entity/Q49511', 'http://www.wikidata.org/entity/Q49513', 'http://www.wikidata.org/entity/Q49631357', 'http://www.wikidata.org/entity/Q49631388', 'http://www.wikidata.org/entity/Q49631402', 'http://www.wikidata.org/entity/Q49631408', 'http://www.wikidata.org/entity/Q49631415', 'http://www.wikidata.org/entity/Q49631418', 'http://www.wikidata.org/entity/Q49631448', 'http://www.wikidata.org/entity/Q49631449', 'http://www.wikidata.org/entity/Q49631468', 'http://www.wikidata.org/entity/Q49631471', 'http://www.wikidata.org/entity/Q49631484', 'http://www.wikidata.org/entity/Q49631487', 'http://www.wikidata.org/entity/Q49631489', 'http://www.wikidata.org/entity/Q49631490', 'http://www.wikidata.org/entity/Q49631492', 'http://www.wikidata.org/entity/Q49631493', 'http://www.wikidata.org/entity/Q49631495', 'http://www.wikidata.org/entity/Q49631497', 'http://www.wikidata.org/entity/Q49631501', 'http://www.wikidata.org/entity/Q49631532', 'http://www.wikidata.org/entity/Q49631657', 'http://www.wikidata.org/entity/Q49631707', 'http://www.wikidata.org/entity/Q49631712', 'http://www.wikidata.org/entity/Q49631766', 'http://www.wikidata.org/entity/Q49631801', 'http://www.wikidata.org/entity/Q49631841', 'http://www.wikidata.org/entity/Q49631849', 'http://www.wikidata.org/entity/Q49631851', 'http://www.wikidata.org/entity/Q49631852', 'http://www.wikidata.org/entity/Q49631855', 'http://www.wikidata.org/entity/Q49631874', 'http://www.wikidata.org/entity/Q49631881', 'http://www.wikidata.org/entity/Q49631883', </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q39099']</t>
+          <t xml:space="preserve">['http://www.wikidata.org/entity/Q100695440', 'http://www.wikidata.org/entity/Q1019313', 'http://www.wikidata.org/entity/Q102245375', 'http://www.wikidata.org/entity/Q1039445', 'http://www.wikidata.org/entity/Q104186080', 'http://www.wikidata.org/entity/Q10449219', 'http://www.wikidata.org/entity/Q1047492', 'http://www.wikidata.org/entity/Q1061394', 'http://www.wikidata.org/entity/Q106150403', 'http://www.wikidata.org/entity/Q106363078', 'http://www.wikidata.org/entity/Q1072125', 'http://www.wikidata.org/entity/Q1083890', 'http://www.wikidata.org/entity/Q10855760', 'http://www.wikidata.org/entity/Q10855761', 'http://www.wikidata.org/entity/Q10856210', 'http://www.wikidata.org/entity/Q10859834', 'http://www.wikidata.org/entity/Q10860535', 'http://www.wikidata.org/entity/Q10889854', 'http://www.wikidata.org/entity/Q109368351', 'http://www.wikidata.org/entity/Q10938711', 'http://www.wikidata.org/entity/Q109405713', 'http://www.wikidata.org/entity/Q10943140', 'http://www.wikidata.org/entity/Q109673419', 'http://www.wikidata.org/entity/Q1111504', 'http://www.wikidata.org/entity/Q112224546', 'http://www.wikidata.org/entity/Q11234719', 'http://www.wikidata.org/entity/Q11241368', 'http://www.wikidata.org/entity/Q11261668', 'http://www.wikidata.org/entity/Q112673064', 'http://www.wikidata.org/entity/Q11276631', 'http://www.wikidata.org/entity/Q11285385', 'http://www.wikidata.org/entity/Q11286923', 'http://www.wikidata.org/entity/Q11353972', 'http://www.wikidata.org/entity/Q11354008', 'http://www.wikidata.org/entity/Q11356195', 'http://www.wikidata.org/entity/Q11357220', 'http://www.wikidata.org/entity/Q11358913', 'http://www.wikidata.org/entity/Q11360086', 'http://www.wikidata.org/entity/Q11360847', 'http://www.wikidata.org/entity/Q11361905', 'http://www.wikidata.org/entity/Q11362796', 'http://www.wikidata.org/entity/Q11362797', 'http://www.wikidata.org/entity/Q11362799', 'http://www.wikidata.org/entity/Q11369263', 'http://www.wikidata.org/entity/Q11369927', 'http://www.wikidata.org/entity/Q11370029', 'http://www.wikidata.org/entity/Q11370104', 'http://www.wikidata.org/entity/Q11371742', 'http://www.wikidata.org/entity/Q11373491', 'http://www.wikidata.org/entity/Q11376329', 'http://www.wikidata.org/entity/Q11377524', 'http://www.wikidata.org/entity/Q11378204', 'http://www.wikidata.org/entity/Q11379228', 'http://www.wikidata.org/entity/Q11379335', 'http://www.wikidata.org/entity/Q11382608', 'http://www.wikidata.org/entity/Q11383201', 'http://www.wikidata.org/entity/Q11383217', 'http://www.wikidata.org/entity/Q11385812', 'http://www.wikidata.org/entity/Q11386818', 'http://www.wikidata.org/entity/Q11390867', 'http://www.wikidata.org/entity/Q11390868', 'http://www.wikidata.org/entity/Q11392330', 'http://www.wikidata.org/entity/Q11394726', 'http://www.wikidata.org/entity/Q11395612', 'http://www.wikidata.org/entity/Q11395786', 'http://www.wikidata.org/entity/Q11397118', 'http://www.wikidata.org/entity/Q11398556', 'http://www.wikidata.org/entity/Q11399769', 'http://www.wikidata.org/entity/Q11401908', 'http://www.wikidata.org/entity/Q11402215', 'http://www.wikidata.org/entity/Q11402223', 'http://www.wikidata.org/entity/Q11407776', 'http://www.wikidata.org/entity/Q11409587', 'http://www.wikidata.org/entity/Q11410659', 'http://www.wikidata.org/entity/Q11415949', 'http://www.wikidata.org/entity/Q11415951', 'http://www.wikidata.org/entity/Q11415952', 'http://www.wikidata.org/entity/Q11415953', 'http://www.wikidata.org/entity/Q11416626', 'http://www.wikidata.org/entity/Q11418533', 'http://www.wikidata.org/entity/Q11419386', 'http://www.wikidata.org/entity/Q11419637', 'http://www.wikidata.org/entity/Q11420237', 'http://www.wikidata.org/entity/Q11424450', 'http://www.wikidata.org/entity/Q11424752', 'http://www.wikidata.org/entity/Q11425641', 'http://www.wikidata.org/entity/Q11430798', 'http://www.wikidata.org/entity/Q11431830', 'http://www.wikidata.org/entity/Q11432478', 'http://www.wikidata.org/entity/Q11434172', 'http://www.wikidata.org/entity/Q11434804', 'http://www.wikidata.org/entity/Q11434805', 'http://www.wikidata.org/entity/Q11434806', 'http://www.wikidata.org/entity/Q11434807', 'http://www.wikidata.org/entity/Q11434809', 'http://www.wikidata.org/entity/Q11434813', 'http://www.wikidata.org/entity/Q11434815', 'http://www.wikidata.org/entity/Q11434816', 'http://www.wikidata.org/entity/Q11434819', 'http://www.wikidata.org/entity/Q11435005', 'http://www.wikidata.org/entity/Q11435006', 'http://www.wikidata.org/entity/Q11436454', 'http://www.wikidata.org/entity/Q11436765', 'http://www.wikidata.org/entity/Q11437275', 'http://www.wikidata.org/entity/Q11438136', 'http://www.wikidata.org/entity/Q11438379', 'http://www.wikidata.org/entity/Q11439590', 'http://www.wikidata.org/entity/Q11442082', 'http://www.wikidata.org/entity/Q11443237', 'http://www.wikidata.org/entity/Q11445536', 'http://www.wikidata.org/entity/Q11446412', 'http://www.wikidata.org/entity/Q11447403', 'http://www.wikidata.org/entity/Q11447404', 'http://www.wikidata.org/entity/Q11449014', 'http://www.wikidata.org/entity/Q11449464', 'http://www.wikidata.org/entity/Q11450585', 'http://www.wikidata.org/entity/Q11454772', 'http://www.wikidata.org/entity/Q11458850', 'http://www.wikidata.org/entity/Q11459344', 'http://www.wikidata.org/entity/Q11459579', 'http://www.wikidata.org/entity/Q11460065', 'http://www.wikidata.org/entity/Q11460438', 'http://www.wikidata.org/entity/Q11464517', 'http://www.wikidata.org/entity/Q11465691', 'http://www.wikidata.org/entity/Q11474307', 'http://www.wikidata.org/entity/Q11474346', 'http://www.wikidata.org/entity/Q11475712', 'http://www.wikidata.org/entity/Q11476827', 'http://www.wikidata.org/entity/Q11476897', 'http://www.wikidata.org/entity/Q11477129', 'http://www.wikidata.org/entity/Q11477305', 'http://www.wikidata.org/entity/Q11477410', 'http://www.wikidata.org/entity/Q11481155', 'http://www.wikidata.org/entity/Q11482668', 'http://www.wikidata.org/entity/Q11482669', 'http://www.wikidata.org/entity/Q11483492', 'http://www.wikidata.org/entity/Q11483589', 'http://www.wikidata.org/entity/Q11483827', 'http://www.wikidata.org/entity/Q11484404', 'http://www.wikidata.org/entity/Q11486132', 'http://www.wikidata.org/entity/Q11486908', 'http://www.wikidata.org/entity/Q11486909', 'http://www.wikidata.org/entity/Q11486910', 'http://www.wikidata.org/entity/Q11486911', 'http://www.wikidata.org/entity/Q11487067', 'http://www.wikidata.org/entity/Q11487395', 'http://www.wikidata.org/entity/Q11488768', 'http://www.wikidata.org/entity/Q11489067', 'http://www.wikidata.org/entity/Q11489240', 'http://www.wikidata.org/entity/Q11489251', 'http://www.wikidata.org/entity/Q11490807', 'http://www.wikidata.org/entity/Q11491460', 'http://www.wikidata.org/entity/Q11491674', 'http://www.wikidata.org/entity/Q11492404', 'http://www.wikidata.org/entity/Q11492410', 'http://www.wikidata.org/entity/Q11492883', 'http://www.wikidata.org/entity/Q11492884', 'http://www.wikidata.org/entity/Q11496323', 'http://www.wikidata.org/entity/Q11496324', 'http://www.wikidata.org/entity/Q11496670', 'http://www.wikidata.org/entity/Q11497087', 'http://www.wikidata.org/entity/Q11497519', 'http://www.wikidata.org/entity/Q11500406', 'http://www.wikidata.org/entity/Q11501924', 'http://www.wikidata.org/entity/Q11502024', 'http://www.wikidata.org/entity/Q11502876', 'http://www.wikidata.org/entity/Q11504920', 'http://www.wikidata.org/entity/Q11505281', 'http://www.wikidata.org/entity/Q11505343', 'http://www.wikidata.org/entity/Q11511249', 'http://www.wikidata.org/entity/Q11516644', 'http://www.wikidata.org/entity/Q11520216', 'http://www.wikidata.org/entity/Q11530091', 'http://www.wikidata.org/entity/Q11530093', 'http://www.wikidata.org/entity/Q11532746', 'http://www.wikidata.org/entity/Q11533729', 'http://www.wikidata.org/entity/Q11542683', 'http://www.wikidata.org/entity/Q11542685', 'http://www.wikidata.org/entity/Q11543672', 'http://www.wikidata.org/entity/Q11544654', 'http://www.wikidata.org/entity/Q11544655', 'http://www.wikidata.org/entity/Q11545996', 'http://www.wikidata.org/entity/Q11547731', 'http://www.wikidata.org/entity/Q11548193', 'http://www.wikidata.org/entity/Q11548462', 'http://www.wikidata.org/entity/Q11550173', 'http://www.wikidata.org/entity/Q11550842', 'http://www.wikidata.org/entity/Q11550845', 'http://www.wikidata.org/entity/Q11551591', 'http://www.wikidata.org/entity/Q11552439', 'http://www.wikidata.org/entity/Q11552466', 'http://www.wikidata.org/entity/Q11552477', 'http://www.wikidata.org/entity/Q11552498', 'http://www.wikidata.org/entity/Q11552502', 'http://www.wikidata.org/entity/Q11552549', 'http://www.wikidata.org/entity/Q11553027', 'http://www.wikidata.org/entity/Q11555929', 'http://www.wikidata.org/entity/Q11555966', 'http://www.wikidata.org/entity/Q11556058', 'http://www.wikidata.org/entity/Q11556221', 'http://www.wikidata.org/entity/Q11558501', 'http://www.wikidata.org/entity/Q11558503', 'http://www.wikidata.org/entity/Q11558824', 'http://www.wikidata.org/entity/Q11559068', 'http://www.wikidata.org/entity/Q11559418', 'http://www.wikidata.org/entity/Q11559763', 'http://www.wikidata.org/entity/Q11559986', 'http://www.wikidata.org/entity/Q11562837', 'http://www.wikidata.org/entity/Q11563518', 'http://www.wikidata.org/entity/Q11567224', 'http://www.wikidata.org/entity/Q11567245', 'http://www.wikidata.org/entity/Q11567267', 'http://www.wikidata.org/entity/Q11572200', 'http://www.wikidata.org/entity/Q11572311', 'http://www.wikidata.org/entity/Q11573306', 'http://www.wikidata.org/entity/Q11573823', 'http://www.wikidata.org/entity/Q11574179', 'http://www.wikidata.org/entity/Q11574434', 'http://www.wikidata.org/entity/Q11574442', 'http://www.wikidata.org/entity/Q11574503', 'http://www.wikidata.org/entity/Q11574566', 'http://www.wikidata.org/entity/Q11574873', 'http://www.wikidata.org/entity/Q11576597', 'http://www.wikidata.org/entity/Q11577548', 'http://www.wikidata.org/entity/Q11577742', 'http://www.wikidata.org/entity/Q11578144', 'http://www.wikidata.org/entity/Q11578192', 'http://www.wikidata.org/entity/Q11578542', 'http://www.wikidata.org/entity/Q11579570', 'http://www.wikidata.org/entity/Q11580729', 'http://www.wikidata.org/entity/Q11580862', 'http://www.wikidata.org/entity/Q11580911', 'http://www.wikidata.org/entity/Q11581974', 'http://www.wikidata.org/entity/Q11581975', 'http://www.wikidata.org/entity/Q11583780', 'http://www.wikidata.org/entity/Q11583965', 'http://www.wikidata.org/entity/Q11588028', 'http://www.wikidata.org/entity/Q11588453', 'http://www.wikidata.org/entity/Q11589438', 'http://www.wikidata.org/entity/Q11589594', 'http://www.wikidata.org/entity/Q11591024', 'http://www.wikidata.org/entity/Q11592984', 'http://www.wikidata.org/entity/Q11596394', 'http://www.wikidata.org/entity/Q11598512', 'http://www.wikidata.org/entity/Q11598646', 'http://www.wikidata.org/entity/Q11598647', 'http://www.wikidata.org/entity/Q11599897', 'http://www.wikidata.org/entity/Q11602695', 'http://www.wikidata.org/entity/Q11603507', 'http://www.wikidata.org/entity/Q11603714', 'http://www.wikidata.org/entity/Q11604580', 'http://www.wikidata.org/entity/Q11604657', 'http://www.wikidata.org/entity/Q11605347', 'http://www.wikidata.org/entity/Q11607173', 'http://www.wikidata.org/entity/Q11610036', 'http://www.wikidata.org/entity/Q11612025', 'http://www.wikidata.org/entity/Q11613384', 'http://www.wikidata.org/entity/Q11614676', 'http://www.wikidata.org/entity/Q11616271', 'http://www.wikidata.org/entity/Q11622569', 'http://www.wikidata.org/entity/Q11625567', 'http://www.wikidata.org/entity/Q11626891', 'http://www.wikidata.org/entity/Q11630243', 'http://www.wikidata.org/entity/Q11631382', 'http://www.wikidata.org/entity/Q11633491', 'http://www.wikidata.org/entity/Q11633492', 'http://www.wikidata.org/entity/Q11634353', 'http://www.wikidata.org/entity/Q11635889', 'http://www.wikidata.org/entity/Q11636071', 'http://www.wikidata.org/entity/Q11636883', 'http://www.wikidata.org/entity/Q116373818', 'http://www.wikidata.org/entity/Q11645346', 'http://www.wikidata.org/entity/Q11645453', 'http://www.wikidata.org/entity/Q11647939', 'http://www.wikidata.org/entity/Q11648162', 'http://www.wikidata.org/entity/Q11648224', 'http://www.wikidata.org/entity/Q11650283', 'http://www.wikidata.org/entity/Q11650626', 'http://www.wikidata.org/entity/Q11652193', 'http://www.wikidata.org/entity/Q11652198', 'http://www.wikidata.org/entity/Q11652204', 'http://www.wikidata.org/entity/Q11652207', 'http://www.wikidata.org/entity/Q11655424', 'http://www.wikidata.org/entity/Q11657147', 'http://www.wikidata.org/entity/Q11657359', 'http://www.wikidata.org/entity/Q11659209', 'http://www.wikidata.org/entity/Q11661369', 'http://www.wikidata.org/entity/Q11661370', 'http://www.wikidata.org/entity/Q11661371', 'http://www.wikidata.org/entity/Q11661373', 'http://www.wikidata.org/entity/Q11662600', 'http://www.wikidata.org/entity/Q11664922', 'http://www.wikidata.org/entity/Q11664932', 'http://www.wikidata.org/entity/Q11665527', 'http://www.wikidata.org/entity/Q11665758', 'http://www.wikidata.org/entity/Q11665759', 'http://www.wikidata.org/entity/Q11667955', 'http://www.wikidata.org/entity/Q11667995', 'http://www.wikidata.org/entity/Q11668024', 'http://www.wikidata.org/entity/Q11668037', 'http://www.wikidata.org/entity/Q11668718', 'http://www.wikidata.org/entity/Q11669590', 'http://www.wikidata.org/entity/Q11669595', 'http://www.wikidata.org/entity/Q11669597', 'http://www.wikidata.org/entity/Q11669598', 'http://www.wikidata.org/entity/Q11669599', 'http://www.wikidata.org/entity/Q11669603', 'http://www.wikidata.org/entity/Q11669605', 'http://www.wikidata.org/entity/Q11670635', 'http://www.wikidata.org/entity/Q11673959', 'http://www.wikidata.org/entity/Q11674270', 'http://www.wikidata.org/entity/Q11675635', 'http://www.wikidata.org/entity/Q11675694', 'http://www.wikidata.org/entity/Q11675705', 'http://www.wikidata.org/entity/Q11675721', 'http://www.wikidata.org/entity/Q11675825', 'http://www.wikidata.org/entity/Q11676467', 'http://www.wikidata.org/entity/Q11677072', 'http://www.wikidata.org/entity/Q116774724', 'http://www.wikidata.org/entity/Q11678083', 'http://www.wikidata.org/entity/Q11678144', 'http://www.wikidata.org/entity/Q11678145', 'http://www.wikidata.org/entity/Q11678146', 'http://www.wikidata.org/entity/Q11678147', 'http://www.wikidata.org/entity/Q11678919', 'http://www.wikidata.org/entity/Q1204188', 'http://www.wikidata.org/entity/Q12122598', 'http://www.wikidata.org/entity/Q12168088', 'http://www.wikidata.org/entity/Q122792969', 'http://www.wikidata.org/entity/Q123092880', 'http://www.wikidata.org/entity/Q123554758', 'http://www.wikidata.org/entity/Q123554899', 'http://www.wikidata.org/entity/Q123563180', 'http://www.wikidata.org/entity/Q123568579', 'http://www.wikidata.org/entity/Q123592347', 'http://www.wikidata.org/entity/Q123592528', 'http://www.wikidata.org/entity/Q123630881', 'http://www.wikidata.org/entity/Q123631133', 'http://www.wikidata.org/entity/Q123848497', 'http://www.wikidata.org/entity/Q126617200', 'http://www.wikidata.org/entity/Q130120', 'http://www.wikidata.org/entity/Q130535', 'http://www.wikidata.org/entity/Q1344326', 'http://www.wikidata.org/entity/Q137962', 'http://www.wikidata.org/entity/Q13987', 'http://www.wikidata.org/entity/Q13991', 'http://www.wikidata.org/entity/Q1414691', 'http://www.wikidata.org/entity/Q145371', 'http://www.wikidata.org/entity/Q1475428', 'http://www.wikidata.org/entity/Q14948405', 'http://www.wikidata.org/entity/Q14948406', 'http://www.wikidata.org/entity/Q15231937', 'http://www.wikidata.org/entity/Q15233224', 'http://www.wikidata.org/entity/Q1532472', 'http://www.wikidata.org/entity/Q15914611', 'http://www.wikidata.org/entity/Q15914636', 'http://www.wikidata.org/entity/Q15914793', 'http://www.wikidata.org/entity/Q15914839', 'http://www.wikidata.org/entity/Q15914850', 'http://www.wikidata.org/entity/Q15914965', 'http://www.wikidata.org/entity/Q15915038', 'http://www.wikidata.org/entity/Q15915094', 'http://www.wikidata.org/entity/Q15915371', 'http://www.wikidata.org/entity/Q15915516', 'http://www.wikidata.org/entity/Q15915542', 'http://www.wikidata.org/entity/Q15915739', 'http://www.wikidata.org/entity/Q15915768', 'http://www.wikidata.org/entity/Q15915877', 'http://www.wikidata.org/entity/Q15915985', 'http://www.wikidata.org/entity/Q15916001', 'http://www.wikidata.org/entity/Q15916180', 'http://www.wikidata.org/entity/Q15916186', 'http://www.wikidata.org/entity/Q15916187', 'http://www.wikidata.org/entity/Q15916216', 'http://www.wikidata.org/entity/Q15916253', 'http://www.wikidata.org/entity/Q15916254', 'http://www.wikidata.org/entity/Q15916285', 'http://www.wikidata.org/entity/Q15916297', 'http://www.wikidata.org/entity/Q15916298', 'http://www.wikidata.org/entity/Q15916369', 'http://www.wikidata.org/entity/Q15916370', 'http://www.wikidata.org/entity/Q15916387', 'http://www.wikidata.org/entity/Q15916410', 'http://www.wikidata.org/entity/Q15916434', 'http://www.wikidata.org/entity/Q15916435', 'http://www.wikidata.org/entity/Q15916437', 'http://www.wikidata.org/entity/Q15916438', 'http://www.wikidata.org/entity/Q15916508', 'http://www.wikidata.org/entity/Q15923957', 'http://www.wikidata.org/entity/Q15924538', 'http://www.wikidata.org/entity/Q15925138', 'http://www.wikidata.org/entity/Q15925270', 'http://www.wikidata.org/entity/Q1676132', 'http://www.wikidata.org/entity/Q169589', 'http://www.wikidata.org/entity/Q17021654', 'http://www.wikidata.org/entity/Q17023687', 'http://www.wikidata.org/entity/Q17031459', 'http://www.wikidata.org/entity/Q17039990', 'http://www.wikidata.org/entity/Q17191315', 'http://www.wikidata.org/entity/Q17191378', 'http://www.wikidata.org/entity/Q17192049', 'http://www.wikidata.org/entity/Q17192826', 'http://www.wikidata.org/entity/Q17193690', 'http://www.wikidata.org/entity/Q17210135', 'http://www.wikidata.org/entity/Q17210185', 'http://www.wikidata.org/entity/Q17211889', 'http://www.wikidata.org/entity/Q17214084', 'http://www.wikidata.org/entity/Q17215469', 'http://www.wikidata.org/entity/Q17216064', 'http://www.wikidata.org/entity/Q17216375', 'http://www.wikidata.org/entity/Q17217423', 'http://www.wikidata.org/entity/Q17219919', 'http://www.wikidata.org/entity/Q17221048', 'http://www.wikidata.org/entity/Q17222656', 'http://www.wikidata.org/entity/Q17223389', 'http://www.wikidata.org/entity/Q17225029', 'http://www.wikidata.org/entity/Q17989148', 'http://www.wikidata.org/entity/Q17989626', 'http://www.wikidata.org/entity/Q17992764', 'http://www.wikidata.org/entity/Q17993734', 'http://www.wikidata.org/entity/Q17995776', 'http://www.wikidata.org/entity/Q18003098', 'http://www.wikidata.org/entity/Q18009413', 'http://www.wikidata.org/entity/Q18010599', 'http://www.wikidata.org/entity/Q1803811', 'http://www.wikidata.org/entity/Q18335728', 'http://www.wikidata.org/entity/Q18336591', 'http://www.wikidata.org/entity/Q18336657', 'http://www.wikidata.org/entity/Q18338827', 'http://www.wikidata.org/entity/Q18338974', 'http://www.wikidata.org/entity/Q18339013', 'http://www.wikidata.org/entity/Q18339157', 'http://www.wikidata.org/entity/Q18339362', 'http://www.wikidata.org/entity/Q18339537', 'http://www.wikidata.org/entity/Q18339548', 'http://www.wikidata.org/entity/Q18700735', 'http://www.wikidata.org/entity/Q187366', 'http://www.wikidata.org/entity/Q196701', 'http://www.wikidata.org/entity/Q19926707', 'http://www.wikidata.org/entity/Q19927579', 'http://www.wikidata.org/entity/Q19927913', 'http://www.wikidata.org/entity/Q19928028', 'http://www.wikidata.org/entity/Q1995509', 'http://www.wikidata.org/entity/Q19969455', 'http://www.wikidata.org/entity/Q19969456', 'http://www.wikidata.org/entity/Q19969457', 'http://www.wikidata.org/entity/Q19969459', 'http://www.wikidata.org/entity/Q19969461', 'http://www.wikidata.org/entity/Q19969462', 'http://www.wikidata.org/entity/Q19969463', 'http://www.wikidata.org/entity/Q20043639', 'http://www.wikidata.org/entity/Q20160219', 'http://www.wikidata.org/entity/Q2018422', 'http://www.wikidata.org/entity/Q20207875', 'http://www.wikidata.org/entity/Q20208336', 'http://www.wikidata.org/entity/Q20208605', 'http://www.wikidata.org/entity/Q20220282', 'http://www.wikidata.org/entity/Q20220291', 'http://www.wikidata.org/entity/Q20249559', 'http://www.wikidata.org/entity/Q20251315', 'http://www.wikidata.org/entity/Q20267482', 'http://www.wikidata.org/entity/Q20441459', 'http://www.wikidata.org/entity/Q20441495', 'http://www.wikidata.org/entity/Q20441538', 'http://www.wikidata.org/entity/Q20441672', 'http://www.wikidata.org/entity/Q20441835', 'http://www.wikidata.org/entity/Q20442833', 'http://www.wikidata.org/entity/Q20442886', 'http://www.wikidata.org/entity/Q20454159', 'http://www.wikidata.org/entity/Q20652984', 'http://www.wikidata.org/entity/Q20653009', 'http://www.wikidata.org/entity/Q20653020', 'http://www.wikidata.org/entity/Q20653048', 'http://www.wikidata.org/entity/Q20653083', 'http://www.wikidata.org/entity/Q20653128', 'http://www.wikidata.org/entity/Q20655767', 'http://www.wikidata.org/entity/Q20655779', 'http://www.wikidata.org/entity/Q20655824', 'http://www.wikidata.org/entity/Q20655829', 'http://www.wikidata.org/entity/Q20655854', 'http://www.wikidata.org/entity/Q20655861', 'http://www.wikidata.org/entity/Q20656218', 'http://www.wikidata.org/entity/Q20662194', 'http://www.wikidata.org/entity/Q20662421', 'http://www.wikidata.org/entity/Q20665543', 'http://www.wikidata.org/entity/Q20669152', 'http://www.wikidata.org/entity/Q20669173', 'http://www.wikidata.org/entity/Q20669188', 'http://www.wikidata.org/entity/Q20669201', 'http://www.wikidata.org/entity/Q20669474', 'http://www.wikidata.org/entity/Q20670485', 'http://www.wikidata.org/entity/Q20670486', 'http://www.wikidata.org/entity/Q20670489', 'http://www.wikidata.org/entity/Q20670490', 'http://www.wikidata.org/entity/Q20670802', 'http://www.wikidata.org/entity/Q20670818', 'http://www.wikidata.org/entity/Q20670842', 'http://www.wikidata.org/entity/Q20680346', 'http://www.wikidata.org/entity/Q20681784', 'http://www.wikidata.org/entity/Q20681836', 'http://www.wikidata.org/entity/Q20687296', 'http://www.wikidata.org/entity/Q20706572', 'http://www.wikidata.org/entity/Q20706579', 'http://www.wikidata.org/entity/Q20706699', 'http://www.wikidata.org/entity/Q20709285', 'http://www.wikidata.org/entity/Q2118388', 'http://www.wikidata.org/entity/Q21652956', 'http://www.wikidata.org/entity/Q21652975', 'http://www.wikidata.org/entity/Q21653337', 'http://www.wikidata.org/entity/Q21653909', 'http://www.wikidata.org/entity/Q21654565', 'http://www.wikidata.org/entity/Q2166413', 'http://www.wikidata.org/entity/Q220701', 'http://www.wikidata.org/entity/Q23069893', 'http://www.wikidata.org/entity/Q2407298', 'http://www.wikidata.org/entity/Q242176', 'http://www.wikidata.org/entity/Q24488445', 'http://www.wikidata.org/entity/Q247515', 'http://www.wikidata.org/entity/Q24871573', 'http://www.wikidata.org/entity/Q24872138', 'http://www.wikidata.org/entity/Q24875184', 'http://www.wikidata.org/entity/Q24898648', 'http://www.wikidata.org/entity/Q24902485', 'http://www.wikidata.org/entity/Q27560716', 'http://www.wikidata.org/entity/Q277035', 'http://www.wikidata.org/entity/Q28155659', 'http://www.wikidata.org/entity/Q285468', 'http://www.wikidata.org/entity/Q28682242', 'http://www.wikidata.org/entity/Q28682892', 'http://www.wikidata.org/entity/Q28682901', 'http://www.wikidata.org/entity/Q28683300', 'http://www.wikidata.org/entity/Q28684991', 'http://www.wikidata.org/entity/Q28684995', 'http://www.wikidata.org/entity/Q28687509', 'http://www.wikidata.org/entity/Q28687512', 'http://www.wikidata.org/entity/Q28687517', 'http://www.wikidata.org/entity/Q28687518', 'http://www.wikidata.org/entity/Q28687526', 'http://www.wikidata.org/entity/Q28687528', 'http://www.wikidata.org/entity/Q28687549', 'http://www.wikidata.org/entity/Q28687551', 'http://www.wikidata.org/entity/Q28687556', 'http://www.wikidata.org/entity/Q28687561', 'http://www.wikidata.org/entity/Q28687591', 'http://www.wikidata.org/entity/Q28693411', 'http://www.wikidata.org/entity/Q29980548', 'http://www.wikidata.org/entity/Q30925772', 'http://www.wikidata.org/entity/Q30925773', 'http://www.wikidata.org/entity/Q30931692', 'http://www.wikidata.org/entity/Q30931979', 'http://www.wikidata.org/entity/Q3108859', 'http://www.wikidata.org/entity/Q3199146', 'http://www.wikidata.org/entity/Q3285144', 'http://www.wikidata.org/entity/Q328533', 'http://www.wikidata.org/entity/Q3349795', 'http://www.wikidata.org/entity/Q339004', 'http://www.wikidata.org/entity/Q34783955', 'http://www.wikidata.org/entity/Q34783964', 'http://www.wikidata.org/entity/Q34783974', 'http://www.wikidata.org/entity/Q34784035', 'http://www.wikidata.org/entity/Q34784045', 'http://www.wikidata.org/entity/Q34784074', 'http://www.wikidata.org/entity/Q34784082', 'http://www.wikidata.org/entity/Q34784090', 'http://www.wikidata.org/entity/Q34784099', 'http://www.wikidata.org/entity/Q34784108', 'http://www.wikidata.org/entity/Q34784117', 'http://www.wikidata.org/entity/Q34784145', 'http://www.wikidata.org/entity/Q34784154', 'http://www.wikidata.org/entity/Q34784163', 'http://www.wikidata.org/entity/Q34784172', 'http://www.wikidata.org/entity/Q34784180', 'http://www.wikidata.org/entity/Q34784236', 'http://www.wikidata.org/entity/Q34784245', 'http://www.wikidata.org/entity/Q34784264', 'http://www.wikidata.org/entity/Q34784309', 'http://www.wikidata.org/entity/Q34784328', 'http://www.wikidata.org/entity/Q34784514', 'http://www.wikidata.org/entity/Q34785535', 'http://www.wikidata.org/entity/Q34785547', 'http://www.wikidata.org/entity/Q34787923', 'http://www.wikidata.org/entity/Q34787927', 'http://www.wikidata.org/entity/Q34787936', 'http://www.wikidata.org/entity/Q34787940', 'http://www.wikidata.org/entity/Q34787945', 'http://www.wikidata.org/entity/Q34787948', 'http://www.wikidata.org/entity/Q34787955', 'http://www.wikidata.org/entity/Q34787960', 'http://www.wikidata.org/entity/Q34787964', 'http://www.wikidata.org/entity/Q34787968', 'http://www.wikidata.org/entity/Q34787980', 'http://www.wikidata.org/entity/Q34787985', 'http://www.wikidata.org/entity/Q34788048', 'http://www.wikidata.org/entity/Q34788086', 'http://www.wikidata.org/entity/Q34788091', 'http://www.wikidata.org/entity/Q34788095', 'http://www.wikidata.org/entity/Q34788578', 'http://www.wikidata.org/entity/Q34788581', 'http://www.wikidata.org/entity/Q34788617', 'http://www.wikidata.org/entity/Q34788621', 'http://www.wikidata.org/entity/Q34788699', 'http://www.wikidata.org/entity/Q34795633', 'http://www.wikidata.org/entity/Q34795652', 'http://www.wikidata.org/entity/Q34795659', 'http://www.wikidata.org/entity/Q34795671', 'http://www.wikidata.org/entity/Q34795678', 'http://www.wikidata.org/entity/Q34795686', 'http://www.wikidata.org/entity/Q34795693', 'http://www.wikidata.org/entity/Q34795722', 'http://www.wikidata.org/entity/Q34795734', 'http://www.wikidata.org/entity/Q34795744', 'http://www.wikidata.org/entity/Q34795753', 'http://www.wikidata.org/entity/Q34795770', 'http://www.wikidata.org/entity/Q34795778', 'http://www.wikidata.org/entity/Q34795788', 'http://www.wikidata.org/entity/Q34795804', 'http://www.wikidata.org/entity/Q34795808', 'http://www.wikidata.org/entity/Q34795832', 'http://www.wikidata.org/entity/Q34795844', 'http://www.wikidata.org/entity/Q34795856', 'http://www.wikidata.org/entity/Q34795867', 'http://www.wikidata.org/entity/Q34795874', 'http://www.wikidata.org/entity/Q34795887', 'http://www.wikidata.org/entity/Q34795901', 'http://www.wikidata.org/entity/Q34795907', 'http://www.wikidata.org/entity/Q34795913', 'http://www.wikidata.org/entity/Q34795937', 'http://www.wikidata.org/entity/Q34795942', 'http://www.wikidata.org/entity/Q34795954', 'http://www.wikidata.org/entity/Q34795961', 'http://www.wikidata.org/entity/Q34795967', 'http://www.wikidata.org/entity/Q34795972', 'http://www.wikidata.org/entity/Q34795984', 'http://www.wikidata.org/entity/Q34795990', 'http://www.wikidata.org/entity/Q34795996', 'http://www.wikidata.org/entity/Q34796002', 'http://www.wikidata.org/entity/Q34796008', 'http://www.wikidata.org/entity/Q34796015', 'http://www.wikidata.org/entity/Q34796021', 'http://www.wikidata.org/entity/Q34796028', 'http://www.wikidata.org/entity/Q34796033', 'http://www.wikidata.org/entity/Q34796043', 'http://www.wikidata.org/entity/Q34796055', 'http://www.wikidata.org/entity/Q34796071', 'http://www.wikidata.org/entity/Q34796095', 'http://www.wikidata.org/entity/Q34796102', 'http://www.wikidata.org/entity/Q34796119', 'http://www.wikidata.org/entity/Q34796134', 'http://www.wikidata.org/entity/Q34796146', 'http://www.wikidata.org/entity/Q34796151', 'http://www.wikidata.org/entity/Q34796158', 'http://www.wikidata.org/entity/Q34796163', 'http://www.wikidata.org/entity/Q34796170', 'http://www.wikidata.org/entity/Q34796175', 'http://www.wikidata.org/entity/Q34796180', 'http://www.wikidata.org/entity/Q34861379', 'http://www.wikidata.org/entity/Q34861390', 'http://www.wikidata.org/entity/Q34861523', 'http://www.wikidata.org/entity/Q34861562', 'http://www.wikidata.org/entity/Q34861821', 'http://www.wikidata.org/entity/Q34862653', 'http://www.wikidata.org/entity/Q3579074', 'http://www.wikidata.org/entity/Q3594049', 'http://www.wikidata.org/entity/Q3623017', 'http://www.wikidata.org/entity/Q3785700', 'http://www.wikidata.org/entity/Q382082', 'http://www.wikidata.org/entity/Q38266996', 'http://www.wikidata.org/entity/Q385313', 'http://www.wikidata.org/entity/Q385710', 'http://www.wikidata.org/entity/Q393031', 'http://www.wikidata.org/entity/Q398636', 'http://www.wikidata.org/entity/Q432124', 'http://www.wikidata.org/entity/Q4419675', 'http://www.wikidata.org/entity/Q4419682', 'http://www.wikidata.org/entity/Q4478859', 'http://www.wikidata.org/entity/Q4497854', 'http://www.wikidata.org/entity/Q4518163', 'http://www.wikidata.org/entity/Q4518364', 'http://www.wikidata.org/entity/Q4518483', 'http://www.wikidata.org/entity/Q4518560', 'http://www.wikidata.org/entity/Q4518632', 'http://www.wikidata.org/entity/Q4518662', 'http://www.wikidata.org/entity/Q4518698', 'http://www.wikidata.org/entity/Q4518728', 'http://www.wikidata.org/entity/Q4518764', 'http://www.wikidata.org/entity/Q4518813', 'http://www.wikidata.org/entity/Q4518835', 'http://www.wikidata.org/entity/Q4518882', 'http://www.wikidata.org/entity/Q4518914', 'http://www.wikidata.org/entity/Q4518946', 'http://www.wikidata.org/entity/Q4519060', 'http://www.wikidata.org/entity/Q4519100', 'http://www.wikidata.org/entity/Q4519127', 'http://www.wikidata.org/entity/Q4519202', 'http://www.wikidata.org/entity/Q4519334', 'http://www.wikidata.org/entity/Q4519416', 'http://www.wikidata.org/entity/Q4519472', 'http://www.wikidata.org/entity/Q4520401', 'http://www.wikidata.org/entity/Q4520501', 'http://www.wikidata.org/entity/Q4520623', 'http://www.wikidata.org/entity/Q4520676', 'http://www.wikidata.org/entity/Q4520740', 'http://www.wikidata.org/entity/Q473472', 'http://www.wikidata.org/entity/Q474560', 'http://www.wikidata.org/entity/Q48752569', 'http://www.wikidata.org/entity/Q48752621', 'http://www.wikidata.org/entity/Q490610', 'http://www.wikidata.org/entity/Q49333374', 'http://www.wikidata.org/entity/Q494914', 'http://www.wikidata.org/entity/Q49493', 'http://www.wikidata.org/entity/Q49500', 'http://www.wikidata.org/entity/Q49507', 'http://www.wikidata.org/entity/Q49511', 'http://www.wikidata.org/entity/Q49513', 'http://www.wikidata.org/entity/Q49631357', 'http://www.wikidata.org/entity/Q49631388', 'http://www.wikidata.org/entity/Q49631402', 'http://www.wikidata.org/entity/Q49631408', 'http://www.wikidata.org/entity/Q49631415', 'http://www.wikidata.org/entity/Q49631418', 'http://www.wikidata.org/entity/Q49631448', 'http://www.wikidata.org/entity/Q49631449', 'http://www.wikidata.org/entity/Q49631468', 'http://www.wikidata.org/entity/Q49631471', 'http://www.wikidata.org/entity/Q49631484', 'http://www.wikidata.org/entity/Q49631487', 'http://www.wikidata.org/entity/Q49631489', 'http://www.wikidata.org/entity/Q49631490', 'http://www.wikidata.org/entity/Q49631492', 'http://www.wikidata.org/entity/Q49631493', 'http://www.wikidata.org/entity/Q49631495', 'http://www.wikidata.org/entity/Q49631497', 'http://www.wikidata.org/entity/Q49631501', 'http://www.wikidata.org/entity/Q49631532', 'http://www.wikidata.org/entity/Q49631657', 'http://www.wikidata.org/entity/Q49631707', 'http://www.wikidata.org/entity/Q49631712', 'http://www.wikidata.org/entity/Q49631766', 'http://www.wikidata.org/entity/Q49631801', 'http://www.wikidata.org/entity/Q49631841', 'http://www.wikidata.org/entity/Q49631849', 'http://www.wikidata.org/entity/Q49631851', 'http://www.wikidata.org/entity/Q49631852', 'http://www.wikidata.org/entity/Q49631855', 'http://www.wikidata.org/entity/Q49631874', 'http://www.wikidata.org/entity/Q49631881', 'http://www.wikidata.org/entity/Q49631883', </t>
         </is>
       </c>
       <c r="D9" t="b">
@@ -618,17 +618,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>When was the death of Shakespeare?</t>
+          <t>What country is Mount Everest in?</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['1616-05-03T00:00:00Z']</t>
+          <t>['http://www.wikidata.org/entity/Q148', 'http://www.wikidata.org/entity/Q837']</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['1616-05-03T00:00:00Z']</t>
+          <t>['http://www.wikidata.org/entity/Q148', 'http://www.wikidata.org/entity/Q837']</t>
         </is>
       </c>
       <c r="D10" t="b">
@@ -638,17 +638,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Give me all islands that belong to Japan.</t>
+          <t>Where was JFK assassinated?</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">['http://www.wikidata.org/entity/Q100695440', 'http://www.wikidata.org/entity/Q1019313', 'http://www.wikidata.org/entity/Q102245375', 'http://www.wikidata.org/entity/Q1039445', 'http://www.wikidata.org/entity/Q104186080', 'http://www.wikidata.org/entity/Q10449219', 'http://www.wikidata.org/entity/Q1047492', 'http://www.wikidata.org/entity/Q1061394', 'http://www.wikidata.org/entity/Q106150403', 'http://www.wikidata.org/entity/Q106363078', 'http://www.wikidata.org/entity/Q1072125', 'http://www.wikidata.org/entity/Q1083890', 'http://www.wikidata.org/entity/Q10855760', 'http://www.wikidata.org/entity/Q10855761', 'http://www.wikidata.org/entity/Q10856210', 'http://www.wikidata.org/entity/Q10859834', 'http://www.wikidata.org/entity/Q10860535', 'http://www.wikidata.org/entity/Q10889854', 'http://www.wikidata.org/entity/Q109368351', 'http://www.wikidata.org/entity/Q10938711', 'http://www.wikidata.org/entity/Q109405713', 'http://www.wikidata.org/entity/Q10943140', 'http://www.wikidata.org/entity/Q109673419', 'http://www.wikidata.org/entity/Q1111504', 'http://www.wikidata.org/entity/Q112224546', 'http://www.wikidata.org/entity/Q11234719', 'http://www.wikidata.org/entity/Q11241368', 'http://www.wikidata.org/entity/Q11261668', 'http://www.wikidata.org/entity/Q112673064', 'http://www.wikidata.org/entity/Q11276631', 'http://www.wikidata.org/entity/Q11285385', 'http://www.wikidata.org/entity/Q11286923', 'http://www.wikidata.org/entity/Q11353972', 'http://www.wikidata.org/entity/Q11354008', 'http://www.wikidata.org/entity/Q11356195', 'http://www.wikidata.org/entity/Q11357220', 'http://www.wikidata.org/entity/Q11358913', 'http://www.wikidata.org/entity/Q11360086', 'http://www.wikidata.org/entity/Q11360847', 'http://www.wikidata.org/entity/Q11361905', 'http://www.wikidata.org/entity/Q11362796', 'http://www.wikidata.org/entity/Q11362797', 'http://www.wikidata.org/entity/Q11362799', 'http://www.wikidata.org/entity/Q11369263', 'http://www.wikidata.org/entity/Q11369927', 'http://www.wikidata.org/entity/Q11370029', 'http://www.wikidata.org/entity/Q11370104', 'http://www.wikidata.org/entity/Q11371742', 'http://www.wikidata.org/entity/Q11373491', 'http://www.wikidata.org/entity/Q11376329', 'http://www.wikidata.org/entity/Q11377524', 'http://www.wikidata.org/entity/Q11378204', 'http://www.wikidata.org/entity/Q11379228', 'http://www.wikidata.org/entity/Q11379335', 'http://www.wikidata.org/entity/Q11382608', 'http://www.wikidata.org/entity/Q11383201', 'http://www.wikidata.org/entity/Q11383217', 'http://www.wikidata.org/entity/Q11385812', 'http://www.wikidata.org/entity/Q11386818', 'http://www.wikidata.org/entity/Q11390867', 'http://www.wikidata.org/entity/Q11390868', 'http://www.wikidata.org/entity/Q11392330', 'http://www.wikidata.org/entity/Q11394726', 'http://www.wikidata.org/entity/Q11395612', 'http://www.wikidata.org/entity/Q11395786', 'http://www.wikidata.org/entity/Q11397118', 'http://www.wikidata.org/entity/Q11398556', 'http://www.wikidata.org/entity/Q11399769', 'http://www.wikidata.org/entity/Q11401908', 'http://www.wikidata.org/entity/Q11402215', 'http://www.wikidata.org/entity/Q11402223', 'http://www.wikidata.org/entity/Q11407776', 'http://www.wikidata.org/entity/Q11409587', 'http://www.wikidata.org/entity/Q11410659', 'http://www.wikidata.org/entity/Q11415949', 'http://www.wikidata.org/entity/Q11415951', 'http://www.wikidata.org/entity/Q11415952', 'http://www.wikidata.org/entity/Q11415953', 'http://www.wikidata.org/entity/Q11416626', 'http://www.wikidata.org/entity/Q11418533', 'http://www.wikidata.org/entity/Q11419386', 'http://www.wikidata.org/entity/Q11419637', 'http://www.wikidata.org/entity/Q11420237', 'http://www.wikidata.org/entity/Q11424450', 'http://www.wikidata.org/entity/Q11424752', 'http://www.wikidata.org/entity/Q11425641', 'http://www.wikidata.org/entity/Q11430798', 'http://www.wikidata.org/entity/Q11431830', 'http://www.wikidata.org/entity/Q11432478', 'http://www.wikidata.org/entity/Q11434172', 'http://www.wikidata.org/entity/Q11434804', 'http://www.wikidata.org/entity/Q11434805', 'http://www.wikidata.org/entity/Q11434806', 'http://www.wikidata.org/entity/Q11434807', 'http://www.wikidata.org/entity/Q11434809', 'http://www.wikidata.org/entity/Q11434813', 'http://www.wikidata.org/entity/Q11434815', 'http://www.wikidata.org/entity/Q11434816', 'http://www.wikidata.org/entity/Q11434819', 'http://www.wikidata.org/entity/Q11435005', 'http://www.wikidata.org/entity/Q11435006', 'http://www.wikidata.org/entity/Q11436454', 'http://www.wikidata.org/entity/Q11436765', 'http://www.wikidata.org/entity/Q11437275', 'http://www.wikidata.org/entity/Q11438136', 'http://www.wikidata.org/entity/Q11438379', 'http://www.wikidata.org/entity/Q11439590', 'http://www.wikidata.org/entity/Q11442082', 'http://www.wikidata.org/entity/Q11443237', 'http://www.wikidata.org/entity/Q11445536', 'http://www.wikidata.org/entity/Q11446412', 'http://www.wikidata.org/entity/Q11447403', 'http://www.wikidata.org/entity/Q11447404', 'http://www.wikidata.org/entity/Q11449014', 'http://www.wikidata.org/entity/Q11449464', 'http://www.wikidata.org/entity/Q11450585', 'http://www.wikidata.org/entity/Q11454772', 'http://www.wikidata.org/entity/Q11458850', 'http://www.wikidata.org/entity/Q11459344', 'http://www.wikidata.org/entity/Q11459579', 'http://www.wikidata.org/entity/Q11460065', 'http://www.wikidata.org/entity/Q11460438', 'http://www.wikidata.org/entity/Q11464517', 'http://www.wikidata.org/entity/Q11465691', 'http://www.wikidata.org/entity/Q11474307', 'http://www.wikidata.org/entity/Q11474346', 'http://www.wikidata.org/entity/Q11475712', 'http://www.wikidata.org/entity/Q11476827', 'http://www.wikidata.org/entity/Q11476897', 'http://www.wikidata.org/entity/Q11477129', 'http://www.wikidata.org/entity/Q11477305', 'http://www.wikidata.org/entity/Q11477410', 'http://www.wikidata.org/entity/Q11481155', 'http://www.wikidata.org/entity/Q11482668', 'http://www.wikidata.org/entity/Q11482669', 'http://www.wikidata.org/entity/Q11483492', 'http://www.wikidata.org/entity/Q11483589', 'http://www.wikidata.org/entity/Q11483827', 'http://www.wikidata.org/entity/Q11484404', 'http://www.wikidata.org/entity/Q11486132', 'http://www.wikidata.org/entity/Q11486908', 'http://www.wikidata.org/entity/Q11486909', 'http://www.wikidata.org/entity/Q11486910', 'http://www.wikidata.org/entity/Q11486911', 'http://www.wikidata.org/entity/Q11487067', 'http://www.wikidata.org/entity/Q11487395', 'http://www.wikidata.org/entity/Q11488768', 'http://www.wikidata.org/entity/Q11489067', 'http://www.wikidata.org/entity/Q11489240', 'http://www.wikidata.org/entity/Q11489251', 'http://www.wikidata.org/entity/Q11490807', 'http://www.wikidata.org/entity/Q11491460', 'http://www.wikidata.org/entity/Q11491674', 'http://www.wikidata.org/entity/Q11492404', 'http://www.wikidata.org/entity/Q11492410', 'http://www.wikidata.org/entity/Q11492883', 'http://www.wikidata.org/entity/Q11492884', 'http://www.wikidata.org/entity/Q11496323', 'http://www.wikidata.org/entity/Q11496324', 'http://www.wikidata.org/entity/Q11496670', 'http://www.wikidata.org/entity/Q11497087', 'http://www.wikidata.org/entity/Q11497519', 'http://www.wikidata.org/entity/Q11500406', 'http://www.wikidata.org/entity/Q11501924', 'http://www.wikidata.org/entity/Q11502024', 'http://www.wikidata.org/entity/Q11502876', 'http://www.wikidata.org/entity/Q11504920', 'http://www.wikidata.org/entity/Q11505281', 'http://www.wikidata.org/entity/Q11505343', 'http://www.wikidata.org/entity/Q11511249', 'http://www.wikidata.org/entity/Q11516644', 'http://www.wikidata.org/entity/Q11520216', 'http://www.wikidata.org/entity/Q11530091', 'http://www.wikidata.org/entity/Q11530093', 'http://www.wikidata.org/entity/Q11532746', 'http://www.wikidata.org/entity/Q11533729', 'http://www.wikidata.org/entity/Q11542683', 'http://www.wikidata.org/entity/Q11542685', 'http://www.wikidata.org/entity/Q11543672', 'http://www.wikidata.org/entity/Q11544654', 'http://www.wikidata.org/entity/Q11544655', 'http://www.wikidata.org/entity/Q11545996', 'http://www.wikidata.org/entity/Q11547731', 'http://www.wikidata.org/entity/Q11548193', 'http://www.wikidata.org/entity/Q11548462', 'http://www.wikidata.org/entity/Q11550173', 'http://www.wikidata.org/entity/Q11550842', 'http://www.wikidata.org/entity/Q11550845', 'http://www.wikidata.org/entity/Q11551591', 'http://www.wikidata.org/entity/Q11552439', 'http://www.wikidata.org/entity/Q11552466', 'http://www.wikidata.org/entity/Q11552477', 'http://www.wikidata.org/entity/Q11552498', 'http://www.wikidata.org/entity/Q11552502', 'http://www.wikidata.org/entity/Q11552549', 'http://www.wikidata.org/entity/Q11553027', 'http://www.wikidata.org/entity/Q11555929', 'http://www.wikidata.org/entity/Q11555966', 'http://www.wikidata.org/entity/Q11556058', 'http://www.wikidata.org/entity/Q11556221', 'http://www.wikidata.org/entity/Q11558501', 'http://www.wikidata.org/entity/Q11558503', 'http://www.wikidata.org/entity/Q11558824', 'http://www.wikidata.org/entity/Q11559068', 'http://www.wikidata.org/entity/Q11559418', 'http://www.wikidata.org/entity/Q11559763', 'http://www.wikidata.org/entity/Q11559986', 'http://www.wikidata.org/entity/Q11562837', 'http://www.wikidata.org/entity/Q11563518', 'http://www.wikidata.org/entity/Q11567224', 'http://www.wikidata.org/entity/Q11567245', 'http://www.wikidata.org/entity/Q11567267', 'http://www.wikidata.org/entity/Q11572200', 'http://www.wikidata.org/entity/Q11572311', 'http://www.wikidata.org/entity/Q11573306', 'http://www.wikidata.org/entity/Q11573823', 'http://www.wikidata.org/entity/Q11574179', 'http://www.wikidata.org/entity/Q11574434', 'http://www.wikidata.org/entity/Q11574442', 'http://www.wikidata.org/entity/Q11574503', 'http://www.wikidata.org/entity/Q11574566', 'http://www.wikidata.org/entity/Q11574873', 'http://www.wikidata.org/entity/Q11576597', 'http://www.wikidata.org/entity/Q11577548', 'http://www.wikidata.org/entity/Q11577742', 'http://www.wikidata.org/entity/Q11578144', 'http://www.wikidata.org/entity/Q11578192', 'http://www.wikidata.org/entity/Q11578542', 'http://www.wikidata.org/entity/Q11579570', 'http://www.wikidata.org/entity/Q11580729', 'http://www.wikidata.org/entity/Q11580862', 'http://www.wikidata.org/entity/Q11580911', 'http://www.wikidata.org/entity/Q11581974', 'http://www.wikidata.org/entity/Q11581975', 'http://www.wikidata.org/entity/Q11583780', 'http://www.wikidata.org/entity/Q11583965', 'http://www.wikidata.org/entity/Q11588028', 'http://www.wikidata.org/entity/Q11588453', 'http://www.wikidata.org/entity/Q11589438', 'http://www.wikidata.org/entity/Q11589594', 'http://www.wikidata.org/entity/Q11591024', 'http://www.wikidata.org/entity/Q11592984', 'http://www.wikidata.org/entity/Q11596394', 'http://www.wikidata.org/entity/Q11598512', 'http://www.wikidata.org/entity/Q11598646', 'http://www.wikidata.org/entity/Q11598647', 'http://www.wikidata.org/entity/Q11599897', 'http://www.wikidata.org/entity/Q11602695', 'http://www.wikidata.org/entity/Q11603507', 'http://www.wikidata.org/entity/Q11603714', 'http://www.wikidata.org/entity/Q11604580', 'http://www.wikidata.org/entity/Q11604657', 'http://www.wikidata.org/entity/Q11605347', 'http://www.wikidata.org/entity/Q11607173', 'http://www.wikidata.org/entity/Q11610036', 'http://www.wikidata.org/entity/Q11612025', 'http://www.wikidata.org/entity/Q11613384', 'http://www.wikidata.org/entity/Q11614676', 'http://www.wikidata.org/entity/Q11616271', 'http://www.wikidata.org/entity/Q11622569', 'http://www.wikidata.org/entity/Q11625567', 'http://www.wikidata.org/entity/Q11626891', 'http://www.wikidata.org/entity/Q11630243', 'http://www.wikidata.org/entity/Q11631382', 'http://www.wikidata.org/entity/Q11633491', 'http://www.wikidata.org/entity/Q11633492', 'http://www.wikidata.org/entity/Q11634353', 'http://www.wikidata.org/entity/Q11635889', 'http://www.wikidata.org/entity/Q11636071', 'http://www.wikidata.org/entity/Q11636883', 'http://www.wikidata.org/entity/Q116373818', 'http://www.wikidata.org/entity/Q11645346', 'http://www.wikidata.org/entity/Q11645453', 'http://www.wikidata.org/entity/Q11647939', 'http://www.wikidata.org/entity/Q11648162', 'http://www.wikidata.org/entity/Q11648224', 'http://www.wikidata.org/entity/Q11650283', 'http://www.wikidata.org/entity/Q11650626', 'http://www.wikidata.org/entity/Q11652193', 'http://www.wikidata.org/entity/Q11652198', 'http://www.wikidata.org/entity/Q11652204', 'http://www.wikidata.org/entity/Q11652207', 'http://www.wikidata.org/entity/Q11655424', 'http://www.wikidata.org/entity/Q11657147', 'http://www.wikidata.org/entity/Q11657359', 'http://www.wikidata.org/entity/Q11659209', 'http://www.wikidata.org/entity/Q11661369', 'http://www.wikidata.org/entity/Q11661370', 'http://www.wikidata.org/entity/Q11661371', 'http://www.wikidata.org/entity/Q11661373', 'http://www.wikidata.org/entity/Q11662600', 'http://www.wikidata.org/entity/Q11664922', 'http://www.wikidata.org/entity/Q11664932', 'http://www.wikidata.org/entity/Q11665527', 'http://www.wikidata.org/entity/Q11665758', 'http://www.wikidata.org/entity/Q11665759', 'http://www.wikidata.org/entity/Q11667955', 'http://www.wikidata.org/entity/Q11667995', 'http://www.wikidata.org/entity/Q11668024', 'http://www.wikidata.org/entity/Q11668037', 'http://www.wikidata.org/entity/Q11668718', 'http://www.wikidata.org/entity/Q11669590', 'http://www.wikidata.org/entity/Q11669595', 'http://www.wikidata.org/entity/Q11669597', 'http://www.wikidata.org/entity/Q11669598', 'http://www.wikidata.org/entity/Q11669599', 'http://www.wikidata.org/entity/Q11669603', 'http://www.wikidata.org/entity/Q11669605', 'http://www.wikidata.org/entity/Q11670635', 'http://www.wikidata.org/entity/Q11673959', 'http://www.wikidata.org/entity/Q11674270', 'http://www.wikidata.org/entity/Q11675635', 'http://www.wikidata.org/entity/Q11675694', 'http://www.wikidata.org/entity/Q11675705', 'http://www.wikidata.org/entity/Q11675721', 'http://www.wikidata.org/entity/Q11675825', 'http://www.wikidata.org/entity/Q11676467', 'http://www.wikidata.org/entity/Q11677072', 'http://www.wikidata.org/entity/Q116774724', 'http://www.wikidata.org/entity/Q11678083', 'http://www.wikidata.org/entity/Q11678144', 'http://www.wikidata.org/entity/Q11678145', 'http://www.wikidata.org/entity/Q11678146', 'http://www.wikidata.org/entity/Q11678147', 'http://www.wikidata.org/entity/Q11678919', 'http://www.wikidata.org/entity/Q1204188', 'http://www.wikidata.org/entity/Q12122598', 'http://www.wikidata.org/entity/Q12168088', 'http://www.wikidata.org/entity/Q122792969', 'http://www.wikidata.org/entity/Q123092880', 'http://www.wikidata.org/entity/Q123554758', 'http://www.wikidata.org/entity/Q123554899', 'http://www.wikidata.org/entity/Q123563180', 'http://www.wikidata.org/entity/Q123568579', 'http://www.wikidata.org/entity/Q123592347', 'http://www.wikidata.org/entity/Q123592528', 'http://www.wikidata.org/entity/Q123630881', 'http://www.wikidata.org/entity/Q123631133', 'http://www.wikidata.org/entity/Q123848497', 'http://www.wikidata.org/entity/Q126617200', 'http://www.wikidata.org/entity/Q130120', 'http://www.wikidata.org/entity/Q130535', 'http://www.wikidata.org/entity/Q1344326', 'http://www.wikidata.org/entity/Q137962', 'http://www.wikidata.org/entity/Q13987', 'http://www.wikidata.org/entity/Q13991', 'http://www.wikidata.org/entity/Q1414691', 'http://www.wikidata.org/entity/Q145371', 'http://www.wikidata.org/entity/Q1475428', 'http://www.wikidata.org/entity/Q14948405', 'http://www.wikidata.org/entity/Q14948406', 'http://www.wikidata.org/entity/Q15231937', 'http://www.wikidata.org/entity/Q15233224', 'http://www.wikidata.org/entity/Q1532472', 'http://www.wikidata.org/entity/Q15914611', 'http://www.wikidata.org/entity/Q15914636', 'http://www.wikidata.org/entity/Q15914793', 'http://www.wikidata.org/entity/Q15914839', 'http://www.wikidata.org/entity/Q15914850', 'http://www.wikidata.org/entity/Q15914965', 'http://www.wikidata.org/entity/Q15915038', 'http://www.wikidata.org/entity/Q15915094', 'http://www.wikidata.org/entity/Q15915371', 'http://www.wikidata.org/entity/Q15915516', 'http://www.wikidata.org/entity/Q15915542', 'http://www.wikidata.org/entity/Q15915739', 'http://www.wikidata.org/entity/Q15915768', 'http://www.wikidata.org/entity/Q15915877', 'http://www.wikidata.org/entity/Q15915985', 'http://www.wikidata.org/entity/Q15916001', 'http://www.wikidata.org/entity/Q15916180', 'http://www.wikidata.org/entity/Q15916186', 'http://www.wikidata.org/entity/Q15916187', 'http://www.wikidata.org/entity/Q15916216', 'http://www.wikidata.org/entity/Q15916253', 'http://www.wikidata.org/entity/Q15916254', 'http://www.wikidata.org/entity/Q15916285', 'http://www.wikidata.org/entity/Q15916297', 'http://www.wikidata.org/entity/Q15916298', 'http://www.wikidata.org/entity/Q15916369', 'http://www.wikidata.org/entity/Q15916370', 'http://www.wikidata.org/entity/Q15916387', 'http://www.wikidata.org/entity/Q15916410', 'http://www.wikidata.org/entity/Q15916434', 'http://www.wikidata.org/entity/Q15916435', 'http://www.wikidata.org/entity/Q15916437', 'http://www.wikidata.org/entity/Q15916438', 'http://www.wikidata.org/entity/Q15916508', 'http://www.wikidata.org/entity/Q15923957', 'http://www.wikidata.org/entity/Q15924538', 'http://www.wikidata.org/entity/Q15925138', 'http://www.wikidata.org/entity/Q15925270', 'http://www.wikidata.org/entity/Q1676132', 'http://www.wikidata.org/entity/Q169589', 'http://www.wikidata.org/entity/Q17021654', 'http://www.wikidata.org/entity/Q17023687', 'http://www.wikidata.org/entity/Q17031459', 'http://www.wikidata.org/entity/Q17039990', 'http://www.wikidata.org/entity/Q17191315', 'http://www.wikidata.org/entity/Q17191378', 'http://www.wikidata.org/entity/Q17192049', 'http://www.wikidata.org/entity/Q17192826', 'http://www.wikidata.org/entity/Q17193690', 'http://www.wikidata.org/entity/Q17210135', 'http://www.wikidata.org/entity/Q17210185', 'http://www.wikidata.org/entity/Q17211889', 'http://www.wikidata.org/entity/Q17214084', 'http://www.wikidata.org/entity/Q17215469', 'http://www.wikidata.org/entity/Q17216064', 'http://www.wikidata.org/entity/Q17216375', 'http://www.wikidata.org/entity/Q17217423', 'http://www.wikidata.org/entity/Q17219919', 'http://www.wikidata.org/entity/Q17221048', 'http://www.wikidata.org/entity/Q17222656', 'http://www.wikidata.org/entity/Q17223389', 'http://www.wikidata.org/entity/Q17225029', 'http://www.wikidata.org/entity/Q17989148', 'http://www.wikidata.org/entity/Q17989626', 'http://www.wikidata.org/entity/Q17992764', 'http://www.wikidata.org/entity/Q17993734', 'http://www.wikidata.org/entity/Q17995776', 'http://www.wikidata.org/entity/Q18003098', 'http://www.wikidata.org/entity/Q18009413', 'http://www.wikidata.org/entity/Q18010599', 'http://www.wikidata.org/entity/Q1803811', 'http://www.wikidata.org/entity/Q18335728', 'http://www.wikidata.org/entity/Q18336591', 'http://www.wikidata.org/entity/Q18336657', 'http://www.wikidata.org/entity/Q18338827', 'http://www.wikidata.org/entity/Q18338974', 'http://www.wikidata.org/entity/Q18339013', 'http://www.wikidata.org/entity/Q18339157', 'http://www.wikidata.org/entity/Q18339362', 'http://www.wikidata.org/entity/Q18339537', 'http://www.wikidata.org/entity/Q18339548', 'http://www.wikidata.org/entity/Q18700735', 'http://www.wikidata.org/entity/Q187366', 'http://www.wikidata.org/entity/Q196701', 'http://www.wikidata.org/entity/Q19926707', 'http://www.wikidata.org/entity/Q19927579', 'http://www.wikidata.org/entity/Q19927913', 'http://www.wikidata.org/entity/Q19928028', 'http://www.wikidata.org/entity/Q1995509', 'http://www.wikidata.org/entity/Q19969455', 'http://www.wikidata.org/entity/Q19969456', 'http://www.wikidata.org/entity/Q19969457', 'http://www.wikidata.org/entity/Q19969459', 'http://www.wikidata.org/entity/Q19969461', 'http://www.wikidata.org/entity/Q19969462', 'http://www.wikidata.org/entity/Q19969463', 'http://www.wikidata.org/entity/Q20043639', 'http://www.wikidata.org/entity/Q20160219', 'http://www.wikidata.org/entity/Q2018422', 'http://www.wikidata.org/entity/Q20207875', 'http://www.wikidata.org/entity/Q20208336', 'http://www.wikidata.org/entity/Q20208605', 'http://www.wikidata.org/entity/Q20220282', 'http://www.wikidata.org/entity/Q20220291', 'http://www.wikidata.org/entity/Q20249559', 'http://www.wikidata.org/entity/Q20251315', 'http://www.wikidata.org/entity/Q20267482', 'http://www.wikidata.org/entity/Q20441459', 'http://www.wikidata.org/entity/Q20441495', 'http://www.wikidata.org/entity/Q20441538', 'http://www.wikidata.org/entity/Q20441672', 'http://www.wikidata.org/entity/Q20441835', 'http://www.wikidata.org/entity/Q20442833', 'http://www.wikidata.org/entity/Q20442886', 'http://www.wikidata.org/entity/Q20454159', 'http://www.wikidata.org/entity/Q20652984', 'http://www.wikidata.org/entity/Q20653009', 'http://www.wikidata.org/entity/Q20653020', 'http://www.wikidata.org/entity/Q20653048', 'http://www.wikidata.org/entity/Q20653083', 'http://www.wikidata.org/entity/Q20653128', 'http://www.wikidata.org/entity/Q20655767', 'http://www.wikidata.org/entity/Q20655779', 'http://www.wikidata.org/entity/Q20655824', 'http://www.wikidata.org/entity/Q20655829', 'http://www.wikidata.org/entity/Q20655854', 'http://www.wikidata.org/entity/Q20655861', 'http://www.wikidata.org/entity/Q20656218', 'http://www.wikidata.org/entity/Q20662194', 'http://www.wikidata.org/entity/Q20662421', 'http://www.wikidata.org/entity/Q20665543', 'http://www.wikidata.org/entity/Q20669152', 'http://www.wikidata.org/entity/Q20669173', 'http://www.wikidata.org/entity/Q20669188', 'http://www.wikidata.org/entity/Q20669201', 'http://www.wikidata.org/entity/Q20669474', 'http://www.wikidata.org/entity/Q20670485', 'http://www.wikidata.org/entity/Q20670486', 'http://www.wikidata.org/entity/Q20670489', 'http://www.wikidata.org/entity/Q20670490', 'http://www.wikidata.org/entity/Q20670802', 'http://www.wikidata.org/entity/Q20670818', 'http://www.wikidata.org/entity/Q20670842', 'http://www.wikidata.org/entity/Q20680346', 'http://www.wikidata.org/entity/Q20681784', 'http://www.wikidata.org/entity/Q20681836', 'http://www.wikidata.org/entity/Q20687296', 'http://www.wikidata.org/entity/Q20706572', 'http://www.wikidata.org/entity/Q20706579', 'http://www.wikidata.org/entity/Q20706699', 'http://www.wikidata.org/entity/Q20709285', 'http://www.wikidata.org/entity/Q2118388', 'http://www.wikidata.org/entity/Q21652956', 'http://www.wikidata.org/entity/Q21652975', 'http://www.wikidata.org/entity/Q21653337', 'http://www.wikidata.org/entity/Q21653909', 'http://www.wikidata.org/entity/Q21654565', 'http://www.wikidata.org/entity/Q2166413', 'http://www.wikidata.org/entity/Q220701', 'http://www.wikidata.org/entity/Q23069893', 'http://www.wikidata.org/entity/Q2407298', 'http://www.wikidata.org/entity/Q242176', 'http://www.wikidata.org/entity/Q24488445', 'http://www.wikidata.org/entity/Q247515', 'http://www.wikidata.org/entity/Q24871573', 'http://www.wikidata.org/entity/Q24872138', 'http://www.wikidata.org/entity/Q24875184', 'http://www.wikidata.org/entity/Q24898648', 'http://www.wikidata.org/entity/Q24902485', 'http://www.wikidata.org/entity/Q27560716', 'http://www.wikidata.org/entity/Q277035', 'http://www.wikidata.org/entity/Q28155659', 'http://www.wikidata.org/entity/Q285468', 'http://www.wikidata.org/entity/Q28682242', 'http://www.wikidata.org/entity/Q28682892', 'http://www.wikidata.org/entity/Q28682901', 'http://www.wikidata.org/entity/Q28683300', 'http://www.wikidata.org/entity/Q28684991', 'http://www.wikidata.org/entity/Q28684995', 'http://www.wikidata.org/entity/Q28687509', 'http://www.wikidata.org/entity/Q28687512', 'http://www.wikidata.org/entity/Q28687517', 'http://www.wikidata.org/entity/Q28687518', 'http://www.wikidata.org/entity/Q28687526', 'http://www.wikidata.org/entity/Q28687528', 'http://www.wikidata.org/entity/Q28687549', 'http://www.wikidata.org/entity/Q28687551', 'http://www.wikidata.org/entity/Q28687556', 'http://www.wikidata.org/entity/Q28687561', 'http://www.wikidata.org/entity/Q28687591', 'http://www.wikidata.org/entity/Q28693411', 'http://www.wikidata.org/entity/Q29980548', 'http://www.wikidata.org/entity/Q30925772', 'http://www.wikidata.org/entity/Q30925773', 'http://www.wikidata.org/entity/Q30931692', 'http://www.wikidata.org/entity/Q30931979', 'http://www.wikidata.org/entity/Q3108859', 'http://www.wikidata.org/entity/Q3199146', 'http://www.wikidata.org/entity/Q3285144', 'http://www.wikidata.org/entity/Q328533', 'http://www.wikidata.org/entity/Q3349795', 'http://www.wikidata.org/entity/Q339004', 'http://www.wikidata.org/entity/Q34783955', 'http://www.wikidata.org/entity/Q34783964', 'http://www.wikidata.org/entity/Q34783974', 'http://www.wikidata.org/entity/Q34784035', 'http://www.wikidata.org/entity/Q34784045', 'http://www.wikidata.org/entity/Q34784074', 'http://www.wikidata.org/entity/Q34784082', 'http://www.wikidata.org/entity/Q34784090', 'http://www.wikidata.org/entity/Q34784099', 'http://www.wikidata.org/entity/Q34784108', 'http://www.wikidata.org/entity/Q34784117', 'http://www.wikidata.org/entity/Q34784145', 'http://www.wikidata.org/entity/Q34784154', 'http://www.wikidata.org/entity/Q34784163', 'http://www.wikidata.org/entity/Q34784172', 'http://www.wikidata.org/entity/Q34784180', 'http://www.wikidata.org/entity/Q34784236', 'http://www.wikidata.org/entity/Q34784245', 'http://www.wikidata.org/entity/Q34784264', 'http://www.wikidata.org/entity/Q34784309', 'http://www.wikidata.org/entity/Q34784328', 'http://www.wikidata.org/entity/Q34784514', 'http://www.wikidata.org/entity/Q34785535', 'http://www.wikidata.org/entity/Q34785547', 'http://www.wikidata.org/entity/Q34787923', 'http://www.wikidata.org/entity/Q34787927', 'http://www.wikidata.org/entity/Q34787936', 'http://www.wikidata.org/entity/Q34787940', 'http://www.wikidata.org/entity/Q34787945', 'http://www.wikidata.org/entity/Q34787948', 'http://www.wikidata.org/entity/Q34787955', 'http://www.wikidata.org/entity/Q34787960', 'http://www.wikidata.org/entity/Q34787964', 'http://www.wikidata.org/entity/Q34787968', 'http://www.wikidata.org/entity/Q34787980', 'http://www.wikidata.org/entity/Q34787985', 'http://www.wikidata.org/entity/Q34788048', 'http://www.wikidata.org/entity/Q34788086', 'http://www.wikidata.org/entity/Q34788091', 'http://www.wikidata.org/entity/Q34788095', 'http://www.wikidata.org/entity/Q34788578', 'http://www.wikidata.org/entity/Q34788581', 'http://www.wikidata.org/entity/Q34788617', 'http://www.wikidata.org/entity/Q34788621', 'http://www.wikidata.org/entity/Q34788699', 'http://www.wikidata.org/entity/Q34795633', 'http://www.wikidata.org/entity/Q34795652', 'http://www.wikidata.org/entity/Q34795659', 'http://www.wikidata.org/entity/Q34795671', 'http://www.wikidata.org/entity/Q34795678', 'http://www.wikidata.org/entity/Q34795686', 'http://www.wikidata.org/entity/Q34795693', 'http://www.wikidata.org/entity/Q34795722', 'http://www.wikidata.org/entity/Q34795734', 'http://www.wikidata.org/entity/Q34795744', 'http://www.wikidata.org/entity/Q34795753', 'http://www.wikidata.org/entity/Q34795770', 'http://www.wikidata.org/entity/Q34795778', 'http://www.wikidata.org/entity/Q34795788', 'http://www.wikidata.org/entity/Q34795804', 'http://www.wikidata.org/entity/Q34795808', 'http://www.wikidata.org/entity/Q34795832', 'http://www.wikidata.org/entity/Q34795844', 'http://www.wikidata.org/entity/Q34795856', 'http://www.wikidata.org/entity/Q34795867', 'http://www.wikidata.org/entity/Q34795874', 'http://www.wikidata.org/entity/Q34795887', 'http://www.wikidata.org/entity/Q34795901', 'http://www.wikidata.org/entity/Q34795907', 'http://www.wikidata.org/entity/Q34795913', 'http://www.wikidata.org/entity/Q34795937', 'http://www.wikidata.org/entity/Q34795942', 'http://www.wikidata.org/entity/Q34795954', 'http://www.wikidata.org/entity/Q34795961', 'http://www.wikidata.org/entity/Q34795967', 'http://www.wikidata.org/entity/Q34795972', 'http://www.wikidata.org/entity/Q34795984', 'http://www.wikidata.org/entity/Q34795990', 'http://www.wikidata.org/entity/Q34795996', 'http://www.wikidata.org/entity/Q34796002', 'http://www.wikidata.org/entity/Q34796008', 'http://www.wikidata.org/entity/Q34796015', 'http://www.wikidata.org/entity/Q34796021', 'http://www.wikidata.org/entity/Q34796028', 'http://www.wikidata.org/entity/Q34796033', 'http://www.wikidata.org/entity/Q34796043', 'http://www.wikidata.org/entity/Q34796055', 'http://www.wikidata.org/entity/Q34796071', 'http://www.wikidata.org/entity/Q34796095', 'http://www.wikidata.org/entity/Q34796102', 'http://www.wikidata.org/entity/Q34796119', 'http://www.wikidata.org/entity/Q34796134', 'http://www.wikidata.org/entity/Q34796146', 'http://www.wikidata.org/entity/Q34796151', 'http://www.wikidata.org/entity/Q34796158', 'http://www.wikidata.org/entity/Q34796163', 'http://www.wikidata.org/entity/Q34796170', 'http://www.wikidata.org/entity/Q34796175', 'http://www.wikidata.org/entity/Q34796180', 'http://www.wikidata.org/entity/Q34861379', 'http://www.wikidata.org/entity/Q34861390', 'http://www.wikidata.org/entity/Q34861523', 'http://www.wikidata.org/entity/Q34861562', 'http://www.wikidata.org/entity/Q34861821', 'http://www.wikidata.org/entity/Q34862653', 'http://www.wikidata.org/entity/Q3579074', 'http://www.wikidata.org/entity/Q3594049', 'http://www.wikidata.org/entity/Q3623017', 'http://www.wikidata.org/entity/Q3785700', 'http://www.wikidata.org/entity/Q382082', 'http://www.wikidata.org/entity/Q38266996', 'http://www.wikidata.org/entity/Q385313', 'http://www.wikidata.org/entity/Q385710', 'http://www.wikidata.org/entity/Q393031', 'http://www.wikidata.org/entity/Q398636', 'http://www.wikidata.org/entity/Q432124', 'http://www.wikidata.org/entity/Q4419675', 'http://www.wikidata.org/entity/Q4419682', 'http://www.wikidata.org/entity/Q4478859', 'http://www.wikidata.org/entity/Q4497854', 'http://www.wikidata.org/entity/Q4518163', 'http://www.wikidata.org/entity/Q4518364', 'http://www.wikidata.org/entity/Q4518483', 'http://www.wikidata.org/entity/Q4518560', 'http://www.wikidata.org/entity/Q4518632', 'http://www.wikidata.org/entity/Q4518662', 'http://www.wikidata.org/entity/Q4518698', 'http://www.wikidata.org/entity/Q4518728', 'http://www.wikidata.org/entity/Q4518764', 'http://www.wikidata.org/entity/Q4518813', 'http://www.wikidata.org/entity/Q4518835', 'http://www.wikidata.org/entity/Q4518882', 'http://www.wikidata.org/entity/Q4518914', 'http://www.wikidata.org/entity/Q4518946', 'http://www.wikidata.org/entity/Q4519060', 'http://www.wikidata.org/entity/Q4519100', 'http://www.wikidata.org/entity/Q4519127', 'http://www.wikidata.org/entity/Q4519202', 'http://www.wikidata.org/entity/Q4519334', 'http://www.wikidata.org/entity/Q4519416', 'http://www.wikidata.org/entity/Q4519472', 'http://www.wikidata.org/entity/Q4520401', 'http://www.wikidata.org/entity/Q4520501', 'http://www.wikidata.org/entity/Q4520623', 'http://www.wikidata.org/entity/Q4520676', 'http://www.wikidata.org/entity/Q4520740', 'http://www.wikidata.org/entity/Q473472', 'http://www.wikidata.org/entity/Q474560', 'http://www.wikidata.org/entity/Q48752569', 'http://www.wikidata.org/entity/Q48752621', 'http://www.wikidata.org/entity/Q490610', 'http://www.wikidata.org/entity/Q49333374', 'http://www.wikidata.org/entity/Q494914', 'http://www.wikidata.org/entity/Q49493', 'http://www.wikidata.org/entity/Q49500', 'http://www.wikidata.org/entity/Q49507', 'http://www.wikidata.org/entity/Q49511', 'http://www.wikidata.org/entity/Q49513', 'http://www.wikidata.org/entity/Q49631357', 'http://www.wikidata.org/entity/Q49631388', 'http://www.wikidata.org/entity/Q49631402', 'http://www.wikidata.org/entity/Q49631408', 'http://www.wikidata.org/entity/Q49631415', 'http://www.wikidata.org/entity/Q49631418', 'http://www.wikidata.org/entity/Q49631448', 'http://www.wikidata.org/entity/Q49631449', 'http://www.wikidata.org/entity/Q49631468', 'http://www.wikidata.org/entity/Q49631471', 'http://www.wikidata.org/entity/Q49631484', 'http://www.wikidata.org/entity/Q49631487', 'http://www.wikidata.org/entity/Q49631489', 'http://www.wikidata.org/entity/Q49631490', 'http://www.wikidata.org/entity/Q49631492', 'http://www.wikidata.org/entity/Q49631493', 'http://www.wikidata.org/entity/Q49631495', 'http://www.wikidata.org/entity/Q49631497', 'http://www.wikidata.org/entity/Q49631501', 'http://www.wikidata.org/entity/Q49631532', 'http://www.wikidata.org/entity/Q49631657', 'http://www.wikidata.org/entity/Q49631707', 'http://www.wikidata.org/entity/Q49631712', 'http://www.wikidata.org/entity/Q49631766', 'http://www.wikidata.org/entity/Q49631801', 'http://www.wikidata.org/entity/Q49631841', 'http://www.wikidata.org/entity/Q49631849', 'http://www.wikidata.org/entity/Q49631851', 'http://www.wikidata.org/entity/Q49631852', 'http://www.wikidata.org/entity/Q49631855', 'http://www.wikidata.org/entity/Q49631874', 'http://www.wikidata.org/entity/Q49631881', 'http://www.wikidata.org/entity/Q49631883', </t>
+          <t>['http://www.wikidata.org/entity/Q3896131']</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">['http://www.wikidata.org/entity/Q100695440', 'http://www.wikidata.org/entity/Q1019313', 'http://www.wikidata.org/entity/Q102245375', 'http://www.wikidata.org/entity/Q1039445', 'http://www.wikidata.org/entity/Q104186080', 'http://www.wikidata.org/entity/Q10449219', 'http://www.wikidata.org/entity/Q1047492', 'http://www.wikidata.org/entity/Q1061394', 'http://www.wikidata.org/entity/Q106150403', 'http://www.wikidata.org/entity/Q106363078', 'http://www.wikidata.org/entity/Q1072125', 'http://www.wikidata.org/entity/Q1083890', 'http://www.wikidata.org/entity/Q10855760', 'http://www.wikidata.org/entity/Q10855761', 'http://www.wikidata.org/entity/Q10856210', 'http://www.wikidata.org/entity/Q10859834', 'http://www.wikidata.org/entity/Q10860535', 'http://www.wikidata.org/entity/Q10889854', 'http://www.wikidata.org/entity/Q109368351', 'http://www.wikidata.org/entity/Q10938711', 'http://www.wikidata.org/entity/Q109405713', 'http://www.wikidata.org/entity/Q10943140', 'http://www.wikidata.org/entity/Q109673419', 'http://www.wikidata.org/entity/Q1111504', 'http://www.wikidata.org/entity/Q112224546', 'http://www.wikidata.org/entity/Q11234719', 'http://www.wikidata.org/entity/Q11241368', 'http://www.wikidata.org/entity/Q11261668', 'http://www.wikidata.org/entity/Q112673064', 'http://www.wikidata.org/entity/Q11276631', 'http://www.wikidata.org/entity/Q11285385', 'http://www.wikidata.org/entity/Q11286923', 'http://www.wikidata.org/entity/Q11353972', 'http://www.wikidata.org/entity/Q11354008', 'http://www.wikidata.org/entity/Q11356195', 'http://www.wikidata.org/entity/Q11357220', 'http://www.wikidata.org/entity/Q11358913', 'http://www.wikidata.org/entity/Q11360086', 'http://www.wikidata.org/entity/Q11360847', 'http://www.wikidata.org/entity/Q11361905', 'http://www.wikidata.org/entity/Q11362796', 'http://www.wikidata.org/entity/Q11362797', 'http://www.wikidata.org/entity/Q11362799', 'http://www.wikidata.org/entity/Q11369263', 'http://www.wikidata.org/entity/Q11369927', 'http://www.wikidata.org/entity/Q11370029', 'http://www.wikidata.org/entity/Q11370104', 'http://www.wikidata.org/entity/Q11371742', 'http://www.wikidata.org/entity/Q11373491', 'http://www.wikidata.org/entity/Q11376329', 'http://www.wikidata.org/entity/Q11377524', 'http://www.wikidata.org/entity/Q11378204', 'http://www.wikidata.org/entity/Q11379228', 'http://www.wikidata.org/entity/Q11379335', 'http://www.wikidata.org/entity/Q11382608', 'http://www.wikidata.org/entity/Q11383201', 'http://www.wikidata.org/entity/Q11383217', 'http://www.wikidata.org/entity/Q11385812', 'http://www.wikidata.org/entity/Q11386818', 'http://www.wikidata.org/entity/Q11390867', 'http://www.wikidata.org/entity/Q11390868', 'http://www.wikidata.org/entity/Q11392330', 'http://www.wikidata.org/entity/Q11394726', 'http://www.wikidata.org/entity/Q11395612', 'http://www.wikidata.org/entity/Q11395786', 'http://www.wikidata.org/entity/Q11397118', 'http://www.wikidata.org/entity/Q11398556', 'http://www.wikidata.org/entity/Q11399769', 'http://www.wikidata.org/entity/Q11401908', 'http://www.wikidata.org/entity/Q11402215', 'http://www.wikidata.org/entity/Q11402223', 'http://www.wikidata.org/entity/Q11407776', 'http://www.wikidata.org/entity/Q11409587', 'http://www.wikidata.org/entity/Q11410659', 'http://www.wikidata.org/entity/Q11415949', 'http://www.wikidata.org/entity/Q11415951', 'http://www.wikidata.org/entity/Q11415952', 'http://www.wikidata.org/entity/Q11415953', 'http://www.wikidata.org/entity/Q11416626', 'http://www.wikidata.org/entity/Q11418533', 'http://www.wikidata.org/entity/Q11419386', 'http://www.wikidata.org/entity/Q11419637', 'http://www.wikidata.org/entity/Q11420237', 'http://www.wikidata.org/entity/Q11424450', 'http://www.wikidata.org/entity/Q11424752', 'http://www.wikidata.org/entity/Q11425641', 'http://www.wikidata.org/entity/Q11430798', 'http://www.wikidata.org/entity/Q11431830', 'http://www.wikidata.org/entity/Q11432478', 'http://www.wikidata.org/entity/Q11434172', 'http://www.wikidata.org/entity/Q11434804', 'http://www.wikidata.org/entity/Q11434805', 'http://www.wikidata.org/entity/Q11434806', 'http://www.wikidata.org/entity/Q11434807', 'http://www.wikidata.org/entity/Q11434809', 'http://www.wikidata.org/entity/Q11434813', 'http://www.wikidata.org/entity/Q11434815', 'http://www.wikidata.org/entity/Q11434816', 'http://www.wikidata.org/entity/Q11434819', 'http://www.wikidata.org/entity/Q11435005', 'http://www.wikidata.org/entity/Q11435006', 'http://www.wikidata.org/entity/Q11436454', 'http://www.wikidata.org/entity/Q11436765', 'http://www.wikidata.org/entity/Q11437275', 'http://www.wikidata.org/entity/Q11438136', 'http://www.wikidata.org/entity/Q11438379', 'http://www.wikidata.org/entity/Q11439590', 'http://www.wikidata.org/entity/Q11442082', 'http://www.wikidata.org/entity/Q11443237', 'http://www.wikidata.org/entity/Q11445536', 'http://www.wikidata.org/entity/Q11446412', 'http://www.wikidata.org/entity/Q11447403', 'http://www.wikidata.org/entity/Q11447404', 'http://www.wikidata.org/entity/Q11449014', 'http://www.wikidata.org/entity/Q11449464', 'http://www.wikidata.org/entity/Q11450585', 'http://www.wikidata.org/entity/Q11454772', 'http://www.wikidata.org/entity/Q11458850', 'http://www.wikidata.org/entity/Q11459344', 'http://www.wikidata.org/entity/Q11459579', 'http://www.wikidata.org/entity/Q11460065', 'http://www.wikidata.org/entity/Q11460438', 'http://www.wikidata.org/entity/Q11464517', 'http://www.wikidata.org/entity/Q11465691', 'http://www.wikidata.org/entity/Q11474307', 'http://www.wikidata.org/entity/Q11474346', 'http://www.wikidata.org/entity/Q11475712', 'http://www.wikidata.org/entity/Q11476827', 'http://www.wikidata.org/entity/Q11476897', 'http://www.wikidata.org/entity/Q11477129', 'http://www.wikidata.org/entity/Q11477305', 'http://www.wikidata.org/entity/Q11477410', 'http://www.wikidata.org/entity/Q11481155', 'http://www.wikidata.org/entity/Q11482668', 'http://www.wikidata.org/entity/Q11482669', 'http://www.wikidata.org/entity/Q11483492', 'http://www.wikidata.org/entity/Q11483589', 'http://www.wikidata.org/entity/Q11483827', 'http://www.wikidata.org/entity/Q11484404', 'http://www.wikidata.org/entity/Q11486132', 'http://www.wikidata.org/entity/Q11486908', 'http://www.wikidata.org/entity/Q11486909', 'http://www.wikidata.org/entity/Q11486910', 'http://www.wikidata.org/entity/Q11486911', 'http://www.wikidata.org/entity/Q11487067', 'http://www.wikidata.org/entity/Q11487395', 'http://www.wikidata.org/entity/Q11488768', 'http://www.wikidata.org/entity/Q11489067', 'http://www.wikidata.org/entity/Q11489240', 'http://www.wikidata.org/entity/Q11489251', 'http://www.wikidata.org/entity/Q11490807', 'http://www.wikidata.org/entity/Q11491460', 'http://www.wikidata.org/entity/Q11491674', 'http://www.wikidata.org/entity/Q11492404', 'http://www.wikidata.org/entity/Q11492410', 'http://www.wikidata.org/entity/Q11492883', 'http://www.wikidata.org/entity/Q11492884', 'http://www.wikidata.org/entity/Q11496323', 'http://www.wikidata.org/entity/Q11496324', 'http://www.wikidata.org/entity/Q11496670', 'http://www.wikidata.org/entity/Q11497087', 'http://www.wikidata.org/entity/Q11497519', 'http://www.wikidata.org/entity/Q11500406', 'http://www.wikidata.org/entity/Q11501924', 'http://www.wikidata.org/entity/Q11502024', 'http://www.wikidata.org/entity/Q11502876', 'http://www.wikidata.org/entity/Q11504920', 'http://www.wikidata.org/entity/Q11505281', 'http://www.wikidata.org/entity/Q11505343', 'http://www.wikidata.org/entity/Q11511249', 'http://www.wikidata.org/entity/Q11516644', 'http://www.wikidata.org/entity/Q11520216', 'http://www.wikidata.org/entity/Q11530091', 'http://www.wikidata.org/entity/Q11530093', 'http://www.wikidata.org/entity/Q11532746', 'http://www.wikidata.org/entity/Q11533729', 'http://www.wikidata.org/entity/Q11542683', 'http://www.wikidata.org/entity/Q11542685', 'http://www.wikidata.org/entity/Q11543672', 'http://www.wikidata.org/entity/Q11544654', 'http://www.wikidata.org/entity/Q11544655', 'http://www.wikidata.org/entity/Q11545996', 'http://www.wikidata.org/entity/Q11547731', 'http://www.wikidata.org/entity/Q11548193', 'http://www.wikidata.org/entity/Q11548462', 'http://www.wikidata.org/entity/Q11550173', 'http://www.wikidata.org/entity/Q11550842', 'http://www.wikidata.org/entity/Q11550845', 'http://www.wikidata.org/entity/Q11551591', 'http://www.wikidata.org/entity/Q11552439', 'http://www.wikidata.org/entity/Q11552466', 'http://www.wikidata.org/entity/Q11552477', 'http://www.wikidata.org/entity/Q11552498', 'http://www.wikidata.org/entity/Q11552502', 'http://www.wikidata.org/entity/Q11552549', 'http://www.wikidata.org/entity/Q11553027', 'http://www.wikidata.org/entity/Q11555929', 'http://www.wikidata.org/entity/Q11555966', 'http://www.wikidata.org/entity/Q11556058', 'http://www.wikidata.org/entity/Q11556221', 'http://www.wikidata.org/entity/Q11558501', 'http://www.wikidata.org/entity/Q11558503', 'http://www.wikidata.org/entity/Q11558824', 'http://www.wikidata.org/entity/Q11559068', 'http://www.wikidata.org/entity/Q11559418', 'http://www.wikidata.org/entity/Q11559763', 'http://www.wikidata.org/entity/Q11559986', 'http://www.wikidata.org/entity/Q11562837', 'http://www.wikidata.org/entity/Q11563518', 'http://www.wikidata.org/entity/Q11567224', 'http://www.wikidata.org/entity/Q11567245', 'http://www.wikidata.org/entity/Q11567267', 'http://www.wikidata.org/entity/Q11572200', 'http://www.wikidata.org/entity/Q11572311', 'http://www.wikidata.org/entity/Q11573306', 'http://www.wikidata.org/entity/Q11573823', 'http://www.wikidata.org/entity/Q11574179', 'http://www.wikidata.org/entity/Q11574434', 'http://www.wikidata.org/entity/Q11574442', 'http://www.wikidata.org/entity/Q11574503', 'http://www.wikidata.org/entity/Q11574566', 'http://www.wikidata.org/entity/Q11574873', 'http://www.wikidata.org/entity/Q11576597', 'http://www.wikidata.org/entity/Q11577548', 'http://www.wikidata.org/entity/Q11577742', 'http://www.wikidata.org/entity/Q11578144', 'http://www.wikidata.org/entity/Q11578192', 'http://www.wikidata.org/entity/Q11578542', 'http://www.wikidata.org/entity/Q11579570', 'http://www.wikidata.org/entity/Q11580729', 'http://www.wikidata.org/entity/Q11580862', 'http://www.wikidata.org/entity/Q11580911', 'http://www.wikidata.org/entity/Q11581974', 'http://www.wikidata.org/entity/Q11581975', 'http://www.wikidata.org/entity/Q11583780', 'http://www.wikidata.org/entity/Q11583965', 'http://www.wikidata.org/entity/Q11588028', 'http://www.wikidata.org/entity/Q11588453', 'http://www.wikidata.org/entity/Q11589438', 'http://www.wikidata.org/entity/Q11589594', 'http://www.wikidata.org/entity/Q11591024', 'http://www.wikidata.org/entity/Q11592984', 'http://www.wikidata.org/entity/Q11596394', 'http://www.wikidata.org/entity/Q11598512', 'http://www.wikidata.org/entity/Q11598646', 'http://www.wikidata.org/entity/Q11598647', 'http://www.wikidata.org/entity/Q11599897', 'http://www.wikidata.org/entity/Q11602695', 'http://www.wikidata.org/entity/Q11603507', 'http://www.wikidata.org/entity/Q11603714', 'http://www.wikidata.org/entity/Q11604580', 'http://www.wikidata.org/entity/Q11604657', 'http://www.wikidata.org/entity/Q11605347', 'http://www.wikidata.org/entity/Q11607173', 'http://www.wikidata.org/entity/Q11610036', 'http://www.wikidata.org/entity/Q11612025', 'http://www.wikidata.org/entity/Q11613384', 'http://www.wikidata.org/entity/Q11614676', 'http://www.wikidata.org/entity/Q11616271', 'http://www.wikidata.org/entity/Q11622569', 'http://www.wikidata.org/entity/Q11625567', 'http://www.wikidata.org/entity/Q11626891', 'http://www.wikidata.org/entity/Q11630243', 'http://www.wikidata.org/entity/Q11631382', 'http://www.wikidata.org/entity/Q11633491', 'http://www.wikidata.org/entity/Q11633492', 'http://www.wikidata.org/entity/Q11634353', 'http://www.wikidata.org/entity/Q11635889', 'http://www.wikidata.org/entity/Q11636071', 'http://www.wikidata.org/entity/Q11636883', 'http://www.wikidata.org/entity/Q116373818', 'http://www.wikidata.org/entity/Q11645346', 'http://www.wikidata.org/entity/Q11645453', 'http://www.wikidata.org/entity/Q11647939', 'http://www.wikidata.org/entity/Q11648162', 'http://www.wikidata.org/entity/Q11648224', 'http://www.wikidata.org/entity/Q11650283', 'http://www.wikidata.org/entity/Q11650626', 'http://www.wikidata.org/entity/Q11652193', 'http://www.wikidata.org/entity/Q11652198', 'http://www.wikidata.org/entity/Q11652204', 'http://www.wikidata.org/entity/Q11652207', 'http://www.wikidata.org/entity/Q11655424', 'http://www.wikidata.org/entity/Q11657147', 'http://www.wikidata.org/entity/Q11657359', 'http://www.wikidata.org/entity/Q11659209', 'http://www.wikidata.org/entity/Q11661369', 'http://www.wikidata.org/entity/Q11661370', 'http://www.wikidata.org/entity/Q11661371', 'http://www.wikidata.org/entity/Q11661373', 'http://www.wikidata.org/entity/Q11662600', 'http://www.wikidata.org/entity/Q11664922', 'http://www.wikidata.org/entity/Q11664932', 'http://www.wikidata.org/entity/Q11665527', 'http://www.wikidata.org/entity/Q11665758', 'http://www.wikidata.org/entity/Q11665759', 'http://www.wikidata.org/entity/Q11667955', 'http://www.wikidata.org/entity/Q11667995', 'http://www.wikidata.org/entity/Q11668024', 'http://www.wikidata.org/entity/Q11668037', 'http://www.wikidata.org/entity/Q11668718', 'http://www.wikidata.org/entity/Q11669590', 'http://www.wikidata.org/entity/Q11669595', 'http://www.wikidata.org/entity/Q11669597', 'http://www.wikidata.org/entity/Q11669598', 'http://www.wikidata.org/entity/Q11669599', 'http://www.wikidata.org/entity/Q11669603', 'http://www.wikidata.org/entity/Q11669605', 'http://www.wikidata.org/entity/Q11670635', 'http://www.wikidata.org/entity/Q11673959', 'http://www.wikidata.org/entity/Q11674270', 'http://www.wikidata.org/entity/Q11675635', 'http://www.wikidata.org/entity/Q11675694', 'http://www.wikidata.org/entity/Q11675705', 'http://www.wikidata.org/entity/Q11675721', 'http://www.wikidata.org/entity/Q11675825', 'http://www.wikidata.org/entity/Q11676467', 'http://www.wikidata.org/entity/Q11677072', 'http://www.wikidata.org/entity/Q116774724', 'http://www.wikidata.org/entity/Q11678083', 'http://www.wikidata.org/entity/Q11678144', 'http://www.wikidata.org/entity/Q11678145', 'http://www.wikidata.org/entity/Q11678146', 'http://www.wikidata.org/entity/Q11678147', 'http://www.wikidata.org/entity/Q11678919', 'http://www.wikidata.org/entity/Q1204188', 'http://www.wikidata.org/entity/Q12122598', 'http://www.wikidata.org/entity/Q12168088', 'http://www.wikidata.org/entity/Q122792969', 'http://www.wikidata.org/entity/Q123092880', 'http://www.wikidata.org/entity/Q123554758', 'http://www.wikidata.org/entity/Q123554899', 'http://www.wikidata.org/entity/Q123563180', 'http://www.wikidata.org/entity/Q123568579', 'http://www.wikidata.org/entity/Q123592347', 'http://www.wikidata.org/entity/Q123592528', 'http://www.wikidata.org/entity/Q123630881', 'http://www.wikidata.org/entity/Q123631133', 'http://www.wikidata.org/entity/Q123848497', 'http://www.wikidata.org/entity/Q126617200', 'http://www.wikidata.org/entity/Q130120', 'http://www.wikidata.org/entity/Q130535', 'http://www.wikidata.org/entity/Q1344326', 'http://www.wikidata.org/entity/Q137962', 'http://www.wikidata.org/entity/Q13987', 'http://www.wikidata.org/entity/Q13991', 'http://www.wikidata.org/entity/Q1414691', 'http://www.wikidata.org/entity/Q145371', 'http://www.wikidata.org/entity/Q1475428', 'http://www.wikidata.org/entity/Q14948405', 'http://www.wikidata.org/entity/Q14948406', 'http://www.wikidata.org/entity/Q15231937', 'http://www.wikidata.org/entity/Q15233224', 'http://www.wikidata.org/entity/Q1532472', 'http://www.wikidata.org/entity/Q15914611', 'http://www.wikidata.org/entity/Q15914636', 'http://www.wikidata.org/entity/Q15914793', 'http://www.wikidata.org/entity/Q15914839', 'http://www.wikidata.org/entity/Q15914850', 'http://www.wikidata.org/entity/Q15914965', 'http://www.wikidata.org/entity/Q15915038', 'http://www.wikidata.org/entity/Q15915094', 'http://www.wikidata.org/entity/Q15915371', 'http://www.wikidata.org/entity/Q15915516', 'http://www.wikidata.org/entity/Q15915542', 'http://www.wikidata.org/entity/Q15915739', 'http://www.wikidata.org/entity/Q15915768', 'http://www.wikidata.org/entity/Q15915877', 'http://www.wikidata.org/entity/Q15915985', 'http://www.wikidata.org/entity/Q15916001', 'http://www.wikidata.org/entity/Q15916180', 'http://www.wikidata.org/entity/Q15916186', 'http://www.wikidata.org/entity/Q15916187', 'http://www.wikidata.org/entity/Q15916216', 'http://www.wikidata.org/entity/Q15916253', 'http://www.wikidata.org/entity/Q15916254', 'http://www.wikidata.org/entity/Q15916285', 'http://www.wikidata.org/entity/Q15916297', 'http://www.wikidata.org/entity/Q15916298', 'http://www.wikidata.org/entity/Q15916369', 'http://www.wikidata.org/entity/Q15916370', 'http://www.wikidata.org/entity/Q15916387', 'http://www.wikidata.org/entity/Q15916410', 'http://www.wikidata.org/entity/Q15916434', 'http://www.wikidata.org/entity/Q15916435', 'http://www.wikidata.org/entity/Q15916437', 'http://www.wikidata.org/entity/Q15916438', 'http://www.wikidata.org/entity/Q15916508', 'http://www.wikidata.org/entity/Q15923957', 'http://www.wikidata.org/entity/Q15924538', 'http://www.wikidata.org/entity/Q15925138', 'http://www.wikidata.org/entity/Q15925270', 'http://www.wikidata.org/entity/Q1676132', 'http://www.wikidata.org/entity/Q169589', 'http://www.wikidata.org/entity/Q17021654', 'http://www.wikidata.org/entity/Q17023687', 'http://www.wikidata.org/entity/Q17031459', 'http://www.wikidata.org/entity/Q17039990', 'http://www.wikidata.org/entity/Q17191315', 'http://www.wikidata.org/entity/Q17191378', 'http://www.wikidata.org/entity/Q17192049', 'http://www.wikidata.org/entity/Q17192826', 'http://www.wikidata.org/entity/Q17193690', 'http://www.wikidata.org/entity/Q17210135', 'http://www.wikidata.org/entity/Q17210185', 'http://www.wikidata.org/entity/Q17211889', 'http://www.wikidata.org/entity/Q17214084', 'http://www.wikidata.org/entity/Q17215469', 'http://www.wikidata.org/entity/Q17216064', 'http://www.wikidata.org/entity/Q17216375', 'http://www.wikidata.org/entity/Q17217423', 'http://www.wikidata.org/entity/Q17219919', 'http://www.wikidata.org/entity/Q17221048', 'http://www.wikidata.org/entity/Q17222656', 'http://www.wikidata.org/entity/Q17223389', 'http://www.wikidata.org/entity/Q17225029', 'http://www.wikidata.org/entity/Q17989148', 'http://www.wikidata.org/entity/Q17989626', 'http://www.wikidata.org/entity/Q17992764', 'http://www.wikidata.org/entity/Q17993734', 'http://www.wikidata.org/entity/Q17995776', 'http://www.wikidata.org/entity/Q18003098', 'http://www.wikidata.org/entity/Q18009413', 'http://www.wikidata.org/entity/Q18010599', 'http://www.wikidata.org/entity/Q1803811', 'http://www.wikidata.org/entity/Q18335728', 'http://www.wikidata.org/entity/Q18336591', 'http://www.wikidata.org/entity/Q18336657', 'http://www.wikidata.org/entity/Q18338827', 'http://www.wikidata.org/entity/Q18338974', 'http://www.wikidata.org/entity/Q18339013', 'http://www.wikidata.org/entity/Q18339157', 'http://www.wikidata.org/entity/Q18339362', 'http://www.wikidata.org/entity/Q18339537', 'http://www.wikidata.org/entity/Q18339548', 'http://www.wikidata.org/entity/Q18700735', 'http://www.wikidata.org/entity/Q187366', 'http://www.wikidata.org/entity/Q196701', 'http://www.wikidata.org/entity/Q19926707', 'http://www.wikidata.org/entity/Q19927579', 'http://www.wikidata.org/entity/Q19927913', 'http://www.wikidata.org/entity/Q19928028', 'http://www.wikidata.org/entity/Q1995509', 'http://www.wikidata.org/entity/Q19969455', 'http://www.wikidata.org/entity/Q19969456', 'http://www.wikidata.org/entity/Q19969457', 'http://www.wikidata.org/entity/Q19969459', 'http://www.wikidata.org/entity/Q19969461', 'http://www.wikidata.org/entity/Q19969462', 'http://www.wikidata.org/entity/Q19969463', 'http://www.wikidata.org/entity/Q20043639', 'http://www.wikidata.org/entity/Q20160219', 'http://www.wikidata.org/entity/Q2018422', 'http://www.wikidata.org/entity/Q20207875', 'http://www.wikidata.org/entity/Q20208336', 'http://www.wikidata.org/entity/Q20208605', 'http://www.wikidata.org/entity/Q20220282', 'http://www.wikidata.org/entity/Q20220291', 'http://www.wikidata.org/entity/Q20249559', 'http://www.wikidata.org/entity/Q20251315', 'http://www.wikidata.org/entity/Q20267482', 'http://www.wikidata.org/entity/Q20441459', 'http://www.wikidata.org/entity/Q20441495', 'http://www.wikidata.org/entity/Q20441538', 'http://www.wikidata.org/entity/Q20441672', 'http://www.wikidata.org/entity/Q20441835', 'http://www.wikidata.org/entity/Q20442833', 'http://www.wikidata.org/entity/Q20442886', 'http://www.wikidata.org/entity/Q20454159', 'http://www.wikidata.org/entity/Q20652984', 'http://www.wikidata.org/entity/Q20653009', 'http://www.wikidata.org/entity/Q20653020', 'http://www.wikidata.org/entity/Q20653048', 'http://www.wikidata.org/entity/Q20653083', 'http://www.wikidata.org/entity/Q20653128', 'http://www.wikidata.org/entity/Q20655767', 'http://www.wikidata.org/entity/Q20655779', 'http://www.wikidata.org/entity/Q20655824', 'http://www.wikidata.org/entity/Q20655829', 'http://www.wikidata.org/entity/Q20655854', 'http://www.wikidata.org/entity/Q20655861', 'http://www.wikidata.org/entity/Q20656218', 'http://www.wikidata.org/entity/Q20662194', 'http://www.wikidata.org/entity/Q20662421', 'http://www.wikidata.org/entity/Q20665543', 'http://www.wikidata.org/entity/Q20669152', 'http://www.wikidata.org/entity/Q20669173', 'http://www.wikidata.org/entity/Q20669188', 'http://www.wikidata.org/entity/Q20669201', 'http://www.wikidata.org/entity/Q20669474', 'http://www.wikidata.org/entity/Q20670485', 'http://www.wikidata.org/entity/Q20670486', 'http://www.wikidata.org/entity/Q20670489', 'http://www.wikidata.org/entity/Q20670490', 'http://www.wikidata.org/entity/Q20670802', 'http://www.wikidata.org/entity/Q20670818', 'http://www.wikidata.org/entity/Q20670842', 'http://www.wikidata.org/entity/Q20680346', 'http://www.wikidata.org/entity/Q20681784', 'http://www.wikidata.org/entity/Q20681836', 'http://www.wikidata.org/entity/Q20687296', 'http://www.wikidata.org/entity/Q20706572', 'http://www.wikidata.org/entity/Q20706579', 'http://www.wikidata.org/entity/Q20706699', 'http://www.wikidata.org/entity/Q20709285', 'http://www.wikidata.org/entity/Q2118388', 'http://www.wikidata.org/entity/Q21652956', 'http://www.wikidata.org/entity/Q21652975', 'http://www.wikidata.org/entity/Q21653337', 'http://www.wikidata.org/entity/Q21653909', 'http://www.wikidata.org/entity/Q21654565', 'http://www.wikidata.org/entity/Q2166413', 'http://www.wikidata.org/entity/Q220701', 'http://www.wikidata.org/entity/Q23069893', 'http://www.wikidata.org/entity/Q2407298', 'http://www.wikidata.org/entity/Q242176', 'http://www.wikidata.org/entity/Q24488445', 'http://www.wikidata.org/entity/Q247515', 'http://www.wikidata.org/entity/Q24871573', 'http://www.wikidata.org/entity/Q24872138', 'http://www.wikidata.org/entity/Q24875184', 'http://www.wikidata.org/entity/Q24898648', 'http://www.wikidata.org/entity/Q24902485', 'http://www.wikidata.org/entity/Q27560716', 'http://www.wikidata.org/entity/Q277035', 'http://www.wikidata.org/entity/Q28155659', 'http://www.wikidata.org/entity/Q285468', 'http://www.wikidata.org/entity/Q28682242', 'http://www.wikidata.org/entity/Q28682892', 'http://www.wikidata.org/entity/Q28682901', 'http://www.wikidata.org/entity/Q28683300', 'http://www.wikidata.org/entity/Q28684991', 'http://www.wikidata.org/entity/Q28684995', 'http://www.wikidata.org/entity/Q28687509', 'http://www.wikidata.org/entity/Q28687512', 'http://www.wikidata.org/entity/Q28687517', 'http://www.wikidata.org/entity/Q28687518', 'http://www.wikidata.org/entity/Q28687526', 'http://www.wikidata.org/entity/Q28687528', 'http://www.wikidata.org/entity/Q28687549', 'http://www.wikidata.org/entity/Q28687551', 'http://www.wikidata.org/entity/Q28687556', 'http://www.wikidata.org/entity/Q28687561', 'http://www.wikidata.org/entity/Q28687591', 'http://www.wikidata.org/entity/Q28693411', 'http://www.wikidata.org/entity/Q29980548', 'http://www.wikidata.org/entity/Q30925772', 'http://www.wikidata.org/entity/Q30925773', 'http://www.wikidata.org/entity/Q30931692', 'http://www.wikidata.org/entity/Q30931979', 'http://www.wikidata.org/entity/Q3108859', 'http://www.wikidata.org/entity/Q3199146', 'http://www.wikidata.org/entity/Q3285144', 'http://www.wikidata.org/entity/Q328533', 'http://www.wikidata.org/entity/Q3349795', 'http://www.wikidata.org/entity/Q339004', 'http://www.wikidata.org/entity/Q34783955', 'http://www.wikidata.org/entity/Q34783964', 'http://www.wikidata.org/entity/Q34783974', 'http://www.wikidata.org/entity/Q34784035', 'http://www.wikidata.org/entity/Q34784045', 'http://www.wikidata.org/entity/Q34784074', 'http://www.wikidata.org/entity/Q34784082', 'http://www.wikidata.org/entity/Q34784090', 'http://www.wikidata.org/entity/Q34784099', 'http://www.wikidata.org/entity/Q34784108', 'http://www.wikidata.org/entity/Q34784117', 'http://www.wikidata.org/entity/Q34784145', 'http://www.wikidata.org/entity/Q34784154', 'http://www.wikidata.org/entity/Q34784163', 'http://www.wikidata.org/entity/Q34784172', 'http://www.wikidata.org/entity/Q34784180', 'http://www.wikidata.org/entity/Q34784236', 'http://www.wikidata.org/entity/Q34784245', 'http://www.wikidata.org/entity/Q34784264', 'http://www.wikidata.org/entity/Q34784309', 'http://www.wikidata.org/entity/Q34784328', 'http://www.wikidata.org/entity/Q34784514', 'http://www.wikidata.org/entity/Q34785535', 'http://www.wikidata.org/entity/Q34785547', 'http://www.wikidata.org/entity/Q34787923', 'http://www.wikidata.org/entity/Q34787927', 'http://www.wikidata.org/entity/Q34787936', 'http://www.wikidata.org/entity/Q34787940', 'http://www.wikidata.org/entity/Q34787945', 'http://www.wikidata.org/entity/Q34787948', 'http://www.wikidata.org/entity/Q34787955', 'http://www.wikidata.org/entity/Q34787960', 'http://www.wikidata.org/entity/Q34787964', 'http://www.wikidata.org/entity/Q34787968', 'http://www.wikidata.org/entity/Q34787980', 'http://www.wikidata.org/entity/Q34787985', 'http://www.wikidata.org/entity/Q34788048', 'http://www.wikidata.org/entity/Q34788086', 'http://www.wikidata.org/entity/Q34788091', 'http://www.wikidata.org/entity/Q34788095', 'http://www.wikidata.org/entity/Q34788578', 'http://www.wikidata.org/entity/Q34788581', 'http://www.wikidata.org/entity/Q34788617', 'http://www.wikidata.org/entity/Q34788621', 'http://www.wikidata.org/entity/Q34788699', 'http://www.wikidata.org/entity/Q34795633', 'http://www.wikidata.org/entity/Q34795652', 'http://www.wikidata.org/entity/Q34795659', 'http://www.wikidata.org/entity/Q34795671', 'http://www.wikidata.org/entity/Q34795678', 'http://www.wikidata.org/entity/Q34795686', 'http://www.wikidata.org/entity/Q34795693', 'http://www.wikidata.org/entity/Q34795722', 'http://www.wikidata.org/entity/Q34795734', 'http://www.wikidata.org/entity/Q34795744', 'http://www.wikidata.org/entity/Q34795753', 'http://www.wikidata.org/entity/Q34795770', 'http://www.wikidata.org/entity/Q34795778', 'http://www.wikidata.org/entity/Q34795788', 'http://www.wikidata.org/entity/Q34795804', 'http://www.wikidata.org/entity/Q34795808', 'http://www.wikidata.org/entity/Q34795832', 'http://www.wikidata.org/entity/Q34795844', 'http://www.wikidata.org/entity/Q34795856', 'http://www.wikidata.org/entity/Q34795867', 'http://www.wikidata.org/entity/Q34795874', 'http://www.wikidata.org/entity/Q34795887', 'http://www.wikidata.org/entity/Q34795901', 'http://www.wikidata.org/entity/Q34795907', 'http://www.wikidata.org/entity/Q34795913', 'http://www.wikidata.org/entity/Q34795937', 'http://www.wikidata.org/entity/Q34795942', 'http://www.wikidata.org/entity/Q34795954', 'http://www.wikidata.org/entity/Q34795961', 'http://www.wikidata.org/entity/Q34795967', 'http://www.wikidata.org/entity/Q34795972', 'http://www.wikidata.org/entity/Q34795984', 'http://www.wikidata.org/entity/Q34795990', 'http://www.wikidata.org/entity/Q34795996', 'http://www.wikidata.org/entity/Q34796002', 'http://www.wikidata.org/entity/Q34796008', 'http://www.wikidata.org/entity/Q34796015', 'http://www.wikidata.org/entity/Q34796021', 'http://www.wikidata.org/entity/Q34796028', 'http://www.wikidata.org/entity/Q34796033', 'http://www.wikidata.org/entity/Q34796043', 'http://www.wikidata.org/entity/Q34796055', 'http://www.wikidata.org/entity/Q34796071', 'http://www.wikidata.org/entity/Q34796095', 'http://www.wikidata.org/entity/Q34796102', 'http://www.wikidata.org/entity/Q34796119', 'http://www.wikidata.org/entity/Q34796134', 'http://www.wikidata.org/entity/Q34796146', 'http://www.wikidata.org/entity/Q34796151', 'http://www.wikidata.org/entity/Q34796158', 'http://www.wikidata.org/entity/Q34796163', 'http://www.wikidata.org/entity/Q34796170', 'http://www.wikidata.org/entity/Q34796175', 'http://www.wikidata.org/entity/Q34796180', 'http://www.wikidata.org/entity/Q34861379', 'http://www.wikidata.org/entity/Q34861390', 'http://www.wikidata.org/entity/Q34861523', 'http://www.wikidata.org/entity/Q34861562', 'http://www.wikidata.org/entity/Q34861821', 'http://www.wikidata.org/entity/Q34862653', 'http://www.wikidata.org/entity/Q3579074', 'http://www.wikidata.org/entity/Q3594049', 'http://www.wikidata.org/entity/Q3623017', 'http://www.wikidata.org/entity/Q3785700', 'http://www.wikidata.org/entity/Q382082', 'http://www.wikidata.org/entity/Q38266996', 'http://www.wikidata.org/entity/Q385313', 'http://www.wikidata.org/entity/Q385710', 'http://www.wikidata.org/entity/Q393031', 'http://www.wikidata.org/entity/Q398636', 'http://www.wikidata.org/entity/Q432124', 'http://www.wikidata.org/entity/Q4419675', 'http://www.wikidata.org/entity/Q4419682', 'http://www.wikidata.org/entity/Q4478859', 'http://www.wikidata.org/entity/Q4497854', 'http://www.wikidata.org/entity/Q4518163', 'http://www.wikidata.org/entity/Q4518364', 'http://www.wikidata.org/entity/Q4518483', 'http://www.wikidata.org/entity/Q4518560', 'http://www.wikidata.org/entity/Q4518632', 'http://www.wikidata.org/entity/Q4518662', 'http://www.wikidata.org/entity/Q4518698', 'http://www.wikidata.org/entity/Q4518728', 'http://www.wikidata.org/entity/Q4518764', 'http://www.wikidata.org/entity/Q4518813', 'http://www.wikidata.org/entity/Q4518835', 'http://www.wikidata.org/entity/Q4518882', 'http://www.wikidata.org/entity/Q4518914', 'http://www.wikidata.org/entity/Q4518946', 'http://www.wikidata.org/entity/Q4519060', 'http://www.wikidata.org/entity/Q4519100', 'http://www.wikidata.org/entity/Q4519127', 'http://www.wikidata.org/entity/Q4519202', 'http://www.wikidata.org/entity/Q4519334', 'http://www.wikidata.org/entity/Q4519416', 'http://www.wikidata.org/entity/Q4519472', 'http://www.wikidata.org/entity/Q4520401', 'http://www.wikidata.org/entity/Q4520501', 'http://www.wikidata.org/entity/Q4520623', 'http://www.wikidata.org/entity/Q4520676', 'http://www.wikidata.org/entity/Q4520740', 'http://www.wikidata.org/entity/Q473472', 'http://www.wikidata.org/entity/Q474560', 'http://www.wikidata.org/entity/Q48752569', 'http://www.wikidata.org/entity/Q48752621', 'http://www.wikidata.org/entity/Q490610', 'http://www.wikidata.org/entity/Q49333374', 'http://www.wikidata.org/entity/Q494914', 'http://www.wikidata.org/entity/Q49493', 'http://www.wikidata.org/entity/Q49500', 'http://www.wikidata.org/entity/Q49507', 'http://www.wikidata.org/entity/Q49511', 'http://www.wikidata.org/entity/Q49513', 'http://www.wikidata.org/entity/Q49631357', 'http://www.wikidata.org/entity/Q49631388', 'http://www.wikidata.org/entity/Q49631402', 'http://www.wikidata.org/entity/Q49631408', 'http://www.wikidata.org/entity/Q49631415', 'http://www.wikidata.org/entity/Q49631418', 'http://www.wikidata.org/entity/Q49631448', 'http://www.wikidata.org/entity/Q49631449', 'http://www.wikidata.org/entity/Q49631468', 'http://www.wikidata.org/entity/Q49631471', 'http://www.wikidata.org/entity/Q49631484', 'http://www.wikidata.org/entity/Q49631487', 'http://www.wikidata.org/entity/Q49631489', 'http://www.wikidata.org/entity/Q49631490', 'http://www.wikidata.org/entity/Q49631492', 'http://www.wikidata.org/entity/Q49631493', 'http://www.wikidata.org/entity/Q49631495', 'http://www.wikidata.org/entity/Q49631497', 'http://www.wikidata.org/entity/Q49631501', 'http://www.wikidata.org/entity/Q49631532', 'http://www.wikidata.org/entity/Q49631657', 'http://www.wikidata.org/entity/Q49631707', 'http://www.wikidata.org/entity/Q49631712', 'http://www.wikidata.org/entity/Q49631766', 'http://www.wikidata.org/entity/Q49631801', 'http://www.wikidata.org/entity/Q49631841', 'http://www.wikidata.org/entity/Q49631849', 'http://www.wikidata.org/entity/Q49631851', 'http://www.wikidata.org/entity/Q49631852', 'http://www.wikidata.org/entity/Q49631855', 'http://www.wikidata.org/entity/Q49631874', 'http://www.wikidata.org/entity/Q49631881', 'http://www.wikidata.org/entity/Q49631883', </t>
+          <t>['http://www.wikidata.org/entity/Q3896131']</t>
         </is>
       </c>
       <c r="D11" t="b">
@@ -658,17 +658,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Give all swimmers that were born in Moscow.</t>
+          <t>What is the second highest mountain on Earth?</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1031959', 'http://www.wikidata.org/entity/Q107353823', 'http://www.wikidata.org/entity/Q107634702', 'http://www.wikidata.org/entity/Q107638361', 'http://www.wikidata.org/entity/Q108305735', 'http://www.wikidata.org/entity/Q10860087', 'http://www.wikidata.org/entity/Q108658638', 'http://www.wikidata.org/entity/Q11750372', 'http://www.wikidata.org/entity/Q124302084', 'http://www.wikidata.org/entity/Q124313747', 'http://www.wikidata.org/entity/Q1439850', 'http://www.wikidata.org/entity/Q14504132', 'http://www.wikidata.org/entity/Q14560946', 'http://www.wikidata.org/entity/Q16054123', 'http://www.wikidata.org/entity/Q16221402', 'http://www.wikidata.org/entity/Q17154793', 'http://www.wikidata.org/entity/Q17523891', 'http://www.wikidata.org/entity/Q17644417', 'http://www.wikidata.org/entity/Q18021520', 'http://www.wikidata.org/entity/Q18639533', 'http://www.wikidata.org/entity/Q19578089', 'http://www.wikidata.org/entity/Q19867395', 'http://www.wikidata.org/entity/Q19915730', 'http://www.wikidata.org/entity/Q20862334', 'http://www.wikidata.org/entity/Q21094770', 'http://www.wikidata.org/entity/Q2113545', 'http://www.wikidata.org/entity/Q21622402', 'http://www.wikidata.org/entity/Q21623147', 'http://www.wikidata.org/entity/Q2356473', 'http://www.wikidata.org/entity/Q2372089', 'http://www.wikidata.org/entity/Q2391239', 'http://www.wikidata.org/entity/Q24048969', 'http://www.wikidata.org/entity/Q242776', 'http://www.wikidata.org/entity/Q24955683', 'http://www.wikidata.org/entity/Q2509125', 'http://www.wikidata.org/entity/Q2567381', 'http://www.wikidata.org/entity/Q26229689', 'http://www.wikidata.org/entity/Q26236434', 'http://www.wikidata.org/entity/Q26250653', 'http://www.wikidata.org/entity/Q2668457', 'http://www.wikidata.org/entity/Q27063571', 'http://www.wikidata.org/entity/Q2734147', 'http://www.wikidata.org/entity/Q27538037', 'http://www.wikidata.org/entity/Q2754815', 'http://www.wikidata.org/entity/Q27805393', 'http://www.wikidata.org/entity/Q27995584', 'http://www.wikidata.org/entity/Q2901829', 'http://www.wikidata.org/entity/Q29021564', 'http://www.wikidata.org/entity/Q299747', 'http://www.wikidata.org/entity/Q3049594', 'http://www.wikidata.org/entity/Q33259050', 'http://www.wikidata.org/entity/Q3801963', 'http://www.wikidata.org/entity/Q3870583', 'http://www.wikidata.org/entity/Q4015878', 'http://www.wikidata.org/entity/Q4113367', 'http://www.wikidata.org/entity/Q4244582', 'http://www.wikidata.org/entity/Q460043', 'http://www.wikidata.org/entity/Q4715115', 'http://www.wikidata.org/entity/Q4715355', 'http://www.wikidata.org/entity/Q4715366', 'http://www.wikidata.org/entity/Q4715396', 'http://www.wikidata.org/entity/Q4715965', 'http://www.wikidata.org/entity/Q4721350', 'http://www.wikidata.org/entity/Q4730244', 'http://www.wikidata.org/entity/Q4751854', 'http://www.wikidata.org/entity/Q4759167', 'http://www.wikidata.org/entity/Q4759191', 'http://www.wikidata.org/entity/Q4767053', 'http://www.wikidata.org/entity/Q4797426', 'http://www.wikidata.org/entity/Q50221013', 'http://www.wikidata.org/entity/Q508250', 'http://www.wikidata.org/entity/Q5219224', 'http://www.wikidata.org/entity/Q5219549', 'http://www.wikidata.org/entity/Q5348229', 'http://www.wikidata.org/entity/Q556111', 'http://www.wikidata.org/entity/Q55972891', 'http://www.wikidata.org/entity/Q56043337', 'http://www.wikidata.org/entity/Q56073370', 'http://www.wikidata.org/entity/Q57114357', 'http://www.wikidata.org/entity/Q6069817', 'http://www.wikidata.org/entity/Q6069906', 'http://www.wikidata.org/entity/Q65589494', 'http://www.wikidata.org/entity/Q66317885', 'http://www.wikidata.org/entity/Q6761242', 'http://www.wikidata.org/entity/Q6763800', 'http://www.wikidata.org/entity/Q6763906', 'http://www.wikidata.org/entity/Q6968363', 'http://www.wikidata.org/entity/Q6968364', 'http://www.wikidata.org/entity/Q7035893', 'http://www.wikidata.org/entity/Q7038078', 'http://www.wikidata.org/entity/Q7086047', 'http://www.wikidata.org/entity/Q7086663', 'http://www.wikidata.org/entity/Q7086674', 'http://www.wikidata.org/entity/Q7263180', 'http://www.wikidata.org/entity/Q7454107', 'http://www.wikidata.org/entity/Q7680835', 'http://www.wikidata.org/entity/Q7910781', 'http://www.wikidata.org/entity/Q7910881', 'http://www.wikidata.org/entity/Q7910896', 'http://www.wikidata.org/entity/Q7929719', 'http://www.wikidata.org/entity/Q7929757', 'http://www.wikidata.org/entity/Q7929832', 'http://www.wikidata.org/entity/Q7938430', 'http://www.wikidata.org/entity/Q7938643', 'http://www.wikidata.org/entity/Q8051367', 'http://www.wikidata.org/entity/Q8053274', 'http://www.wikidata.org/entity/Q87832143', 'http://www.wikidata.org/entity/Q9146400', 'http://www.wikidata.org/entity/Q9323051']</t>
+          <t>['http://www.wikidata.org/entity/Q5159490']</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1029664', 'http://www.wikidata.org/entity/Q104776957', 'http://www.wikidata.org/entity/Q105235079', 'http://www.wikidata.org/entity/Q105967693', 'http://www.wikidata.org/entity/Q106307004', 'http://www.wikidata.org/entity/Q106367605', 'http://www.wikidata.org/entity/Q106425517', 'http://www.wikidata.org/entity/Q106510278', 'http://www.wikidata.org/entity/Q107573978', 'http://www.wikidata.org/entity/Q112035385', 'http://www.wikidata.org/entity/Q113522071', 'http://www.wikidata.org/entity/Q116447696', 'http://www.wikidata.org/entity/Q11657', 'http://www.wikidata.org/entity/Q11659', 'http://www.wikidata.org/entity/Q11667', 'http://www.wikidata.org/entity/Q11766679', 'http://www.wikidata.org/entity/Q119267111', 'http://www.wikidata.org/entity/Q12361909', 'http://www.wikidata.org/entity/Q124055054', 'http://www.wikidata.org/entity/Q12488', 'http://www.wikidata.org/entity/Q12492', 'http://www.wikidata.org/entity/Q12509', 'http://www.wikidata.org/entity/Q125917691', 'http://www.wikidata.org/entity/Q125942105', 'http://www.wikidata.org/entity/Q131120', 'http://www.wikidata.org/entity/Q133318', 'http://www.wikidata.org/entity/Q13412167', 'http://www.wikidata.org/entity/Q13512756', 'http://www.wikidata.org/entity/Q1566864', 'http://www.wikidata.org/entity/Q15836320', 'http://www.wikidata.org/entity/Q16568576', 'http://www.wikidata.org/entity/Q17274885', 'http://www.wikidata.org/entity/Q17373391', 'http://www.wikidata.org/entity/Q18579763', 'http://www.wikidata.org/entity/Q18595020', 'http://www.wikidata.org/entity/Q18679122', 'http://www.wikidata.org/entity/Q18704089', 'http://www.wikidata.org/entity/Q19282036', 'http://www.wikidata.org/entity/Q19946148', 'http://www.wikidata.org/entity/Q19959305', 'http://www.wikidata.org/entity/Q20088944', 'http://www.wikidata.org/entity/Q203591', 'http://www.wikidata.org/entity/Q2045570', 'http://www.wikidata.org/entity/Q20669230', 'http://www.wikidata.org/entity/Q20676027', 'http://www.wikidata.org/entity/Q20745066', 'http://www.wikidata.org/entity/Q20968655', 'http://www.wikidata.org/entity/Q21127219', 'http://www.wikidata.org/entity/Q2158840', 'http://www.wikidata.org/entity/Q21622022', 'http://www.wikidata.org/entity/Q21641431', 'http://www.wikidata.org/entity/Q21643508', 'http://www.wikidata.org/entity/Q2187618', 'http://www.wikidata.org/entity/Q219970', 'http://www.wikidata.org/entity/Q220755', 'http://www.wikidata.org/entity/Q2259509', 'http://www.wikidata.org/entity/Q22677918', 'http://www.wikidata.org/entity/Q229073', 'http://www.wikidata.org/entity/Q22957498', 'http://www.wikidata.org/entity/Q230571', 'http://www.wikidata.org/entity/Q233256', 'http://www.wikidata.org/entity/Q2332762', 'http://www.wikidata.org/entity/Q233408', 'http://www.wikidata.org/entity/Q234831', 'http://www.wikidata.org/entity/Q23993949', 'http://www.wikidata.org/entity/Q241776', 'http://www.wikidata.org/entity/Q2429984', 'http://www.wikidata.org/entity/Q2446649', 'http://www.wikidata.org/entity/Q254328', 'http://www.wikidata.org/entity/Q258950', 'http://www.wikidata.org/entity/Q259324', 'http://www.wikidata.org/entity/Q2631763', 'http://www.wikidata.org/entity/Q2634373', 'http://www.wikidata.org/entity/Q26436781', 'http://www.wikidata.org/entity/Q269057', 'http://www.wikidata.org/entity/Q269080', 'http://www.wikidata.org/entity/Q27050134', 'http://www.wikidata.org/entity/Q271736', 'http://www.wikidata.org/entity/Q27244483', 'http://www.wikidata.org/entity/Q27537219', 'http://www.wikidata.org/entity/Q28529740', 'http://www.wikidata.org/entity/Q289326', 'http://www.wikidata.org/entity/Q291006', 'http://www.wikidata.org/entity/Q296183', 'http://www.wikidata.org/entity/Q3050720', 'http://www.wikidata.org/entity/Q3061554', 'http://www.wikidata.org/entity/Q310376', 'http://www.wikidata.org/entity/Q3147756', 'http://www.wikidata.org/entity/Q3336349', 'http://www.wikidata.org/entity/Q3383105', 'http://www.wikidata.org/entity/Q357131', 'http://www.wikidata.org/entity/Q3596054', 'http://www.wikidata.org/entity/Q374053', 'http://www.wikidata.org/entity/Q4076983', 'http://www.wikidata.org/entity/Q4081968', 'http://www.wikidata.org/entity/Q4093827', 'http://www.wikidata.org/entity/Q4107406', 'http://www.wikidata.org/entity/Q4134097', 'http://www.wikidata.org/entity/Q4178253', 'http://www.wikidata.org/entity/Q42055714', 'http://www.wikidata.org/entity/Q4219173', 'http://www.wikidata.org/entity/Q43021496', 'http://www.wikidata.org/entity/Q4332121', 'http://www.wikidata.org/entity/Q440482', 'http://www.wikidata.org/entity/Q4420837', 'http://www.wikidata.org/entity/Q453815', 'http://www.wikidata.org/entity/Q47520016', 'http://www.wikidata.org/entity/Q4755868', 'http://www.wikidata.org/entity/Q4766824', 'http://www.wikidata.org/entity/Q4766943', 'http://www.wikidata.org/entity/Q502002', 'http://www.wikidata.org/entity/Q502583', 'http://www.wikidata.org/entity/Q5226101', 'http://www.wikidata.org/entity/Q55183492', 'http://www.wikidata.org/entity/Q5518661', 'http://www.wikidata.org/entity/Q55443455', 'http://www.wikidata.org/entity/Q55585044', 'http://www.wikidata.org/entity/Q55760771', 'http://www.wikidata.org/entity/Q560267', 'http://www.wikidata.org/entity/Q6001372', 'http://www.wikidata.org/entity/Q60289', 'http://www.wikidata.org/entity/Q61714969', 'http://www.wikidata.org/entity/Q619669', 'http://www.wikidata.org/entity/Q6415230', 'http://www.wikidata.org/entity/Q6429974', 'http://www.wikidata.org/entity/Q653709', 'http://www.wikidata.org/entity/Q65925042', 'http://www.wikidata.org/entity/Q660518', 'http://www.wikidata.org/entity/Q670574', 'http://www.wikidata.org/entity/Q6849512', 'http://www.wikidata.org/entity/Q71077496', 'http://www.wikidata.org/entity/Q85322897', 'http://www.wikidata.org/entity/Q953688', 'http://www.wikidata.org/entity/Q98278358']</t>
+          <t>['http://www.wikidata.org/entity/Q945543']</t>
         </is>
       </c>
       <c r="D12" t="b">
@@ -678,37 +678,37 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Which city has the least inhabitants?</t>
+          <t>In which country is Mecca located?</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q2590944']</t>
+          <t>['http://www.wikidata.org/entity/Q851']</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q2590944']</t>
+          <t>['http://www.wikidata.org/entity/Q159']</t>
         </is>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Where did Abraham Lincoln die?</t>
+          <t>Which city has the least inhabitants?</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q4799733']</t>
+          <t>['http://www.wikidata.org/entity/Q2590944']</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q4799733']</t>
+          <t>['http://www.wikidata.org/entity/Q2590944']</t>
         </is>
       </c>
       <c r="D14" t="b">
@@ -718,17 +718,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>How tall is Michael Jordan?</t>
+          <t>Where did Abraham Lincoln die?</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['198']</t>
+          <t>['http://www.wikidata.org/entity/Q4799733']</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['198']</t>
+          <t>['http://www.wikidata.org/entity/Q4799733']</t>
         </is>
       </c>
       <c r="D15" t="b">
@@ -738,17 +738,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>how much is the population Iraq?</t>
+          <t>How tall is Michael Jordan?</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['38274618']</t>
+          <t>['198']</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['38274618']</t>
+          <t>['198']</t>
         </is>
       </c>
       <c r="D16" t="b">
@@ -758,37 +758,37 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Which actors were born in Germany?</t>
+          <t>how much is the population Iraq?</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1000089', 'http://www.wikidata.org/entity/Q100028', 'http://www.wikidata.org/entity/Q1000309', 'http://www.wikidata.org/entity/Q1000631', 'http://www.wikidata.org/entity/Q1001088', 'http://www.wikidata.org/entity/Q1001175', 'http://www.wikidata.org/entity/Q100122', 'http://www.wikidata.org/entity/Q1001257', 'http://www.wikidata.org/entity/Q1001304', 'http://www.wikidata.org/entity/Q100149495', 'http://www.wikidata.org/entity/Q100151770', 'http://www.wikidata.org/entity/Q100152085', 'http://www.wikidata.org/entity/Q100175', 'http://www.wikidata.org/entity/Q100220', 'http://www.wikidata.org/entity/Q100224', 'http://www.wikidata.org/entity/Q100227', 'http://www.wikidata.org/entity/Q100248945', 'http://www.wikidata.org/entity/Q100251', 'http://www.wikidata.org/entity/Q100264', 'http://www.wikidata.org/entity/Q100269', 'http://www.wikidata.org/entity/Q100277164', 'http://www.wikidata.org/entity/Q100293', 'http://www.wikidata.org/entity/Q100299', 'http://www.wikidata.org/entity/Q100318', 'http://www.wikidata.org/entity/Q100322', 'http://www.wikidata.org/entity/Q100333', 'http://www.wikidata.org/entity/Q100337', 'http://www.wikidata.org/entity/Q100338', 'http://www.wikidata.org/entity/Q100347140', 'http://www.wikidata.org/entity/Q100356', 'http://www.wikidata.org/entity/Q100361853', 'http://www.wikidata.org/entity/Q100395', 'http://www.wikidata.org/entity/Q100414', 'http://www.wikidata.org/entity/Q100415', 'http://www.wikidata.org/entity/Q100417', 'http://www.wikidata.org/entity/Q100422', 'http://www.wikidata.org/entity/Q100451', 'http://www.wikidata.org/entity/Q1004594', 'http://www.wikidata.org/entity/Q1004736', 'http://www.wikidata.org/entity/Q100491593', 'http://www.wikidata.org/entity/Q100506', 'http://www.wikidata.org/entity/Q100535', 'http://www.wikidata.org/entity/Q100545', 'http://www.wikidata.org/entity/Q100562', 'http://www.wikidata.org/entity/Q100571', 'http://www.wikidata.org/entity/Q100572', 'http://www.wikidata.org/entity/Q100602', 'http://www.wikidata.org/entity/Q100658', 'http://www.wikidata.org/entity/Q100673', 'http://www.wikidata.org/entity/Q100675530', 'http://www.wikidata.org/entity/Q100708', 'http://www.wikidata.org/entity/Q100781', 'http://www.wikidata.org/entity/Q100784561', 'http://www.wikidata.org/entity/Q100841', 'http://www.wikidata.org/entity/Q100844', 'http://www.wikidata.org/entity/Q100893', 'http://www.wikidata.org/entity/Q100903', 'http://www.wikidata.org/entity/Q100954855', 'http://www.wikidata.org/entity/Q100981152', 'http://www.wikidata.org/entity/Q100989', 'http://www.wikidata.org/entity/Q100989640', 'http://www.wikidata.org/entity/Q101019', 'http://www.wikidata.org/entity/Q101059', 'http://www.wikidata.org/entity/Q101079', 'http://www.wikidata.org/entity/Q101094', 'http://www.wikidata.org/entity/Q101104', 'http://www.wikidata.org/entity/Q101112792', 'http://www.wikidata.org/entity/Q101120', 'http://www.wikidata.org/entity/Q101149', 'http://www.wikidata.org/entity/Q101171', 'http://www.wikidata.org/entity/Q101177', 'http://www.wikidata.org/entity/Q101189', 'http://www.wikidata.org/entity/Q101200085', 'http://www.wikidata.org/entity/Q101203', 'http://www.wikidata.org/entity/Q101209739', 'http://www.wikidata.org/entity/Q101210090', 'http://www.wikidata.org/entity/Q101218', 'http://www.wikidata.org/entity/Q101223', 'http://www.wikidata.org/entity/Q101228', 'http://www.wikidata.org/entity/Q101231', 'http://www.wikidata.org/entity/Q101238', 'http://www.wikidata.org/entity/Q101243', 'http://www.wikidata.org/entity/Q101243079', 'http://www.wikidata.org/entity/Q101252599', 'http://www.wikidata.org/entity/Q101267', 'http://www.wikidata.org/entity/Q101347', 'http://www.wikidata.org/entity/Q101380', 'http://www.wikidata.org/entity/Q101381', 'http://www.wikidata.org/entity/Q101392', 'http://www.wikidata.org/entity/Q101434', 'http://www.wikidata.org/entity/Q10147562', 'http://www.wikidata.org/entity/Q101476', 'http://www.wikidata.org/entity/Q101507816', 'http://www.wikidata.org/entity/Q101524', 'http://www.wikidata.org/entity/Q101554634', 'http://www.wikidata.org/entity/Q101598', 'http://www.wikidata.org/entity/Q101615', 'http://www.wikidata.org/entity/Q101618', 'http://www.wikidata.org/entity/Q1016445', 'http://www.wikidata.org/entity/Q1016492', 'http://www.wikidata.org/entity/Q101705', 'http://www.wikidata.org/entity/Q101719', 'http://www.wikidata.org/entity/Q101720', 'http://www.wikidata.org/entity/Q101734', 'http://www.wikidata.org/entity/Q101768', 'http://www.wikidata.org/entity/Q101775', 'http://www.wikidata.org/entity/Q101782', 'http://www.wikidata.org/entity/Q101840', 'http://www.wikidata.org/entity/Q101855', 'http://www.wikidata.org/entity/Q101888', 'http://www.wikidata.org/entity/Q101897', 'http://www.wikidata.org/entity/Q1019017', 'http://www.wikidata.org/entity/Q1019427', 'http://www.wikidata.org/entity/Q101969', 'http://www.wikidata.org/entity/Q101973', 'http://www.wikidata.org/entity/Q102047618', 'http://www.wikidata.org/entity/Q102050', 'http://www.wikidata.org/entity/Q1020684', 'http://www.wikidata.org/entity/Q1020694', 'http://www.wikidata.org/entity/Q102109528', 'http://www.wikidata.org/entity/Q102115662', 'http://www.wikidata.org/entity/Q102127', 'http://www.wikidata.org/entity/Q102140621', 'http://www.wikidata.org/entity/Q102260', 'http://www.wikidata.org/entity/Q102280', 'http://www.wikidata.org/entity/Q102287149', 'http://www.wikidata.org/entity/Q102288', 'http://www.wikidata.org/entity/Q102294', 'http://www.wikidata.org/entity/Q102302', 'http://www.wikidata.org/entity/Q102332', 'http://www.wikidata.org/entity/Q102337', 'http://www.wikidata.org/entity/Q102352', 'http://www.wikidata.org/entity/Q102354', 'http://www.wikidata.org/entity/Q102356959', 'http://www.wikidata.org/entity/Q102363', 'http://www.wikidata.org/entity/Q102374', 'http://www.wikidata.org/entity/Q102450', 'http://www.wikidata.org/entity/Q102504', 'http://www.wikidata.org/entity/Q102530', 'http://www.wikidata.org/entity/Q102572', 'http://www.wikidata.org/entity/Q102574', 'http://www.wikidata.org/entity/Q102606', 'http://www.wikidata.org/entity/Q102611', 'http://www.wikidata.org/entity/Q102627', 'http://www.wikidata.org/entity/Q102630', 'http://www.wikidata.org/entity/Q102633', 'http://www.wikidata.org/entity/Q102635', 'http://www.wikidata.org/entity/Q1026499', 'http://www.wikidata.org/entity/Q102650', 'http://www.wikidata.org/entity/Q102651', 'http://www.wikidata.org/entity/Q102672', 'http://www.wikidata.org/entity/Q102678', 'http://www.wikidata.org/entity/Q102693', 'http://www.wikidata.org/entity/Q102712', 'http://www.wikidata.org/entity/Q102743', 'http://www.wikidata.org/entity/Q102783', 'http://www.wikidata.org/entity/Q102796', 'http://www.wikidata.org/entity/Q102802', 'http://www.wikidata.org/entity/Q1028813', 'http://www.wikidata.org/entity/Q1028955', 'http://www.wikidata.org/entity/Q102923', 'http://www.wikidata.org/entity/Q102929', 'http://www.wikidata.org/entity/Q102936', 'http://www.wikidata.org/entity/Q102937', 'http://www.wikidata.org/entity/Q102947', 'http://www.wikidata.org/entity/Q102961', 'http://www.wikidata.org/entity/Q102976', 'http://www.wikidata.org/entity/Q102990', 'http://www.wikidata.org/entity/Q1029964', 'http://www.wikidata.org/entity/Q102998', 'http://www.wikidata.org/entity/Q103000', 'http://www.wikidata.org/entity/Q103002', 'http://www.wikidata.org/entity/Q1030539', 'http://www.wikidata.org/entity/Q103158', 'http://www.wikidata.org/entity/Q1031845', 'http://www.wikidata.org/entity/Q103197', 'http://www.wikidata.org/entity/Q103223179', 'http://www.wikidata.org/entity/Q103256', 'http://www.wikidata.org/entity/Q103271', 'http://www.wikidata.org/entity/Q103361', 'http://www.wikidata.org/entity/Q103362', 'http://www.wikidata.org/entity/Q103391', 'http://www.wikidata.org/entity/Q103394', 'http://www.wikidata.org/entity/Q103415', 'http://www.wikidata.org/entity/Q103416', 'http://www.wikidata.org/entity/Q103430', 'http://www.wikidata.org/entity/Q103433', 'http://www.wikidata.org/entity/Q103476', 'http://www.wikidata.org/entity/Q103544', 'http://www.wikidata.org/entity/Q103611', 'http://www.wikidata.org/entity/Q1036168', 'http://www.wikidata.org/entity/Q103623', 'http://www.wikidata.org/entity/Q103637', 'http://www.wikidata.org/entity/Q103643', 'http://www.wikidata.org/entity/Q103656', 'http://www.wikidata.org/entity/Q103696', 'http://www.wikidata.org/entity/Q103702', 'http://www.wikidata.org/entity/Q103718', 'http://www.wikidata.org/entity/Q103727', 'http://www.wikidata.org/entity/Q103746', 'http://www.wikidata.org/entity/Q103755600', 'http://www.wikidata.org/entity/Q103760', 'http://www.wikidata.org/entity/Q103775022', 'http://www.wikidata.org/entity/Q103805', 'http://www.wikidata.org/entity/Q103827144', 'http://www.wikidata.org/entity/Q103844323', 'http://www.wikidata.org/entity/Q103845', 'http://www.wikidata.org/entity/Q103851', 'http://www.wikidata.org/entity/Q103863', 'http://www.wikidata.org/entity/Q103868', 'http://www.wikidata.org/entity/Q1038953', 'http://www.wikidata.org/entity/Q103920', 'http://www.wikidata.org/entity/Q1039299', 'http://www.wikidata.org/entity/Q103948', 'http://www.wikidata.org/entity/Q103961', 'http://www.wikidata.org/entity/Q103980542', 'http://www.wikidata.org/entity/Q103986', 'http://www.wikidata.org/entity/Q1039868', 'http://www.wikidata.org/entity/Q104006', 'http://www.wikidata.org/entity/Q104006972', 'http://www.wikidata.org/entity/Q104008', 'http://www.wikidata.org/entity/Q1040432', 'http://www.wikidata.org/entity/Q104084', 'http://www.wikidata.org/entity/Q104094', 'http://www.wikidata.org/entity/Q104120371', 'http://www.wikidata.org/entity/Q104121', 'http://www.wikidata.org/entity/Q104141', 'http://www.wikidata.org/entity/Q1041500', 'http://www.wikidata.org/entity/Q1041514', 'http://www.wikidata.org/entity/Q104153430', 'http://www.wikidata.org/entity/Q1041535', 'http://www.wikidata.org/entity/Q104154734', 'http://www.wikidata.org/entity/Q104155641', 'http://www.wikidata.org/entity/Q104155750', 'http://www.wikidata.org/entity/Q1041559', 'http://www.wikidata.org/entity/Q104156172', 'http://www.wikidata.org/entity/Q104156463', 'http://www.wikidata.org/entity/Q104157044', 'http://www.wikidata.org/entity/Q1041582', 'http://www.wikidata.org/entity/Q104160134', 'http://www.wikidata.org/entity/Q104161808', 'http://www.wikidata.org/entity/Q104162235', 'http://www.wikidata.org/entity/Q104172860', 'http://www.wikidata.org/entity/Q104176819', 'http://www.wikidata.org/entity/Q104178588', 'http://www.wikidata.org/entity/Q104180930', 'http://www.wikidata.org/entity/Q1041870', 'http://www.wikidata.org/entity/Q104196', 'http://www.wikidata.org/entity/Q104198093', 'http://www.wikidata.org/entity/Q104198269', 'http://www.wikidata.org/entity/Q104208', 'http://www.wikidata.org/entity/Q104211573', 'http://www.wikidata.org/entity/Q104212560', 'http://www.wikidata.org/entity/Q104213', 'http://www.wikidata.org/entity/Q104218050', 'http://www.wikidata.org/entity/Q1043589', 'http://www.wikidata.org/entity/Q1043681', 'http://www.wikidata.org/entity/Q1043709', 'http://www.wikidata.org/entity/Q104371', 'http://www.wikidata.org/entity/Q104383260', 'http://www.wikidata.org/entity/Q104383283', 'http://www.wikidata.org/entity/Q104385', 'http://www.wikidata.org/entity/Q104418200', 'http://www.wikidata.org/entity/Q104427', 'http://www.wikidata.org/entity/Q1044342', 'http://www.wikidata.org/entity/Q1044346', 'http://www.wikidata.org/entity/Q1044348', 'http://www.wikidata.org/entity/Q104437885', 'http://www.wikidata.org/entity/Q104439569', 'http://www.wikidata.org/entity/Q1044477', 'http://www.wikidata.org/entity/Q1044494', 'http://www.wikidata.org/entity/Q1044514', 'http://www.wikidata.org/entity/Q1044559', 'http://www.wikidata.org/entity/Q104468053', 'http://www.wikidata.org/entity/Q104476', 'http://www.wikidata.org/entity/Q104520659', 'http://www.wikidata.org/entity/Q104521370', 'http://www.wikidata.org/entity/Q104522001', 'http://www.wikidata.org/entity/Q104523', 'http://www.wikidata.org/entity/Q104544', 'http://www.wikidata.org/entity/Q1045477', 'http://www.wikidata.org/entity/Q104568', 'http://www.wikidata.org/entity/Q1045680', 'http://www.wikidata.org/entity/Q1045683', 'http://www.wikidata.org/entity/Q1045722', 'http://www.wikidata.org/entity/Q104576', 'http://www.wikidata.org/entity/Q104578', 'http://www.wikidata.org/entity/Q104579681', 'http://www.wikidata.org/entity/Q104587770', 'http://www.wikidata.org/entity/Q104590907', 'http://www.wikidata.org/entity/Q104599978', 'http://www.wikidata.org/entity/Q104601', 'http://www.wikidata.org/entity/Q104604', 'http://www.wikidata.org/entity/Q104604553', 'http://www.wikidata.org/entity/Q104613862', 'http://www.wikidata.org/entity/Q104615564', 'http://www.wikidata.org/entity/Q104626181', 'http://www.wikidata.org/entity/Q104631795', 'http://www.wikidata.org/entity/Q104659505', 'http://www.wikidata.org/entity/Q104663127', 'http://www.wikidata.org/entity/Q104665', 'http://www.wikidata.org/entity/Q104665277', 'http://www.wikidata.org/entity/Q104667', 'http://www.wikidata.org/entity/Q104670', 'http://www.wikidata.org/entity/Q104696788', 'http://www.wikidata.org/entity/Q104700634', 'http://www.wikidata.org/entity/Q104702', 'http://www.wikidata.org/entity/Q104730', 'http://www.wikidata.org/entity/Q104737', 'http://www.wikidata.org/entity/Q104741', 'http://www.wikidata.org/entity/Q104760625', 'http://www.wikidata.org/entity/Q104762922', 'http://www.wikidata.org/entity/Q104764834', 'http://www.wikidata.org/entity/Q104764873', 'http://www.wikidata.org/entity/Q104764874', 'http://www.wikidata.org/entity/Q104764949', 'http://www.wikidata.org/entity/Q104764974', 'http://www.wikidata.org/entity/Q104765018', 'http://www.wikidata.org/entity/Q104766', 'http://www.wikidata.org/entity/Q104782393', 'http://www.wikidata.org/entity/Q104787', 'http://www.wikidata.org/entity/Q104815', 'http://www.wikidata.org/entity/Q104832', 'http://www.wikidata.org/entity/Q104845706', 'http://www.wikidata.org/entity/Q104866', 'http://www.wikidata.org/entity/Q104869469', 'http://www.wikidata.org/entity/Q104876', 'http://www.wikidata.org/entity/Q104878044', 'http://www.wikidata.org/entity/Q104879', 'http://www.wikidata.org/entity/Q104884382', 'http://www.wikidata.org/entity/Q104902', 'http://www.wikidata.org/entity/Q104923', 'http://www.wikidata.org/entity/Q104925', 'http://www.wikidata.org/entity/Q104925281', 'http://www.wikidata.org/entity/Q104929865', 'http://www.wikidata.org/entity/Q104977', 'http://www.wikidata.org/entity/Q105047008', 'http://www.wikidata.org/entity/Q105047482', 'http://www.wikidata.org/entity/Q105052', 'http://www.wikidata.org/entity/Q105058', 'http://www.wikidata.org/entity/Q105064646', 'http://www.wikidata.org/entity/Q105065', 'http://www.wikidata.org/entity/Q105070220', 'http://www.wikidata.org/entity/Q105082', 'http://www.wikidata.org/entity/Q105102', 'http://www.wikidata.org/entity/Q105104', 'http://www.wikidata.org/entity/Q1051091', 'http://www.wikidata.org/entity/Q1051126', 'http://www.wikidata.org/entity/Q105114', 'http://www.wikidata.org/entity/Q105116505', 'http://www.wikidata.org/entity/Q105118747', 'http://www.wikidata.org/entity/Q105129', 'http://www.wikidata.org/entity/Q105133286', 'http://www.wikidata.org/entity/Q105134406', 'http://www.wikidata.org/entity/Q105136295', 'http://www.wikidata.org/entity/Q105138', 'http://www.wikidata.org/entity/Q105147', 'http://www.wikidata.org/entity/Q105149', 'http://www.wikidata.org/entity/Q105166', 'http://www.wikidata.org/entity/Q105193', 'http://www.wikidata.org/entity/Q1051939', 'http://www.wikidata.org/entity/Q105199568', 'http://www.wikidata.org/entity/Q1052372', 'http://www.wikidata.org/entity/Q105283', 'http://www.wikidata.org/entity/Q105297', 'http://www.wikidata.org/entity/Q105309404', 'http://www.wikidata.org/entity/Q105336746', 'http://www.wikidata.org/entity/Q105338506', 'http://www.wikidata.org/entity/Q105373', 'http://www.wikidata.org/entity/Q105391976', 'http://www.wikidata.org/entity/Q105451432', 'http://www.wikidata.org/entity/Q105478', 'http://www.wikidata.org/entity/Q105491', 'http://www.wikidata.org/entity/Q105494121', 'http://www.wikidata.org/entity/Q105549643', 'http://www.wikidata.org/entity/Q105549794', 'http://www.wikidata.org/entity/Q105559', 'http://www.wikidata.org/entity/Q105585136', 'http://www.wikidata.org/entity/Q105607', 'http://www.wikidata.org/entity/Q105610', 'http://www.wikidata.org/entity/Q105613', 'http://www.wikidata.org/entity/Q105613248', 'http://www.wikidata.org/entity/Q105627147', 'http://www.wikidata.org/entity/Q105631', 'http://www.wikidata.org/entity/Q10563757', 'http://www.wikidata.org/entity/Q105642', 'http://www.wikidata.org/entity/Q105665', 'http://www.wikidata.org/entity/Q105671328', 'http://www.wikidata.org/entity/Q105675820', 'http://www.wikidata.org/entity/Q105679', 'http://www.wikidata.org/entity/Q105681', 'http://www.wikidata.org/entity/Q105691', 'http://www.wikidata.org/entity/Q105716', 'http://www.wikidata.org/entity/Q105716679', 'http://www.wikidata.org/entity/Q105724333', 'http://www.wikidata.org/entity/Q105737724', 'http://www.wikidata.org/entity/Q105754846', 'http://www.wikidata.org/entity/Q105755335', 'http://www.wikidata.org/entity/Q105767098', 'http://www.wikidata.org/entity/Q105770', 'http://www.wikidata.org/entity/Q105770599', 'http://www.wikidata.org/entity/Q105785', 'http://www.wikidata.org/entity/Q105832784', 'http://www.wikidata.org/entity/Q105848334', 'http://www.wikidata.org/entity/Q105901', 'http://www.wikidata.org/entity/Q105914', 'http://www.wikidata.org/entity/Q105915', 'http://www.wikidata.org/entity/Q105918', 'http://www.wikidata.org/entity/Q105925', 'http://www.wikidata.org/entity/Q105944757', 'http://www.wikidata.org/entity/Q105992322', 'http://www.wikidata.org/entity/Q105992955', 'http://www.wikidata.org/entity/Q106000338', 'http://www.wikidata.org/entity/Q106006759', 'http://www.wikidata.org/entity/Q106035', 'http://www.wikidata.org/entity/Q106041', 'http://www.wikidata.org/entity/Q106061', 'http://www.wikidata.org/entity/Q106098372', 'http://www.wikidata.org/entity/Q106126', 'http://www.wikidata.org/entity/Q106127', 'http://www.wikidata.org/entity/Q106135271', 'http://www.wikidata.org/entity/Q106159611', 'http://www.wikidata.org/entity/Q106177', 'http://www.wikidata.org/entity/Q106188490', 'http://www.wikidata.org/entity/Q106223560', 'http://www.wikidata.org/entity/Q106254', 'http://www.wikidata.org/entity/Q106260', 'http://www.wikidata.org/entity/Q106298187', 'http://www.wikidata.org/entity/Q106311564', 'http://www.wikidata.org/entity/Q106311574', 'http://www.wikidata.org/entity/Q106322507', 'http://www.wikidata.org/entity/Q106323314', 'http://www.wikidata.org/entity/Q106358178', 'http://www.wikidata.org/entity/Q106368', 'http://www.wikidata.org/entity/Q106373', 'http://www.wikidata.org/entity/Q106390', 'http://www.wikidata.org/entity/Q106393', 'http://www.wikidata.org/entity/Q106395745', 'http://www.wikidata.org/entity/Q106412', 'http://www.wikidata.org/entity/Q106423', 'http://www.wikidata.org/entity/Q106438', 'http://www.wikidata.org/entity/Q106455', 'http://www.wikidata.org/entity/Q106460', 'http://www.wikidata.org/entity/Q106461', 'http://www.wikidata.org/entity/Q106479', 'http://www.wikidata.org/entity/Q106493', 'http://www.wikidata.org/entity/Q106496', 'http://www.wikidata.org/entity/Q106512329', 'http://www.wikidata.org/entity/Q106518946', 'http://www.wikidata.org/entity/Q106519848', 'http://www.wikidata.org/entity/Q1065321', 'http://www.wikidata.org/entity/Q106548568', 'http://www.wikidata.org/entity/Q106553', 'http://www.wikidata.org/entity/Q106564535', 'http://www.wikidata.org/entity/Q106572', 'http://www.wikidata.org/entity/Q106578', 'http://www.wikidata.org/entity/Q106594046', 'http://www.wikidata.org/entity/Q106595246', 'http://www.wikidata.org/entity/Q106631203', 'http://www.wikidata.org/entity/Q106637474', 'http://www.wikidata.org/entity/Q106661', 'http://www.wikidata.org/entity/Q106664319', 'http://www.wikidata.org/entity/Q106675767', 'http://www.wikidata.org/entity/Q106689558', 'http://www.wikidata.org/entity/Q1067102', 'http://www.wikidata.org/entity/Q1067206', 'http://www.wikidata.org/entity/Q1067219', 'http://www.wikidata.org/entity/Q1067238', 'http://www.wikidata.org/entity/Q1067243', 'http://www.wikidata.org/entity/Q1067327', 'http://www.wikidata.org/entity/Q1067337', 'http://www.wikidata.org/entity/Q106744', 'http://www.wikidata.org/entity/Q1067500', 'http://www.wikidata.org/entity/Q1067523', 'http://www.wikidata.org/entity/Q106754', 'http://www.wikidata.org/entity/Q106768194', 'http://www.wikidata.org/entity/Q106799', 'http://www.wikidata.org/entity/Q106819841', 'http://www.wikidata.org/entity/Q106831105', 'http://www.wikidata.org/entity/Q106841995', 'http://www.wikidata.org/entity/Q106869', 'http://www.wikidata.org/entity/Q106878335', 'http://www.wikidata.org/entity/Q106890375', 'http://www.wikidata.org/entity/Q106936826', 'http://www.wikidata.org/entity/Q106939', 'http://www.wikidata.org/entity/Q107036249', 'http://www.wikidata.org/entity/Q107045040', 'http://www.wikidata.org/entity/Q107112297', 'http://www.wikidata.org/entity/Q1071648', 'http://www.wikidata.org/entity/Q107190753', 'http://www.wikidata.org/entity/Q107204799', 'http://www.wikidata.org/entity/Q107219', 'http://www.wikidata.org/entity/Q107274', 'http://www.wikidata.org/entity/Q107286074', 'http://www.wikidata.org/entity/Q107291', 'http://www.wikidata.org/entity/Q1073163', 'http://www.wikidata.org/entity/Q107345', 'http://www.wikidata.org/entity/Q107349965', 'http://www.wikidata.org/entity/Q107350', 'http://www.wikidata.org/entity/Q107362784', 'http://www.wikidata.org/entity/Q107364', 'http://www.wikidata.org/entity/Q107375', 'http://www.wikidata.org/entity/Q107379896', 'http://www.wikidata.org/entity/Q107410916', 'http://www.wikidata.org/entity/Q107438', 'http://www.wikidata.org/entity/Q107474234', 'http://www.wikidata.org/entity/Q107483', 'http://www.wikidata.org/entity/Q107500877', 'http://www.wikidata.org/entity/Q107514', 'http://www.wikidata.org/entity/Q107538718', 'http://www.wikidata.org/entity/Q107583', 'http://www.wikidata.org/entity/Q107599', 'http://www.wikidata.org/entity/Q107605', 'http://www.wikidata.org/entity/Q107609122', 'http://www.wikidata.org/entity/Q107628', 'http://www.wikidata.org/entity/Q107630', 'http://www.wikidata.org/entity/Q107646', 'http://www.wikidata.org/entity/Q107651', 'http://www.wikidata.org/entity/Q107679210', 'http://www.wikidata.org/entity/Q107683', 'http://www.wikidata.org/entity/Q107711622', 'http://www.wikidata.org/entity/Q107740134', 'http://www.wikidata.org/entity/Q107743', 'http://www.wikidata.org/entity/Q107753', 'http://www.wikidata.org/entity/Q107782', 'http://www.wikidata.org/entity/Q107788', 'http://www.wikidata.org/entity/Q107790473', 'http://www.wikidata.org/entity/Q1078028', 'http://www.wikidata.org/entity/Q107805', 'http://www.wikidata.org/entity/Q1078106', 'http://www.wikidata.org/entity/Q1078277', 'http://www.wikidata.org/entity/Q107849', 'http://www.wikidata.org/entity/Q107869', 'http://www.wikidata.org/entity/Q1078911', 'http://www.wikidata.org/entity/Q107924', 'http://www.wikidata.org/entity/Q1079558', 'http://www.wikidata.org/entity/Q107973784', 'http://www.wikidata.org/entity/Q107983', 'http://www.wikidata.org/entity/Q107987303', 'http://www.wikidata.org/entity/Q1080253', 'http://www.wikidata.org/entity/Q108029097', 'http://www.wikidata.org/entity/Q1080329', 'http://www.wikidata.org/entity/Q108035', 'http://www.wikidata.org/entity/Q1080540', 'http://www.wikidata.org/entity/Q108057', 'http://www.wikidata.org/entity/Q1080623', 'http://www.wikidata.org/entity/Q1080649', 'http://www.wikidata.org/entity/Q108070', 'http://www.wikidata.org/entity/Q1080716', 'http://www.wikidata.org/entity/Q1080732', 'http://www.wikidata.org/entity/Q1080816', 'http://www.wikidata.org/entity/Q1080819', 'http://www.wikidata.org/entity/Q108097', 'http://www.wikidata.org/entity/Q108104', 'http://www.wikidata.org/entity/Q1081113', 'http://www.wikidata.org/entity/Q108114', 'http://www.wikidata.org/entity/Q108127805', 'http://www.wikidata.org/entity/Q1081287', 'http://www.wikidata.org/entity/Q1081437', 'http://www.wikidata.org/entity/Q108153', 'http://www.wikidata.org/entity/Q1081561', 'http://www.wikidata.org/entity/Q1081599', 'http://www.wikidata.org/entity/Q1081610', 'http://www.wikidata.org/entity/Q108164', 'http://www.wikidata.org/entity/Q1081758', 'http://www.wikidata.org/entity/Q108176', 'http://www.wikidata.org/entity/Q108192', 'http://www.wikidata.org/entity/Q108196632', 'http://www.wikidata.org/entity/Q108201130', 'http://www.wikidata.org/entity/Q108202', 'http://www.wikidata.org/entity/Q1082198', 'http://www.wikidata.org/entity/Q1082288', 'http://www.wikidata.org/entity/Q108230', 'http://www.wikidata.org/entity/Q108233', 'http://www.wikidata.org/entity/Q108236', 'http://www.wikidata.org/entity/Q108255', 'http://www.wikidata.org/entity/Q1082640', 'http://www.wikidata.org/entity/Q1082673', 'http://www.wikidata.org/entity/Q1082749', 'http://www.wikidata.org/entity/Q1082754', 'http://www.wikidata.org/entity/Q1082761', 'http://www.wikidata.org/entity/Q1082798', 'http://www.wikidata.org/entity/Q108285546', 'http://www.wikidata.org/entity/Q108287276', 'http://www.wikidata.org/entity/Q1082880', 'http://www.wikidata.org/entity/Q108294049', 'http://www.wikidata.org/entity/Q108294329', 'http://www.wikidata.org/entity/Q108294870', 'http://www.wikidata.org/entity/Q108296218', 'http://www.wikidata.org/entity/Q108296809', 'http://www.wikidata.org/entity/Q108302', 'http://www.wikidata.org/entity/Q108306', 'http://www.wikidata.org/entity/Q1083077', 'http://www.wikidata.org/entity/Q1083086', 'http://www.wikidata.org/entity/Q1083099', 'http://www.wikidata.org/entity/Q108311', 'http://www.wikidata.org/entity/Q1083125', 'http://www.wikidata.org/entity/Q1083162', 'http://www.wikidata.org/entity/Q1083168', 'http://www.wikidata.org/entity/Q108319856', 'http://www.wikidata.org/entity/Q1083435', 'http://www.wikidata.org/entity/Q1083539', 'http://www.wikidata.org/entity/Q1083559', 'http://www.wikidata.org/entity/Q1083566', 'http://www.wikidata.org/entity/Q108358', 'http://www.wikidata.org/entity/Q1083583', 'http://www.wikidata.org/entity/Q1083622', 'http://www.wikidata.org/entity/Q1083624', 'http://www.wikidata.org/entity/Q1083644', 'http://www.wikidata.org/entity/Q108365', 'http://www.wikidata.org/entity/Q1083730', 'http://www.wikidata.org/entity/Q108378294', 'http://www.wikidata.org/entity/Q1083806', 'http://www.wikidata.org/entity/Q1083827', 'http://www.wikidata.org/entity/Q108393', 'http://www.wikidata.org/entity/Q108434', 'http://www.wikidata.org/entity/Q108436220', 'http://www.wikidata.org/entity/Q1084549', 'http://www.wikidata.org/entity/Q1084557', 'http://www.wikidata.org/entity/Q1084596', 'http://www.wikidata.org/entity/Q108469', 'http://www.wikidata.org/entity/Q1084818', 'http://www.wikidata.org/entity/Q1084956', 'http://www.wikidata.org/entity/Q1084985', 'http://www.wikidata.org/entity/Q1085038', 'http://www.wikidata.org/entity/Q108504516', 'http://www.wikidata.org/entity/Q1085172', 'http://www.wikidata.org/entity/Q1085185', 'http://www.wikidata.org/entity/Q1085225', 'http://www.wikidata.org/entity/Q1085257', 'http://www.wikidata.org/entity/Q108526446', 'http://www.wikidata.org/entity/Q1085341', 'http://www.wikidata.org/entity/Q1085356', 'http://www.wikidata.org/entity/Q1085410', 'http://www.wikidata.org/entity/Q108554', 'http://www.wikidata.org/entity/Q108595256', 'http://www.wikidata.org/entity/Q1086005', 'http://www.wikidata.org/entity/Q108617', 'http://www.wikidata.org/entity/Q108617374', 'http://www.wikidata.org/entity/Q108630', 'http://www.wikidata.org/entity/Q1086472', 'http://www.wikidata.org/entity/Q108660', 'http://www.wikidata.org/entity/Q108662429', 'http://www.wikidata.org/entity/Q108665648', 'http://www.wikidata.org/entity/Q1086799', 'http://www.wikidata.org/entity/Q108693451', 'http://www.wikidata.org/entity/Q108733443', 'http://www.wikidata.org/entity/Q108760927', 'http://www.wikidata.org/entity/Q108763', 'http://www.wikidata.org/entity/Q108773', 'http://www.wikidata.org/entity/Q108792', 'http://www.wikidata.org/entity/Q108803590', 'http://www.wikidata.org/entity/Q108805554', 'http://www.wikidata.org/entity/Q108811390', 'http://www.wikidata.org/entity/Q108828331', 'http://www.wikidata.org/entity/Q108839248', 'http://www.wikidata.org/entity/Q108845', 'http://www.wikidata.org/entity/Q108853', 'http://www.wikidata.org/entity/Q108861150', 'http://www.wikidata.org/entity/Q108861193', 'http://www.wikidata.org/entity/Q108862137', 'http://www.wikidata.org/entity/Q108867', 'http://www.wikidata.org/entity/Q108872482', 'http://www.wikidata.org/entity/Q108873', 'http://www.wikidata.org/entity/Q108873296', 'http://www.wikidata.org/entity/Q108884586', 'http://www.wikidata.org/entity/Q108914380', 'http://www.wikidata.org/entity/Q108920', 'http://www.wikidata.org/entity/Q108928', 'http://www.wikidata.org/entity/Q108936', 'http://www.wikidata.org/entity/Q108942', 'http://www.wikidata.org/entity/Q108964', 'http://www.wikidata.org/entity/Q108965', 'http://www.wikidata.org/entity/Q108972', 'http://www.wikidata.org/entity/Q108978', 'http://www.wikidata.org/entity/Q108984', 'http://www.wikidata.org/entity/Q108987', 'http://www.wikidata.org/entity/Q108989', 'http://www.wikidata.org/entity/Q109001', 'http://www.wikidata.org/entity/Q109028', 'http://www.wikidata.org/entity/Q109050', 'http://www.wikidata.org/entity/Q109104', 'http://www.wikidata.org/entity/Q109123', 'http://www.wikidata.org/entity/Q109124517', 'http://www.wikidata.org/entity/Q109127', 'http://www.wikidata.org/entity/Q109131', 'http://www.wikidata.org/entity/Q109141', 'http://www.wikidata.org/entity/Q109148', 'http://www.wikidata.org/entity/Q1091893', 'http://www.wikidata.org/entity/Q1091975', 'http://www.wikidata.org/entity/Q109200280', 'http://www.wikidata.org/entity/Q109211', 'http://www.wikidata.org/entity/Q109225', 'http://www.wikidata.org/entity/Q1092317', 'http://www.wikidata.org/entity/Q109252043', 'http://www.wikidata.org/entity/Q109253595', 'http://www.wikidata.org/entity/Q109271422', 'http://www.wikidata.org/entity/Q109286', 'http://www.wikidata.org/entity/Q109304', 'http://www.wikidata.org/entity/Q109306', 'http://www.wikidata.org/entity/Q109316729', 'http://www.wikidata.org/entity/Q109335', 'http://www.wikidata.org/entity/Q109355446', 'http://www.wikidata.org/entity/Q109356764', 'http://www.wikidata.org/entity/Q109357', 'http://www.wikidata.org/entity/Q109358', 'http://www.wikidata.org/entity/Q109366', 'http://www.wikidata.org/entity/Q109375705', 'http://www.wikidata.org/entity/Q109382417', 'http://www.wikidata.org/entity/Q109443', 'http://www.wikidata.org/entity/Q109444', 'http://www.wikidata.org/entity/Q1094818', 'http://www.wikidata.org/entity/Q109492', 'http://www.wikidata.org/entity/Q109505', 'http://www.wikidata.org/entity/Q109507264', 'http://www.wikidata.org/entity/Q109516', 'http://www.wikidata.org/entity/Q109526534', 'http://www.wikidata.org/entity/Q109534', 'http://www.wikidata.org/entity/Q109551709', 'http://www.wikidata.org/entity/Q109556', 'http://www.wikidata.org/entity/Q109566877', 'http://www.wikidata.org/entity/Q109581', 'http://www.wikidata.org/entity/Q109587133', 'http://www.wikidata.org/entity/Q109595', 'http://www.wikidata.org/entity/Q109603', 'http://www.wikidata.org/entity/Q109608', 'http://www.wikidata.org/entity/Q109619', 'http://www.wikidata.org/entity/Q109623', 'http://www.wikidata.org/entity/Q109628', 'http://www.wikidata.org/entity/Q109629', 'http://www.wikidata.org/entity/Q109648', 'http://www.wikidata.org/entity/Q109650102', 'http://www.wikidata.org/entity/Q109653134', 'http://www.wikidata.org/entity/Q109656492', 'http://www.wikidata.org/entity/Q109718', 'http://www.wikidata.org/entity/Q109720', 'http://www.wikidata.org/entity/Q1097341', 'http://www.wikidata.org/entity/Q1097365', 'http://www.wikidata.org/entity/Q1097434', 'http://www.wikidata.org/entity/Q1097461', 'http://www.wikidata.org/entity/Q1097463', 'http://www.wikidata.org/entity/Q1097471', 'http://www.wikidata.org/entity/Q1097480', 'http://www.wikidata.org/entity/Q1097526', 'http://www.wikidata.org/entity/Q1097527', 'http://www.wikidata.org/entity/Q1097592', 'http://www.wikidata.org/entity/Q1097610', 'http://www.wikidata.org/entity/Q1097620', 'http://www.wikidata.org/entity/Q1097640', 'http://www.wikidata.org/entity/Q1097686', 'http://www.wikidata.org/entity/Q1097701', 'http://www.wikidata.org/entity/Q1097712', 'http://www.wikidata.org/entity/Q1097756', 'http://www.wikidata.org/entity/Q1097774', 'http://www.wikidata.org/entity/Q109778', 'http://www.wikidata.org/entity/Q1097857', 'http://www.wikidata.org/entity/Q1097863', 'http://www.wikidata.org/entity/Q1097915', 'http://www.wikidata.org/entity/Q109796', 'http://www.wikidata.org/entity/Q1</t>
+          <t>['38274618']</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1000015', 'http://www.wikidata.org/entity/Q1000204', 'http://www.wikidata.org/entity/Q100028', 'http://www.wikidata.org/entity/Q1000416', 'http://www.wikidata.org/entity/Q1000748', 'http://www.wikidata.org/entity/Q1001088', 'http://www.wikidata.org/entity/Q1001135', 'http://www.wikidata.org/entity/Q100122', 'http://www.wikidata.org/entity/Q1001257', 'http://www.wikidata.org/entity/Q100175', 'http://www.wikidata.org/entity/Q100227', 'http://www.wikidata.org/entity/Q100258', 'http://www.wikidata.org/entity/Q100293', 'http://www.wikidata.org/entity/Q100303063', 'http://www.wikidata.org/entity/Q100312', 'http://www.wikidata.org/entity/Q100332248', 'http://www.wikidata.org/entity/Q100337', 'http://www.wikidata.org/entity/Q100351', 'http://www.wikidata.org/entity/Q100356', 'http://www.wikidata.org/entity/Q100395', 'http://www.wikidata.org/entity/Q100415', 'http://www.wikidata.org/entity/Q100422', 'http://www.wikidata.org/entity/Q100446', 'http://www.wikidata.org/entity/Q1004594', 'http://www.wikidata.org/entity/Q100486', 'http://www.wikidata.org/entity/Q100506', 'http://www.wikidata.org/entity/Q100535', 'http://www.wikidata.org/entity/Q100570', 'http://www.wikidata.org/entity/Q100602', 'http://www.wikidata.org/entity/Q100604', 'http://www.wikidata.org/entity/Q100641', 'http://www.wikidata.org/entity/Q100658', 'http://www.wikidata.org/entity/Q100661', 'http://www.wikidata.org/entity/Q100671', 'http://www.wikidata.org/entity/Q100673', 'http://www.wikidata.org/entity/Q100700', 'http://www.wikidata.org/entity/Q100708', 'http://www.wikidata.org/entity/Q100718965', 'http://www.wikidata.org/entity/Q100721', 'http://www.wikidata.org/entity/Q100742647', 'http://www.wikidata.org/entity/Q100766', 'http://www.wikidata.org/entity/Q100781', 'http://www.wikidata.org/entity/Q100792', 'http://www.wikidata.org/entity/Q100844', 'http://www.wikidata.org/entity/Q100882525', 'http://www.wikidata.org/entity/Q100882715', 'http://www.wikidata.org/entity/Q100903', 'http://www.wikidata.org/entity/Q10093755', 'http://www.wikidata.org/entity/Q100978', 'http://www.wikidata.org/entity/Q101002739', 'http://www.wikidata.org/entity/Q101003030', 'http://www.wikidata.org/entity/Q101019', 'http://www.wikidata.org/entity/Q1010197', 'http://www.wikidata.org/entity/Q101047', 'http://www.wikidata.org/entity/Q101048351', 'http://www.wikidata.org/entity/Q101058', 'http://www.wikidata.org/entity/Q101059', 'http://www.wikidata.org/entity/Q101068367', 'http://www.wikidata.org/entity/Q101110', 'http://www.wikidata.org/entity/Q101149', 'http://www.wikidata.org/entity/Q101171', 'http://www.wikidata.org/entity/Q101177', 'http://www.wikidata.org/entity/Q101189', 'http://www.wikidata.org/entity/Q101218', 'http://www.wikidata.org/entity/Q101223', 'http://www.wikidata.org/entity/Q101228', 'http://www.wikidata.org/entity/Q101229983', 'http://www.wikidata.org/entity/Q101231', 'http://www.wikidata.org/entity/Q101238', 'http://www.wikidata.org/entity/Q101243', 'http://www.wikidata.org/entity/Q101253', 'http://www.wikidata.org/entity/Q101267', 'http://www.wikidata.org/entity/Q101278', 'http://www.wikidata.org/entity/Q101303', 'http://www.wikidata.org/entity/Q101371', 'http://www.wikidata.org/entity/Q101392', 'http://www.wikidata.org/entity/Q101396', 'http://www.wikidata.org/entity/Q101413424', 'http://www.wikidata.org/entity/Q101421778', 'http://www.wikidata.org/entity/Q101434', 'http://www.wikidata.org/entity/Q101476', 'http://www.wikidata.org/entity/Q101480', 'http://www.wikidata.org/entity/Q1016421', 'http://www.wikidata.org/entity/Q101686', 'http://www.wikidata.org/entity/Q101734', 'http://www.wikidata.org/entity/Q101768', 'http://www.wikidata.org/entity/Q101778', 'http://www.wikidata.org/entity/Q101779', 'http://www.wikidata.org/entity/Q101786', 'http://www.wikidata.org/entity/Q101787', 'http://www.wikidata.org/entity/Q101792134', 'http://www.wikidata.org/entity/Q101803', 'http://www.wikidata.org/entity/Q101807', 'http://www.wikidata.org/entity/Q1018220', 'http://www.wikidata.org/entity/Q101840', 'http://www.wikidata.org/entity/Q101863013', 'http://www.wikidata.org/entity/Q101888', 'http://www.wikidata.org/entity/Q101897', 'http://www.wikidata.org/entity/Q101969', 'http://www.wikidata.org/entity/Q101990', 'http://www.wikidata.org/entity/Q102030', 'http://www.wikidata.org/entity/Q102051844', 'http://www.wikidata.org/entity/Q1020694', 'http://www.wikidata.org/entity/Q102155', 'http://www.wikidata.org/entity/Q102156', 'http://www.wikidata.org/entity/Q102207', 'http://www.wikidata.org/entity/Q102280', 'http://www.wikidata.org/entity/Q102287149', 'http://www.wikidata.org/entity/Q102288', 'http://www.wikidata.org/entity/Q102302', 'http://www.wikidata.org/entity/Q102337', 'http://www.wikidata.org/entity/Q102352', 'http://www.wikidata.org/entity/Q102354', 'http://www.wikidata.org/entity/Q102427970', 'http://www.wikidata.org/entity/Q102428030', 'http://www.wikidata.org/entity/Q102450', 'http://www.wikidata.org/entity/Q102451', 'http://www.wikidata.org/entity/Q102465', 'http://www.wikidata.org/entity/Q102480', 'http://www.wikidata.org/entity/Q102534', 'http://www.wikidata.org/entity/Q102606', 'http://www.wikidata.org/entity/Q102611', 'http://www.wikidata.org/entity/Q102630', 'http://www.wikidata.org/entity/Q102633', 'http://www.wikidata.org/entity/Q102635', 'http://www.wikidata.org/entity/Q1026523', 'http://www.wikidata.org/entity/Q102672', 'http://www.wikidata.org/entity/Q102675', 'http://www.wikidata.org/entity/Q102678', 'http://www.wikidata.org/entity/Q102709', 'http://www.wikidata.org/entity/Q102712', 'http://www.wikidata.org/entity/Q10271977', 'http://www.wikidata.org/entity/Q102783', 'http://www.wikidata.org/entity/Q102802', 'http://www.wikidata.org/entity/Q102822295', 'http://www.wikidata.org/entity/Q1029161', 'http://www.wikidata.org/entity/Q1029169', 'http://www.wikidata.org/entity/Q102929', 'http://www.wikidata.org/entity/Q102936', 'http://www.wikidata.org/entity/Q102937', 'http://www.wikidata.org/entity/Q102945', 'http://www.wikidata.org/entity/Q1029561', 'http://www.wikidata.org/entity/Q102990', 'http://www.wikidata.org/entity/Q102994', 'http://www.wikidata.org/entity/Q1030014', 'http://www.wikidata.org/entity/Q103002', 'http://www.wikidata.org/entity/Q103132', 'http://www.wikidata.org/entity/Q103174', 'http://www.wikidata.org/entity/Q10325330', 'http://www.wikidata.org/entity/Q103271', 'http://www.wikidata.org/entity/Q103281', 'http://www.wikidata.org/entity/Q103315', 'http://www.wikidata.org/entity/Q103362', 'http://www.wikidata.org/entity/Q103385', 'http://www.wikidata.org/entity/Q103394', 'http://www.wikidata.org/entity/Q103416', 'http://www.wikidata.org/entity/Q103418', 'http://www.wikidata.org/entity/Q103425', 'http://www.wikidata.org/entity/Q103430', 'http://www.wikidata.org/entity/Q103433', 'http://www.wikidata.org/entity/Q103476', 'http://www.wikidata.org/entity/Q10348949', 'http://www.wikidata.org/entity/Q103579', 'http://www.wikidata.org/entity/Q103605', 'http://www.wikidata.org/entity/Q103611', 'http://www.wikidata.org/entity/Q1036206', 'http://www.wikidata.org/entity/Q103623', 'http://www.wikidata.org/entity/Q103637', 'http://www.wikidata.org/entity/Q1036506', 'http://www.wikidata.org/entity/Q103656', 'http://www.wikidata.org/entity/Q103696', 'http://www.wikidata.org/entity/Q103710125', 'http://www.wikidata.org/entity/Q103727', 'http://www.wikidata.org/entity/Q1037365', 'http://www.wikidata.org/entity/Q103751', 'http://www.wikidata.org/entity/Q103754', 'http://www.wikidata.org/entity/Q103805', 'http://www.wikidata.org/entity/Q103845', 'http://www.wikidata.org/entity/Q103851', 'http://www.wikidata.org/entity/Q1038623', 'http://www.wikidata.org/entity/Q103863', 'http://www.wikidata.org/entity/Q103868', 'http://www.wikidata.org/entity/Q10388307', 'http://www.wikidata.org/entity/Q103896441', 'http://www.wikidata.org/entity/Q103899154', 'http://www.wikidata.org/entity/Q103909', 'http://www.wikidata.org/entity/Q103918', 'http://www.wikidata.org/entity/Q1039299', 'http://www.wikidata.org/entity/Q1039594', 'http://www.wikidata.org/entity/Q103961', 'http://www.wikidata.org/entity/Q103986', 'http://www.wikidata.org/entity/Q1039868', 'http://www.wikidata.org/entity/Q104006', 'http://www.wikidata.org/entity/Q104008', 'http://www.wikidata.org/entity/Q1040913', 'http://www.wikidata.org/entity/Q1040935', 'http://www.wikidata.org/entity/Q104094', 'http://www.wikidata.org/entity/Q104101', 'http://www.wikidata.org/entity/Q1041095', 'http://www.wikidata.org/entity/Q1041155', 'http://www.wikidata.org/entity/Q104118', 'http://www.wikidata.org/entity/Q104128806', 'http://www.wikidata.org/entity/Q1041374', 'http://www.wikidata.org/entity/Q104141', 'http://www.wikidata.org/entity/Q1041542', 'http://www.wikidata.org/entity/Q1041559', 'http://www.wikidata.org/entity/Q1041562', 'http://www.wikidata.org/entity/Q1041582', 'http://www.wikidata.org/entity/Q104160134', 'http://www.wikidata.org/entity/Q104172730', 'http://www.wikidata.org/entity/Q104196', 'http://www.wikidata.org/entity/Q104197360', 'http://www.wikidata.org/entity/Q104208', 'http://www.wikidata.org/entity/Q104221', 'http://www.wikidata.org/entity/Q1042218', 'http://www.wikidata.org/entity/Q104248688', 'http://www.wikidata.org/entity/Q1042938', 'http://www.wikidata.org/entity/Q104331', 'http://www.wikidata.org/entity/Q104336', 'http://www.wikidata.org/entity/Q104339', 'http://www.wikidata.org/entity/Q104346', 'http://www.wikidata.org/entity/Q1043539', 'http://www.wikidata.org/entity/Q1043541', 'http://www.wikidata.org/entity/Q1043592', 'http://www.wikidata.org/entity/Q104364', 'http://www.wikidata.org/entity/Q1043663', 'http://www.wikidata.org/entity/Q1043689', 'http://www.wikidata.org/entity/Q1043709', 'http://www.wikidata.org/entity/Q104377', 'http://www.wikidata.org/entity/Q1044134', 'http://www.wikidata.org/entity/Q104421528', 'http://www.wikidata.org/entity/Q1044245', 'http://www.wikidata.org/entity/Q1044249', 'http://www.wikidata.org/entity/Q1044261', 'http://www.wikidata.org/entity/Q1044325', 'http://www.wikidata.org/entity/Q1044332', 'http://www.wikidata.org/entity/Q1044346', 'http://www.wikidata.org/entity/Q1044362', 'http://www.wikidata.org/entity/Q104447', 'http://www.wikidata.org/entity/Q1044477', 'http://www.wikidata.org/entity/Q1044494', 'http://www.wikidata.org/entity/Q1044518', 'http://www.wikidata.org/entity/Q1044556', 'http://www.wikidata.org/entity/Q1044649', 'http://www.wikidata.org/entity/Q104523', 'http://www.wikidata.org/entity/Q104544', 'http://www.wikidata.org/entity/Q1045604', 'http://www.wikidata.org/entity/Q104563', 'http://www.wikidata.org/entity/Q1045680', 'http://www.wikidata.org/entity/Q1045683', 'http://www.wikidata.org/entity/Q104573', 'http://www.wikidata.org/entity/Q104578', 'http://www.wikidata.org/entity/Q104594832', 'http://www.wikidata.org/entity/Q104665', 'http://www.wikidata.org/entity/Q104667849', 'http://www.wikidata.org/entity/Q104670', 'http://www.wikidata.org/entity/Q104698401', 'http://www.wikidata.org/entity/Q104699210', 'http://www.wikidata.org/entity/Q104699220', 'http://www.wikidata.org/entity/Q104702', 'http://www.wikidata.org/entity/Q104737', 'http://www.wikidata.org/entity/Q104741', 'http://www.wikidata.org/entity/Q104759617', 'http://www.wikidata.org/entity/Q104764369', 'http://www.wikidata.org/entity/Q104766', 'http://www.wikidata.org/entity/Q104771163', 'http://www.wikidata.org/entity/Q1047807', 'http://www.wikidata.org/entity/Q104787', 'http://www.wikidata.org/entity/Q104815', 'http://www.wikidata.org/entity/Q104828502', 'http://www.wikidata.org/entity/Q104832', 'http://www.wikidata.org/entity/Q104849', 'http://www.wikidata.org/entity/Q104866', 'http://www.wikidata.org/entity/Q104879', 'http://www.wikidata.org/entity/Q104879111', 'http://www.wikidata.org/entity/Q104902', 'http://www.wikidata.org/entity/Q104923', 'http://www.wikidata.org/entity/Q104977', 'http://www.wikidata.org/entity/Q105043', 'http://www.wikidata.org/entity/Q105049', 'http://www.wikidata.org/entity/Q105050', 'http://www.wikidata.org/entity/Q105052', 'http://www.wikidata.org/entity/Q105062031', 'http://www.wikidata.org/entity/Q105062089', 'http://www.wikidata.org/entity/Q105067234', 'http://www.wikidata.org/entity/Q105079039', 'http://www.wikidata.org/entity/Q1050799', 'http://www.wikidata.org/entity/Q105085341', 'http://www.wikidata.org/entity/Q1050930', 'http://www.wikidata.org/entity/Q105104', 'http://www.wikidata.org/entity/Q105107229', 'http://www.wikidata.org/entity/Q105107318', 'http://www.wikidata.org/entity/Q1051091', 'http://www.wikidata.org/entity/Q1051124', 'http://www.wikidata.org/entity/Q105114', 'http://www.wikidata.org/entity/Q1051177', 'http://www.wikidata.org/entity/Q105129', 'http://www.wikidata.org/entity/Q105144', 'http://www.wikidata.org/entity/Q105147', 'http://www.wikidata.org/entity/Q105152', 'http://www.wikidata.org/entity/Q105161', 'http://www.wikidata.org/entity/Q105182', 'http://www.wikidata.org/entity/Q105185', 'http://www.wikidata.org/entity/Q105192', 'http://www.wikidata.org/entity/Q105193', 'http://www.wikidata.org/entity/Q105195', 'http://www.wikidata.org/entity/Q105222320', 'http://www.wikidata.org/entity/Q1052372', 'http://www.wikidata.org/entity/Q1052392', 'http://www.wikidata.org/entity/Q105277', 'http://www.wikidata.org/entity/Q105283', 'http://www.wikidata.org/entity/Q105288', 'http://www.wikidata.org/entity/Q1052907', 'http://www.wikidata.org/entity/Q105321093', 'http://www.wikidata.org/entity/Q105359059', 'http://www.wikidata.org/entity/Q105373', 'http://www.wikidata.org/entity/Q105373812', 'http://www.wikidata.org/entity/Q105475003', 'http://www.wikidata.org/entity/Q105476483', 'http://www.wikidata.org/entity/Q105478', 'http://www.wikidata.org/entity/Q105487643', 'http://www.wikidata.org/entity/Q105491', 'http://www.wikidata.org/entity/Q1054912', 'http://www.wikidata.org/entity/Q105493', 'http://www.wikidata.org/entity/Q105575969', 'http://www.wikidata.org/entity/Q105590191', 'http://www.wikidata.org/entity/Q105607', 'http://www.wikidata.org/entity/Q105610', 'http://www.wikidata.org/entity/Q105613', 'http://www.wikidata.org/entity/Q105613608', 'http://www.wikidata.org/entity/Q105617', 'http://www.wikidata.org/entity/Q105630525', 'http://www.wikidata.org/entity/Q105635934', 'http://www.wikidata.org/entity/Q105654184', 'http://www.wikidata.org/entity/Q105665', 'http://www.wikidata.org/entity/Q105688032', 'http://www.wikidata.org/entity/Q105689', 'http://www.wikidata.org/entity/Q105696528', 'http://www.wikidata.org/entity/Q105700269', 'http://www.wikidata.org/entity/Q105742', 'http://www.wikidata.org/entity/Q105745364', 'http://www.wikidata.org/entity/Q105746355', 'http://www.wikidata.org/entity/Q105746546', 'http://www.wikidata.org/entity/Q105747', 'http://www.wikidata.org/entity/Q105750', 'http://www.wikidata.org/entity/Q105753193', 'http://www.wikidata.org/entity/Q105753333', 'http://www.wikidata.org/entity/Q105755335', 'http://www.wikidata.org/entity/Q105755920', 'http://www.wikidata.org/entity/Q105759', 'http://www.wikidata.org/entity/Q105770', 'http://www.wikidata.org/entity/Q105796', 'http://www.wikidata.org/entity/Q105872326', 'http://www.wikidata.org/entity/Q105889', 'http://www.wikidata.org/entity/Q105915', 'http://www.wikidata.org/entity/Q105920', 'http://www.wikidata.org/entity/Q105925', 'http://www.wikidata.org/entity/Q105982', 'http://www.wikidata.org/entity/Q105989099', 'http://www.wikidata.org/entity/Q106000862', 'http://www.wikidata.org/entity/Q106028', 'http://www.wikidata.org/entity/Q106041', 'http://www.wikidata.org/entity/Q106065', 'http://www.wikidata.org/entity/Q106126', 'http://www.wikidata.org/entity/Q106127', 'http://www.wikidata.org/entity/Q106160', 'http://www.wikidata.org/entity/Q106222', 'http://www.wikidata.org/entity/Q1062401', 'http://www.wikidata.org/entity/Q1062418', 'http://www.wikidata.org/entity/Q106254', 'http://www.wikidata.org/entity/Q106288', 'http://www.wikidata.org/entity/Q106294478', 'http://www.wikidata.org/entity/Q106368', 'http://www.wikidata.org/entity/Q106386', 'http://www.wikidata.org/entity/Q106391', 'http://www.wikidata.org/entity/Q106393', 'http://www.wikidata.org/entity/Q106405480', 'http://www.wikidata.org/entity/Q106405483', 'http://www.wikidata.org/entity/Q106415724', 'http://www.wikidata.org/entity/Q106423', 'http://www.wikidata.org/entity/Q106435697', 'http://www.wikidata.org/entity/Q106460', 'http://www.wikidata.org/entity/Q106461', 'http://www.wikidata.org/entity/Q106463', 'http://www.wikidata.org/entity/Q106464', 'http://www.wikidata.org/entity/Q1064727', 'http://www.wikidata.org/entity/Q106478', 'http://www.wikidata.org/entity/Q106479', 'http://www.wikidata.org/entity/Q106485', 'http://www.wikidata.org/entity/Q106491', 'http://www.wikidata.org/entity/Q106496', 'http://www.wikidata.org/entity/Q106522523', 'http://www.wikidata.org/entity/Q106538782', 'http://www.wikidata.org/entity/Q106553', 'http://www.wikidata.org/entity/Q106561', 'http://www.wikidata.org/entity/Q106572', 'http://www.wikidata.org/entity/Q106578', 'http://www.wikidata.org/entity/Q1065885', 'http://www.wikidata.org/entity/Q106596508', 'http://www.wikidata.org/entity/Q1066480', 'http://www.wikidata.org/entity/Q106649', 'http://www.wikidata.org/entity/Q106661', 'http://www.wikidata.org/entity/Q106668', 'http://www.wikidata.org/entity/Q106673', 'http://www.wikidata.org/entity/Q106702786', 'http://www.wikidata.org/entity/Q1067106', 'http://www.wikidata.org/entity/Q1067118', 'http://www.wikidata.org/entity/Q106714373', 'http://www.wikidata.org/entity/Q1067309', 'http://www.wikidata.org/entity/Q1067322', 'http://www.wikidata.org/entity/Q1067337', 'http://www.wikidata.org/entity/Q1067338', 'http://www.wikidata.org/entity/Q106741', 'http://www.wikidata.org/entity/Q1067500', 'http://www.wikidata.org/entity/Q1067523', 'http://www.wikidata.org/entity/Q1067525', 'http://www.wikidata.org/entity/Q106779', 'http://www.wikidata.org/entity/Q106797', 'http://www.wikidata.org/entity/Q106799', 'http://www.wikidata.org/entity/Q106822', 'http://www.wikidata.org/entity/Q106824488', 'http://www.wikidata.org/entity/Q106841', 'http://www.wikidata.org/entity/Q106843', 'http://www.wikidata.org/entity/Q106860', 'http://www.wikidata.org/entity/Q106869', 'http://www.wikidata.org/entity/Q106890375', 'http://www.wikidata.org/entity/Q106895677', 'http://www.wikidata.org/entity/Q106901150', 'http://www.wikidata.org/entity/Q106917019', 'http://www.wikidata.org/entity/Q106926', 'http://www.wikidata.org/entity/Q106932', 'http://www.wikidata.org/entity/Q106945', 'http://www.wikidata.org/entity/Q106954', 'http://www.wikidata.org/entity/Q107038297', 'http://www.wikidata.org/entity/Q107122', 'http://www.wikidata.org/entity/Q107127', 'http://www.wikidata.org/entity/Q107129', 'http://www.wikidata.org/entity/Q1071412', 'http://www.wikidata.org/entity/Q107144', 'http://www.wikidata.org/entity/Q107145', 'http://www.wikidata.org/entity/Q107147', 'http://www.wikidata.org/entity/Q1071648', 'http://www.wikidata.org/entity/Q107220', 'http://www.wikidata.org/entity/Q107222', 'http://www.wikidata.org/entity/Q107232', 'http://www.wikidata.org/entity/Q107266', 'http://www.wikidata.org/entity/Q107274', 'http://www.wikidata.org/entity/Q107315', 'http://www.wikidata.org/entity/Q107315059', 'http://www.wikidata.org/entity/Q107315782', 'http://www.wikidata.org/entity/Q1073163', 'http://www.wikidata.org/entity/Q107345', 'http://www.wikidata.org/entity/Q107350', 'http://www.wikidata.org/entity/Q107355', 'http://www.wikidata.org/entity/Q107362784', 'http://www.wikidata.org/entity/Q107375', 'http://www.wikidata.org/entity/Q107429856', 'http://www.wikidata.org/entity/Q107438', 'http://www.wikidata.org/entity/Q107447786', 'http://www.wikidata.org/entity/Q107452', 'http://www.wikidata.org/entity/Q107452174', 'http://www.wikidata.org/entity/Q107461', 'http://www.wikidata.org/entity/Q107514', 'http://www.wikidata.org/entity/Q107520', 'http://www.wikidata.org/entity/Q107547779', 'http://www.wikidata.org/entity/Q107599', 'http://www.wikidata.org/entity/Q107620127', 'http://www.wikidata.org/entity/Q107628', 'http://www.wikidata.org/entity/Q107630', 'http://www.wikidata.org/entity/Q107743', 'http://www.wikidata.org/entity/Q107753', 'http://www.wikidata.org/entity/Q107756', 'http://www.wikidata.org/entity/Q107788', 'http://www.wikidata.org/entity/Q1077932', 'http://www.wikidata.org/entity/Q107805', 'http://www.wikidata.org/entity/Q107813', 'http://www.wikidata.org/entity/Q1078178', 'http://www.wikidata.org/entity/Q1078277', 'http://www.wikidata.org/entity/Q1078293', 'http://www.wikidata.org/entity/Q1078759', 'http://www.wikidata.org/entity/Q1078828', 'http://www.wikidata.org/entity/Q1078902', 'http://www.wikidata.org/entity/Q1078911', 'http://www.wikidata.org/entity/Q1079009', 'http://www.wikidata.org/entity/Q1079066', 'http://www.wikidata.org/entity/Q1079100', 'http://www.wikidata.org/entity/Q107924', 'http://www.wikidata.org/entity/Q1079431', 'http://www.wikidata.org/entity/Q1079558', 'http://www.wikidata.org/entity/Q107971', 'http://www.wikidata.org/entity/Q107986625', 'http://www.wikidata.org/entity/Q1080329', 'http://www.wikidata.org/entity/Q1080816', 'http://www.wikidata.org/entity/Q108097', 'http://www.wikidata.org/entity/Q108104', 'http://www.wikidata.org/entity/Q108114', 'http://www.wikidata.org/entity/Q1081259', 'http://www.wikidata.org/entity/Q1081287', 'http://www.wikidata.org/entity/Q1081379', 'http://www.wikidata.org/entity/Q1081437', 'http://www.wikidata.org/entity/Q1081551', 'http://www.wikidata.org/entity/Q1081590', 'http://www.wikidata.org/entity/Q1081636', 'http://www.wikidata.org/entity/Q108164', 'http://www.wikidata.org/entity/Q108167884', 'http://www.wikidata.org/entity/Q1081758', 'http://www.wikidata.org/entity/Q108176', 'http://www.wikidata.org/entity/Q1081783', 'http://www.wikidata.org/entity/Q1081838', 'http://www.wikidata.org/entity/Q1081851', 'http://www.wikidata.org/entity/Q108192', 'http://www.wikidata.org/entity/Q1081967', 'http://www.wikidata.org/entity/Q1081968', 'http://www.wikidata.org/entity/Q1081980', 'http://www.wikidata.org/entity/Q1082013', 'http://www.wikidata.org/entity/Q108202', 'http://www.wikidata.org/entity/Q1082022', 'http://www.wikidata.org/entity/Q1082059', 'http://www.wikidata.org/entity/Q1082198', 'http://www.wikidata.org/entity/Q1082288', 'http://www.wikidata.org/entity/Q108236', 'http://www.wikidata.org/entity/Q108237', 'http://www.wikidata.org/entity/Q108253143', 'http://www.wikidata.org/entity/Q1082540', 'http://www.wikidata.org/entity/Q108255', 'http://www.wikidata.org/entity/Q1082630', 'http://www.wikidata.org/entity/Q1082673', 'http://www.wikidata.org/entity/Q1082687', 'http://www.wikidata.org/entity/Q1082693', 'http://www.wikidata.org/entity/Q1082708', 'http://www.wikidata.org/entity/Q1082740', 'http://www.wikidata.org/entity/Q1082749', 'http://www.wikidata.org/entity/Q1082798', 'http://www.wikidata.org/entity/Q1082818', 'http://www.wikidata.org/entity/Q1082872', 'http://www.wikidata.org/entity/Q1082880', 'http://www.wikidata.org/entity/Q108296809', 'http://www.wikidata.org/entity/Q108299', 'http://www.wikidata.org/entity/Q108302', 'http://www.wikidata.org/entity/Q108306', 'http://www.wikidata.org/entity/Q1083125', 'http://www.wikidata.org/entity/Q1083144', 'http://www.wikidata.org/entity/Q1083162', 'http://www.wikidata.org/entity/Q1083168', 'http://www.wikidata.org/entity/Q108318', 'http://www.wikidata.org/entity/Q1083254', 'http://www.wikidata.org/entity/Q1083281', 'http://www.wikidata.org/entity/Q108329', 'http://www.wikidata.org/entity/Q1083490', 'http://www.wikidata.org/entity/Q108358', 'http://www.wikidata.org/entity/Q108360', 'http://www.wikidata.org/entity/Q1083601', 'http://www.wikidata.org/entity/Q108365', 'http://www.wikidata.org/entity/Q108370597', 'http://www.wikidata.org/entity/Q1083738', 'http://www.wikidata.org/entity/Q1083743', 'http://www.wikidata.org/entity/Q1083753', 'http://www.wikidata.org/entity/Q1083780', 'http://www.wikidata.org/entity/Q1083807', 'http://www.wikidata.org/entity/Q1083820', 'http://www.wikidata.org/entity/Q1083853', 'http://www.wikidata.org/entity/Q108394', 'http://www.wikidata.org/entity/Q108406215', 'http://www.wikidata.org/entity/Q108428830', 'http://www.wikidata.org/entity/Q1084549', 'http://www.wikidata.org/entity/Q1084564', 'http://www.wikidata.org/entity/Q1084770', 'http://www.wikidata.org/entity/Q108486457', 'http://www.wikidata.org/entity/Q108493', 'http://www.wikidata.org/entity/Q1085038', 'http://www.wikidata.org/entity/Q108504516', 'http://www.wikidata.org/entity/Q1085074', 'http://www.wikidata.org/entity/Q1085198', 'http://www.wikidata.org/entity/Q108523', 'http://www.wikidata.org/entity/Q108531', 'http://www.wikidata.org/entity/Q1085346', 'http://www.wikidata.org/entity/Q1085424', 'http://www.wikidata.org/entity/Q108554', 'http://www.wikidata.org/entity/Q1085544', 'http://www.wikidata.org/entity/Q1085547', 'http://www.wikidata.org/entity/Q10858821', 'http://www.wikidata.org/entity/Q108590', 'http://www.wikidata.org/entity/Q1086079', 'http://www.wikidata.org/entity/Q1086086', 'http://www.wikidata.org/entity/Q1086128', 'http://www.wikidata.org/entity/Q108617', 'http://www.wikidata.org/entity/Q108619723', 'http://www.wikidata.org/entity/Q108630', 'http://www.wikidata.org/entity/Q108654', 'http://www.wikidata.org/entity/Q108668917', 'http://www.wikidata.org/entity/Q1086785', 'http://www.wikidata.org/entity/Q1086797', 'http://www.wikidata.org/entity/Q108683', 'http://www.wikidata.org/entity/Q108688300', 'http://www.wikidata.org/entity/Q1086902', 'http://www.wikidata.org/entity/Q108699374', 'http://www.wikidata.org/entity/Q108755958', 'http://www.wikidata.org/entity/Q108763', 'http://www.wikidata.org/entity/Q108773', 'http://www.wikidata.org/entity/Q108792', 'http://www.wikidata.org/entity/Q108811', 'http://www.wikidata.org/entity/Q108822170', 'http://www.wikidata.org/entity/Q108826', 'http://www.wikidata.org/entity/Q108837313', 'http://www.wikidata.org/entity/Q108845', 'http://www.wikidata.org/entity/Q108853', 'http://www.wikidata.org/entity/Q108856185', 'http://www.wikidata.org/entity/Q108858479', 'http://www.wikidata.org/entity/Q108864', 'http://www.wikidata.org/entity/Q108867', 'http://www.wikidata.org/entity/Q108873', 'http://www.wikidata.org/entity/Q108888633', 'http://www.wikidata.org/entity/Q108895073', 'http://www.wikidata.org/entity/Q108900954', 'http://www.wikidata.org/entity/Q108906', 'http://www.wikidata.org/entity/Q108934202', 'http://www.wikidata.org/entity/Q108936', 'http://www.wikidata.org/entity/Q108942', 'http://www.wikidata.org/entity/Q108965', 'http://www.wikidata.org/entity/Q108978', 'http://www.wikidata.org/entity/Q108984', 'http://www.wikidata.org/entity/Q108987', 'http://www.wikidata.org/entity/Q109001', 'http://www.wikidata.org/entity/Q109028', 'http://www.wikidata.org/entity/Q109041476', 'http://www.wikidata.org/entity/Q109043', 'http://www.wikidata.org/entity/Q109111', 'http://www.wikidata.org/entity/Q109119', 'http://www.wikidata.org/entity/Q109127', 'http://www.wikidata.org/entity/Q109133', 'http://www.wikidata.org/entity/Q109143', 'http://www.wikidata.org/entity/Q109174772', 'http://www.wikidata.org/entity/Q1091893', 'http://www.wikidata.org/entity/Q1091958', 'http://www.wikidata.org/entity/Q1091975', 'http://www.wikidata.org/entity/Q109211', 'http://www.wikidata.org/entity/Q109304', 'http://www.wikidata.org/entity/Q1093078', 'http://www.wikidata.org/entity/Q109328680', 'http://www.wikidata.org/entity/Q109335', 'http://www.wikidata.org/entity/Q109354', 'http://www.wikidata.org/entity/Q109357', 'http://www.wikidata.org/entity/Q109358', 'http://www.wikidata.org/entity/Q109360', 'http://www.wikidata.org/entity/Q109417403', 'http://www.wikidata.org/entity/Q109430', 'http://www.wikidata.org/entity/Q109438', 'http://www.wikidata.org/entity/Q109443', 'http://www.wikidata.org/entity/Q109444', 'http://www.wikidata.org/entity/Q1094766', 'http://www.wikidata.org/entity/Q109477', 'http://www.wikidata.org/entity/Q1094818', 'http://www.wikidata.org/entity/Q1094819', 'http://www.wikidata.org/entity/Q1094829', 'http://www.wikidata.org/entity/Q109505', 'http://www.wikidata.org/entity/Q109514', 'http://www.wikidata.org/entity/Q1095148', 'http://www.wikidata.org/entity/Q1095157', 'http://www.wikidata.org/entity/Q1095167', 'http://www.wikidata.org/entity/Q1095238', 'http://www.wikidata.org/entity/Q109556', 'http://www.wikidata.org/entity/Q1095622', 'http://www.wikidata.org/entity/Q109574948', 'http://www.wikidata.org/entity/Q109608', 'http://www.wikidata.org/entity/Q109629', 'http://www.wikidata.org/entity/Q109642', 'http://www.wikidata.org/entity/Q109645', 'http://www.wikidata.org/entity/Q109648', 'http://www.wikidata.org/entity/Q109658', 'http://www.wikidata.org/entity/Q109658353', 'http://www.wikidata.org/entity/Q109672985', 'http://www.wikidata.org/entity/Q109673', 'http://www.wikidata.org/entity/Q109718', 'http://www.wikidata.org/entity/Q1097198', 'http://www.wikidata.org/entity/Q109720', 'http://www.wikidata.org/entity/Q1097276', 'http://www.wikidata.org/entity/Q1097307', 'http://www.wikidata.org/entity/Q1097347', 'http://www.wikidata.org/entity/Q1097349', 'http://www.wikidata.org/entity/Q109735550', 'http://www.wikidata.org/entity/Q109744813', 'http://www.wikidata.org/entity/Q109745076', 'http://www.wikidata.org/entity/Q1097458', 'http://www.wikidata.org/entity/Q1097499', 'http://www.wikidata.org/entity/Q1097570', 'http://www.wikidata.org/entity/Q1097633', 'http://www.wikidata.org/entity/Q1097768', 'http://www.wikidata.org/entity/Q1097777', 'http://www.wikidata.org/entity/Q109778', 'http://www.wikidata.org/entity/Q1097845', 'http://www.wikidata.org/entity/Q1097857', 'http://www.wikidata.org/entity/Q109786', 'http://www.wikidata.org/entity/Q109796', 'http://www.wikidata.org/entity/Q1097963', 'http://www.wikidata.org/entity/Q109813', 'http://www.wikidata.org/entity/Q10981679', 'http://www.wikidata.org/entity/Q109819', 'http://www.wikidata.org/entity/Q109824', 'http://www.wikidata.org/entity/Q1098306', 'http://www.wikidata.org/entity/Q1098373', 'http://www.wikidata.org/entity/Q109842', 'http://www.wikidata.org/entity/Q1098447', 'http://www.wikidata.org/entity/Q1098453', 'http://www.wikidata.org/entity/Q1098483', 'http://www.wikidata.org/entity/Q109854884', 'http://www.wikidata.org/entity/Q109855', 'http://www.wikidata.org/entity/Q109855027', 'http://www.wikidata.org/entity/Q1098728', 'http://www.wikidata.org/entity/Q109876569', 'http://www.wikidata.org/entity/Q1098848', 'http://www.wikidata.org/entity/Q109953', 'http://www.wikidata.org/entity/Q1099826', 'http://www.wikidata.org/entity/Q109990', 'http://www.wikidata.org/entity/Q1100074', 'http://www.wikidata.org/entity/Q1100192', 'http://www.wikidata.org/entity/Q1100448', 'http://www.wikidata.org/entity/Q110064', 'http://www.wikidata.org/entity/Q110097975', 'http://www.wikidata.org/entity/Q110124', 'http://www.wikidata.org/entity/Q110136', 'http://www.wikidata.org/entity/Q110141', 'http://www.wikidata.org/entity/Q110163', 'http://www.wikidata.org/entity/Q110184075', 'http://www.wikidata.org/entity/Q110253393', 'http://www.wikidata.org/entity/Q110300368', 'http://www.wikidata.org/entity/Q110303', 'http://www.wikidata.org/entity/Q110314', 'http://www.wikidata.org/entity/Q110349', 'http://www.wikidata.org/entity/Q110363506', 'http://www.wikidata.org/entity/Q110364', 'http://www.wikidata.org/entity/Q110376735', 'http://www.wikidata.org/entity/Q110386841', 'http://www.wikidata.org/entity/Q1103874', 'http://www.wikidata.org/entity/Q110391', 'http://www.wikidata.org/entity/Q110402', 'http://www.wikidata.org/entity/Q110411297', 'http://www.wikidata.org/entity/Q110413723', 'http://www.wikidata.org/entity/Q110425', 'http://www.wikidata.org/entity/Q110453300', 'http://www.wikidata.org/entity/Q110454754', 'http://www.wikidata.org/entity/Q110458807', 'http://www.wikidata.org/entity/Q1105384', 'http://www.wikidata.org/entity/Q1105394', 'http://www.wikidata.org/entity/Q110568', 'http://www.wikidata.org/entity/Q110569', 'http://www.wikidata.org/entity/Q110571', 'http://www.wikidata.org/entity/Q110605', 'http://www.wikidata.org/entity/Q110618471', 'http://www.wikidata.org/entity/Q110626464', 'http://www.wikidata.org/entity/Q110647', 'http://www.wikidata.org/entity/Q110663466', 'http://www.wikidata.org/entity/Q110665062', 'http://www.wikidata.org/entity/Q110669', 'http://www.wikidata.org/entity/Q110685', 'http://www.wikidata.org/entity/Q110695', 'http://www.wikidata.org/entity/Q110746185', 'http://www.wikidata.org/entity/Q110749', 'http://www.wikidata.org/entity/Q110757', 'http://www.wikidata.org/entity/Q110762', 'http://www.wikidata.org/entity/Q110769667', 'http://www.wikidata.org/entity/Q110827221', 'http://www.wikidata.org/entity/Q110829764', 'http://www.wikidata.org/entity/Q110835', 'http://www.wikidata.org/entity/Q110850', 'http://w</t>
+          <t>['38274618']</t>
         </is>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Give me all movies directed by Francis Ford Coppola.</t>
+          <t>Which actors were born in Germany?</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1009788', 'http://www.wikidata.org/entity/Q1055332', 'http://www.wikidata.org/entity/Q107325', 'http://www.wikidata.org/entity/Q115175910', 'http://www.wikidata.org/entity/Q1185312', 'http://www.wikidata.org/entity/Q1196157', 'http://www.wikidata.org/entity/Q1198750', 'http://www.wikidata.org/entity/Q1199648', 'http://www.wikidata.org/entity/Q1307044', 'http://www.wikidata.org/entity/Q1421355', 'http://www.wikidata.org/entity/Q1471358', 'http://www.wikidata.org/entity/Q16207076', 'http://www.wikidata.org/entity/Q1749974', 'http://www.wikidata.org/entity/Q182692', 'http://www.wikidata.org/entity/Q184768', 'http://www.wikidata.org/entity/Q1968139', 'http://www.wikidata.org/entity/Q202326', 'http://www.wikidata.org/entity/Q2309964', 'http://www.wikidata.org/entity/Q2408534', 'http://www.wikidata.org/entity/Q2547631', 'http://www.wikidata.org/entity/Q28222734', 'http://www.wikidata.org/entity/Q3620669', 'http://www.wikidata.org/entity/Q3993102', 'http://www.wikidata.org/entity/Q4243278', 'http://www.wikidata.org/entity/Q44408', 'http://www.wikidata.org/entity/Q47703', 'http://www.wikidata.org/entity/Q553194', 'http://www.wikidata.org/entity/Q639387', 'http://www.wikidata.org/entity/Q7716410', 'http://www.wikidata.org/entity/Q785351', 'http://www.wikidata.org/entity/Q845102', 'http://www.wikidata.org/entity/Q858584', 'http://www.wikidata.org/entity/Q903257', 'http://www.wikidata.org/entity/Q977372']</t>
+          <t>['http://www.wikidata.org/entity/Q1000089', 'http://www.wikidata.org/entity/Q100028', 'http://www.wikidata.org/entity/Q1000309', 'http://www.wikidata.org/entity/Q1000631', 'http://www.wikidata.org/entity/Q1001088', 'http://www.wikidata.org/entity/Q1001175', 'http://www.wikidata.org/entity/Q100122', 'http://www.wikidata.org/entity/Q1001257', 'http://www.wikidata.org/entity/Q1001304', 'http://www.wikidata.org/entity/Q100149495', 'http://www.wikidata.org/entity/Q100151770', 'http://www.wikidata.org/entity/Q100152085', 'http://www.wikidata.org/entity/Q100175', 'http://www.wikidata.org/entity/Q100220', 'http://www.wikidata.org/entity/Q100224', 'http://www.wikidata.org/entity/Q100227', 'http://www.wikidata.org/entity/Q100248945', 'http://www.wikidata.org/entity/Q100251', 'http://www.wikidata.org/entity/Q100264', 'http://www.wikidata.org/entity/Q100269', 'http://www.wikidata.org/entity/Q100277164', 'http://www.wikidata.org/entity/Q100293', 'http://www.wikidata.org/entity/Q100299', 'http://www.wikidata.org/entity/Q100318', 'http://www.wikidata.org/entity/Q100322', 'http://www.wikidata.org/entity/Q100333', 'http://www.wikidata.org/entity/Q100337', 'http://www.wikidata.org/entity/Q100338', 'http://www.wikidata.org/entity/Q100347140', 'http://www.wikidata.org/entity/Q100356', 'http://www.wikidata.org/entity/Q100361853', 'http://www.wikidata.org/entity/Q100395', 'http://www.wikidata.org/entity/Q100414', 'http://www.wikidata.org/entity/Q100415', 'http://www.wikidata.org/entity/Q100417', 'http://www.wikidata.org/entity/Q100422', 'http://www.wikidata.org/entity/Q100451', 'http://www.wikidata.org/entity/Q1004594', 'http://www.wikidata.org/entity/Q1004736', 'http://www.wikidata.org/entity/Q100491593', 'http://www.wikidata.org/entity/Q100506', 'http://www.wikidata.org/entity/Q100535', 'http://www.wikidata.org/entity/Q100545', 'http://www.wikidata.org/entity/Q100562', 'http://www.wikidata.org/entity/Q100571', 'http://www.wikidata.org/entity/Q100572', 'http://www.wikidata.org/entity/Q100602', 'http://www.wikidata.org/entity/Q100658', 'http://www.wikidata.org/entity/Q100673', 'http://www.wikidata.org/entity/Q100675530', 'http://www.wikidata.org/entity/Q100708', 'http://www.wikidata.org/entity/Q100781', 'http://www.wikidata.org/entity/Q100784561', 'http://www.wikidata.org/entity/Q100841', 'http://www.wikidata.org/entity/Q100844', 'http://www.wikidata.org/entity/Q100893', 'http://www.wikidata.org/entity/Q100903', 'http://www.wikidata.org/entity/Q100954855', 'http://www.wikidata.org/entity/Q100981152', 'http://www.wikidata.org/entity/Q100989', 'http://www.wikidata.org/entity/Q100989640', 'http://www.wikidata.org/entity/Q101019', 'http://www.wikidata.org/entity/Q101059', 'http://www.wikidata.org/entity/Q101079', 'http://www.wikidata.org/entity/Q101094', 'http://www.wikidata.org/entity/Q101104', 'http://www.wikidata.org/entity/Q101112792', 'http://www.wikidata.org/entity/Q101120', 'http://www.wikidata.org/entity/Q101149', 'http://www.wikidata.org/entity/Q101171', 'http://www.wikidata.org/entity/Q101177', 'http://www.wikidata.org/entity/Q101189', 'http://www.wikidata.org/entity/Q101200085', 'http://www.wikidata.org/entity/Q101203', 'http://www.wikidata.org/entity/Q101209739', 'http://www.wikidata.org/entity/Q101210090', 'http://www.wikidata.org/entity/Q101218', 'http://www.wikidata.org/entity/Q101223', 'http://www.wikidata.org/entity/Q101228', 'http://www.wikidata.org/entity/Q101231', 'http://www.wikidata.org/entity/Q101238', 'http://www.wikidata.org/entity/Q101243', 'http://www.wikidata.org/entity/Q101243079', 'http://www.wikidata.org/entity/Q101252599', 'http://www.wikidata.org/entity/Q101267', 'http://www.wikidata.org/entity/Q101347', 'http://www.wikidata.org/entity/Q101380', 'http://www.wikidata.org/entity/Q101381', 'http://www.wikidata.org/entity/Q101392', 'http://www.wikidata.org/entity/Q101434', 'http://www.wikidata.org/entity/Q10147562', 'http://www.wikidata.org/entity/Q101476', 'http://www.wikidata.org/entity/Q101507816', 'http://www.wikidata.org/entity/Q101524', 'http://www.wikidata.org/entity/Q101554634', 'http://www.wikidata.org/entity/Q101598', 'http://www.wikidata.org/entity/Q101615', 'http://www.wikidata.org/entity/Q101618', 'http://www.wikidata.org/entity/Q1016445', 'http://www.wikidata.org/entity/Q1016492', 'http://www.wikidata.org/entity/Q101705', 'http://www.wikidata.org/entity/Q101719', 'http://www.wikidata.org/entity/Q101720', 'http://www.wikidata.org/entity/Q101734', 'http://www.wikidata.org/entity/Q101768', 'http://www.wikidata.org/entity/Q101775', 'http://www.wikidata.org/entity/Q101782', 'http://www.wikidata.org/entity/Q101840', 'http://www.wikidata.org/entity/Q101855', 'http://www.wikidata.org/entity/Q101888', 'http://www.wikidata.org/entity/Q101897', 'http://www.wikidata.org/entity/Q1019017', 'http://www.wikidata.org/entity/Q1019427', 'http://www.wikidata.org/entity/Q101969', 'http://www.wikidata.org/entity/Q101973', 'http://www.wikidata.org/entity/Q102047618', 'http://www.wikidata.org/entity/Q102050', 'http://www.wikidata.org/entity/Q1020684', 'http://www.wikidata.org/entity/Q1020694', 'http://www.wikidata.org/entity/Q102109528', 'http://www.wikidata.org/entity/Q102115662', 'http://www.wikidata.org/entity/Q102127', 'http://www.wikidata.org/entity/Q102140621', 'http://www.wikidata.org/entity/Q102260', 'http://www.wikidata.org/entity/Q102280', 'http://www.wikidata.org/entity/Q102287149', 'http://www.wikidata.org/entity/Q102288', 'http://www.wikidata.org/entity/Q102294', 'http://www.wikidata.org/entity/Q102302', 'http://www.wikidata.org/entity/Q102332', 'http://www.wikidata.org/entity/Q102337', 'http://www.wikidata.org/entity/Q102352', 'http://www.wikidata.org/entity/Q102354', 'http://www.wikidata.org/entity/Q102356959', 'http://www.wikidata.org/entity/Q102363', 'http://www.wikidata.org/entity/Q102374', 'http://www.wikidata.org/entity/Q102450', 'http://www.wikidata.org/entity/Q102504', 'http://www.wikidata.org/entity/Q102530', 'http://www.wikidata.org/entity/Q102572', 'http://www.wikidata.org/entity/Q102574', 'http://www.wikidata.org/entity/Q102606', 'http://www.wikidata.org/entity/Q102611', 'http://www.wikidata.org/entity/Q102627', 'http://www.wikidata.org/entity/Q102630', 'http://www.wikidata.org/entity/Q102633', 'http://www.wikidata.org/entity/Q102635', 'http://www.wikidata.org/entity/Q1026499', 'http://www.wikidata.org/entity/Q102650', 'http://www.wikidata.org/entity/Q102651', 'http://www.wikidata.org/entity/Q102672', 'http://www.wikidata.org/entity/Q102678', 'http://www.wikidata.org/entity/Q102693', 'http://www.wikidata.org/entity/Q102712', 'http://www.wikidata.org/entity/Q102743', 'http://www.wikidata.org/entity/Q102783', 'http://www.wikidata.org/entity/Q102796', 'http://www.wikidata.org/entity/Q102802', 'http://www.wikidata.org/entity/Q1028813', 'http://www.wikidata.org/entity/Q1028955', 'http://www.wikidata.org/entity/Q102923', 'http://www.wikidata.org/entity/Q102929', 'http://www.wikidata.org/entity/Q102936', 'http://www.wikidata.org/entity/Q102937', 'http://www.wikidata.org/entity/Q102947', 'http://www.wikidata.org/entity/Q102961', 'http://www.wikidata.org/entity/Q102976', 'http://www.wikidata.org/entity/Q102990', 'http://www.wikidata.org/entity/Q1029964', 'http://www.wikidata.org/entity/Q102998', 'http://www.wikidata.org/entity/Q103000', 'http://www.wikidata.org/entity/Q103002', 'http://www.wikidata.org/entity/Q1030539', 'http://www.wikidata.org/entity/Q103158', 'http://www.wikidata.org/entity/Q1031845', 'http://www.wikidata.org/entity/Q103197', 'http://www.wikidata.org/entity/Q103223179', 'http://www.wikidata.org/entity/Q103256', 'http://www.wikidata.org/entity/Q103271', 'http://www.wikidata.org/entity/Q103361', 'http://www.wikidata.org/entity/Q103362', 'http://www.wikidata.org/entity/Q103391', 'http://www.wikidata.org/entity/Q103394', 'http://www.wikidata.org/entity/Q103415', 'http://www.wikidata.org/entity/Q103416', 'http://www.wikidata.org/entity/Q103430', 'http://www.wikidata.org/entity/Q103433', 'http://www.wikidata.org/entity/Q103476', 'http://www.wikidata.org/entity/Q103544', 'http://www.wikidata.org/entity/Q103611', 'http://www.wikidata.org/entity/Q1036168', 'http://www.wikidata.org/entity/Q103623', 'http://www.wikidata.org/entity/Q103637', 'http://www.wikidata.org/entity/Q103643', 'http://www.wikidata.org/entity/Q103656', 'http://www.wikidata.org/entity/Q103696', 'http://www.wikidata.org/entity/Q103702', 'http://www.wikidata.org/entity/Q103718', 'http://www.wikidata.org/entity/Q103727', 'http://www.wikidata.org/entity/Q103746', 'http://www.wikidata.org/entity/Q103755600', 'http://www.wikidata.org/entity/Q103760', 'http://www.wikidata.org/entity/Q103775022', 'http://www.wikidata.org/entity/Q103805', 'http://www.wikidata.org/entity/Q103827144', 'http://www.wikidata.org/entity/Q103844323', 'http://www.wikidata.org/entity/Q103845', 'http://www.wikidata.org/entity/Q103851', 'http://www.wikidata.org/entity/Q103863', 'http://www.wikidata.org/entity/Q103868', 'http://www.wikidata.org/entity/Q1038953', 'http://www.wikidata.org/entity/Q103920', 'http://www.wikidata.org/entity/Q1039299', 'http://www.wikidata.org/entity/Q103948', 'http://www.wikidata.org/entity/Q103961', 'http://www.wikidata.org/entity/Q103980542', 'http://www.wikidata.org/entity/Q103986', 'http://www.wikidata.org/entity/Q1039868', 'http://www.wikidata.org/entity/Q104006', 'http://www.wikidata.org/entity/Q104006972', 'http://www.wikidata.org/entity/Q104008', 'http://www.wikidata.org/entity/Q1040432', 'http://www.wikidata.org/entity/Q104084', 'http://www.wikidata.org/entity/Q104094', 'http://www.wikidata.org/entity/Q104120371', 'http://www.wikidata.org/entity/Q104121', 'http://www.wikidata.org/entity/Q104141', 'http://www.wikidata.org/entity/Q1041500', 'http://www.wikidata.org/entity/Q1041514', 'http://www.wikidata.org/entity/Q104153430', 'http://www.wikidata.org/entity/Q1041535', 'http://www.wikidata.org/entity/Q104154734', 'http://www.wikidata.org/entity/Q104155641', 'http://www.wikidata.org/entity/Q104155750', 'http://www.wikidata.org/entity/Q1041559', 'http://www.wikidata.org/entity/Q104156172', 'http://www.wikidata.org/entity/Q104156463', 'http://www.wikidata.org/entity/Q104157044', 'http://www.wikidata.org/entity/Q1041582', 'http://www.wikidata.org/entity/Q104160134', 'http://www.wikidata.org/entity/Q104161808', 'http://www.wikidata.org/entity/Q104162235', 'http://www.wikidata.org/entity/Q104172860', 'http://www.wikidata.org/entity/Q104176819', 'http://www.wikidata.org/entity/Q104178588', 'http://www.wikidata.org/entity/Q104180930', 'http://www.wikidata.org/entity/Q1041870', 'http://www.wikidata.org/entity/Q104196', 'http://www.wikidata.org/entity/Q104198093', 'http://www.wikidata.org/entity/Q104198269', 'http://www.wikidata.org/entity/Q104208', 'http://www.wikidata.org/entity/Q104211573', 'http://www.wikidata.org/entity/Q104212560', 'http://www.wikidata.org/entity/Q104213', 'http://www.wikidata.org/entity/Q104218050', 'http://www.wikidata.org/entity/Q1043589', 'http://www.wikidata.org/entity/Q1043681', 'http://www.wikidata.org/entity/Q1043709', 'http://www.wikidata.org/entity/Q104371', 'http://www.wikidata.org/entity/Q104383260', 'http://www.wikidata.org/entity/Q104383283', 'http://www.wikidata.org/entity/Q104385', 'http://www.wikidata.org/entity/Q104418200', 'http://www.wikidata.org/entity/Q104427', 'http://www.wikidata.org/entity/Q1044342', 'http://www.wikidata.org/entity/Q1044346', 'http://www.wikidata.org/entity/Q1044348', 'http://www.wikidata.org/entity/Q104437885', 'http://www.wikidata.org/entity/Q104439569', 'http://www.wikidata.org/entity/Q1044477', 'http://www.wikidata.org/entity/Q1044494', 'http://www.wikidata.org/entity/Q1044514', 'http://www.wikidata.org/entity/Q1044559', 'http://www.wikidata.org/entity/Q104468053', 'http://www.wikidata.org/entity/Q104476', 'http://www.wikidata.org/entity/Q104520659', 'http://www.wikidata.org/entity/Q104521370', 'http://www.wikidata.org/entity/Q104522001', 'http://www.wikidata.org/entity/Q104523', 'http://www.wikidata.org/entity/Q104544', 'http://www.wikidata.org/entity/Q1045477', 'http://www.wikidata.org/entity/Q104568', 'http://www.wikidata.org/entity/Q1045680', 'http://www.wikidata.org/entity/Q1045683', 'http://www.wikidata.org/entity/Q1045722', 'http://www.wikidata.org/entity/Q104576', 'http://www.wikidata.org/entity/Q104578', 'http://www.wikidata.org/entity/Q104579681', 'http://www.wikidata.org/entity/Q104587770', 'http://www.wikidata.org/entity/Q104590907', 'http://www.wikidata.org/entity/Q104599978', 'http://www.wikidata.org/entity/Q104601', 'http://www.wikidata.org/entity/Q104604', 'http://www.wikidata.org/entity/Q104604553', 'http://www.wikidata.org/entity/Q104613862', 'http://www.wikidata.org/entity/Q104615564', 'http://www.wikidata.org/entity/Q104626181', 'http://www.wikidata.org/entity/Q104631795', 'http://www.wikidata.org/entity/Q104659505', 'http://www.wikidata.org/entity/Q104663127', 'http://www.wikidata.org/entity/Q104665', 'http://www.wikidata.org/entity/Q104665277', 'http://www.wikidata.org/entity/Q104667', 'http://www.wikidata.org/entity/Q104670', 'http://www.wikidata.org/entity/Q104696788', 'http://www.wikidata.org/entity/Q104700634', 'http://www.wikidata.org/entity/Q104702', 'http://www.wikidata.org/entity/Q104730', 'http://www.wikidata.org/entity/Q104737', 'http://www.wikidata.org/entity/Q104741', 'http://www.wikidata.org/entity/Q104760625', 'http://www.wikidata.org/entity/Q104762922', 'http://www.wikidata.org/entity/Q104764834', 'http://www.wikidata.org/entity/Q104764873', 'http://www.wikidata.org/entity/Q104764874', 'http://www.wikidata.org/entity/Q104764949', 'http://www.wikidata.org/entity/Q104764974', 'http://www.wikidata.org/entity/Q104765018', 'http://www.wikidata.org/entity/Q104766', 'http://www.wikidata.org/entity/Q104782393', 'http://www.wikidata.org/entity/Q104787', 'http://www.wikidata.org/entity/Q104815', 'http://www.wikidata.org/entity/Q104832', 'http://www.wikidata.org/entity/Q104845706', 'http://www.wikidata.org/entity/Q104866', 'http://www.wikidata.org/entity/Q104869469', 'http://www.wikidata.org/entity/Q104876', 'http://www.wikidata.org/entity/Q104878044', 'http://www.wikidata.org/entity/Q104879', 'http://www.wikidata.org/entity/Q104884382', 'http://www.wikidata.org/entity/Q104902', 'http://www.wikidata.org/entity/Q104923', 'http://www.wikidata.org/entity/Q104925', 'http://www.wikidata.org/entity/Q104925281', 'http://www.wikidata.org/entity/Q104929865', 'http://www.wikidata.org/entity/Q104977', 'http://www.wikidata.org/entity/Q105047008', 'http://www.wikidata.org/entity/Q105047482', 'http://www.wikidata.org/entity/Q105052', 'http://www.wikidata.org/entity/Q105058', 'http://www.wikidata.org/entity/Q105064646', 'http://www.wikidata.org/entity/Q105065', 'http://www.wikidata.org/entity/Q105070220', 'http://www.wikidata.org/entity/Q105082', 'http://www.wikidata.org/entity/Q105102', 'http://www.wikidata.org/entity/Q105104', 'http://www.wikidata.org/entity/Q1051091', 'http://www.wikidata.org/entity/Q1051126', 'http://www.wikidata.org/entity/Q105114', 'http://www.wikidata.org/entity/Q105116505', 'http://www.wikidata.org/entity/Q105118747', 'http://www.wikidata.org/entity/Q105129', 'http://www.wikidata.org/entity/Q105133286', 'http://www.wikidata.org/entity/Q105134406', 'http://www.wikidata.org/entity/Q105136295', 'http://www.wikidata.org/entity/Q105138', 'http://www.wikidata.org/entity/Q105147', 'http://www.wikidata.org/entity/Q105149', 'http://www.wikidata.org/entity/Q105166', 'http://www.wikidata.org/entity/Q105193', 'http://www.wikidata.org/entity/Q1051939', 'http://www.wikidata.org/entity/Q105199568', 'http://www.wikidata.org/entity/Q1052372', 'http://www.wikidata.org/entity/Q105283', 'http://www.wikidata.org/entity/Q105297', 'http://www.wikidata.org/entity/Q105309404', 'http://www.wikidata.org/entity/Q105336746', 'http://www.wikidata.org/entity/Q105338506', 'http://www.wikidata.org/entity/Q105373', 'http://www.wikidata.org/entity/Q105391976', 'http://www.wikidata.org/entity/Q105451432', 'http://www.wikidata.org/entity/Q105478', 'http://www.wikidata.org/entity/Q105491', 'http://www.wikidata.org/entity/Q105494121', 'http://www.wikidata.org/entity/Q105549643', 'http://www.wikidata.org/entity/Q105549794', 'http://www.wikidata.org/entity/Q105559', 'http://www.wikidata.org/entity/Q105585136', 'http://www.wikidata.org/entity/Q105607', 'http://www.wikidata.org/entity/Q105610', 'http://www.wikidata.org/entity/Q105613', 'http://www.wikidata.org/entity/Q105613248', 'http://www.wikidata.org/entity/Q105627147', 'http://www.wikidata.org/entity/Q105631', 'http://www.wikidata.org/entity/Q10563757', 'http://www.wikidata.org/entity/Q105642', 'http://www.wikidata.org/entity/Q105665', 'http://www.wikidata.org/entity/Q105671328', 'http://www.wikidata.org/entity/Q105675820', 'http://www.wikidata.org/entity/Q105679', 'http://www.wikidata.org/entity/Q105681', 'http://www.wikidata.org/entity/Q105691', 'http://www.wikidata.org/entity/Q105716', 'http://www.wikidata.org/entity/Q105716679', 'http://www.wikidata.org/entity/Q105724333', 'http://www.wikidata.org/entity/Q105737724', 'http://www.wikidata.org/entity/Q105754846', 'http://www.wikidata.org/entity/Q105755335', 'http://www.wikidata.org/entity/Q105767098', 'http://www.wikidata.org/entity/Q105770', 'http://www.wikidata.org/entity/Q105770599', 'http://www.wikidata.org/entity/Q105785', 'http://www.wikidata.org/entity/Q105832784', 'http://www.wikidata.org/entity/Q105848334', 'http://www.wikidata.org/entity/Q105901', 'http://www.wikidata.org/entity/Q105914', 'http://www.wikidata.org/entity/Q105915', 'http://www.wikidata.org/entity/Q105918', 'http://www.wikidata.org/entity/Q105925', 'http://www.wikidata.org/entity/Q105944757', 'http://www.wikidata.org/entity/Q105992322', 'http://www.wikidata.org/entity/Q105992955', 'http://www.wikidata.org/entity/Q106000338', 'http://www.wikidata.org/entity/Q106006759', 'http://www.wikidata.org/entity/Q106035', 'http://www.wikidata.org/entity/Q106041', 'http://www.wikidata.org/entity/Q106061', 'http://www.wikidata.org/entity/Q106098372', 'http://www.wikidata.org/entity/Q106126', 'http://www.wikidata.org/entity/Q106127', 'http://www.wikidata.org/entity/Q106135271', 'http://www.wikidata.org/entity/Q106159611', 'http://www.wikidata.org/entity/Q106177', 'http://www.wikidata.org/entity/Q106188490', 'http://www.wikidata.org/entity/Q106223560', 'http://www.wikidata.org/entity/Q106254', 'http://www.wikidata.org/entity/Q106260', 'http://www.wikidata.org/entity/Q106298187', 'http://www.wikidata.org/entity/Q106311564', 'http://www.wikidata.org/entity/Q106311574', 'http://www.wikidata.org/entity/Q106322507', 'http://www.wikidata.org/entity/Q106323314', 'http://www.wikidata.org/entity/Q106358178', 'http://www.wikidata.org/entity/Q106368', 'http://www.wikidata.org/entity/Q106373', 'http://www.wikidata.org/entity/Q106390', 'http://www.wikidata.org/entity/Q106393', 'http://www.wikidata.org/entity/Q106395745', 'http://www.wikidata.org/entity/Q106412', 'http://www.wikidata.org/entity/Q106423', 'http://www.wikidata.org/entity/Q106438', 'http://www.wikidata.org/entity/Q106455', 'http://www.wikidata.org/entity/Q106460', 'http://www.wikidata.org/entity/Q106461', 'http://www.wikidata.org/entity/Q106479', 'http://www.wikidata.org/entity/Q106493', 'http://www.wikidata.org/entity/Q106496', 'http://www.wikidata.org/entity/Q106512329', 'http://www.wikidata.org/entity/Q106518946', 'http://www.wikidata.org/entity/Q106519848', 'http://www.wikidata.org/entity/Q1065321', 'http://www.wikidata.org/entity/Q106548568', 'http://www.wikidata.org/entity/Q106553', 'http://www.wikidata.org/entity/Q106564535', 'http://www.wikidata.org/entity/Q106572', 'http://www.wikidata.org/entity/Q106578', 'http://www.wikidata.org/entity/Q106594046', 'http://www.wikidata.org/entity/Q106595246', 'http://www.wikidata.org/entity/Q106631203', 'http://www.wikidata.org/entity/Q106637474', 'http://www.wikidata.org/entity/Q106661', 'http://www.wikidata.org/entity/Q106664319', 'http://www.wikidata.org/entity/Q106675767', 'http://www.wikidata.org/entity/Q106689558', 'http://www.wikidata.org/entity/Q1067102', 'http://www.wikidata.org/entity/Q1067206', 'http://www.wikidata.org/entity/Q1067219', 'http://www.wikidata.org/entity/Q1067238', 'http://www.wikidata.org/entity/Q1067243', 'http://www.wikidata.org/entity/Q1067327', 'http://www.wikidata.org/entity/Q1067337', 'http://www.wikidata.org/entity/Q106744', 'http://www.wikidata.org/entity/Q1067500', 'http://www.wikidata.org/entity/Q1067523', 'http://www.wikidata.org/entity/Q106754', 'http://www.wikidata.org/entity/Q106768194', 'http://www.wikidata.org/entity/Q106799', 'http://www.wikidata.org/entity/Q106819841', 'http://www.wikidata.org/entity/Q106831105', 'http://www.wikidata.org/entity/Q106841995', 'http://www.wikidata.org/entity/Q106869', 'http://www.wikidata.org/entity/Q106878335', 'http://www.wikidata.org/entity/Q106890375', 'http://www.wikidata.org/entity/Q106936826', 'http://www.wikidata.org/entity/Q106939', 'http://www.wikidata.org/entity/Q107036249', 'http://www.wikidata.org/entity/Q107045040', 'http://www.wikidata.org/entity/Q107112297', 'http://www.wikidata.org/entity/Q1071648', 'http://www.wikidata.org/entity/Q107190753', 'http://www.wikidata.org/entity/Q107204799', 'http://www.wikidata.org/entity/Q107219', 'http://www.wikidata.org/entity/Q107274', 'http://www.wikidata.org/entity/Q107286074', 'http://www.wikidata.org/entity/Q107291', 'http://www.wikidata.org/entity/Q1073163', 'http://www.wikidata.org/entity/Q107345', 'http://www.wikidata.org/entity/Q107349965', 'http://www.wikidata.org/entity/Q107350', 'http://www.wikidata.org/entity/Q107362784', 'http://www.wikidata.org/entity/Q107364', 'http://www.wikidata.org/entity/Q107375', 'http://www.wikidata.org/entity/Q107379896', 'http://www.wikidata.org/entity/Q107410916', 'http://www.wikidata.org/entity/Q107438', 'http://www.wikidata.org/entity/Q107474234', 'http://www.wikidata.org/entity/Q107483', 'http://www.wikidata.org/entity/Q107500877', 'http://www.wikidata.org/entity/Q107514', 'http://www.wikidata.org/entity/Q107538718', 'http://www.wikidata.org/entity/Q107583', 'http://www.wikidata.org/entity/Q107599', 'http://www.wikidata.org/entity/Q107605', 'http://www.wikidata.org/entity/Q107609122', 'http://www.wikidata.org/entity/Q107628', 'http://www.wikidata.org/entity/Q107630', 'http://www.wikidata.org/entity/Q107646', 'http://www.wikidata.org/entity/Q107651', 'http://www.wikidata.org/entity/Q107679210', 'http://www.wikidata.org/entity/Q107683', 'http://www.wikidata.org/entity/Q107711622', 'http://www.wikidata.org/entity/Q107740134', 'http://www.wikidata.org/entity/Q107743', 'http://www.wikidata.org/entity/Q107753', 'http://www.wikidata.org/entity/Q107782', 'http://www.wikidata.org/entity/Q107788', 'http://www.wikidata.org/entity/Q107790473', 'http://www.wikidata.org/entity/Q1078028', 'http://www.wikidata.org/entity/Q107805', 'http://www.wikidata.org/entity/Q1078106', 'http://www.wikidata.org/entity/Q1078277', 'http://www.wikidata.org/entity/Q107849', 'http://www.wikidata.org/entity/Q107869', 'http://www.wikidata.org/entity/Q1078911', 'http://www.wikidata.org/entity/Q107924', 'http://www.wikidata.org/entity/Q1079558', 'http://www.wikidata.org/entity/Q107973784', 'http://www.wikidata.org/entity/Q107983', 'http://www.wikidata.org/entity/Q107987303', 'http://www.wikidata.org/entity/Q1080253', 'http://www.wikidata.org/entity/Q108029097', 'http://www.wikidata.org/entity/Q1080329', 'http://www.wikidata.org/entity/Q108035', 'http://www.wikidata.org/entity/Q1080540', 'http://www.wikidata.org/entity/Q108057', 'http://www.wikidata.org/entity/Q1080623', 'http://www.wikidata.org/entity/Q1080649', 'http://www.wikidata.org/entity/Q108070', 'http://www.wikidata.org/entity/Q1080716', 'http://www.wikidata.org/entity/Q1080732', 'http://www.wikidata.org/entity/Q1080816', 'http://www.wikidata.org/entity/Q1080819', 'http://www.wikidata.org/entity/Q108097', 'http://www.wikidata.org/entity/Q108104', 'http://www.wikidata.org/entity/Q1081113', 'http://www.wikidata.org/entity/Q108114', 'http://www.wikidata.org/entity/Q108127805', 'http://www.wikidata.org/entity/Q1081287', 'http://www.wikidata.org/entity/Q1081437', 'http://www.wikidata.org/entity/Q108153', 'http://www.wikidata.org/entity/Q1081561', 'http://www.wikidata.org/entity/Q1081599', 'http://www.wikidata.org/entity/Q1081610', 'http://www.wikidata.org/entity/Q108164', 'http://www.wikidata.org/entity/Q1081758', 'http://www.wikidata.org/entity/Q108176', 'http://www.wikidata.org/entity/Q108192', 'http://www.wikidata.org/entity/Q108196632', 'http://www.wikidata.org/entity/Q108201130', 'http://www.wikidata.org/entity/Q108202', 'http://www.wikidata.org/entity/Q1082198', 'http://www.wikidata.org/entity/Q1082288', 'http://www.wikidata.org/entity/Q108230', 'http://www.wikidata.org/entity/Q108233', 'http://www.wikidata.org/entity/Q108236', 'http://www.wikidata.org/entity/Q108255', 'http://www.wikidata.org/entity/Q1082640', 'http://www.wikidata.org/entity/Q1082673', 'http://www.wikidata.org/entity/Q1082749', 'http://www.wikidata.org/entity/Q1082754', 'http://www.wikidata.org/entity/Q1082761', 'http://www.wikidata.org/entity/Q1082798', 'http://www.wikidata.org/entity/Q108285546', 'http://www.wikidata.org/entity/Q108287276', 'http://www.wikidata.org/entity/Q1082880', 'http://www.wikidata.org/entity/Q108294049', 'http://www.wikidata.org/entity/Q108294329', 'http://www.wikidata.org/entity/Q108294870', 'http://www.wikidata.org/entity/Q108296218', 'http://www.wikidata.org/entity/Q108296809', 'http://www.wikidata.org/entity/Q108302', 'http://www.wikidata.org/entity/Q108306', 'http://www.wikidata.org/entity/Q1083077', 'http://www.wikidata.org/entity/Q1083086', 'http://www.wikidata.org/entity/Q1083099', 'http://www.wikidata.org/entity/Q108311', 'http://www.wikidata.org/entity/Q1083125', 'http://www.wikidata.org/entity/Q1083162', 'http://www.wikidata.org/entity/Q1083168', 'http://www.wikidata.org/entity/Q108319856', 'http://www.wikidata.org/entity/Q1083435', 'http://www.wikidata.org/entity/Q1083539', 'http://www.wikidata.org/entity/Q1083559', 'http://www.wikidata.org/entity/Q1083566', 'http://www.wikidata.org/entity/Q108358', 'http://www.wikidata.org/entity/Q1083583', 'http://www.wikidata.org/entity/Q1083622', 'http://www.wikidata.org/entity/Q1083624', 'http://www.wikidata.org/entity/Q1083644', 'http://www.wikidata.org/entity/Q108365', 'http://www.wikidata.org/entity/Q1083730', 'http://www.wikidata.org/entity/Q108378294', 'http://www.wikidata.org/entity/Q1083806', 'http://www.wikidata.org/entity/Q1083827', 'http://www.wikidata.org/entity/Q108393', 'http://www.wikidata.org/entity/Q108434', 'http://www.wikidata.org/entity/Q108436220', 'http://www.wikidata.org/entity/Q1084549', 'http://www.wikidata.org/entity/Q1084557', 'http://www.wikidata.org/entity/Q1084596', 'http://www.wikidata.org/entity/Q108469', 'http://www.wikidata.org/entity/Q1084818', 'http://www.wikidata.org/entity/Q1084956', 'http://www.wikidata.org/entity/Q1084985', 'http://www.wikidata.org/entity/Q1085038', 'http://www.wikidata.org/entity/Q108504516', 'http://www.wikidata.org/entity/Q1085172', 'http://www.wikidata.org/entity/Q1085185', 'http://www.wikidata.org/entity/Q1085225', 'http://www.wikidata.org/entity/Q1085257', 'http://www.wikidata.org/entity/Q108526446', 'http://www.wikidata.org/entity/Q1085341', 'http://www.wikidata.org/entity/Q1085356', 'http://www.wikidata.org/entity/Q1085410', 'http://www.wikidata.org/entity/Q108554', 'http://www.wikidata.org/entity/Q108595256', 'http://www.wikidata.org/entity/Q1086005', 'http://www.wikidata.org/entity/Q108617', 'http://www.wikidata.org/entity/Q108617374', 'http://www.wikidata.org/entity/Q108630', 'http://www.wikidata.org/entity/Q1086472', 'http://www.wikidata.org/entity/Q108660', 'http://www.wikidata.org/entity/Q108662429', 'http://www.wikidata.org/entity/Q108665648', 'http://www.wikidata.org/entity/Q1086799', 'http://www.wikidata.org/entity/Q108693451', 'http://www.wikidata.org/entity/Q108733443', 'http://www.wikidata.org/entity/Q108760927', 'http://www.wikidata.org/entity/Q108763', 'http://www.wikidata.org/entity/Q108773', 'http://www.wikidata.org/entity/Q108792', 'http://www.wikidata.org/entity/Q108803590', 'http://www.wikidata.org/entity/Q108805554', 'http://www.wikidata.org/entity/Q108811390', 'http://www.wikidata.org/entity/Q108828331', 'http://www.wikidata.org/entity/Q108839248', 'http://www.wikidata.org/entity/Q108845', 'http://www.wikidata.org/entity/Q108853', 'http://www.wikidata.org/entity/Q108861150', 'http://www.wikidata.org/entity/Q108861193', 'http://www.wikidata.org/entity/Q108862137', 'http://www.wikidata.org/entity/Q108867', 'http://www.wikidata.org/entity/Q108872482', 'http://www.wikidata.org/entity/Q108873', 'http://www.wikidata.org/entity/Q108873296', 'http://www.wikidata.org/entity/Q108884586', 'http://www.wikidata.org/entity/Q108914380', 'http://www.wikidata.org/entity/Q108920', 'http://www.wikidata.org/entity/Q108928', 'http://www.wikidata.org/entity/Q108936', 'http://www.wikidata.org/entity/Q108942', 'http://www.wikidata.org/entity/Q108964', 'http://www.wikidata.org/entity/Q108965', 'http://www.wikidata.org/entity/Q108972', 'http://www.wikidata.org/entity/Q108978', 'http://www.wikidata.org/entity/Q108984', 'http://www.wikidata.org/entity/Q108987', 'http://www.wikidata.org/entity/Q108989', 'http://www.wikidata.org/entity/Q109001', 'http://www.wikidata.org/entity/Q109028', 'http://www.wikidata.org/entity/Q109050', 'http://www.wikidata.org/entity/Q109104', 'http://www.wikidata.org/entity/Q109123', 'http://www.wikidata.org/entity/Q109124517', 'http://www.wikidata.org/entity/Q109127', 'http://www.wikidata.org/entity/Q109131', 'http://www.wikidata.org/entity/Q109141', 'http://www.wikidata.org/entity/Q109148', 'http://www.wikidata.org/entity/Q1091893', 'http://www.wikidata.org/entity/Q1091975', 'http://www.wikidata.org/entity/Q109200280', 'http://www.wikidata.org/entity/Q109211', 'http://www.wikidata.org/entity/Q109225', 'http://www.wikidata.org/entity/Q1092317', 'http://www.wikidata.org/entity/Q109252043', 'http://www.wikidata.org/entity/Q109253595', 'http://www.wikidata.org/entity/Q109271422', 'http://www.wikidata.org/entity/Q109286', 'http://www.wikidata.org/entity/Q109304', 'http://www.wikidata.org/entity/Q109306', 'http://www.wikidata.org/entity/Q109316729', 'http://www.wikidata.org/entity/Q109335', 'http://www.wikidata.org/entity/Q109355446', 'http://www.wikidata.org/entity/Q109356764', 'http://www.wikidata.org/entity/Q109357', 'http://www.wikidata.org/entity/Q109358', 'http://www.wikidata.org/entity/Q109366', 'http://www.wikidata.org/entity/Q109375705', 'http://www.wikidata.org/entity/Q109382417', 'http://www.wikidata.org/entity/Q109443', 'http://www.wikidata.org/entity/Q109444', 'http://www.wikidata.org/entity/Q1094818', 'http://www.wikidata.org/entity/Q109492', 'http://www.wikidata.org/entity/Q109505', 'http://www.wikidata.org/entity/Q109507264', 'http://www.wikidata.org/entity/Q109516', 'http://www.wikidata.org/entity/Q109526534', 'http://www.wikidata.org/entity/Q109534', 'http://www.wikidata.org/entity/Q109551709', 'http://www.wikidata.org/entity/Q109556', 'http://www.wikidata.org/entity/Q109566877', 'http://www.wikidata.org/entity/Q109581', 'http://www.wikidata.org/entity/Q109587133', 'http://www.wikidata.org/entity/Q109595', 'http://www.wikidata.org/entity/Q109603', 'http://www.wikidata.org/entity/Q109608', 'http://www.wikidata.org/entity/Q109619', 'http://www.wikidata.org/entity/Q109623', 'http://www.wikidata.org/entity/Q109628', 'http://www.wikidata.org/entity/Q109629', 'http://www.wikidata.org/entity/Q109648', 'http://www.wikidata.org/entity/Q109650102', 'http://www.wikidata.org/entity/Q109653134', 'http://www.wikidata.org/entity/Q109656492', 'http://www.wikidata.org/entity/Q109718', 'http://www.wikidata.org/entity/Q109720', 'http://www.wikidata.org/entity/Q1097341', 'http://www.wikidata.org/entity/Q1097365', 'http://www.wikidata.org/entity/Q1097434', 'http://www.wikidata.org/entity/Q1097461', 'http://www.wikidata.org/entity/Q1097463', 'http://www.wikidata.org/entity/Q1097471', 'http://www.wikidata.org/entity/Q1097480', 'http://www.wikidata.org/entity/Q1097526', 'http://www.wikidata.org/entity/Q1097527', 'http://www.wikidata.org/entity/Q1097592', 'http://www.wikidata.org/entity/Q1097610', 'http://www.wikidata.org/entity/Q1097620', 'http://www.wikidata.org/entity/Q1097640', 'http://www.wikidata.org/entity/Q1097686', 'http://www.wikidata.org/entity/Q1097701', 'http://www.wikidata.org/entity/Q1097712', 'http://www.wikidata.org/entity/Q1097756', 'http://www.wikidata.org/entity/Q1097774', 'http://www.wikidata.org/entity/Q109778', 'http://www.wikidata.org/entity/Q1097857', 'http://www.wikidata.org/entity/Q1097863', 'http://www.wikidata.org/entity/Q1097915', 'http://www.wikidata.org/entity/Q109796', 'http://www.wikidata.org/entity/Q1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q5349735']</t>
+          <t>['http://www.wikidata.org/entity/Q102635', 'http://www.wikidata.org/entity/Q104699210', 'http://www.wikidata.org/entity/Q105062031', 'http://www.wikidata.org/entity/Q105062089', 'http://www.wikidata.org/entity/Q105607', 'http://www.wikidata.org/entity/Q105654184', 'http://www.wikidata.org/entity/Q105746355', 'http://www.wikidata.org/entity/Q107315059', 'http://www.wikidata.org/entity/Q107547779', 'http://www.wikidata.org/entity/Q1078293', 'http://www.wikidata.org/entity/Q109417403', 'http://www.wikidata.org/entity/Q109786', 'http://www.wikidata.org/entity/Q110669', 'http://www.wikidata.org/entity/Q111087041', 'http://www.wikidata.org/entity/Q111136904', 'http://www.wikidata.org/entity/Q1111936', 'http://www.wikidata.org/entity/Q111989367', 'http://www.wikidata.org/entity/Q112040740', 'http://www.wikidata.org/entity/Q113525050', 'http://www.wikidata.org/entity/Q11368045', 'http://www.wikidata.org/entity/Q113956038', 'http://www.wikidata.org/entity/Q114465117', 'http://www.wikidata.org/entity/Q1144993', 'http://www.wikidata.org/entity/Q1160773', 'http://www.wikidata.org/entity/Q11989607', 'http://www.wikidata.org/entity/Q120116', 'http://www.wikidata.org/entity/Q12021841', 'http://www.wikidata.org/entity/Q122123', 'http://www.wikidata.org/entity/Q123683661', 'http://www.wikidata.org/entity/Q123683695', 'http://www.wikidata.org/entity/Q12388329', 'http://www.wikidata.org/entity/Q123973166', 'http://www.wikidata.org/entity/Q124128425', 'http://www.wikidata.org/entity/Q126708639', 'http://www.wikidata.org/entity/Q1283065', 'http://www.wikidata.org/entity/Q1287152', 'http://www.wikidata.org/entity/Q13101072', 'http://www.wikidata.org/entity/Q13590460', 'http://www.wikidata.org/entity/Q1489705', 'http://www.wikidata.org/entity/Q1533711', 'http://www.wikidata.org/entity/Q15428525', 'http://www.wikidata.org/entity/Q15433691', 'http://www.wikidata.org/entity/Q15438521', 'http://www.wikidata.org/entity/Q15791183', 'http://www.wikidata.org/entity/Q16061428', 'http://www.wikidata.org/entity/Q16065123', 'http://www.wikidata.org/entity/Q16066623', 'http://www.wikidata.org/entity/Q16138668', 'http://www.wikidata.org/entity/Q16185696', 'http://www.wikidata.org/entity/Q16200019', 'http://www.wikidata.org/entity/Q16609597', 'http://www.wikidata.org/entity/Q17046083', 'http://www.wikidata.org/entity/Q17385556', 'http://www.wikidata.org/entity/Q17410833', 'http://www.wikidata.org/entity/Q18412419', 'http://www.wikidata.org/entity/Q18625945', 'http://www.wikidata.org/entity/Q18812061', 'http://www.wikidata.org/entity/Q1893209', 'http://www.wikidata.org/entity/Q1928504', 'http://www.wikidata.org/entity/Q19665220', 'http://www.wikidata.org/entity/Q1974089', 'http://www.wikidata.org/entity/Q1985803', 'http://www.wikidata.org/entity/Q19936977', 'http://www.wikidata.org/entity/Q20111787', 'http://www.wikidata.org/entity/Q21451861', 'http://www.wikidata.org/entity/Q2154868', 'http://www.wikidata.org/entity/Q2172655', 'http://www.wikidata.org/entity/Q22958110', 'http://www.wikidata.org/entity/Q22973392', 'http://www.wikidata.org/entity/Q2336644', 'http://www.wikidata.org/entity/Q25914018', 'http://www.wikidata.org/entity/Q26918701', 'http://www.wikidata.org/entity/Q27182140', 'http://www.wikidata.org/entity/Q277650', 'http://www.wikidata.org/entity/Q3025341', 'http://www.wikidata.org/entity/Q3051408', 'http://www.wikidata.org/entity/Q307926', 'http://www.wikidata.org/entity/Q3160573', 'http://www.wikidata.org/entity/Q3199753', 'http://www.wikidata.org/entity/Q33138418', 'http://www.wikidata.org/entity/Q3437139', 'http://www.wikidata.org/entity/Q3495952', 'http://www.wikidata.org/entity/Q3568712', 'http://www.wikidata.org/entity/Q3980859', 'http://www.wikidata.org/entity/Q41249446', 'http://www.wikidata.org/entity/Q41446740', 'http://www.wikidata.org/entity/Q4527638', 'http://www.wikidata.org/entity/Q47455280', 'http://www.wikidata.org/entity/Q48462377', 'http://www.wikidata.org/entity/Q4902498', 'http://www.wikidata.org/entity/Q4932797', 'http://www.wikidata.org/entity/Q493724', 'http://www.wikidata.org/entity/Q4946519', 'http://www.wikidata.org/entity/Q5040978', 'http://www.wikidata.org/entity/Q551286', 'http://www.wikidata.org/entity/Q55439603', 'http://www.wikidata.org/entity/Q5574838', 'http://www.wikidata.org/entity/Q5698755', 'http://www.wikidata.org/entity/Q5704348', 'http://www.wikidata.org/entity/Q57415409', 'http://www.wikidata.org/entity/Q5913946', 'http://www.wikidata.org/entity/Q5980860', 'http://www.wikidata.org/entity/Q6015379', 'http://www.wikidata.org/entity/Q6023712', 'http://www.wikidata.org/entity/Q6026173', 'http://www.wikidata.org/entity/Q6037871', 'http://www.wikidata.org/entity/Q6051790', 'http://www.wikidata.org/entity/Q6061583', 'http://www.wikidata.org/entity/Q6076120', 'http://www.wikidata.org/entity/Q6085393', 'http://www.wikidata.org/entity/Q60876172', 'http://www.wikidata.org/entity/Q6088857', 'http://www.wikidata.org/entity/Q6094689', 'http://www.wikidata.org/entity/Q62591716', 'http://www.wikidata.org/entity/Q63382255', 'http://www.wikidata.org/entity/Q64784487', 'http://www.wikidata.org/entity/Q6577594', 'http://www.wikidata.org/entity/Q70246491', 'http://www.wikidata.org/entity/Q7030048', 'http://www.wikidata.org/entity/Q7151847', 'http://www.wikidata.org/entity/Q72813039', 'http://www.wikidata.org/entity/Q73014334', 'http://www.wikidata.org/entity/Q73330311', 'http://www.wikidata.org/entity/Q7796178', 'http://www.wikidata.org/entity/Q7922389', 'http://www.wikidata.org/entity/Q7933326', 'http://www.wikidata.org/entity/Q79400294', 'http://www.wikidata.org/entity/Q8002249', 'http://www.wikidata.org/entity/Q80345', 'http://www.wikidata.org/entity/Q83367239', 'http://www.wikidata.org/entity/Q86911156', 'http://www.wikidata.org/entity/Q88461719', 'http://www.wikidata.org/entity/Q88551792', 'http://www.wikidata.org/entity/Q89535947', 'http://www.wikidata.org/entity/Q9294712', 'http://www.wikidata.org/entity/Q94911393', 'http://www.wikidata.org/entity/Q95190616', 'http://www.wikidata.org/entity/Q95192876', 'http://www.wikidata.org/entity/Q95199688', 'http://www.wikidata.org/entity/Q95710946', 'http://www.wikidata.org/entity/Q95751929', 'http://www.wikidata.org/entity/Q95837376', 'http://www.wikidata.org/entity/Q95841560', 'http://www.wikidata.org/entity/Q96951970', 'http://www.wikidata.org/entity/Q97478192', 'http://www.wikidata.org/entity/Q97578']</t>
         </is>
       </c>
       <c r="D18" t="b">
@@ -798,17 +798,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>What is the birth name of Adele?</t>
+          <t>Who designed the Brooklyn Bridge?</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['Adele Laurie Blue Adkins']</t>
+          <t>['http://www.wikidata.org/entity/Q77237']</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['મોહનદાસ ગાંધી']</t>
+          <t>['http://www.wikidata.org/entity/Q1775325']</t>
         </is>
       </c>
       <c r="D19" t="b">
@@ -888,11 +888,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1000791', 'http://www.wikidata.org/entity/Q100146286', 'http://www.wikidata.org/entity/Q100149428', 'http://www.wikidata.org/entity/Q100159428', 'http://www.wikidata.org/entity/Q100159740', 'http://www.wikidata.org/entity/Q100233973', 'http://www.wikidata.org/entity/Q100234056', 'http://www.wikidata.org/entity/Q100234691', 'http://www.wikidata.org/entity/Q100255739', 'http://www.wikidata.org/entity/Q100268106', 'http://www.wikidata.org/entity/Q100268254', 'http://www.wikidata.org/entity/Q100270', 'http://www.wikidata.org/entity/Q100271', 'http://www.wikidata.org/entity/Q100371030', 'http://www.wikidata.org/entity/Q100377182', 'http://www.wikidata.org/entity/Q100426578', 'http://www.wikidata.org/entity/Q100451623', 'http://www.wikidata.org/entity/Q100605050', 'http://www.wikidata.org/entity/Q100718000', 'http://www.wikidata.org/entity/Q100718552', 'http://www.wikidata.org/entity/Q100718566', 'http://www.wikidata.org/entity/Q100718799', 'http://www.wikidata.org/entity/Q100719140', 'http://www.wikidata.org/entity/Q100719182', 'http://www.wikidata.org/entity/Q100719313', 'http://www.wikidata.org/entity/Q100719358', 'http://www.wikidata.org/entity/Q100719450', 'http://www.wikidata.org/entity/Q100719858', 'http://www.wikidata.org/entity/Q100719896', 'http://www.wikidata.org/entity/Q100720729', 'http://www.wikidata.org/entity/Q100720830', 'http://www.wikidata.org/entity/Q100720834', 'http://www.wikidata.org/entity/Q100720849', 'http://www.wikidata.org/entity/Q100720851', 'http://www.wikidata.org/entity/Q100720865', 'http://www.wikidata.org/entity/Q100720875', 'http://www.wikidata.org/entity/Q100720884', 'http://www.wikidata.org/entity/Q100720887', 'http://www.wikidata.org/entity/Q100720891', 'http://www.wikidata.org/entity/Q100720892', 'http://www.wikidata.org/entity/Q100720896', 'http://www.wikidata.org/entity/Q100720899', 'http://www.wikidata.org/entity/Q100720907', 'http://www.wikidata.org/entity/Q100720909', 'http://www.wikidata.org/entity/Q100720912', 'http://www.wikidata.org/entity/Q100720914', 'http://www.wikidata.org/entity/Q100720922', 'http://www.wikidata.org/entity/Q100720925', 'http://www.wikidata.org/entity/Q100720933', 'http://www.wikidata.org/entity/Q100720942', 'http://www.wikidata.org/entity/Q100721110', 'http://www.wikidata.org/entity/Q100721113', 'http://www.wikidata.org/entity/Q100721176', 'http://www.wikidata.org/entity/Q100721652', 'http://www.wikidata.org/entity/Q100721679', 'http://www.wikidata.org/entity/Q100721757', 'http://www.wikidata.org/entity/Q100722133', 'http://www.wikidata.org/entity/Q100722392', 'http://www.wikidata.org/entity/Q100723249', 'http://www.wikidata.org/entity/Q100723552', 'http://www.wikidata.org/entity/Q100723580', 'http://www.wikidata.org/entity/Q100723716', 'http://www.wikidata.org/entity/Q100723988', 'http://www.wikidata.org/entity/Q100724009', 'http://www.wikidata.org/entity/Q100724151', 'http://www.wikidata.org/entity/Q100724158', 'http://www.wikidata.org/entity/Q100741864', 'http://www.wikidata.org/entity/Q100743290', 'http://www.wikidata.org/entity/Q100743413', 'http://www.wikidata.org/entity/Q100743480', 'http://www.wikidata.org/entity/Q100743501', 'http://www.wikidata.org/entity/Q100743505', 'http://www.wikidata.org/entity/Q100743506', 'http://www.wikidata.org/entity/Q100743507', 'http://www.wikidata.org/entity/Q100743509', 'http://www.wikidata.org/entity/Q100743511', 'http://www.wikidata.org/entity/Q100743512', 'http://www.wikidata.org/entity/Q100743534', 'http://www.wikidata.org/entity/Q100743537', 'http://www.wikidata.org/entity/Q100743539', 'http://www.wikidata.org/entity/Q100743541', 'http://www.wikidata.org/entity/Q100743547', 'http://www.wikidata.org/entity/Q100743556', 'http://www.wikidata.org/entity/Q100743564', 'http://www.wikidata.org/entity/Q100743566', 'http://www.wikidata.org/entity/Q100743570', 'http://www.wikidata.org/entity/Q100743573', 'http://www.wikidata.org/entity/Q100743579', 'http://www.wikidata.org/entity/Q100743581', 'http://www.wikidata.org/entity/Q100743587', 'http://www.wikidata.org/entity/Q100743643', 'http://www.wikidata.org/entity/Q100743701', 'http://www.wikidata.org/entity/Q100743712', 'http://www.wikidata.org/entity/Q100743749', 'http://www.wikidata.org/entity/Q100743750', 'http://www.wikidata.org/entity/Q100743754', 'http://www.wikidata.org/entity/Q100743768', 'http://www.wikidata.org/entity/Q100743814', 'http://www.wikidata.org/entity/Q100743815', 'http://www.wikidata.org/entity/Q100743836', 'http://www.wikidata.org/entity/Q100743841', 'http://www.wikidata.org/entity/Q100744026', 'http://www.wikidata.org/entity/Q100744253', 'http://www.wikidata.org/entity/Q100744432', 'http://www.wikidata.org/entity/Q100746949', 'http://www.wikidata.org/entity/Q100747188', 'http://www.wikidata.org/entity/Q100747947', 'http://www.wikidata.org/entity/Q100748175', 'http://www.wikidata.org/entity/Q100748209', 'http://www.wikidata.org/entity/Q100749103', 'http://www.wikidata.org/entity/Q100749913', 'http://www.wikidata.org/entity/Q100751464', 'http://www.wikidata.org/entity/Q100751660', 'http://www.wikidata.org/entity/Q100751923', 'http://www.wikidata.org/entity/Q100752212', 'http://www.wikidata.org/entity/Q100753561', 'http://www.wikidata.org/entity/Q100753966', 'http://www.wikidata.org/entity/Q100753967', 'http://www.wikidata.org/entity/Q100759002', 'http://www.wikidata.org/entity/Q100759458', 'http://www.wikidata.org/entity/Q100759755', 'http://www.wikidata.org/entity/Q100761016', 'http://www.wikidata.org/entity/Q100761605', 'http://www.wikidata.org/entity/Q100762367', 'http://www.wikidata.org/entity/Q100763095', 'http://www.wikidata.org/entity/Q100764032', 'http://www.wikidata.org/entity/Q100764036', 'http://www.wikidata.org/entity/Q100765104', 'http://www.wikidata.org/entity/Q100766876', 'http://www.wikidata.org/entity/Q100766896', 'http://www.wikidata.org/entity/Q100767099', 'http://www.wikidata.org/entity/Q100767111', 'http://www.wikidata.org/entity/Q100767165', 'http://www.wikidata.org/entity/Q100767182', 'http://www.wikidata.org/entity/Q100767322', 'http://www.wikidata.org/entity/Q100767629', 'http://www.wikidata.org/entity/Q100768130', 'http://www.wikidata.org/entity/Q100768520', 'http://www.wikidata.org/entity/Q100768753', 'http://www.wikidata.org/entity/Q100768908', 'http://www.wikidata.org/entity/Q100768909', 'http://www.wikidata.org/entity/Q100768997', 'http://www.wikidata.org/entity/Q100769398', 'http://www.wikidata.org/entity/Q100769656', 'http://www.wikidata.org/entity/Q100769714', 'http://www.wikidata.org/entity/Q100769950', 'http://www.wikidata.org/entity/Q100770818', 'http://www.wikidata.org/entity/Q100770983', 'http://www.wikidata.org/entity/Q100771157', 'http://www.wikidata.org/entity/Q100771189', 'http://www.wikidata.org/entity/Q100771309', 'http://www.wikidata.org/entity/Q100771698', 'http://www.wikidata.org/entity/Q100771960', 'http://www.wikidata.org/entity/Q100772511', 'http://www.wikidata.org/entity/Q100772726', 'http://www.wikidata.org/entity/Q100773146', 'http://www.wikidata.org/entity/Q100773309', 'http://www.wikidata.org/entity/Q100773890', 'http://www.wikidata.org/entity/Q100774597', 'http://www.wikidata.org/entity/Q100775062', 'http://www.wikidata.org/entity/Q100775493', 'http://www.wikidata.org/entity/Q100776047', 'http://www.wikidata.org/entity/Q100776321', 'http://www.wikidata.org/entity/Q100778248', 'http://www.wikidata.org/entity/Q100779909', 'http://www.wikidata.org/entity/Q100779924', 'http://www.wikidata.org/entity/Q100781781', 'http://www.wikidata.org/entity/Q100782902', 'http://www.wikidata.org/entity/Q100782988', 'http://www.wikidata.org/entity/Q100783064', 'http://www.wikidata.org/entity/Q100784001', 'http://www.wikidata.org/entity/Q100784330', 'http://www.wikidata.org/entity/Q100784398', 'http://www.wikidata.org/entity/Q100784451', 'http://www.wikidata.org/entity/Q100784464', 'http://www.wikidata.org/entity/Q100784975', 'http://www.wikidata.org/entity/Q100785019', 'http://www.wikidata.org/entity/Q100785232', 'http://www.wikidata.org/entity/Q100785250', 'http://www.wikidata.org/entity/Q100785303', 'http://www.wikidata.org/entity/Q100785537', 'http://www.wikidata.org/entity/Q100785627', 'http://www.wikidata.org/entity/Q100786314', 'http://www.wikidata.org/entity/Q100786878', 'http://www.wikidata.org/entity/Q100787706', 'http://www.wikidata.org/entity/Q100787734', 'http://www.wikidata.org/entity/Q100787854', 'http://www.wikidata.org/entity/Q100788279', 'http://www.wikidata.org/entity/Q100789903', 'http://www.wikidata.org/entity/Q100791467', 'http://www.wikidata.org/entity/Q100791502', 'http://www.wikidata.org/entity/Q100791599', 'http://www.wikidata.org/entity/Q100792085', 'http://www.wikidata.org/entity/Q100792158', 'http://www.wikidata.org/entity/Q100793258', 'http://www.wikidata.org/entity/Q100793447', 'http://www.wikidata.org/entity/Q100793505', 'http://www.wikidata.org/entity/Q100793563', 'http://www.wikidata.org/entity/Q100793723', 'http://www.wikidata.org/entity/Q100793756', 'http://www.wikidata.org/entity/Q100793969', 'http://www.wikidata.org/entity/Q100794271', 'http://www.wikidata.org/entity/Q100794718', 'http://www.wikidata.org/entity/Q100794792', 'http://www.wikidata.org/entity/Q100794996', 'http://www.wikidata.org/entity/Q100795050', 'http://www.wikidata.org/entity/Q100795221', 'http://www.wikidata.org/entity/Q100795231', 'http://www.wikidata.org/entity/Q100796341', 'http://www.wikidata.org/entity/Q100796414', 'http://www.wikidata.org/entity/Q100796580', 'http://www.wikidata.org/entity/Q100797209', 'http://www.wikidata.org/entity/Q100797333', 'http://www.wikidata.org/entity/Q100797794', 'http://www.wikidata.org/entity/Q100798031', 'http://www.wikidata.org/entity/Q100798074', 'http://www.wikidata.org/entity/Q100798302', 'http://www.wikidata.org/entity/Q100798640', 'http://www.wikidata.org/entity/Q100798922', 'http://www.wikidata.org/entity/Q100799017', 'http://www.wikidata.org/entity/Q100799425', 'http://www.wikidata.org/entity/Q100800856', 'http://www.wikidata.org/entity/Q100801342', 'http://www.wikidata.org/entity/Q100802268', 'http://www.wikidata.org/entity/Q100802525', 'http://www.wikidata.org/entity/Q100802634', 'http://www.wikidata.org/entity/Q100804342', 'http://www.wikidata.org/entity/Q100804378', 'http://www.wikidata.org/entity/Q100805424', 'http://www.wikidata.org/entity/Q100805713', 'http://www.wikidata.org/entity/Q100806031', 'http://www.wikidata.org/entity/Q100806402', 'http://www.wikidata.org/entity/Q100806513', 'http://www.wikidata.org/entity/Q100806617', 'http://www.wikidata.org/entity/Q100808900', 'http://www.wikidata.org/entity/Q100819704', 'http://www.wikidata.org/entity/Q100827260', 'http://www.wikidata.org/entity/Q100829980', 'http://www.wikidata.org/entity/Q100846774', 'http://www.wikidata.org/entity/Q100861368', 'http://www.wikidata.org/entity/Q100865343', 'http://www.wikidata.org/entity/Q100867450', 'http://www.wikidata.org/entity/Q100868390', 'http://www.wikidata.org/entity/Q100868686', 'http://www.wikidata.org/entity/Q100869366', 'http://www.wikidata.org/entity/Q100870259', 'http://www.wikidata.org/entity/Q100870520', 'http://www.wikidata.org/entity/Q100871090', 'http://www.wikidata.org/entity/Q100872736', 'http://www.wikidata.org/entity/Q100872904', 'http://www.wikidata.org/entity/Q100873217', 'http://www.wikidata.org/entity/Q100873259', 'http://www.wikidata.org/entity/Q100873591', 'http://www.wikidata.org/entity/Q100874361', 'http://www.wikidata.org/entity/Q100874540', 'http://www.wikidata.org/entity/Q100874765', 'http://www.wikidata.org/entity/Q100874820', 'http://www.wikidata.org/entity/Q100875529', 'http://www.wikidata.org/entity/Q100875764', 'http://www.wikidata.org/entity/Q100875961', 'http://www.wikidata.org/entity/Q100876161', 'http://www.wikidata.org/entity/Q100876905', 'http://www.wikidata.org/entity/Q100877005', 'http://www.wikidata.org/entity/Q100877072', 'http://www.wikidata.org/entity/Q100877195', 'http://www.wikidata.org/entity/Q100877251', 'http://www.wikidata.org/entity/Q100878171', 'http://www.wikidata.org/entity/Q100878941', 'http://www.wikidata.org/entity/Q100879423', 'http://www.wikidata.org/entity/Q100879543', 'http://www.wikidata.org/entity/Q100880214', 'http://www.wikidata.org/entity/Q100880874', 'http://www.wikidata.org/entity/Q100880911', 'http://www.wikidata.org/entity/Q100881471', 'http://www.wikidata.org/entity/Q100881970', 'http://www.wikidata.org/entity/Q100882724', 'http://www.wikidata.org/entity/Q100882729', 'http://www.wikidata.org/entity/Q100884422', 'http://www.wikidata.org/entity/Q100884743', 'http://www.wikidata.org/entity/Q100885338', 'http://www.wikidata.org/entity/Q100888756', 'http://www.wikidata.org/entity/Q100889412', 'http://www.wikidata.org/entity/Q100889736', 'http://www.wikidata.org/entity/Q100889996', 'http://www.wikidata.org/entity/Q100890360', 'http://www.wikidata.org/entity/Q100890585', 'http://www.wikidata.org/entity/Q100892124', 'http://www.wikidata.org/entity/Q100892340', 'http://www.wikidata.org/entity/Q100892958', 'http://www.wikidata.org/entity/Q100893004', 'http://www.wikidata.org/entity/Q100893220', 'http://www.wikidata.org/entity/Q100893325', 'http://www.wikidata.org/entity/Q100893856', 'http://www.wikidata.org/entity/Q100894411', 'http://www.wikidata.org/entity/Q100894417', 'http://www.wikidata.org/entity/Q100894616', 'http://www.wikidata.org/entity/Q100895884', 'http://www.wikidata.org/entity/Q100897035', 'http://www.wikidata.org/entity/Q100897281', 'http://www.wikidata.org/entity/Q100899460', 'http://www.wikidata.org/entity/Q100901401', 'http://www.wikidata.org/entity/Q100901734', 'http://www.wikidata.org/entity/Q100904376', 'http://www.wikidata.org/entity/Q100905529', 'http://www.wikidata.org/entity/Q100906899', 'http://www.wikidata.org/entity/Q100907217', 'http://www.wikidata.org/entity/Q100907395', 'http://www.wikidata.org/entity/Q100907582', 'http://www.wikidata.org/entity/Q100907778', 'http://www.wikidata.org/entity/Q100909005', 'http://www.wikidata.org/entity/Q100910258', 'http://www.wikidata.org/entity/Q100910315', 'http://www.wikidata.org/entity/Q100911168', 'http://www.wikidata.org/entity/Q100911312', 'http://www.wikidata.org/entity/Q100911417', 'http://www.wikidata.org/entity/Q100913320', 'http://www.wikidata.org/entity/Q100914058', 'http://www.wikidata.org/entity/Q100916198', 'http://www.wikidata.org/entity/Q100917187', 'http://www.wikidata.org/entity/Q100917336', 'http://www.wikidata.org/entity/Q100918539', 'http://www.wikidata.org/entity/Q100919123', 'http://www.wikidata.org/entity/Q100919721', 'http://www.wikidata.org/entity/Q100919894', 'http://www.wikidata.org/entity/Q100920853', 'http://www.wikidata.org/entity/Q100920865', 'http://www.wikidata.org/entity/Q100921180', 'http://www.wikidata.org/entity/Q100921485', 'http://www.wikidata.org/entity/Q100921751', 'http://www.wikidata.org/entity/Q100922187', 'http://www.wikidata.org/entity/Q100922653', 'http://www.wikidata.org/entity/Q100922723', 'http://www.wikidata.org/entity/Q100922847', 'http://www.wikidata.org/entity/Q100923193', 'http://www.wikidata.org/entity/Q100923372', 'http://www.wikidata.org/entity/Q100924163', 'http://www.wikidata.org/entity/Q100925349', 'http://www.wikidata.org/entity/Q100925551', 'http://www.wikidata.org/entity/Q100926437', 'http://www.wikidata.org/entity/Q100926544', 'http://www.wikidata.org/entity/Q100927096', 'http://www.wikidata.org/entity/Q100928104', 'http://www.wikidata.org/entity/Q100928817', 'http://www.wikidata.org/entity/Q100929498', 'http://www.wikidata.org/entity/Q100929792', 'http://www.wikidata.org/entity/Q100930247', 'http://www.wikidata.org/entity/Q100931046', 'http://www.wikidata.org/entity/Q100934497', 'http://www.wikidata.org/entity/Q100934652', 'http://www.wikidata.org/entity/Q100934680', 'http://www.wikidata.org/entity/Q100934781', 'http://www.wikidata.org/entity/Q100935310', 'http://www.wikidata.org/entity/Q100935514', 'http://www.wikidata.org/entity/Q100935721', 'http://www.wikidata.org/entity/Q100935989', 'http://www.wikidata.org/entity/Q100936155', 'http://www.wikidata.org/entity/Q100936206', 'http://www.wikidata.org/entity/Q100938897', 'http://www.wikidata.org/entity/Q100939038', 'http://www.wikidata.org/entity/Q100940712', 'http://www.wikidata.org/entity/Q100942480', 'http://www.wikidata.org/entity/Q100942674', 'http://www.wikidata.org/entity/Q1009435', 'http://www.wikidata.org/entity/Q100944013', 'http://www.wikidata.org/entity/Q100944889', 'http://www.wikidata.org/entity/Q100946906', 'http://www.wikidata.org/entity/Q100948683', 'http://www.wikidata.org/entity/Q100948714', 'http://www.wikidata.org/entity/Q100949184', 'http://www.wikidata.org/entity/Q100950210', 'http://www.wikidata.org/entity/Q100951388', 'http://www.wikidata.org/entity/Q100951898', 'http://www.wikidata.org/entity/Q100952898', 'http://www.wikidata.org/entity/Q100953843', 'http://www.wikidata.org/entity/Q100954475', 'http://www.wikidata.org/entity/Q100955951', 'http://www.wikidata.org/entity/Q100957145', 'http://www.wikidata.org/entity/Q100958048', 'http://www.wikidata.org/entity/Q100958528', 'http://www.wikidata.org/entity/Q100958614', 'http://www.wikidata.org/entity/Q100959608', 'http://www.wikidata.org/entity/Q100961111', 'http://www.wikidata.org/entity/Q100961176', 'http://www.wikidata.org/entity/Q100961725', 'http://www.wikidata.org/entity/Q100961948', 'http://www.wikidata.org/entity/Q100962905', 'http://www.wikidata.org/entity/Q100963055', 'http://www.wikidata.org/entity/Q100963772', 'http://www.wikidata.org/entity/Q100963834', 'http://www.wikidata.org/entity/Q100963963', 'http://www.wikidata.org/entity/Q100964085', 'http://www.wikidata.org/entity/Q100977711', 'http://www.wikidata.org/entity/Q100981581', 'http://www.wikidata.org/entity/Q100981767', 'http://www.wikidata.org/entity/Q100981910', 'http://www.wikidata.org/entity/Q100982890', 'http://www.wikidata.org/entity/Q100982923', 'http://www.wikidata.org/entity/Q100983694', 'http://www.wikidata.org/entity/Q100984215', 'http://www.wikidata.org/entity/Q100986352', 'http://www.wikidata.org/entity/Q100987066', 'http://www.wikidata.org/entity/Q100987430', 'http://www.wikidata.org/entity/Q100987618', 'http://www.wikidata.org/entity/Q101003595', 'http://www.wikidata.org/entity/Q101072753', 'http://www.wikidata.org/entity/Q101247362', 'http://www.wikidata.org/entity/Q101385200', 'http://www.wikidata.org/entity/Q101506175', 'http://www.wikidata.org/entity/Q101563039', 'http://www.wikidata.org/entity/Q102007152', 'http://www.wikidata.org/entity/Q102045979', 'http://www.wikidata.org/entity/Q102211645', 'http://www.wikidata.org/entity/Q102212176', 'http://www.wikidata.org/entity/Q102227359', 'http://www.wikidata.org/entity/Q1022508', 'http://www.wikidata.org/entity/Q102271912', 'http://www.wikidata.org/entity/Q102282451', 'http://www.wikidata.org/entity/Q102347081', 'http://www.wikidata.org/entity/Q102347126', 'http://www.wikidata.org/entity/Q102400266', 'http://www.wikidata.org/entity/Q102537899', 'http://www.wikidata.org/entity/Q10261637', 'http://www.wikidata.org/entity/Q1027716', 'http://www.wikidata.org/entity/Q1027929', 'http://www.wikidata.org/entity/Q102833655', 'http://www.wikidata.org/entity/Q1029117', 'http://www.wikidata.org/entity/Q102927', 'http://www.wikidata.org/entity/Q10292875', 'http://www.wikidata.org/entity/Q10292941', 'http://www.wikidata.org/entity/Q102930', 'http://www.wikidata.org/entity/Q10293303', 'http://www.wikidata.org/entity/Q10293395', 'http://www.wikidata.org/entity/Q102934', 'http://www.wikidata.org/entity/Q10293464', 'http://www.wikidata.org/entity/Q102955', 'http://www.wikidata.org/entity/Q10307612', 'http://www.wikidata.org/entity/Q1031846', 'http://www.wikidata.org/entity/Q1032247', 'http://www.wikidata.org/entity/Q1032388', 'http://www.wikidata.org/entity/Q1032471', 'http://www.wikidata.org/entity/Q1032693', 'http://www.wikidata.org/entity/Q1032995', 'http://www.wikidata.org/entity/Q1033039', 'http://www.wikidata.org/entity/Q1033044', 'http://www.wikidata.org/entity/Q1033050', 'http://www.wikidata.org/entity/Q1033331', 'http://www.wikidata.org/entity/Q1034012', 'http://www.wikidata.org/entity/Q10345591', 'http://www.wikidata.org/entity/Q10345648', 'http://www.wikidata.org/entity/Q10345655', 'http://www.wikidata.org/entity/Q10345662', 'http://www.wikidata.org/entity/Q10345670', 'http://www.wikidata.org/entity/Q103497700', 'http://www.wikidata.org/entity/Q10363166', 'http://www.wikidata.org/entity/Q10364026', 'http://www.wikidata.org/entity/Q1037169', 'http://www.wikidata.org/entity/Q1039453', 'http://www.wikidata.org/entity/Q104008667', 'http://www.wikidata.org/entity/Q104081164', 'http://www.wikidata.org/entity/Q104165941', 'http://www.wikidata.org/entity/Q104165968', 'http://www.wikidata.org/entity/Q104165992', 'http://www.wikidata.org/entity/Q104166462', 'http://www.wikidata.org/entity/Q104166489', 'http://www.wikidata.org/entity/Q1042435', 'http://www.wikidata.org/entity/Q104337', 'http://www.wikidata.org/entity/Q104355', 'http://www.wikidata.org/entity/Q104361', 'http://www.wikidata.org/entity/Q104375', 'http://www.wikidata.org/entity/Q104378395', 'http://www.wikidata.org/entity/Q104382', 'http://www.wikidata.org/entity/Q104386', 'http://www.wikidata.org/entity/Q104424512', 'http://www.wikidata.org/entity/Q104532918', 'http://www.wikidata.org/entity/Q104595164', 'http://www.wikidata.org/entity/Q104621930', 'http://www.wikidata.org/entity/Q104622914', 'http://www.wikidata.org/entity/Q104641869', 'http://www.wikidata.org/entity/Q104656272', 'http://www.wikidata.org/entity/Q104656883', 'http://www.wikidata.org/entity/Q104665489', 'http://www.wikidata.org/entity/Q104698929', 'http://www.wikidata.org/entity/Q1047188', 'http://www.wikidata.org/entity/Q104723301', 'http://www.wikidata.org/entity/Q104764481', 'http://www.wikidata.org/entity/Q104792390', 'http://www.wikidata.org/entity/Q104870461', 'http://www.wikidata.org/entity/Q104878998', 'http://www.wikidata.org/entity/Q104879193', 'http://www.wikidata.org/entity/Q104879488', 'http://www.wikidata.org/entity/Q104913410', 'http://www.wikidata.org/entity/Q105061739', 'http://www.wikidata.org/entity/Q105073069', 'http://www.wikidata.org/entity/Q105075451', 'http://www.wikidata.org/entity/Q105076580', 'http://www.wikidata.org/entity/Q105095089', 'http://www.wikidata.org/entity/Q105101971', 'http://www.wikidata.org/entity/Q105102366', 'http://www.wikidata.org/entity/Q10516040', 'http://www.wikidata.org/entity/Q10528248', 'http://www.wikidata.org/entity/Q105295869', 'http://www.wikidata.org/entity/Q105319496', 'http://www.wikidata.org/entity/Q105394701', 'http://www.wikidata.org/entity/Q105394854', 'http://www.wikidata.org/entity/Q1053971', 'http://www.wikidata.org/entity/Q1054452', 'http://www.wikidata.org/entity/Q105465865', 'http://www.wikidata.org/entity/Q105501473', 'http://www.wikidata.org/entity/Q105511602', 'http://www.wikidata.org/entity/Q1055229', 'http://www.wikidata.org/entity/Q105530574', 'http://www.wikidata.org/entity/Q105597690', 'http://www.wikidata.org/entity/Q105598193', 'http://www.wikidata.org/entity/Q105613985', 'http://www.wikidata.org/entity/Q105616787', 'http://www.wikidata.org/entity/Q105616887', 'http://www.wikidata.org/entity/Q105621654', 'http://www.wikidata.org/entity/Q105622399', 'http://www.wikidata.org/entity/Q105627627', 'http://www.wikidata.org/entity/Q105627986', 'http://www.wikidata.org/entity/Q105632314', 'http://www.wikidata.org/entity/Q1056335', 'http://www.wikidata.org/entity/Q105663189', 'http://www.wikidata.org/entity/Q1056746', 'http://www.wikidata.org/entity/Q105693693', 'http://www.wikidata.org/entity/Q105701719', 'http://www.wikidata.org/entity/Q105704426', 'http://www.wikidata.org/entity/Q105704718', 'http://www.wikidata.org/entity/Q105709929', 'http://www.wikidata.org/entity/Q105710324', 'http://www.wikidata.org/entity/Q105728225', 'http://www.wikidata.org/entity/Q105744446', 'http://www.wikidata.org/entity/Q105765131', 'http://www.wikidata.org/entity/Q1058595', 'http://www.wikidata.org/entity/Q105882549', 'http://www.wikidata.org/entity/Q105925605', 'http://www.wikidata.org/entity/Q105975296', 'http://www.wikidata.org/entity/Q1060867', 'http://www.wikidata.org/entity/Q106096201', 'http://www.wikidata.org/entity/Q106097330', 'http://www.wikidata.org/entity/Q106113679', 'http://www.wikidata.org/entity/Q1061731', 'http://www.wikidata.org/entity/Q1061776', 'http://www.wikidata.org/entity/Q106247442', 'http://www.wikidata.org/entity/Q106263580', 'http://www.wikidata.org/entity/Q106263585', 'http://www.wikidata.org/entity/Q106279', 'http://www.wikidata.org/entity/Q106298476', 'http://www.wikidata.org/entity/Q106328397', 'http://www.wikidata.org/entity/Q106328437', 'http://www.wikidata.org/entity/Q106328448', 'http://www.wikidata.org/entity/Q106338045', 'http://www.wikidata.org/entity/Q106339673', 'http://www.wikidata.org/entity/Q106448577', 'http://www.wikidata.org/entity/Q106451', 'http://www.wikidata.org/entity/Q106467716', 'http://www.wikidata.org/entity/Q106473444', 'http://www.wikidata.org/entity/Q106473512', 'http://www.wikidata.org/entity/Q106474', 'http://www.wikidata.org/entity/Q106486426', 'http://www.wikidata.org/entity/Q106512895', 'http://www.wikidata.org/entity/Q106512897', 'http://www.wikidata.org/entity/Q106514658', 'http://www.wikidata.org/entity/Q106519612', 'http://www.wikidata.org/entity/Q106522361', 'http://www.wikidata.org/entity/Q106524904', 'http://www.wikidata.org/entity/Q1065310', 'http://www.wikidata.org/entity/Q106588829', 'http://www.wikidata.org/entity/Q106603301', 'http://www.wikidata.org/entity/Q106616516', 'http://www.wikidata.org/entity/Q106625001', 'http://www.wikidata.org/entity/Q106627433', 'http://www.wikidata.org/entity/Q106627490', 'http://www.wikidata.org/entity/Q106627762', 'http://www.wikidata.org/entity/Q106635227', 'http://www.wikidata.org/entity/Q106637400', 'http://www.wikidata.org/entity/Q106641631', 'http://www.wikidata.org/entity/Q106646569', 'http://www.wikidata.org/entity/Q106658245', 'http://www.wikidata.org/entity/Q106660414', 'http://www.wikidata.org/entity/Q106671547', 'http://www.wikidata.org/entity/Q106671635', 'http://www.wikidata.org/entity/Q106671703', 'http://www.wikidata.org/entity/Q106677204', 'http://www.wikidata.org/entity/Q106677205', 'http://www.wikidata.org/entity/Q106677229', 'http://www.wikidata.org/entity/Q106677245', 'http://www.wikidata.org/entity/Q106680697', 'http://www.wikidata.org/entity/Q106682243', 'http://www.wikidata.org/entity/Q106683011', 'http://www.wikidata.org/entity/Q106714586', 'http://www.wikidata.org/entity/Q106718387', 'http://www.wikidata.org/entity/Q106719539', 'http://www.wikidata.org/entity/Q106720122', 'http://www.wikidata.org/entity/Q106743399', 'http://www.wikidata.org/entity/Q106774501', 'http://www.wikidata.org/entity/Q106778918', 'http://www.wikidata.org/entity/Q106781914', 'http://www.wikidata.org/entity/Q106782830', 'http://www.wikidata.org/entity/Q106806341', 'http://www.wikidata.org/entity/Q106817973', 'http://www.wikidata.org/entity/Q106817980', 'http://www.wikidata.org/entity/Q106818099', 'http://www.wikidata.org/entity/Q106818128', 'http://www.wikidata.org/entity/Q106818169', 'http://www.wikidata.org/entity/Q106818294', 'http://www.wikidata.org/entity/Q106818437', 'http://www.wikidata.org/entity/Q106818489', 'http://www.wikidata.org/entity/Q106818559', 'http://www.wikidata.org/entity/Q106818739', 'http://www.wikidata.org/entity/Q106818889', 'http://www.wikidata.org/entity/Q106819050', 'http://www.wikidata.org/entity/Q106819094', 'http://www.wikidata.org/entity/Q106819095', 'http://www.wikidata.org/entity/Q106819505', 'http://www.wikidata.org/entity/Q106825055', 'http://www.wikidata.org/entity/Q106825117', 'http://www.wikidata.org/entity/Q106834917', 'http://www.wikidata.org/entity/Q106834920', 'http://www.wikidata.org/entity/Q106838179', 'http://www.wikidata.org/entity/Q106838801', 'http://www.wikidata.org/entity/Q106851697', 'http://www.wikidata.org/entity/Q106858467', 'http://www.wikidata.org/entity/Q106906783', 'http://www.wikidata.org/entity/Q106928113', 'http://www.wikidata.org/entity/Q106960449', 'http://www.wikidata.org/entity/Q106961386', 'http://www.wikidata.org/entity/Q106963403', 'http://www.wikidata.org/entity/Q106963499', 'http://www.wikidata.org/entity/Q106977365', 'http://www.wikidata.org/entity/Q106977533', 'http://www.wikidata.org/entity/Q107027966', 'http://www.wikidata.org/entity/Q107075886', 'http://www.wikidata.org/entity/Q1070836', 'http://www.wikidata.org/entity/Q107092118', 'http://www.wikidata.org/entity/Q107093740', 'http://www.wikidata.org/entity/Q1071033', 'http://www.wikidata.org/entity/Q107118384', 'http://www.wikidata.org/entity/Q107124946', 'http://www.wikidata.org/entity/Q107151952', 'http://www.wikidata.org/entity/Q107152625', 'http://www.wikidata.org/entity/Q107178241', 'http://www.wikidata.org/entity/Q107178269', 'http://www.wikidata.org/entity/Q107185516', 'http://www.wikidata.org/entity/Q107185703', 'http://www.wikidata.org/entity/Q107203737', 'http://www.wikidata.org/entity/Q107207765', 'http://www.wikidata.org/entity/Q107210906', 'http://www.wikidata.org/entity/Q107228543', 'http://www.wikidata.org/entity/Q107253264', 'http://www.wikidata.org/entity/Q107262303', 'http://www.wikidata.org/entity/Q107285066', 'http://www.wikidata.org/entity/Q107287851', 'http://www.wikidata.org/entity/Q107287942', 'http://www.wikidata.org/entity/Q107301217', 'http://www.wikidata.org/entity/Q107302659', 'http://www.wikidata.org/entity/Q107305764', 'http://www.wikidata.org/entity/Q107309089', 'http://www.wikidata.org/entity/Q107313982', 'http://www.wikidata.org/entity/Q107313992', 'http://www.wikidata.org/entity/Q107314128', 'http://www.wikidata.org/entity/Q107315291', 'http://www.wikidata.org/entity/Q107325900', 'http://www.wikidata.org/entity/Q107327655', 'http://www.wikidata.org/entity/Q107331189', 'http://www.wikidata.org/entity/Q107337984', 'http://www.wikidata.org/entity/Q107344389', 'http://www.wikidata.org/entity/Q107354848', 'http://www.wikidata.org/entity/Q107354869', 'http://www.wikidata.org/entity/Q107355235', 'http://www.wikidata.org/entity/Q107355280', 'http://www.wikidata.org/entity/Q107363153', 'http://www.wikidata.org/entity/Q107363162', 'http://www.wikidata.org/entity/Q107369214', 'http://www.wikidata.org/entity/Q107369409', 'http://www.wikidata.org/entity/Q107369667', 'http://www.wikidata.org/entity/Q107378357', 'http://www.wikidata.org/entity/Q107378373', 'http://www.wikidata.org/entity/Q107378686', 'http://www.wikidata.org/entity/Q107380272', 'http://www.wikidata.org/entity/Q107380486', 'http://www.wikidata.org/entity/Q107413980', 'http://www.wikidata.org/entity/Q107419969', 'http://www.wikidata.org/entity/Q107422938', 'http://www.wikidata.org/entity/Q107428768', 'http://www.wikidata.org/entity/Q107429256', 'http://www.wikidata.org/entity/Q107440805', 'http://www.wikidata.org/entity/Q107504019', 'http://www.wikidata.org/entity/Q107504042', 'http://www.wikidata.org/entity/Q107504309', 'http://www.wikidata.org/entity/Q107504381', 'http://www.wikidata.org/entity/Q107506916', 'http://www.wikidata.org/entity/Q107507002', 'http://www.wikidata.org/entity/Q107507040', 'http://www.wikidata.org/entity/Q107507563', 'http://www.wikidata.org/entity/Q107521257', 'http://www.wikidata.org/entity/Q107528434', 'http://www.wikidata.org/entity/Q107530183', 'http://www.wikidata.org/entity/Q107539126', 'http://www.wikidata.org/entity/Q107549720', 'http://www.wikidata.org/entity/Q107556108', 'http://www.wikidata.org/entity/Q107585991', 'http://www.wikidata.org/entity/Q107586157', 'http://www.wikidata.org/entity/Q107586380', 'http://www.wikidata.org/entity/Q107588913', 'http://www.wikidata.org/entity/Q1075978', 'http://www.wikidata.org/entity/Q1075984', 'http://www.wikidata.org/entity/Q107605184', 'http://www.wikidata.org/entity/Q1076096', 'http://www.wikidata.org/entity/Q107620233', 'http://www.wikidata.org/entity/Q107635914', 'http://www.wikidata.org/entity/Q107635915', 'http://www.wikidata.org/entity/Q107636089', 'http://www.wikidata.org/entity/Q107636107', 'http://www.wikidata.org/entity/Q107636120', 'http://www.wikidata.org/entity/Q107636163', 'http://www.wikidata.org/entity/Q107636176', 'http://www.wikidata.org/entity/Q107638978', 'http://www.wikidata.org/entity/Q107638980', 'http://www.wikidata.org/entity/Q107639299', 'http://www.wikidata.org/entity/Q107640480', 'http://www.wikidata.org/entity/Q107652670', 'http://www.wikidata.org/entity/Q107663037', 'http://www.wikidata.org/entity/Q1076942', 'http://www.wikidata.org/entity/Q107698539', 'http://www.wikidata.org/entity/Q1077184', 'http://www.wikidata.org/entity/Q1077193', 'http://www.wikidata.org/entity/Q1077292', 'http://www.wikidata.org/entity/Q10773317', 'http://www.wikidata.org/entity/Q1077424', 'http://www.wikidata.org/entity/Q1077437', 'http://www.wikid</t>
+          <t>['http://www.wikidata.org/entity/Q100149428', 'http://www.wikidata.org/entity/Q100159428', 'http://www.wikidata.org/entity/Q100159740', 'http://www.wikidata.org/entity/Q100233973', 'http://www.wikidata.org/entity/Q100234056', 'http://www.wikidata.org/entity/Q100255739', 'http://www.wikidata.org/entity/Q100268106', 'http://www.wikidata.org/entity/Q100718552', 'http://www.wikidata.org/entity/Q100718566', 'http://www.wikidata.org/entity/Q100719358', 'http://www.wikidata.org/entity/Q100720834', 'http://www.wikidata.org/entity/Q100721176', 'http://www.wikidata.org/entity/Q100723552', 'http://www.wikidata.org/entity/Q100723716', 'http://www.wikidata.org/entity/Q100741864', 'http://www.wikidata.org/entity/Q100747188', 'http://www.wikidata.org/entity/Q100751464', 'http://www.wikidata.org/entity/Q100753561', 'http://www.wikidata.org/entity/Q100753967', 'http://www.wikidata.org/entity/Q100759002', 'http://www.wikidata.org/entity/Q100759458', 'http://www.wikidata.org/entity/Q100761605', 'http://www.wikidata.org/entity/Q100766876', 'http://www.wikidata.org/entity/Q100766896', 'http://www.wikidata.org/entity/Q100768753', 'http://www.wikidata.org/entity/Q100769398', 'http://www.wikidata.org/entity/Q100769656', 'http://www.wikidata.org/entity/Q100769714', 'http://www.wikidata.org/entity/Q100770818', 'http://www.wikidata.org/entity/Q100771309', 'http://www.wikidata.org/entity/Q100771698', 'http://www.wikidata.org/entity/Q100774597', 'http://www.wikidata.org/entity/Q100775493', 'http://www.wikidata.org/entity/Q100776047', 'http://www.wikidata.org/entity/Q100776321', 'http://www.wikidata.org/entity/Q100779909', 'http://www.wikidata.org/entity/Q100779924', 'http://www.wikidata.org/entity/Q100781781', 'http://www.wikidata.org/entity/Q100782988', 'http://www.wikidata.org/entity/Q100784464', 'http://www.wikidata.org/entity/Q100785232', 'http://www.wikidata.org/entity/Q100787706', 'http://www.wikidata.org/entity/Q100789903', 'http://www.wikidata.org/entity/Q100792158', 'http://www.wikidata.org/entity/Q100793447', 'http://www.wikidata.org/entity/Q100793756', 'http://www.wikidata.org/entity/Q100794271', 'http://www.wikidata.org/entity/Q100794996', 'http://www.wikidata.org/entity/Q100795231', 'http://www.wikidata.org/entity/Q100796414', 'http://www.wikidata.org/entity/Q100796580', 'http://www.wikidata.org/entity/Q100798031', 'http://www.wikidata.org/entity/Q100798302', 'http://www.wikidata.org/entity/Q100798640', 'http://www.wikidata.org/entity/Q100798922', 'http://www.wikidata.org/entity/Q100801342', 'http://www.wikidata.org/entity/Q100802268', 'http://www.wikidata.org/entity/Q100805424', 'http://www.wikidata.org/entity/Q100806402', 'http://www.wikidata.org/entity/Q100806617', 'http://www.wikidata.org/entity/Q100808900', 'http://www.wikidata.org/entity/Q100819704', 'http://www.wikidata.org/entity/Q100868390', 'http://www.wikidata.org/entity/Q100869366', 'http://www.wikidata.org/entity/Q100870520', 'http://www.wikidata.org/entity/Q100871090', 'http://www.wikidata.org/entity/Q100874361', 'http://www.wikidata.org/entity/Q100874765', 'http://www.wikidata.org/entity/Q100876161', 'http://www.wikidata.org/entity/Q100877072', 'http://www.wikidata.org/entity/Q100880911', 'http://www.wikidata.org/entity/Q100884422', 'http://www.wikidata.org/entity/Q100884743', 'http://www.wikidata.org/entity/Q100888756', 'http://www.wikidata.org/entity/Q100889736', 'http://www.wikidata.org/entity/Q100890360', 'http://www.wikidata.org/entity/Q100892340', 'http://www.wikidata.org/entity/Q100892958', 'http://www.wikidata.org/entity/Q100893004', 'http://www.wikidata.org/entity/Q100893220', 'http://www.wikidata.org/entity/Q100893856', 'http://www.wikidata.org/entity/Q100894411', 'http://www.wikidata.org/entity/Q100894417', 'http://www.wikidata.org/entity/Q100905529', 'http://www.wikidata.org/entity/Q100907217', 'http://www.wikidata.org/entity/Q100907395', 'http://www.wikidata.org/entity/Q100907778', 'http://www.wikidata.org/entity/Q100911168', 'http://www.wikidata.org/entity/Q100911312', 'http://www.wikidata.org/entity/Q100914058', 'http://www.wikidata.org/entity/Q100917187', 'http://www.wikidata.org/entity/Q100917336', 'http://www.wikidata.org/entity/Q100918539', 'http://www.wikidata.org/entity/Q100919123', 'http://www.wikidata.org/entity/Q100922723', 'http://www.wikidata.org/entity/Q100922847', 'http://www.wikidata.org/entity/Q100924163', 'http://www.wikidata.org/entity/Q100925349', 'http://www.wikidata.org/entity/Q100929792', 'http://www.wikidata.org/entity/Q100930247', 'http://www.wikidata.org/entity/Q100934497', 'http://www.wikidata.org/entity/Q100935310', 'http://www.wikidata.org/entity/Q100935721', 'http://www.wikidata.org/entity/Q100935989', 'http://www.wikidata.org/entity/Q100939038', 'http://www.wikidata.org/entity/Q100940712', 'http://www.wikidata.org/entity/Q100942674', 'http://www.wikidata.org/entity/Q1009435', 'http://www.wikidata.org/entity/Q100944889', 'http://www.wikidata.org/entity/Q100951898', 'http://www.wikidata.org/entity/Q100952898', 'http://www.wikidata.org/entity/Q100958614', 'http://www.wikidata.org/entity/Q100961111', 'http://www.wikidata.org/entity/Q100963772', 'http://www.wikidata.org/entity/Q100963834', 'http://www.wikidata.org/entity/Q100964085', 'http://www.wikidata.org/entity/Q100981581', 'http://www.wikidata.org/entity/Q100981767', 'http://www.wikidata.org/entity/Q100981910', 'http://www.wikidata.org/entity/Q100987430', 'http://www.wikidata.org/entity/Q100987618', 'http://www.wikidata.org/entity/Q101072753', 'http://www.wikidata.org/entity/Q101385200', 'http://www.wikidata.org/entity/Q102007152', 'http://www.wikidata.org/entity/Q102282451', 'http://www.wikidata.org/entity/Q102400266', 'http://www.wikidata.org/entity/Q10261637', 'http://www.wikidata.org/entity/Q102955', 'http://www.wikidata.org/entity/Q10307612', 'http://www.wikidata.org/entity/Q1032471', 'http://www.wikidata.org/entity/Q1032693', 'http://www.wikidata.org/entity/Q1034012', 'http://www.wikidata.org/entity/Q1039453', 'http://www.wikidata.org/entity/Q104165992', 'http://www.wikidata.org/entity/Q104166462', 'http://www.wikidata.org/entity/Q104361', 'http://www.wikidata.org/entity/Q104375', 'http://www.wikidata.org/entity/Q104870461', 'http://www.wikidata.org/entity/Q105101971', 'http://www.wikidata.org/entity/Q105102366', 'http://www.wikidata.org/entity/Q105394701', 'http://www.wikidata.org/entity/Q1053971', 'http://www.wikidata.org/entity/Q105465865', 'http://www.wikidata.org/entity/Q105501473', 'http://www.wikidata.org/entity/Q1055229', 'http://www.wikidata.org/entity/Q105622399', 'http://www.wikidata.org/entity/Q105632314', 'http://www.wikidata.org/entity/Q1056335', 'http://www.wikidata.org/entity/Q1056746', 'http://www.wikidata.org/entity/Q1058595', 'http://www.wikidata.org/entity/Q1061731', 'http://www.wikidata.org/entity/Q1061776', 'http://www.wikidata.org/entity/Q106279', 'http://www.wikidata.org/entity/Q106338045', 'http://www.wikidata.org/entity/Q106448577', 'http://www.wikidata.org/entity/Q106451', 'http://www.wikidata.org/entity/Q106473444', 'http://www.wikidata.org/entity/Q106519612', 'http://www.wikidata.org/entity/Q106524904', 'http://www.wikidata.org/entity/Q106616516', 'http://www.wikidata.org/entity/Q106627490', 'http://www.wikidata.org/entity/Q106635227', 'http://www.wikidata.org/entity/Q106660414', 'http://www.wikidata.org/entity/Q106671635', 'http://www.wikidata.org/entity/Q106671703', 'http://www.wikidata.org/entity/Q106677205', 'http://www.wikidata.org/entity/Q106680697', 'http://www.wikidata.org/entity/Q106720122', 'http://www.wikidata.org/entity/Q106778918', 'http://www.wikidata.org/entity/Q106781914', 'http://www.wikidata.org/entity/Q106806341', 'http://www.wikidata.org/entity/Q106817973', 'http://www.wikidata.org/entity/Q106818099', 'http://www.wikidata.org/entity/Q106818169', 'http://www.wikidata.org/entity/Q106818559', 'http://www.wikidata.org/entity/Q106818739', 'http://www.wikidata.org/entity/Q106825117', 'http://www.wikidata.org/entity/Q106963403', 'http://www.wikidata.org/entity/Q106963499', 'http://www.wikidata.org/entity/Q106977533', 'http://www.wikidata.org/entity/Q107093740', 'http://www.wikidata.org/entity/Q107118384', 'http://www.wikidata.org/entity/Q107151952', 'http://www.wikidata.org/entity/Q107152625', 'http://www.wikidata.org/entity/Q107178241', 'http://www.wikidata.org/entity/Q107178269', 'http://www.wikidata.org/entity/Q107185703', 'http://www.wikidata.org/entity/Q107207765', 'http://www.wikidata.org/entity/Q107253264', 'http://www.wikidata.org/entity/Q107287851', 'http://www.wikidata.org/entity/Q107287942', 'http://www.wikidata.org/entity/Q107305764', 'http://www.wikidata.org/entity/Q107309089', 'http://www.wikidata.org/entity/Q107314128', 'http://www.wikidata.org/entity/Q107327655', 'http://www.wikidata.org/entity/Q107337984', 'http://www.wikidata.org/entity/Q107344389', 'http://www.wikidata.org/entity/Q107355280', 'http://www.wikidata.org/entity/Q107363162', 'http://www.wikidata.org/entity/Q107369214', 'http://www.wikidata.org/entity/Q107378373', 'http://www.wikidata.org/entity/Q107419969', 'http://www.wikidata.org/entity/Q107422938', 'http://www.wikidata.org/entity/Q107504019', 'http://www.wikidata.org/entity/Q107504309', 'http://www.wikidata.org/entity/Q107530183', 'http://www.wikidata.org/entity/Q107549720', 'http://www.wikidata.org/entity/Q107585991', 'http://www.wikidata.org/entity/Q107586380', 'http://www.wikidata.org/entity/Q107588913', 'http://www.wikidata.org/entity/Q1075978', 'http://www.wikidata.org/entity/Q1075984', 'http://www.wikidata.org/entity/Q1076942', 'http://www.wikidata.org/entity/Q1077184', 'http://www.wikidata.org/entity/Q1077193', 'http://www.wikidata.org/entity/Q1077292', 'http://www.wikidata.org/entity/Q1077437', 'http://www.wikidata.org/entity/Q107752619', 'http://www.wikidata.org/entity/Q1077607', 'http://www.wikidata.org/entity/Q1077613', 'http://www.wikidata.org/entity/Q1077634', 'http://www.wikidata.org/entity/Q108112686', 'http://www.wikidata.org/entity/Q108113174', 'http://www.wikidata.org/entity/Q108152227', 'http://www.wikidata.org/entity/Q108170613', 'http://www.wikidata.org/entity/Q1081976', 'http://www.wikidata.org/entity/Q108291', 'http://www.wikidata.org/entity/Q108293322', 'http://www.wikidata.org/entity/Q1082954', 'http://www.wikidata.org/entity/Q108307199', 'http://www.wikidata.org/entity/Q10831393', 'http://www.wikidata.org/entity/Q108314957', 'http://www.wikidata.org/entity/Q108333', 'http://www.wikidata.org/entity/Q108444645', 'http://www.wikidata.org/entity/Q108464191', 'http://www.wikidata.org/entity/Q108502580', 'http://www.wikidata.org/entity/Q108560985', 'http://www.wikidata.org/entity/Q108561381', 'http://www.wikidata.org/entity/Q108650400', 'http://www.wikidata.org/entity/Q108697360', 'http://www.wikidata.org/entity/Q1086985', 'http://www.wikidata.org/entity/Q108733631', 'http://www.wikidata.org/entity/Q108757835', 'http://www.wikidata.org/entity/Q108761974', 'http://www.wikidata.org/entity/Q10877291', 'http://www.wikidata.org/entity/Q108809817', 'http://www.wikidata.org/entity/Q108822235', 'http://www.wikidata.org/entity/Q108823000', 'http://www.wikidata.org/entity/Q108858175', 'http://www.wikidata.org/entity/Q108870659', 'http://www.wikidata.org/entity/Q108915542', 'http://www.wikidata.org/entity/Q1089188', 'http://www.wikidata.org/entity/Q10917065', 'http://www.wikidata.org/entity/Q1091785', 'http://www.wikidata.org/entity/Q109336431', 'http://www.wikidata.org/entity/Q1093458', 'http://www.wikidata.org/entity/Q109425776', 'http://www.wikidata.org/entity/Q109463904', 'http://www.wikidata.org/entity/Q109468740', 'http://www.wikidata.org/entity/Q109524417', 'http://www.wikidata.org/entity/Q109540571', 'http://www.wikidata.org/entity/Q109540589', 'http://www.wikidata.org/entity/Q109544933', 'http://www.wikidata.org/entity/Q109553878', 'http://www.wikidata.org/entity/Q109728722', 'http://www.wikidata.org/entity/Q1097554', 'http://www.wikidata.org/entity/Q109780503', 'http://www.wikidata.org/entity/Q109780810', 'http://www.wikidata.org/entity/Q109829337', 'http://www.wikidata.org/entity/Q109829404', 'http://www.wikidata.org/entity/Q10983515', 'http://www.wikidata.org/entity/Q109851380', 'http://www.wikidata.org/entity/Q109853277', 'http://www.wikidata.org/entity/Q109933627', 'http://www.wikidata.org/entity/Q109967900', 'http://www.wikidata.org/entity/Q109983648', 'http://www.wikidata.org/entity/Q110024215', 'http://www.wikidata.org/entity/Q110070283', 'http://www.wikidata.org/entity/Q1101335', 'http://www.wikidata.org/entity/Q11019119', 'http://www.wikidata.org/entity/Q1102088', 'http://www.wikidata.org/entity/Q110252034', 'http://www.wikidata.org/entity/Q110271131', 'http://www.wikidata.org/entity/Q110322226', 'http://www.wikidata.org/entity/Q1103788', 'http://www.wikidata.org/entity/Q1103821', 'http://www.wikidata.org/entity/Q110457791', 'http://www.wikidata.org/entity/Q110546841', 'http://www.wikidata.org/entity/Q110619093', 'http://www.wikidata.org/entity/Q110619637', 'http://www.wikidata.org/entity/Q110637006', 'http://www.wikidata.org/entity/Q110664194', 'http://www.wikidata.org/entity/Q110914467', 'http://www.wikidata.org/entity/Q110983769', 'http://www.wikidata.org/entity/Q111008', 'http://www.wikidata.org/entity/Q111025353', 'http://www.wikidata.org/entity/Q111025906', 'http://www.wikidata.org/entity/Q111031599', 'http://www.wikidata.org/entity/Q111049849', 'http://www.wikidata.org/entity/Q111049873', 'http://www.wikidata.org/entity/Q111049881', 'http://www.wikidata.org/entity/Q111049894', 'http://www.wikidata.org/entity/Q1111021', 'http://www.wikidata.org/entity/Q1111167', 'http://www.wikidata.org/entity/Q1111983', 'http://www.wikidata.org/entity/Q1112016', 'http://www.wikidata.org/entity/Q1112771', 'http://www.wikidata.org/entity/Q1112996', 'http://www.wikidata.org/entity/Q1113963', 'http://www.wikidata.org/entity/Q1114256', 'http://www.wikidata.org/entity/Q111508849', 'http://www.wikidata.org/entity/Q1115784', 'http://www.wikidata.org/entity/Q1115975', 'http://www.wikidata.org/entity/Q1116123', 'http://www.wikidata.org/entity/Q111631232', 'http://www.wikidata.org/entity/Q111765767', 'http://www.wikidata.org/entity/Q1117816', 'http://www.wikidata.org/entity/Q1118250', 'http://www.wikidata.org/entity/Q1119099', 'http://www.wikidata.org/entity/Q1119288', 'http://www.wikidata.org/entity/Q112062135', 'http://www.wikidata.org/entity/Q112073280', 'http://www.wikidata.org/entity/Q112080040', 'http://www.wikidata.org/entity/Q1120880', 'http://www.wikidata.org/entity/Q112148353', 'http://www.wikidata.org/entity/Q112183592', 'http://www.wikidata.org/entity/Q112435', 'http://www.wikidata.org/entity/Q112449', 'http://www.wikidata.org/entity/Q1125388', 'http://www.wikidata.org/entity/Q1125913', 'http://www.wikidata.org/entity/Q1125990', 'http://www.wikidata.org/entity/Q112625459', 'http://www.wikidata.org/entity/Q1126347', 'http://www.wikidata.org/entity/Q112659357', 'http://www.wikidata.org/entity/Q112687854', 'http://www.wikidata.org/entity/Q112726895', 'http://www.wikidata.org/entity/Q112894312', 'http://www.wikidata.org/entity/Q11289612', 'http://www.wikidata.org/entity/Q112913802', 'http://www.wikidata.org/entity/Q11299322', 'http://www.wikidata.org/entity/Q11299342', 'http://www.wikidata.org/entity/Q113112644', 'http://www.wikidata.org/entity/Q113202398', 'http://www.wikidata.org/entity/Q113214570', 'http://www.wikidata.org/entity/Q113215147', 'http://www.wikidata.org/entity/Q1132365', 'http://www.wikidata.org/entity/Q1132507', 'http://www.wikidata.org/entity/Q1132527', 'http://www.wikidata.org/entity/Q1132528', 'http://www.wikidata.org/entity/Q1132658', 'http://www.wikidata.org/entity/Q1132738', 'http://www.wikidata.org/entity/Q1132834', 'http://www.wikidata.org/entity/Q113291458', 'http://www.wikidata.org/entity/Q113292358', 'http://www.wikidata.org/entity/Q113292554', 'http://www.wikidata.org/entity/Q113292603', 'http://www.wikidata.org/entity/Q113298428', 'http://www.wikidata.org/entity/Q1134048', 'http://www.wikidata.org/entity/Q1134258', 'http://www.wikidata.org/entity/Q113494597', 'http://www.wikidata.org/entity/Q113549293', 'http://www.wikidata.org/entity/Q113566316', 'http://www.wikidata.org/entity/Q113569', 'http://www.wikidata.org/entity/Q113576', 'http://www.wikidata.org/entity/Q113649755', 'http://www.wikidata.org/entity/Q113661680', 'http://www.wikidata.org/entity/Q113674416', 'http://www.wikidata.org/entity/Q11379850', 'http://www.wikidata.org/entity/Q1138128', 'http://www.wikidata.org/entity/Q1138514', 'http://www.wikidata.org/entity/Q1138783', 'http://www.wikidata.org/entity/Q11401248', 'http://www.wikidata.org/entity/Q114032183', 'http://www.wikidata.org/entity/Q114045156', 'http://www.wikidata.org/entity/Q1141637', 'http://www.wikidata.org/entity/Q1142331', 'http://www.wikidata.org/entity/Q114349752', 'http://www.wikidata.org/entity/Q114566945', 'http://www.wikidata.org/entity/Q114667692', 'http://www.wikidata.org/entity/Q1147376', 'http://www.wikidata.org/entity/Q114857113', 'http://www.wikidata.org/entity/Q114863064', 'http://www.wikidata.org/entity/Q11500583', 'http://www.wikidata.org/entity/Q1150317', 'http://www.wikidata.org/entity/Q115102703', 'http://www.wikidata.org/entity/Q1151037', 'http://www.wikidata.org/entity/Q115119808', 'http://www.wikidata.org/entity/Q115154999', 'http://www.wikidata.org/entity/Q115161001', 'http://www.wikidata.org/entity/Q115161434', 'http://www.wikidata.org/entity/Q1152506', 'http://www.wikidata.org/entity/Q115475940', 'http://www.wikidata.org/entity/Q115581265', 'http://www.wikidata.org/entity/Q115629', 'http://www.wikidata.org/entity/Q115634', 'http://www.wikidata.org/entity/Q115722', 'http://www.wikidata.org/entity/Q1159084', 'http://www.wikidata.org/entity/Q115915', 'http://www.wikidata.org/entity/Q1160342', 'http://www.wikidata.org/entity/Q116037', 'http://www.wikidata.org/entity/Q116176311', 'http://www.wikidata.org/entity/Q116176433', 'http://www.wikidata.org/entity/Q116185196', 'http://www.wikidata.org/entity/Q116186160', 'http://www.wikidata.org/entity/Q116189529', 'http://www.wikidata.org/entity/Q116195972', 'http://www.wikidata.org/entity/Q116198', 'http://www.wikidata.org/entity/Q116198940', 'http://www.wikidata.org/entity/Q116254', 'http://www.wikidata.org/entity/Q116257813', 'http://www.wikidata.org/entity/Q116431030', 'http://www.wikidata.org/entity/Q1164595', 'http://www.wikidata.org/entity/Q116551', 'http://www.wikidata.org/entity/Q1165980', 'http://www.wikidata.org/entity/Q1166617', 'http://www.wikidata.org/entity/Q116699', 'http://www.wikidata.org/entity/Q116783152', 'http://www.wikidata.org/entity/Q11685267', 'http://www.wikidata.org/entity/Q11693116', 'http://www.wikidata.org/entity/Q11699292', 'http://www.wikidata.org/entity/Q11699400', 'http://www.wikidata.org/entity/Q11702775', 'http://www.wikidata.org/entity/Q117037725', 'http://www.wikidata.org/entity/Q117038081', 'http://www.wikidata.org/entity/Q1170394', 'http://www.wikidata.org/entity/Q11716504', 'http://www.wikidata.org/entity/Q11720871', 'http://www.wikidata.org/entity/Q11721059', 'http://www.wikidata.org/entity/Q117220242', 'http://www.wikidata.org/entity/Q11722423', 'http://www.wikidata.org/entity/Q11722534', 'http://www.wikidata.org/entity/Q11724895', 'http://www.wikidata.org/entity/Q11727964', 'http://www.wikidata.org/entity/Q1173006', 'http://www.wikidata.org/entity/Q117348117', 'http://www.wikidata.org/entity/Q117350394', 'http://www.wikidata.org/entity/Q117360100', 'http://www.wikidata.org/entity/Q11739472', 'http://www.wikidata.org/entity/Q11743625', 'http://www.wikidata.org/entity/Q11748193', 'http://www.wikidata.org/entity/Q11748226', 'http://www.wikidata.org/entity/Q11749180', 'http://www.wikidata.org/entity/Q11749793', 'http://www.wikidata.org/entity/Q11753337', 'http://www.wikidata.org/entity/Q11754931', 'http://www.wikidata.org/entity/Q11754983', 'http://www.wikidata.org/entity/Q11765656', 'http://www.wikidata.org/entity/Q11767971', 'http://www.wikidata.org/entity/Q11768324', 'http://www.wikidata.org/entity/Q11768382', 'http://www.wikidata.org/entity/Q11768625', 'http://www.wikidata.org/entity/Q11770209', 'http://www.wikidata.org/entity/Q11770367', 'http://www.wikidata.org/entity/Q11771408', 'http://www.wikidata.org/entity/Q11778743', 'http://www.wikidata.org/entity/Q11778794', 'http://www.wikidata.org/entity/Q11779346', 'http://www.wikidata.org/entity/Q11781314', 'http://www.wikidata.org/entity/Q11781980', 'http://www.wikidata.org/entity/Q1178241', 'http://www.wikidata.org/entity/Q11790090', 'http://www.wikidata.org/entity/Q11791016', 'http://www.wikidata.org/entity/Q1179612', 'http://www.wikidata.org/entity/Q11798199', 'http://www.wikidata.org/entity/Q118067', 'http://www.wikidata.org/entity/Q11813536', 'http://www.wikidata.org/entity/Q11813953', 'http://www.wikidata.org/entity/Q11813969', 'http://www.wikidata.org/entity/Q11814182', 'http://www.wikidata.org/entity/Q11814272', 'http://www.wikidata.org/entity/Q11814493', 'http://www.wikidata.org/entity/Q11817884', 'http://www.wikidata.org/entity/Q11818115', 'http://www.wikidata.org/entity/Q11818159', 'http://www.wikidata.org/entity/Q118235978', 'http://www.wikidata.org/entity/Q11833807', 'http://www.wikidata.org/entity/Q11835010', 'http://www.wikidata.org/entity/Q11857841', 'http://www.wikidata.org/entity/Q118842860', 'http://www.wikidata.org/entity/Q1188603', 'http://www.wikidata.org/entity/Q11891970', 'http://www.wikidata.org/entity/Q11892200', 'http://www.wikidata.org/entity/Q1189243', 'http://www.wikidata.org/entity/Q118929123', 'http://www.wikidata.org/entity/Q1189516', 'http://www.wikidata.org/entity/Q119478026', 'http://www.wikidata.org/entity/Q1195813', 'http://www.wikidata.org/entity/Q1200325', 'http://www.wikidata.org/entity/Q1200330', 'http://www.wikidata.org/entity/Q1200332', 'http://www.wikidata.org/entity/Q120098', 'http://www.wikidata.org/entity/Q12023140', 'http://www.wikidata.org/entity/Q12058834', 'http://www.wikidata.org/entity/Q1206898', 'http://www.wikidata.org/entity/Q120758808', 'http://www.wikidata.org/entity/Q121345616', 'http://www.wikidata.org/entity/Q121509892', 'http://www.wikidata.org/entity/Q121647', 'http://www.wikidata.org/entity/Q121819110', 'http://www.wikidata.org/entity/Q1225976', 'http://www.wikidata.org/entity/Q1226046', 'http://www.wikidata.org/entity/Q122618263', 'http://www.wikidata.org/entity/Q12269620', 'http://www.wikidata.org/entity/Q1227980', 'http://www.wikidata.org/entity/Q122906791', 'http://www.wikidata.org/entity/Q122917377', 'http://www.wikidata.org/entity/Q122920596', 'http://www.wikidata.org/entity/Q122943752', 'http://www.wikidata.org/entity/Q122952', 'http://www.wikidata.org/entity/Q123040', 'http://www.wikidata.org/entity/Q123146620', 'http://www.wikidata.org/entity/Q123248759', 'http://www.wikidata.org/entity/Q123248763', 'http://www.wikidata.org/entity/Q123248782', 'http://www.wikidata.org/entity/Q123248783', 'http://www.wikidata.org/entity/Q123258476', 'http://www.wikidata.org/entity/Q123258478', 'http://www.wikidata.org/entity/Q123259128', 'http://www.wikidata.org/entity/Q123335401', 'http://www.wikidata.org/entity/Q123379966', 'http://www.wikidata.org/entity/Q12360491', 'http://www.wikidata.org/entity/Q123684928', 'http://www.wikidata.org/entity/Q123741611', 'http://www.wikidata.org/entity/Q1238103', 'http://www.wikidata.org/entity/Q12387305', 'http://www.wikidata.org/entity/Q124048598', 'http://www.wikidata.org/entity/Q124131733', 'http://www.wikidata.org/entity/Q1242197', 'http://www.wikidata.org/entity/Q124328139', 'http://www.wikidata.org/entity/Q124540519', 'http://www.wikidata.org/entity/Q124620825', 'http://www.wikidata.org/entity/Q124637208', 'http://www.wikidata.org/entity/Q124694773', 'http://www.wikidata.org/entity/Q124694878', 'http://www.wikidata.org/entity/Q125017196', 'http://www.wikidata.org/entity/Q125080586', 'http://www.wikidata.org/entity/Q1254600', 'http://www.wikidata.org/entity/Q125563664', 'http://www.wikidata.org/entity/Q125563895', 'http://www.wikidata.org/entity/Q125563998', 'http://www.wikidata.org/entity/Q125569524', 'http://www.wikidata.org/entity/Q126114396', 'http://www.wikidata.org/entity/Q12633139', 'http://www.wikidata.org/entity/Q12633230', 'http://www.wikidata.org/entity/Q12641301', 'http://www.wikidata.org/entity/Q12643733', 'http://www.wikidata.org/entity/Q1264436', 'http://www.wikidata.org/entity/Q126487461', 'http://www.wikidata.org/entity/Q126487462', 'http://www.wikidata.org/entity/Q12649488', 'http://www.wikidata.org/entity/Q12659740', 'http://www.wikidata.org/entity/Q1267570', 'http://www.wikidata.org/entity/Q1267622', 'http://www.wikidata.org/entity/Q126923070', 'http://www.wikidata.org/entity/Q126947594', 'http://www.wikidata.org/entity/Q1270684', 'http://www.wikidata.org/entity/Q1273047', 'http://www.wikidata.org/entity/Q12749074', 'http://www.wikidata.org/entity/Q127561', 'http://www.wikidata.org/entity/Q12756207', 'http://www.wikidata.org/entity/Q1277708', 'http://www.wikidata.org/entity/Q1279010', 'http://www.wikidata.org/entity/Q127925147', 'http://www.wikidata.org/entity/Q1279973', 'http://www.wikidata.org/entity/Q128188', 'http://www.wikidata.org/entity/Q1282320', 'http://www.wikidata.org/entity/Q1282809', 'http://www.wikidata.org/entity/Q128530', 'http://www.wikidata.org/entity/Q12858621', 'http://www.wikidata.org/entity/Q1286476', 'http://www.wikidata.org/entity/Q12875341', 'http://www.wikidata.org/entity/Q12880385', 'http://www.wikidata.org/entity/Q1289729', 'http://www.wikidata.org/entity/Q129041', 'http://www.wikidata.org/entity/Q12911186', 'http://www.wikidata.org/entity/Q1291124', 'http://www.wikidata.org/entity/Q1292529', 'http://www.wikidata.org/entity/Q1293573', 'http://www.wikidata.org/entity/Q1296648', 'http://www.wikidata.org/entity/Q12981769', 'http://www.wikidata.org/entity/Q130215388', 'http://www.wikidata.org/entity/Q130221109', 'http://www.wikidata.org/entity/Q130240633', 'http://www.wikidata.org/entity/Q130242077', 'http://www.wikidata.org/entity/Q130298106', 'http://www.wikidata.org/entity/Q1314733', 'http://www.wikidata.org/entity/Q131942', 'http://www.wikidata.org/entity/Q132208', 'http://www.wikidata.org/entity/Q1327649', 'http://www.wikidata.org/entity/Q1328504', 'http://www.wikidata.org/entity/Q1332856', 'http://www.wikidata.org/entity/Q1334238', 'http://www.wikidata.org/entity/Q1336737', 'http://www.wikidata.org/entity/Q1338315', 'http://www.wikidata.org/entity/Q1339658', 'http://www.wikidata.org/entity/Q13410394', 'http://www.wikidata.org/entity/Q13416839', 'http://www.wikidata.org/entity/Q134183', 'http://www.wikidata.org/entity/Q1343292', 'http://www.wikidata.org/entity/Q13464007', 'http://www.wikidata.org/entity/Q135109', 'http://www.wikidata.org/entity/Q13512907', 'http://www.wikidata.org/entity/Q13515766', 'http://www.wikidata.org/entity/Q135167', 'http://www.wikidata.org/entity/Q1351678', 'http://www.wikidata.org/entity/Q1353620', 'http://www.wikidata.org/entity/Q1355070', 'http://www.wikidata.org/entity/Q13561021', 'http://www.wikidata.org/entity/Q13563911', 'http://www.wikidata.org/entity/Q1356519', 'http://www.wikidata.org/entity/Q13582445', 'http://www.wikidata.org/entity/Q1358452', 'http://www.wikidata.org/entity/Q1359588', 'http://www.wikidata.org/entity/Q13605907', 'http://www.wikidata.org/entity/Q13605931', 'http://www.wikidata.org/entity/Q13605936', 'http://www.wikidata.org/entity/Q13605944', 'http://www.wikidata.org/entity/Q13605975', 'http://www.wikidata.org/entity/Q13605982', 'http://www.wikidata.org/entity/Q13606007', 'http://www.wikidata.org/entity/Q1361081', 'http://www.wikidata.org/entity/Q1362580', 'http://www.wikidata.org/entity/Q1362664', 'http://www.wikidata.org/entity/Q1362904', 'http://www.wikidata.org/entity/Q1363177', 'http://www.wikidata.org/entity/Q1363787', 'http://www.wikidata.org/entity/Q1363884', 'http://www.wikidata.org/entity/Q1363974', 'http://www.wikidata.org/entity/Q1364009', 'http://www.wikidata.org/entity/Q1364223', 'http://www.wikidata.org/entity/Q1365630', 'http://www.wikidata.org/entity/Q1365645', 'http://www.wikidata.org/entity/Q1366501', 'http://www.wikidata.org/entity/Q1370831', 'http://www.wikidata.org/entity/Q13708767', 'http://www.wikidata.org/entity/Q13709114', 'http://www.wikidata.org/entity/Q1370925', 'http://www.wikidata.org/entity/Q1371485', 'http://www.wikidata.org/entity/Q1373712', 'http://www.wikidata.org/entity/Q137450', 'http://www.wikidata.org/entity/Q1375461', 'http://www.wikidata.org/entity/Q1375950', 'http://www.wikidata.org/entity/Q1377443', 'http://www.wikidata.org/entity/Q1380489', 'http://www.wikidata.org/entity/Q1380719', 'http://www.wikidata.org/entity/Q1381445', 'http://www.wikidata.org/entity/Q1381732', 'http://www.wikidata.org/entity/Q13860876', 'http://www.wikidata.org/entity/Q13876407', 'http://www.wikidata.org/entity/Q1387820', 'http://www.wikidata.org/entity/Q13899976', 'http://www.wikidata.org/entity/Q1390262', 'http://www.wikidata.org/entity/Q1392517', 'http://www.wikidata.org/entity/Q13930506', 'http://www.wikidata.org/entity/Q13930814', 'http://www.wikidata.org/entity/Q1393378', 'http://www.wikidata.org/entity/Q1393433', 'http://www.wikidata.org/entity/Q139376', 'http://www.wikidata.org/entity/Q1398536', 'http://www.wikidata.org/entity/Q1401783', 'http://www.wikidata.org/entity/Q1406261', 'http://www.wikidata.org/entity/Q14073727', 'http://www.wikidata.org/entity/Q1407902', 'http://www.wikidata.org/entity/Q1408291', 'http://www.wikidata.org/entity/Q14088570', 'http://www.wikidata.org/entity/Q1413920', 'http://www.wikidata.org/entity/Q14163514', 'http://www.wikidata.org/entity/Q14172158', 'http://www.wikidata.org/entity/Q14172238', 'http://www.wikidata.org/entity/Q1421720', 'http://www.wikidata.org/entity/Q142214', 'http://www.wikidata.org/entity/Q1422575', 'http://www.wikidata.org/entity/Q1424128', 'http://www.wikidata.org/entity/Q1424134', 'http://www.wikidata.org/entity/Q1424165', 'http://www.wikidata.org/entity/Q1424414', 'http://www.wikidata.org/entity/Q1424455', 'http://www.wikidata.org/entity/Q1424462', 'http://www.wikidata.org/entity/Q1424475', 'http://www.wikidata.org/entity/Q1424495', 'http://www.wikidata.org/entity/Q1424502', 'http://www.wikidata.org/entity/Q1429702', 'http://www.wikidata.org/entity/Q14320215', 'http://www.wikidata.org/entity/Q14324145', 'http://www.wikidata.org/entity/Q14324284', 'http://www.wikidata.org/entity/Q14324339', 'http://www.wikidata.org/entity/Q14324358', 'http://www.wikidata.org/entity/Q14324364', 'http://www.wikidata.org/entity/Q14325764', 'http://www.wikidata.org/entity/Q14325768', 'http://www.wikidata.org/entity/Q1432596', 'http://www.wikidata.org/entity/Q14326804', 'http://www.wikidata.org/entity/Q14327036', 'http://www.wikidata.org/entity/Q14327270', 'http://www.wikidata.org/entity/Q14327391', 'http://www.wikidata.org/entity/Q14327750', 'http://www.wikidata.org/entity/Q14329123', 'http://www.wikidata.org/entity/Q14329138', 'http://www.wikidata.org/entity/Q14329365', 'http://www.wikidata.org/entity/Q14329497', 'http://www.wikidata.org/entity/Q14329695', 'http://www.wikidata.org/entity/Q14330245', 'http://www.wikidata.org/entity/Q14330465', 'http://www.wikidata.org/entity/Q14330469', 'http://www.wikidata.org/entity/Q1435883', 'http://www.wikidata.org/entity/Q1438347', 'http://www.wikidata.org/entity/Q1438348', 'http://www.wikidata.org/entity/Q1439529', 'http://www.wikidata.org/entity/Q1439541', 'http://www.wikidata.org/entity/Q14399923', 'http://www.wikidata.org/entity/Q1440606', 'http://www.wikidata.org/entity/Q1441343', 'http://www.wikidata.org/entity/Q1441397', 'http://www.wikidata.org/entity/Q1441492', 'http://www.wikidata.org/entity/Q1441499', 'http://www.wikidata.org/entity/Q1442053', 'http://www.wikidata.org/entity/Q1442329', 'http://www.wikidata.org/entity/Q14425572', 'http://www.wikidata.org/entity/Q14427097', 'http://www.wikidata.org/entity/Q14432081', 'http://www.wikidata.org/entity/Q1444910', 'http://www.wikidata.org/entity/Q1444934', 'http://www.wikidata.org/entity/Q1445196', 'http://www.wikidata.org/entity/Q1445455', 'http://www.wikidata.org/entity/Q1445762', 'http://www.wikidata.org/entity/Q1445827', 'http://www.wikidata.org/entity/Q144703', 'http://www.wikidata.org/entity/Q1449836', 'http://www.wikidata.org/entity/Q1449882', 'http://www.wikidata.org/entity/Q1452892', 'http://www.wikidata.org/entity/Q1453383', 'http://www.wikidata.org/entity/Q1454479', 'http://www.wikidata.org/entity/Q1455079', 'http://www.wikidata.org/entity/Q1458225', 'http://www.wikidata.org/entity/Q1458255', 'http://www.wikidata.org/entity/Q1458276', 'http://www.wikidata.org/entity/Q1458282', 'http://www.wikidata.org/entity/Q1458307', 'http://www.wikidata.org/entity/Q1458320', 'http://www.wikidata.org/entity/Q1458331', 'http://www.wikidata.org/entity/Q1458344', 'http://www.wikidata.org/entity/Q1458359', 'http://www.wikidata.org/entity/Q145840</t>
         </is>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -918,80 +918,140 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>What is the capital of Cameroon?</t>
+          <t>Which soccer players were born on Malta?</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q3808']</t>
+          <t>['http://www.wikidata.org/entity/Q100151816', 'http://www.wikidata.org/entity/Q101490959', 'http://www.wikidata.org/entity/Q101492327', 'http://www.wikidata.org/entity/Q1042258', 'http://www.wikidata.org/entity/Q10474461', 'http://www.wikidata.org/entity/Q10509157', 'http://www.wikidata.org/entity/Q105118495', 'http://www.wikidata.org/entity/Q10558160', 'http://www.wikidata.org/entity/Q106228741', 'http://www.wikidata.org/entity/Q1065590', 'http://www.wikidata.org/entity/Q107128661', 'http://www.wikidata.org/entity/Q1096922', 'http://www.wikidata.org/entity/Q1173914', 'http://www.wikidata.org/entity/Q124285622', 'http://www.wikidata.org/entity/Q125118333', 'http://www.wikidata.org/entity/Q125397277', 'http://www.wikidata.org/entity/Q129674231', 'http://www.wikidata.org/entity/Q1356211', 'http://www.wikidata.org/entity/Q1371542', 'http://www.wikidata.org/entity/Q1453597', 'http://www.wikidata.org/entity/Q1507832', 'http://www.wikidata.org/entity/Q15966855', 'http://www.wikidata.org/entity/Q16146513', 'http://www.wikidata.org/entity/Q16163013', 'http://www.wikidata.org/entity/Q16214810', 'http://www.wikidata.org/entity/Q1648234', 'http://www.wikidata.org/entity/Q1655475', 'http://www.wikidata.org/entity/Q16598377', 'http://www.wikidata.org/entity/Q1685756', 'http://www.wikidata.org/entity/Q1686437', 'http://www.wikidata.org/entity/Q16944482', 'http://www.wikidata.org/entity/Q16977455', 'http://www.wikidata.org/entity/Q16977456', 'http://www.wikidata.org/entity/Q16977477', 'http://www.wikidata.org/entity/Q16977559', 'http://www.wikidata.org/entity/Q1699362', 'http://www.wikidata.org/entity/Q1703195', 'http://www.wikidata.org/entity/Q17057003', 'http://www.wikidata.org/entity/Q17144475', 'http://www.wikidata.org/entity/Q17279925', 'http://www.wikidata.org/entity/Q17280065', 'http://www.wikidata.org/entity/Q17280963', 'http://www.wikidata.org/entity/Q17284905', 'http://www.wikidata.org/entity/Q17284928', 'http://www.wikidata.org/entity/Q17298627', 'http://www.wikidata.org/entity/Q17303639', 'http://www.wikidata.org/entity/Q17306893', 'http://www.wikidata.org/entity/Q17327586', 'http://www.wikidata.org/entity/Q17327760', 'http://www.wikidata.org/entity/Q17352178', 'http://www.wikidata.org/entity/Q17352188', 'http://www.wikidata.org/entity/Q1740253', 'http://www.wikidata.org/entity/Q179952', 'http://www.wikidata.org/entity/Q18412697', 'http://www.wikidata.org/entity/Q18515962', 'http://www.wikidata.org/entity/Q18589449', 'http://www.wikidata.org/entity/Q18620693', 'http://www.wikidata.org/entity/Q18811153', 'http://www.wikidata.org/entity/Q1907692', 'http://www.wikidata.org/entity/Q1927207', 'http://www.wikidata.org/entity/Q1927514', 'http://www.wikidata.org/entity/Q19560231', 'http://www.wikidata.org/entity/Q19643722', 'http://www.wikidata.org/entity/Q19643731', 'http://www.wikidata.org/entity/Q19643733', 'http://www.wikidata.org/entity/Q19872307', 'http://www.wikidata.org/entity/Q19956337', 'http://www.wikidata.org/entity/Q19956650', 'http://www.wikidata.org/entity/Q19956753', 'http://www.wikidata.org/entity/Q2018463', 'http://www.wikidata.org/entity/Q20641558', 'http://www.wikidata.org/entity/Q20641651', 'http://www.wikidata.org/entity/Q20986521', 'http://www.wikidata.org/entity/Q2134271', 'http://www.wikidata.org/entity/Q2146518', 'http://www.wikidata.org/entity/Q2161068', 'http://www.wikidata.org/entity/Q2178030', 'http://www.wikidata.org/entity/Q2178054', 'http://www.wikidata.org/entity/Q2277399', 'http://www.wikidata.org/entity/Q2336395', 'http://www.wikidata.org/entity/Q2350107', 'http://www.wikidata.org/entity/Q24266711', 'http://www.wikidata.org/entity/Q24450398', 'http://www.wikidata.org/entity/Q2600084', 'http://www.wikidata.org/entity/Q2601973', 'http://www.wikidata.org/entity/Q2641446', 'http://www.wikidata.org/entity/Q28145338', 'http://www.wikidata.org/entity/Q28145349', 'http://www.wikidata.org/entity/Q28145357', 'http://www.wikidata.org/entity/Q29077561', 'http://www.wikidata.org/entity/Q29161403', 'http://www.wikidata.org/entity/Q302914', 'http://www.wikidata.org/entity/Q304222', 'http://www.wikidata.org/entity/Q30532844', 'http://www.wikidata.org/entity/Q3438358', 'http://www.wikidata.org/entity/Q3640619', 'http://www.wikidata.org/entity/Q372749', 'http://www.wikidata.org/entity/Q373986', 'http://www.wikidata.org/entity/Q3788418', 'http://www.wikidata.org/entity/Q3805894', 'http://www.wikidata.org/entity/Q3808641', 'http://www.wikidata.org/entity/Q3903429', 'http://www.wikidata.org/entity/Q393288', 'http://www.wikidata.org/entity/Q3984246', 'http://www.wikidata.org/entity/Q4168933', 'http://www.wikidata.org/entity/Q4281245', 'http://www.wikidata.org/entity/Q4320324', 'http://www.wikidata.org/entity/Q43252374', 'http://www.wikidata.org/entity/Q444083', 'http://www.wikidata.org/entity/Q446027', 'http://www.wikidata.org/entity/Q446040', 'http://www.wikidata.org/entity/Q446060', 'http://www.wikidata.org/entity/Q4576036', 'http://www.wikidata.org/entity/Q47501255', 'http://www.wikidata.org/entity/Q4775558', 'http://www.wikidata.org/entity/Q4831692', 'http://www.wikidata.org/entity/Q4965405', 'http://www.wikidata.org/entity/Q504142', 'http://www.wikidata.org/entity/Q5075274', 'http://www.wikidata.org/entity/Q5080928', 'http://www.wikidata.org/entity/Q5082378', 'http://www.wikidata.org/entity/Q51090087', 'http://www.wikidata.org/entity/Q51090088', 'http://www.wikidata.org/entity/Q5171387', 'http://www.wikidata.org/entity/Q5218912', 'http://www.wikidata.org/entity/Q522722', 'http://www.wikidata.org/entity/Q5257150', 'http://www.wikidata.org/entity/Q5258750', 'http://www.wikidata.org/entity/Q5318734', 'http://www.wikidata.org/entity/Q5341660', 'http://www.wikidata.org/entity/Q5342530', 'http://www.wikidata.org/entity/Q5369048', 'http://www.wikidata.org/entity/Q5387450', 'http://www.wikidata.org/entity/Q54667230', 'http://www.wikidata.org/entity/Q55183403', 'http://www.wikidata.org/entity/Q5522971', 'http://www.wikidata.org/entity/Q55956335', 'http://www.wikidata.org/entity/Q56600130', 'http://www.wikidata.org/entity/Q5718354', 'http://www.wikidata.org/entity/Q57262270', 'http://www.wikidata.org/entity/Q587134', 'http://www.wikidata.org/entity/Q5981460', 'http://www.wikidata.org/entity/Q5982979', 'http://www.wikidata.org/entity/Q617595', 'http://www.wikidata.org/entity/Q61787980', 'http://www.wikidata.org/entity/Q6185765', 'http://www.wikidata.org/entity/Q6185783', 'http://www.wikidata.org/entity/Q6199667', 'http://www.wikidata.org/entity/Q6209096', 'http://www.wikidata.org/entity/Q6228011', 'http://www.wikidata.org/entity/Q62512800', 'http://www.wikidata.org/entity/Q6273795', 'http://www.wikidata.org/entity/Q6280016', 'http://www.wikidata.org/entity/Q6284402', 'http://www.wikidata.org/entity/Q633332', 'http://www.wikidata.org/entity/Q6437934', 'http://www.wikidata.org/entity/Q6554673', 'http://www.wikidata.org/entity/Q6668992', 'http://www.wikidata.org/entity/Q66827884', 'http://www.wikidata.org/entity/Q66841118', 'http://www.wikidata.org/entity/Q66938881', 'http://www.wikidata.org/entity/Q66939442', 'http://www.wikidata.org/entity/Q6764669', 'http://www.wikidata.org/entity/Q6775566', 'http://www.wikidata.org/entity/Q6776550', 'http://www.wikidata.org/entity/Q680512', 'http://www.wikidata.org/entity/Q6932071', 'http://www.wikidata.org/entity/Q7087842', 'http://www.wikidata.org/entity/Q71035154', 'http://www.wikidata.org/entity/Q718040', 'http://www.wikidata.org/entity/Q7197493', 'http://www.wikidata.org/entity/Q7279212', 'http://www.wikidata.org/entity/Q7297466', 'http://www.wikidata.org/entity/Q7308644', 'http://www.wikidata.org/entity/Q736771', 'http://www.wikidata.org/entity/Q7406948', 'http://www.wikidata.org/entity/Q7428345', 'http://www.wikidata.org/entity/Q7441461', 'http://www.wikidata.org/entity/Q745555', 'http://www.wikidata.org/entity/Q7463162', 'http://www.wikidata.org/entity/Q7463312', 'http://www.wikidata.org/entity/Q7463323', 'http://www.wikidata.org/entity/Q75135779', 'http://www.wikidata.org/entity/Q7519908', 'http://www.wikidata.org/entity/Q75635489', 'http://www.wikidata.org/entity/Q7608617', 'http://www.wikidata.org/entity/Q7611949', 'http://www.wikidata.org/entity/Q762057', 'http://www.wikidata.org/entity/Q768060', 'http://www.wikidata.org/entity/Q785842', 'http://www.wikidata.org/entity/Q7931678', 'http://www.wikidata.org/entity/Q79981875', 'http://www.wikidata.org/entity/Q8739830', 'http://www.wikidata.org/entity/Q8742822', 'http://www.wikidata.org/entity/Q8854881', 'http://www.wikidata.org/entity/Q887449', 'http://www.wikidata.org/entity/Q913048', 'http://www.wikidata.org/entity/Q92303735', 'http://www.wikidata.org/entity/Q93318463', 'http://www.wikidata.org/entity/Q93318464', 'http://www.wikidata.org/entity/Q93318466', 'http://www.wikidata.org/entity/Q94606737', 'http://www.wikidata.org/entity/Q949755', 'http://www.wikidata.org/entity/Q951577', 'http://www.wikidata.org/entity/Q952394', 'http://www.wikidata.org/entity/Q968613', 'http://www.wikidata.org/entity/Q983145', 'http://www.wikidata.org/entity/Q983148', 'http://www.wikidata.org/entity/Q98785910', 'http://www.wikidata.org/entity/Q98852975', 'http://www.wikidata.org/entity/Q98930910', 'http://www.wikidata.org/entity/Q98930945']</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q3808']</t>
+          <t>['http://www.wikidata.org/entity/Q100151816', 'http://www.wikidata.org/entity/Q101490959', 'http://www.wikidata.org/entity/Q101492327', 'http://www.wikidata.org/entity/Q106228741', 'http://www.wikidata.org/entity/Q1065590', 'http://www.wikidata.org/entity/Q16146513', 'http://www.wikidata.org/entity/Q16163013', 'http://www.wikidata.org/entity/Q16214810', 'http://www.wikidata.org/entity/Q1685756', 'http://www.wikidata.org/entity/Q1686437', 'http://www.wikidata.org/entity/Q16977455', 'http://www.wikidata.org/entity/Q16977456', 'http://www.wikidata.org/entity/Q17284905', 'http://www.wikidata.org/entity/Q1907692', 'http://www.wikidata.org/entity/Q1927207', 'http://www.wikidata.org/entity/Q1927514', 'http://www.wikidata.org/entity/Q19560231', 'http://www.wikidata.org/entity/Q19956337', 'http://www.wikidata.org/entity/Q19956650', 'http://www.wikidata.org/entity/Q20641558', 'http://www.wikidata.org/entity/Q20641651', 'http://www.wikidata.org/entity/Q3640619', 'http://www.wikidata.org/entity/Q372749', 'http://www.wikidata.org/entity/Q3808641', 'http://www.wikidata.org/entity/Q3903429', 'http://www.wikidata.org/entity/Q4320324', 'http://www.wikidata.org/entity/Q4576036', 'http://www.wikidata.org/entity/Q47501255', 'http://www.wikidata.org/entity/Q4831692', 'http://www.wikidata.org/entity/Q4965405', 'http://www.wikidata.org/entity/Q5080928', 'http://www.wikidata.org/entity/Q5082378', 'http://www.wikidata.org/entity/Q5171387', 'http://www.wikidata.org/entity/Q5218912', 'http://www.wikidata.org/entity/Q5258750', 'http://www.wikidata.org/entity/Q5342530', 'http://www.wikidata.org/entity/Q5369048', 'http://www.wikidata.org/entity/Q5387450', 'http://www.wikidata.org/entity/Q54667230', 'http://www.wikidata.org/entity/Q56600130', 'http://www.wikidata.org/entity/Q57262270', 'http://www.wikidata.org/entity/Q5981460', 'http://www.wikidata.org/entity/Q6185765', 'http://www.wikidata.org/entity/Q6185783', 'http://www.wikidata.org/entity/Q6199667', 'http://www.wikidata.org/entity/Q6209096', 'http://www.wikidata.org/entity/Q6228011', 'http://www.wikidata.org/entity/Q62512800', 'http://www.wikidata.org/entity/Q6273795', 'http://www.wikidata.org/entity/Q6284402', 'http://www.wikidata.org/entity/Q6437934', 'http://www.wikidata.org/entity/Q6554673', 'http://www.wikidata.org/entity/Q6668992', 'http://www.wikidata.org/entity/Q66827884', 'http://www.wikidata.org/entity/Q66841118', 'http://www.wikidata.org/entity/Q66939442', 'http://www.wikidata.org/entity/Q6764669', 'http://www.wikidata.org/entity/Q6775566', 'http://www.wikidata.org/entity/Q6776550', 'http://www.wikidata.org/entity/Q71035154', 'http://www.wikidata.org/entity/Q7197493', 'http://www.wikidata.org/entity/Q7279212', 'http://www.wikidata.org/entity/Q7308644', 'http://www.wikidata.org/entity/Q7406948', 'http://www.wikidata.org/entity/Q75135779', 'http://www.wikidata.org/entity/Q8742822', 'http://www.wikidata.org/entity/Q93318464', 'http://www.wikidata.org/entity/Q93318466', 'http://www.wikidata.org/entity/Q98785910', 'http://www.wikidata.org/entity/Q98852975', 'http://www.wikidata.org/entity/Q98930910', 'http://www.wikidata.org/entity/Q98930945']</t>
         </is>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>How many programming languages are there?</t>
+          <t>What is the capital of Cameroon?</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>['1811']</t>
+          <t>['http://www.wikidata.org/entity/Q3808']</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>['1487']</t>
+          <t>['http://www.wikidata.org/entity/Q3808']</t>
         </is>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>how big is the total area of North Rhine- Westphalia?</t>
+          <t>How many programming languages are there?</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>['34112.5']</t>
+          <t>['1811']</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>['34112.5']</t>
+          <t>['1487']</t>
         </is>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>How much is the population of mexico city ?</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>['9209944']</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>['2961279']</t>
+        </is>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>How many employees does IBM have?</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>['352600']</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>['350600', '352600', '377757', '380000']</t>
+        </is>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>Give me all Danish movies.</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>['http://www.wikidata.org/entity/Q100165776', 'http://www.wikidata.org/entity/Q100235422', 'http://www.wikidata.org/entity/Q100272327', 'http://www.wikidata.org/entity/Q100272328', 'http://www.wikidata.org/entity/Q100272330', 'http://www.wikidata.org/entity/Q100272332', 'http://www.wikidata.org/entity/Q100272333', 'http://www.wikidata.org/entity/Q100272334', 'http://www.wikidata.org/entity/Q100272335', 'http://www.wikidata.org/entity/Q100272336', 'http://www.wikidata.org/entity/Q100272337', 'http://www.wikidata.org/entity/Q100272338', 'http://www.wikidata.org/entity/Q100272339', 'http://www.wikidata.org/entity/Q100272340', 'http://www.wikidata.org/entity/Q100272341', 'http://www.wikidata.org/entity/Q100272342', 'http://www.wikidata.org/entity/Q100272343', 'http://www.wikidata.org/entity/Q100272344', 'http://www.wikidata.org/entity/Q100272345', 'http://www.wikidata.org/entity/Q100272346', 'http://www.wikidata.org/entity/Q100272347', 'http://www.wikidata.org/entity/Q100272348', 'http://www.wikidata.org/entity/Q100272349', 'http://www.wikidata.org/entity/Q100272350', 'http://www.wikidata.org/entity/Q100272351', 'http://www.wikidata.org/entity/Q100272354', 'http://www.wikidata.org/entity/Q100272355', 'http://www.wikidata.org/entity/Q100272356', 'http://www.wikidata.org/entity/Q100272357', 'http://www.wikidata.org/entity/Q100272358', 'http://www.wikidata.org/entity/Q100272359', 'http://www.wikidata.org/entity/Q100272360', 'http://www.wikidata.org/entity/Q100272361', 'http://www.wikidata.org/entity/Q100272364', 'http://www.wikidata.org/entity/Q100272365', 'http://www.wikidata.org/entity/Q100272366', 'http://www.wikidata.org/entity/Q100272367', 'http://www.wikidata.org/entity/Q100272368', 'http://www.wikidata.org/entity/Q100272369', 'http://www.wikidata.org/entity/Q100272370', 'http://www.wikidata.org/entity/Q100272371', 'http://www.wikidata.org/entity/Q100272372', 'http://www.wikidata.org/entity/Q100272373', 'http://www.wikidata.org/entity/Q100272374', 'http://www.wikidata.org/entity/Q100272375', 'http://www.wikidata.org/entity/Q100272377', 'http://www.wikidata.org/entity/Q100272378', 'http://www.wikidata.org/entity/Q100272379', 'http://www.wikidata.org/entity/Q100272380', 'http://www.wikidata.org/entity/Q100272381', 'http://www.wikidata.org/entity/Q100272383', 'http://www.wikidata.org/entity/Q100272385', 'http://www.wikidata.org/entity/Q100272386', 'http://www.wikidata.org/entity/Q100272388', 'http://www.wikidata.org/entity/Q100272389', 'http://www.wikidata.org/entity/Q100272390', 'http://www.wikidata.org/entity/Q100272391', 'http://www.wikidata.org/entity/Q100272392', 'http://www.wikidata.org/entity/Q100272393', 'http://www.wikidata.org/entity/Q100272394', 'http://www.wikidata.org/entity/Q100272395', 'http://www.wikidata.org/entity/Q100272396', 'http://www.wikidata.org/entity/Q100272398', 'http://www.wikidata.org/entity/Q100272399', 'http://www.wikidata.org/entity/Q100272400', 'http://www.wikidata.org/entity/Q100272401', 'http://www.wikidata.org/entity/Q100272402', 'http://www.wikidata.org/entity/Q100272403', 'http://www.wikidata.org/entity/Q100272404', 'http://www.wikidata.org/entity/Q100272405', 'http://www.wikidata.org/entity/Q100272406', 'http://www.wikidata.org/entity/Q100272407', 'http://www.wikidata.org/entity/Q100272408', 'http://www.wikidata.org/entity/Q100272409', 'http://www.wikidata.org/entity/Q100272410', 'http://www.wikidata.org/entity/Q100272411', 'http://www.wikidata.org/entity/Q100272412', 'http://www.wikidata.org/entity/Q100272413', 'http://www.wikidata.org/entity/Q100272415', 'http://www.wikidata.org/entity/Q100272416', 'http://www.wikidata.org/entity/Q100272417', 'http://www.wikidata.org/entity/Q100272418', 'http://www.wikidata.org/entity/Q100272419', 'http://www.wikidata.org/entity/Q100272420', 'http://www.wikidata.org/entity/Q100272421', 'http://www.wikidata.org/entity/Q100272422', 'http://www.wikidata.org/entity/Q100272423', 'http://www.wikidata.org/entity/Q100272424', 'http://www.wikidata.org/entity/Q100272425', 'http://www.wikidata.org/entity/Q100272426', 'http://www.wikidata.org/entity/Q100272427', 'http://www.wikidata.org/entity/Q100272428', 'http://www.wikidata.org/entity/Q100272429', 'http://www.wikidata.org/entity/Q100272430', 'http://www.wikidata.org/entity/Q100272431', 'http://www.wikidata.org/entity/Q100272432', 'http://www.wikidata.org/entity/Q100272433', 'http://www.wikidata.org/entity/Q100272434', 'http://www.wikidata.org/entity/Q100272435', 'http://www.wikidata.org/entity/Q100272436', 'http://www.wikidata.org/entity/Q100272437', 'http://www.wikidata.org/entity/Q100272438', 'http://www.wikidata.org/entity/Q100334343', 'http://www.wikidata.org/entity/Q100334344', 'http://www.wikidata.org/entity/Q100334346', 'http://www.wikidata.org/entity/Q100334347', 'http://www.wikidata.org/entity/Q100334350', 'http://www.wikidata.org/entity/Q100334352', 'http://www.wikidata.org/entity/Q100334354', 'http://www.wikidata.org/entity/Q100334355', 'http://www.wikidata.org/entity/Q100334357', 'http://www.wikidata.org/entity/Q100334358', 'http://www.wikidata.org/entity/Q100334360', 'http://www.wikidata.org/entity/Q100334363', 'http://www.wikidata.org/entity/Q100334364', 'http://www.wikidata.org/entity/Q100334367', 'http://www.wikidata.org/entity/Q100334369', 'http://www.wikidata.org/entity/Q100334371', 'http://www.wikidata.org/entity/Q100334373', 'http://www.wikidata.org/entity/Q100334376', 'http://www.wikidata.org/entity/Q100334377', 'http://www.wikidata.org/entity/Q100334379', 'http://www.wikidata.org/entity/Q100334381', 'http://www.wikidata.org/entity/Q100334384', 'http://www.wikidata.org/entity/Q100334386', 'http://www.wikidata.org/entity/Q100334389', 'http://www.wikidata.org/entity/Q100334391', 'http://www.wikidata.org/entity/Q100334393', 'http://www.wikidata.org/entity/Q100334395', 'http://www.wikidata.org/entity/Q100334397', 'http://www.wikidata.org/entity/Q100334400', 'http://www.wikidata.org/entity/Q100334402', 'http://www.wikidata.org/entity/Q100334404', 'http://www.wikidata.org/entity/Q100334406', 'http://www.wikidata.org/entity/Q100334408', 'http://www.wikidata.org/entity/Q100334410', 'http://www.wikidata.org/entity/Q100334412', 'http://www.wikidata.org/entity/Q100334414', 'http://www.wikidata.org/entity/Q100334415', 'http://www.wikidata.org/entity/Q100334418', 'http://www.wikidata.org/entity/Q100334419', 'http://www.wikidata.org/entity/Q100334421', 'http://www.wikidata.org/entity/Q100334423', 'http://www.wikidata.org/entity/Q100334426', 'http://www.wikidata.org/entity/Q100334429', 'http://www.wikidata.org/entity/Q100334431', 'http://www.wikidata.org/entity/Q100334433', 'http://www.wikidata.org/entity/Q100334435', 'http://www.wikidata.org/entity/Q100334437', 'http://www.wikidata.org/entity/Q100334439', 'http://www.wikidata.org/entity/Q100334442', 'http://www.wikidata.org/entity/Q100334444', 'http://www.wikidata.org/entity/Q100334447', 'http://www.wikidata.org/entity/Q100334449', 'http://www.wikidata.org/entity/Q100334450', 'http://www.wikidata.org/entity/Q100334452', 'http://www.wikidata.org/entity/Q100334454', 'http://www.wikidata.org/entity/Q100334456', 'http://www.wikidata.org/entity/Q100334458', 'http://www.wikidata.org/entity/Q100334462', 'http://www.wikidata.org/entity/Q100334464', 'http://www.wikidata.org/entity/Q100334467', 'http://www.wikidata.org/entity/Q100334469', 'http://www.wikidata.org/entity/Q100334471', 'http://www.wikidata.org/entity/Q100334473', 'http://www.wikidata.org/entity/Q100334476', 'http://www.wikidata.org/entity/Q100334477', 'http://www.wikidata.org/entity/Q100334480', 'http://www.wikidata.org/entity/Q100334482', 'http://www.wikidata.org/entity/Q100334485', 'http://www.wikidata.org/entity/Q100334487', 'http://www.wikidata.org/entity/Q100334489', 'http://www.wikidata.org/entity/Q100334492', 'http://www.wikidata.org/entity/Q100334494', 'http://www.wikidata.org/entity/Q100334498', 'http://www.wikidata.org/entity/Q100334500', 'http://www.wikidata.org/entity/Q100334502', 'http://www.wikidata.org/entity/Q100334504', 'http://www.wikidata.org/entity/Q100334507', 'http://www.wikidata.org/entity/Q100334509', 'http://www.wikidata.org/entity/Q100334511', 'http://www.wikidata.org/entity/Q100334514', 'http://www.wikidata.org/entity/Q100334516', 'http://www.wikidata.org/entity/Q100334519', 'http://www.wikidata.org/entity/Q100334521', 'http://www.wikidata.org/entity/Q100334523', 'http://www.wikidata.org/entity/Q100334525', 'http://www.wikidata.org/entity/Q100334527', 'http://www.wikidata.org/entity/Q100334531', 'http://www.wikidata.org/entity/Q100334533', 'http://www.wikidata.org/entity/Q100334534', 'http://www.wikidata.org/entity/Q100334537', 'http://www.wikidata.org/entity/Q100334538', 'http://www.wikidata.org/entity/Q100334540', 'http://www.wikidata.org/entity/Q100334542', 'http://www.wikidata.org/entity/Q100334545', 'http://www.wikidata.org/entity/Q100334547', 'http://www.wikidata.org/entity/Q100334549', 'http://www.wikidata.org/entity/Q100334550', 'http://www.wikidata.org/entity/Q100334552', 'http://www.wikidata.org/entity/Q100334553', 'http://www.wikidata.org/entity/Q100334555', 'http://www.wikidata.org/entity/Q100334558', 'http://www.wikidata.org/entity/Q100334560', 'http://www.wikidata.org/entity/Q100334564', 'http://www.wikidata.org/entity/Q100334566', 'http://www.wikidata.org/entity/Q100334568', 'http://www.wikidata.org/entity/Q100334570', 'http://www.wikidata.org/entity/Q100334572', 'http://www.wikidata.org/entity/Q100334575', 'http://www.wikidata.org/entity/Q100334577', 'http://www.wikidata.org/entity/Q100334581', 'http://www.wikidata.org/entity/Q100334583', 'http://www.wikidata.org/entity/Q100334585', 'http://www.wikidata.org/entity/Q100334587', 'http://www.wikidata.org/entity/Q100334589', 'http://www.wikidata.org/entity/Q100334591', 'http://www.wikidata.org/entity/Q100334593', 'http://www.wikidata.org/entity/Q100334595', 'http://www.wikidata.org/entity/Q100334598', 'http://www.wikidata.org/entity/Q100334600', 'http://www.wikidata.org/entity/Q100334602', 'http://www.wikidata.org/entity/Q100334604', 'http://www.wikidata.org/entity/Q100334606', 'http://www.wikidata.org/entity/Q100334608', 'http://www.wikidata.org/entity/Q100334611', 'http://www.wikidata.org/entity/Q100334614', 'http://www.wikidata.org/entity/Q100334617', 'http://www.wikidata.org/entity/Q100334620', 'http://www.wikidata.org/entity/Q100334624', 'http://www.wikidata.org/entity/Q100334625', 'http://www.wikidata.org/entity/Q100334628', 'http://www.wikidata.org/entity/Q100334631', 'http://www.wikidata.org/entity/Q100334633', 'http://www.wikidata.org/entity/Q100334634', 'http://www.wikidata.org/entity/Q100334636', 'http://www.wikidata.org/entity/Q100334638', 'http://www.wikidata.org/entity/Q100334640', 'http://www.wikidata.org/entity/Q100334642', 'http://www.wikidata.org/entity/Q100334644', 'http://www.wikidata.org/entity/Q100334647', 'http://www.wikidata.org/entity/Q100334649', 'http://www.wikidata.org/entity/Q100334651', 'http://www.wikidata.org/entity/Q100334652', 'http://www.wikidata.org/entity/Q100334654', 'http://www.wikidata.org/entity/Q100334656', 'http://www.wikidata.org/entity/Q100334660', 'http://www.wikidata.org/entity/Q100334662', 'http://www.wikidata.org/entity/Q100334664', 'http://www.wikidata.org/entity/Q100334667', 'http://www.wikidata.org/entity/Q100334669', 'http://www.wikidata.org/entity/Q100334671', 'http://www.wikidata.org/entity/Q100334674', 'http://www.wikidata.org/entity/Q100334678', 'http://www.wikidata.org/entity/Q100334683', 'http://www.wikidata.org/entity/Q100334685', 'http://www.wikidata.org/entity/Q100334688', 'http://www.wikidata.org/entity/Q100334691', 'http://www.wikidata.org/entity/Q100334695', 'http://www.wikidata.org/entity/Q100334698', 'http://www.wikidata.org/entity/Q100334701', 'http://www.wikidata.org/entity/Q100334704', 'http://www.wikidata.org/entity/Q100334707', 'http://www.wikidata.org/entity/Q100334710', 'http://www.wikidata.org/entity/Q100334713', 'http://www.wikidata.org/entity/Q100334715', 'http://www.wikidata.org/entity/Q100334716', 'http://www.wikidata.org/entity/Q100334719', 'http://www.wikidata.org/entity/Q100334722', 'http://www.wikidata.org/entity/Q100334726', 'http://www.wikidata.org/entity/Q100334731', 'http://www.wikidata.org/entity/Q100334735', 'http://www.wikidata.org/entity/Q100334738', 'http://www.wikidata.org/entity/Q100334741', 'http://www.wikidata.org/entity/Q100334744', 'http://www.wikidata.org/entity/Q100334747', 'http://www.wikidata.org/entity/Q100334751', 'http://www.wikidata.org/entity/Q100334754', 'http://www.wikidata.org/entity/Q100334759', 'http://www.wikidata.org/entity/Q100334762', 'http://www.wikidata.org/entity/Q100334767', 'http://www.wikidata.org/entity/Q100334771', 'http://www.wikidata.org/entity/Q100334774', 'http://www.wikidata.org/entity/Q100334777', 'http://www.wikidata.org/entity/Q100334780', 'http://www.wikidata.org/entity/Q100334784', 'http://www.wikidata.org/entity/Q100334787', 'http://www.wikidata.org/entity/Q100334790', 'http://www.wikidata.org/entity/Q100334794', 'http://www.wikidata.org/entity/Q100334799', 'http://www.wikidata.org/entity/Q100334803', 'http://www.wikidata.org/entity/Q100334807', 'http://www.wikidata.org/entity/Q100334811', 'http://www.wikidata.org/entity/Q100334816', 'http://www.wikidata.org/entity/Q100334818', 'http://www.wikidata.org/entity/Q100334823', 'http://www.wikidata.org/entity/Q100334828', 'http://www.wikidata.org/entity/Q100334831', 'http://www.wikidata.org/entity/Q100334836', 'http://www.wikidata.org/entity/Q100334838', 'http://www.wikidata.org/entity/Q100334841', 'http://www.wikidata.org/entity/Q100334845', 'http://www.wikidata.org/entity/Q100334848', 'http://www.wikidata.org/entity/Q100334851', 'http://www.wikidata.org/entity/Q100334855', 'http://www.wikidata.org/entity/Q100334858', 'http://www.wikidata.org/entity/Q100334861', 'http://www.wikidata.org/entity/Q100334867', 'http://www.wikidata.org/entity/Q100334871', 'http://www.wikidata.org/entity/Q100334878', 'http://www.wikidata.org/entity/Q100334882', 'http://www.wikidata.org/entity/Q100334885', 'http://www.wikidata.org/entity/Q100334887', 'http://www.wikidata.org/entity/Q100334890', 'http://www.wikidata.org/entity/Q100334893', 'http://www.wikidata.org/entity/Q100334895', 'http://www.wikidata.org/entity/Q100334898', 'http://www.wikidata.org/entity/Q100334900', 'http://www.wikidata.org/entity/Q100334904', 'http://www.wikidata.org/entity/Q100334907', 'http://www.wikidata.org/entity/Q100334911', 'http://www.wikidata.org/entity/Q100334913', 'http://www.wikidata.org/entity/Q100334916', 'http://www.wikidata.org/entity/Q100334918', 'http://www.wikidata.org/entity/Q100334922', 'http://www.wikidata.org/entity/Q100334925', 'http://www.wikidata.org/entity/Q100334928', 'http://www.wikidata.org/entity/Q100334930', 'http://www.wikidata.org/entity/Q100334933', 'http://www.wikidata.org/entity/Q100334937', 'http://www.wikidata.org/entity/Q100334940', 'http://www.wikidata.org/entity/Q100334943', 'http://www.wikidata.org/entity/Q100334947', 'http://www.wikidata.org/entity/Q100334950', 'http://www.wikidata.org/entity/Q100334954', 'http://www.wikidata.org/entity/Q100334958', 'http://www.wikidata.org/entity/Q100334963', 'http://www.wikidata.org/entity/Q100334967', 'http://www.wikidata.org/entity/Q100334970', 'http://www.wikidata.org/entity/Q100334975', 'http://www.wikidata.org/entity/Q100334978', 'http://www.wikidata.org/entity/Q100334981', 'http://www.wikidata.org/entity/Q100334983', 'http://www.wikidata.org/entity/Q100334985', 'http://www.wikidata.org/entity/Q100334989', 'http://www.wikidata.org/entity/Q100334992', 'http://www.wikidata.org/entity/Q100334995', 'http://www.wikidata.org/entity/Q100334999', 'http://www.wikidata.org/entity/Q100335003', 'http://www.wikidata.org/entity/Q100335005', 'http://www.wikidata.org/entity/Q100335009', 'http://www.wikidata.org/entity/Q100335013', 'http://www.wikidata.org/entity/Q100335015', 'http://www.wikidata.org/entity/Q100335019', 'http://www.wikidata.org/entity/Q100335023', 'http://www.wikidata.org/entity/Q100335026', 'http://www.wikidata.org/entity/Q100335032', 'http://www.wikidata.org/entity/Q100335035', 'http://www.wikidata.org/entity/Q100335038', 'http://www.wikidata.org/entity/Q100335041', 'http://www.wikidata.org/entity/Q100335043', 'http://www.wikidata.org/entity/Q100335046', 'http://www.wikidata.org/entity/Q100335049', 'http://www.wikidata.org/entity/Q100335051', 'http://www.wikidata.org/entity/Q100335055', 'http://www.wikidata.org/entity/Q100335058', 'http://www.wikidata.org/entity/Q100335061', 'http://www.wikidata.org/entity/Q100335062', 'http://www.wikidata.org/entity/Q100335066', 'http://www.wikidata.org/entity/Q100335068', 'http://www.wikidata.org/entity/Q100335070', 'http://www.wikidata.org/entity/Q100335073', 'http://www.wikidata.org/entity/Q100335074', 'http://www.wikidata.org/entity/Q100335078', 'http://www.wikidata.org/entity/Q100335081', 'http://www.wikidata.org/entity/Q100335082', 'http://www.wikidata.org/entity/Q100335085', 'http://www.wikidata.org/entity/Q100335090', 'http://www.wikidata.org/entity/Q100335093', 'http://www.wikidata.org/entity/Q100335095', 'http://www.wikidata.org/entity/Q100335098', 'http://www.wikidata.org/entity/Q100335102', 'http://www.wikidata.org/entity/Q100335104', 'http://www.wikidata.org/entity/Q100335107', 'http://www.wikidata.org/entity/Q100335110', 'http://www.wikidata.org/entity/Q100335112', 'http://www.wikidata.org/entity/Q100335115', 'http://www.wikidata.org/entity/Q100335118', 'http://www.wikidata.org/entity/Q100335120', 'http://www.wikidata.org/entity/Q100335123', 'http://www.wikidata.org/entity/Q100335126', 'http://www.wikidata.org/entity/Q100335129', 'http://www.wikidata.org/entity/Q100335132', 'http://www.wikidata.org/entity/Q100335134', 'http://www.wikidata.org/entity/Q100335136', 'http://www.wikidata.org/entity/Q100335139', 'http://www.wikidata.org/entity/Q100335141', 'http://www.wikidata.org/entity/Q100335144', 'http://www.wikidata.org/entity/Q100335147', 'http://www.wikidata.org/entity/Q100335148', 'http://www.wikidata.org/entity/Q100335152', 'http://www.wikidata.org/entity/Q100335154', 'http://www.wikidata.org/entity/Q100335157', 'http://www.wikidata.org/entity/Q100335159', 'http://www.wikidata.org/entity/Q100335161', 'http://www.wikidata.org/entity/Q100335163', 'http://www.wikidata.org/entity/Q100335164', 'http://www.wikidata.org/entity/Q100335166', 'http://www.wikidata.org/entity/Q100335168', 'http://www.wikidata.org/entity/Q100335170', 'http://www.wikidata.org/entity/Q100335174', 'http://www.wikidata.org/entity/Q100335176', 'http://www.wikidata.org/entity/Q100335178', 'http://www.wikidata.org/entity/Q100335180', 'http://www.wikidata.org/entity/Q100335181', 'http://www.wikidata.org/entity/Q100335183', 'http://www.wikidata.org/entity/Q100335185', 'http://www.wikidata.org/entity/Q100335187', 'http://www.wikidata.org/entity/Q100335189', 'http://www.wikidata.org/entity/Q100335191', 'http://www.wikidata.org/entity/Q100335194', 'http://www.wikidata.org/entity/Q100335196', 'http://www.wikidata.org/entity/Q100335198', 'http://www.wikidata.org/entity/Q100335200', 'http://www.wikidata.org/entity/Q100335202', 'http://www.wikidata.org/entity/Q100335204', 'http://www.wikidata.org/entity/Q100335206', 'http://www.wikidata.org/entity/Q100335208', 'http://www.wikidata.org/entity/Q100335209', 'http://www.wikidata.org/entity/Q100335213', 'http://www.wikidata.org/entity/Q100335214', 'http://www.wikidata.org/entity/Q100335216', 'http://www.wikidata.org/entity/Q100335218', 'http://www.wikidata.org/entity/Q100335220', 'http://www.wikidata.org/entity/Q100335222', 'http://www.wikidata.org/entity/Q100335223', 'http://www.wikidata.org/entity/Q100335225', 'http://www.wikidata.org/entity/Q100335227', 'http://www.wikidata.org/entity/Q100335230', 'http://www.wikidata.org/entity/Q100335232', 'http://www.wikidata.org/entity/Q100335233', 'http://www.wikidata.org/entity/Q100335236', 'http://www.wikidata.org/entity/Q100335238', 'http://www.wikidata.org/entity/Q100335240', 'http://www.wikidata.org/entity/Q100335241', 'http://www.wikidata.org/entity/Q100335243', 'http://www.wikidata.org/entity/Q100335245', 'http://www.wikidata.org/entity/Q100335248', 'http://www.wikidata.org/entity/Q100335249', 'http://www.wikidata.org/entity/Q100335251', 'http://www.wikidata.org/entity/Q100335253', 'http://www.wikidata.org/entity/Q100335255', 'http://www.wikidata.org/entity/Q100335257', 'http://www.wikidata.org/entity/Q100335259', 'http://www.wikidata.org/entity/Q100335262', 'http://www.wikidata.org/entity/Q100335263', 'http://www.wikidata.org/entity/Q100335265', 'http://www.wikidata.org/entity/Q100335267', 'http://www.wikidata.org/entity/Q100335269', 'http://www.wikidata.org/entity/Q100335270', 'http://www.wikidata.org/entity/Q100335272', 'http://www.wikidata.org/entity/Q100335274', 'http://www.wikidata.org/entity/Q100335276', 'http://www.wikidata.org/entity/Q100335278', 'http://www.wikidata.org/entity/Q100335280', 'http://www.wikidata.org/entity/Q100335282', 'http://www.wikidata.org/entity/Q100335285', 'http://www.wikidata.org/entity/Q100335286', 'http://www.wikidata.org/entity/Q100335288', 'http://www.wikidata.org/entity/Q100335290', 'http://www.wikidata.org/entity/Q100335293', 'http://www.wikidata.org/entity/Q100335295', 'http://www.wikidata.org/entity/Q100335297', 'http://www.wikidata.org/entity/Q100335299', 'http://www.wikidata.org/entity/Q100335301', 'http://www.wikidata.org/entity/Q100335304', 'http://www.wikidata.org/entity/Q100335306', 'http://www.wikidata.org/entity/Q100335307', 'http://www.wikidata.org/entity/Q100335309', 'http://www.wikidata.org/entity/Q100335312', 'http://www.wikidata.org/entity/Q100335315', 'http://www.wikidata.org/entity/Q100335317', 'http://www.wikidata.org/entity/Q100335320', 'http://www.wikidata.org/entity/Q100335324', 'http://www.wikidata.org/entity/Q100335328', 'http://www.wikidata.org/entity/Q100335331', 'http://www.wikidata.org/entity/Q100335334', 'http://www.wikidata.org/entity/Q100335337', 'http://www.wikidata.org/entity/Q100335341', 'http://www.wikidata.org/entity/Q100335344', 'http://www.wikidata.org/entity/Q100335346', 'http://www.wikidata.org/entity/Q100335352', 'http://www.wikidata.org/entity/Q100335356', 'http://www.wikidata.org/entity/Q100335359', 'http://www.wikidata.org/entity/Q100335362', 'http://www.wikidata.org/entity/Q100335365', 'http://www.wikidata.org/entity/Q100335368', 'http://www.wikidata.org/entity/Q100335371', 'http://www.wikidata.org/entity/Q100335374', 'http://www.wikidata.org/entity/Q100335377', 'http://www.wikidata.org/entity/Q100335379', 'http://www.wikidata.org/entity/Q100335383', 'http://www.wikidata.org/entity/Q100335387', 'http://www.wikidata.org/entity/Q100335390', 'http://www.wikidata.org/entity/Q100335393', 'http://www.wikidata.org/entity/Q100335396', 'http://www.wikidata.org/entity/Q100335399', 'http://www.wikidata.org/entity/Q100335403', 'http://www.wikidata.org/entity/Q100335405', 'http://www.wikidata.org/entity/Q100335408', 'http://www.wikidata.org/entity/Q100335411', 'http://www.wikidata.org/entity/Q100335415', 'http://www.wikidata.org/entity/Q100335418', 'http://www.wikidata.org/entity/Q100335421', 'http://www.wikidata.org/entity/Q100335424', 'http://www.wikidata.org/entity/Q100335428', 'http://www.wikidata.org/entity/Q100335431', 'http://www.wikidata.org/entity/Q100335434', 'http://www.wikidata.org/entity/Q100335437', 'http://www.wikidata.org/entity/Q100335440', 'http://www.wikidata.org/entity/Q100335444', 'http://www.wikidata.org/entity/Q100335446', 'http://www.wikidata.org/entity/Q100335450', 'http://www.wikidata.org/entity/Q100335453', 'http://www.wikidata.org/entity/Q100335455', 'http://www.wikidata.org/entity/Q100335458', 'http://www.wikidata.org/entity/Q100335461', 'http://www.wikidata.org/entity/Q100335463', 'http://www.wikidata.org/entity/Q100335466', 'http://www.wikidata.org/entity/Q100335469', 'http://www.wikidata.org/entity/Q100335472', 'http://www.wikidata.org/entity/Q100335475', 'http://www.wikidata.org/entity/Q100335479', 'http://www.wikidata.org/entity/Q100335482', 'http://www.wikidata.org/entity/Q100335485', 'http://www.wikidata.org/entity/Q100335488', 'http://www.wikidata.org/entity/Q100335491', 'http://www.wikidata.org/entity/Q100335494', 'http://www.wikidata.org/entity/Q100335497', 'http://www.wikidata.org/entity/Q100335501', 'http://www.wikidata.org/entity/Q100335504', 'http://www.wikidata.org/entity/Q100335507', 'http://www.wikidata.org/entity/Q100335508', 'http://www.wikidata.org/entity/Q100335512', 'http://www.wikidata.org/entity/Q100335515', 'http://www.wikidata.org/entity/Q100335518', 'http://www.wikidata.org/entity/Q100335521', 'http://www.wikidata.org/entity/Q100335524', 'http://www.wikidata.org/entity/Q100335528', 'http://www.wikidata.org/entity/Q100335531', 'http://www.wikidata.org/entity/Q100335534', 'http://www.wikidata.org/entity/Q100335540', 'http://www.wikidata.org/entity/Q100335542', 'http://www.wikidata.org/entity/Q100335545', 'http://www.wikidata.org/entity/Q100335547', 'http://www.wikidata.org/entity/Q100335550', 'http://www.wikidata.org/entity/Q100335553', 'http://www.wikidata.org/entity/Q100335556', 'http://www.wikidata.org/entity/Q100335560', 'http://www.wikidata.org/entity/Q100335563', 'http://www.wikidata.org/entity/Q100335566', 'http://www.wikidata.org/entity/Q100335570', 'http://www.wikidata.org/entity/Q100335573', 'http://www.wikidata.org/entity/Q100335575', 'http://www.wikidata.org/entity/Q100335578', 'http://www.wikidata.org/entity/Q100335581', 'http://www.wikidata.org/entity/Q100335584', 'http://www.wikidata.org/entity/Q100335588', 'http://www.wikidata.org/entity/Q100335591', 'http://www.wikidata.org/entity/Q100335594', 'http://www.wikidata.org/entity/Q100335596', 'http://www.wikidata.org/entity/Q100335599', 'http://www.wikidata.org/entity/Q100335602', 'http://www.wikidata.org/entity/Q100335605', 'http://www.wikidata.org/entity/Q100335608', 'http://www.wikidata.org/entity/Q100335611', 'http://www.wikidata.org/entity/Q100335614', 'http://www.wikidata.org/entity/Q100335617', 'http://www.wikidata.org/entity/Q100335621', 'http://www.wikidata.org/entity/Q100335624', 'http://www.wikidata.org/entity/Q100335626', 'http://www.wikidata.org/entity/Q100335629', 'http://www.wikidata.org/entity/Q100335632', 'http://www.wikidata.org/entity/Q100335634', 'http://www.wikidata.org/entity/Q100335637', 'http://www.wikidata.org/entity/Q100335641', 'http://www.wikidata.org/entity/Q100335643', 'http://www.wikidata.org/entity/Q100335647', 'http://www.wikidata.org/entity/Q100335649', 'http://www.wikidata.org/entity/Q100335652', 'http://www.wikidata.org/entity/Q100335656', 'http://www.wikidata.org/entity/Q100335659', 'http://www.wikidata.org/entity/Q100335662', 'http://www.wikidata.org/entity/Q100335665', 'http://www.wikidata.org/entity/Q100335668', 'http://www.wikidata.org/entity/Q100335672', 'http://www.wikidata.org/entity/Q100335675', 'http://www.wikidata.org/entity/Q100335677', 'http://www.wikidata.org/entity/Q100335681', 'http://www.wikidata.org/entity/Q100335684', 'http://www.wikidata.org/entity/Q100335687', 'http://www.wikidata.org/entity/Q100335690', 'http://www.wikidata.org/entity/Q100335693', 'http://www.wikidata.org/entity/Q100335696', 'http://www.wikidata.org/entity/Q100335700', 'http://www.wikidata.org/entity/Q100335703', 'http://www.wikidata.org/entity/Q100335706', 'http://www.wikidata.org/entity/Q100335708', 'http://www.wikidata.org/entity/Q100335711', 'http://www.wikidata.org/entity/Q100335714', 'http://www.wikidata.org/entity/Q100335718', 'http://www.wikidata.org/entity/Q100335722', 'http://www.wikidata.org/entity/Q100335726', 'http://www.wikidata.org/entity/Q100335729', 'http://www.wikidata.org/entity/Q100335731', 'http://www.wikidata.org/entity/Q100335734', 'http://www.wikidata.org/entity/Q100335737', 'http://www.wikidata.org/entity/Q100335740', 'http://www.wikidata.org/entity/Q100335742', 'http://www.wikidata.org/entity/Q100335745', 'http://www.wikidata.org/entity/Q100335748', 'http://www.wikidata.org/entity/Q100335751', 'http://www.wikidata.org/entity/Q100335754', 'http://www.wikidata.org/entity/Q100335757', 'http://www.wikidata.org/entity/Q100335759', 'http://www.wikidata.org/entity/Q100335762', 'http://www.wikidata.org/entity/Q100335765', 'http://www.wikidata.org/entity/Q100335768', 'http://www.wikidata.org/entity/Q100335771', 'http://www.wikidata.org/entity/Q100335775', 'http://www.wikidata.org/entity/Q100335779', 'http://www.wikidata.org/entity/Q100335782', 'http://www.wikidata.org/entity/Q100335785', 'http://www.wikidata.org/entity/Q100335788', 'http://www.wikidata.org/entity/Q100335791', 'http://www.wikidata.org/entity/Q100335794', 'http://www.wikidata.org/entity/Q100335797', 'http://www.wikidata.org/entity/Q100335800', 'http://www.wikidata.org/entity/Q100335804', 'http://www.wikidata.org/entity/Q100335808', 'http://www.wikidata.org/entity/Q100335811', 'http://www.wikidata.org/entity/Q100335814', 'http://www.wikidata.org/entity/Q100335817', 'http://www.wikidata.org/entity/Q100335820', 'http://www.wikidata.org/entity/Q100335823', 'http://www.wikidata.org/entity/Q100335826', 'http://www.wikidata.org/entity/Q100335829', 'http://www.wikidata.org/entity/Q100335832', 'http://www.wikidata.org/entity/Q100335836', 'http://www.wikidata.org/entity/Q100335839', 'http://www.wikidata.org/entity/Q100335843', 'http://www.wikidata.org/entity/Q100335846', 'http://www.wikidata.org/entity/Q100335849', 'http://www.wikidata.org/entity/Q100335851', 'http://www.wikidata.org/entity/Q100335858', 'http://www.wikidata.org/entity/Q100335861', 'http://www.wikidata.org/entity/Q100335864', 'http://www.wikidata.org/entity/Q100335867', 'http://www.wikidata.org/entity/Q100335870', 'http://www.wikidata.org/entity/Q100335873', 'http://www.wikidata.org/entity/Q100335877', 'http://www.wikidata.org/entity/Q100335879', 'http://www.wikidata.org/entity/Q100335883', 'http://www.wikidata.org/entity/Q100335887', 'http://www.wikidata.org/entity/Q100335888', 'http://www.wikidata.org/entity/Q100335893', 'http://www.wikidata.org/entity/Q100335895', 'http://www.wikidata.org/entity/Q100335897', 'http://www.wikidata.org/entity/Q100335900', 'http://www.wikidata.org/entity/Q100335904', 'http://www.wikidata.org/entity/Q100335906', 'http://www.wikidata.org/entity/Q100335909', 'http://www.wikidata.org/entity/Q100335913', 'http://www.wikidata.org/entity/Q100335916', 'http://www.wikidata.org/entity/Q100335920', 'http://www.wikidata.org/entity/Q100335922', 'http://www.wikidata.org/entity/Q100335924', 'http://www.wikidata.org/entity/Q100335926', 'http://www.wikidata.org/entity/Q100335929', 'http://www.wikidata.org/entity/Q100335931', 'http://www.wikidata.org/entity/Q100335932', 'http://www.wikidata.org/entity/Q100335934', 'http://www.wikidata.org/entity/Q100335936', 'http://www.wikidata.org/entity/Q100335939', 'http://www.wikidata.org/entity/Q100335940', 'http://www.wikidata.org/entity/Q100335943', 'http://www.wikidata.org/entity/Q100335945', 'http://www.wikidata.org/entity/Q100335947', 'http://www.wikidata.org/entity/Q100335949', 'http://www.wikidata.org/entity/Q100335951', 'http://www.wikidata.org/entity/Q100335954', 'http://www.wikidata.org/entity/Q100335955', 'http://www.wikidata.org/entity/Q100335958', 'http://www.wikidata.org/entity/Q100335959', 'http://www.wikidata.org/entity/Q100335961', 'http://www.wikidata.org/entity/Q100335963', 'http://www.wikidata.org/entity/Q100335965', 'http://www.wikidata.org/entity/Q100335967', 'http://www.wikidata.org/entity/Q100335969', 'http://www.wikidata.org/entity/Q100335970', 'http://www.wikidata.org/entity/Q100335973', 'http://www.wikidata.org/entity/Q100335975', 'http://www.wikidata.org/entity/Q100335976', 'http://www.wikidata.org/entity/Q100335978', 'http://www.wikidata.org/entity/Q100335980', 'http://www.wikidata.org/entity/Q100335982', 'http://www.wikidata.org/entity/Q100335983', 'http://www.wikidata.org/entity/Q100335985', 'http://www.wikidata.org/entity/Q100335987', 'http://www.wikidata.org/entity/Q100335990', 'http://www.wikidata.org/entity/Q100335992', 'http://www.wikidata.org/entity/Q100335994', 'http://www.wikidata.org/entity/Q100335995', 'http://www.wikidata.org/entity/Q100335997', 'http://www.wikidata.org/entity/Q100335998', 'http://www.wikidata.org/entity/Q100336000', 'http://www.wikidata.org/entity/Q100336001', 'http://www.wikidata.org/entity/Q100336004', 'http://www.wikidata.org/entity/Q100336006', 'http://www.wikidata.org/entity/Q100336007', 'http://www.wikidata.org/entity/Q100336009', 'http://www.wikidata.org/entity/Q100336011', 'http://www.wikidata.org/entity/Q100336012', 'http://www.wikidata.org/entity/Q100336014', 'http://www.wikidata.org/entity/Q100336016', 'http://www.wikidata.org/entity/Q100336018', 'http://www.wikidata.org/entity/Q100336020', 'http://www.wikidata.org/entity/Q100336022', 'http:</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>['http://www.wikidata.org/entity/Q100165776', 'http://www.wikidata.org/entity/Q100699368', 'http://www.wikidata.org/entity/Q101208716', 'http://www.wikidata.org/entity/Q101240388', 'http://www.wikidata.org/entity/Q1016657', 'http://www.wikidata.org/entity/Q101799929', 'http://www.wikidata.org/entity/Q1018491', 'http://www.wikidata.org/entity/Q10263747', 'http://www.wikidata.org/entity/Q10265027', 'http://www.wikidata.org/entity/Q1029748', 'http://www.wikidata.org/entity/Q10399295', 'http://www.wikidata.org/entity/Q104212872', 'http://www.wikidata.org/entity/Q10424655', 'http://www.wikidata.org/entity/Q10427794', 'http://www.wikidata.org/entity/Q10438507', 'http://www.wikidata.org/entity/Q104423070', 'http://www.wikidata.org/entity/Q10470137', 'http://www.wikidata.org/entity/Q10478647', 'http://www.wikidata.org/entity/Q104830609', 'http://www.wikidata.org/entity/Q10483276', 'http://www.wikidata.org/entity/Q10483278', 'http://www.wikidata.org/entity/Q104897335', 'http://www.wikidata.org/entity/Q104898332', 'http://www.wikidata.org/entity/Q104898349', 'http://www.wikidata.org/entity/Q10497055', 'http://www.wikidata.org/entity/Q10498919', 'http://www.wikidata.org/entity/Q10521846', 'http://www.wikidata.org/entity/Q1052389', 'http://www.wikidata.org/entity/Q10539208', 'http://www.wikidata.org/entity/Q10540694', 'http://www.wikidata.org/entity/Q10545976', 'http://www.wikidata.org/entity/Q10546459', 'http://www.wikidata.org/entity/Q10550108', 'http://www.wikidata.org/entity/Q10551144', 'http://www.wikidata.org/entity/Q10551800', 'http://www.wikidata.org/entity/Q10552257', 'http://www.wikidata.org/entity/Q105658120', 'http://www.wikidata.org/entity/Q10568431', 'http://www.wikidata.org/entity/Q10576347', 'http://www.wikidata.org/entity/Q1058095', 'http://www.wikidata.org/entity/Q10581740', 'http://www.wikidata.org/entity/Q1058578', 'http://www.wikidata.org/entity/Q105977832', 'http://www.wikidata.org/entity/Q105977836', 'http://www.wikidata.org/entity/Q105977866', 'http://www.wikidata.org/entity/Q10611490', 'http://www.wikidata.org/entity/Q10623223', 'http://www.wikidata.org/entity/Q10636269', 'http://www.wikidata.org/entity/Q10639468', 'http://www.wikidata.org/entity/Q10657971', 'http://www.wikidata.org/entity/Q10658192', 'http://www.wikidata.org/entity/Q106595791', 'http://www.wikidata.org/entity/Q106595920', 'http://www.wikidata.org/entity/Q106595928', 'http://www.wikidata.org/entity/Q106595937', 'http://www.wikidata.org/entity/Q106595945', 'http://www.wikidata.org/entity/Q106595954', 'http://www.wikidata.org/entity/Q106595963', 'http://www.wikidata.org/entity/Q10668100', 'http://www.wikidata.org/entity/Q106685309', 'http://www.wikidata.org/entity/Q10680375', 'http://www.wikidata.org/entity/Q10684386', 'http://www.wikidata.org/entity/Q10706553', 'http://www.wikidata.org/entity/Q107089587', 'http://www.wikidata.org/entity/Q10709353', 'http://www.wikidata.org/entity/Q107112059', 'http://www.wikidata.org/entity/Q10712726', 'http://www.wikidata.org/entity/Q10713122', 'http://www.wikidata.org/entity/Q107293417', 'http://www.wikidata.org/entity/Q1073856', 'http://www.wikidata.org/entity/Q107607703', 'http://www.wikidata.org/entity/Q10766854', 'http://www.wikidata.org/entity/Q108004917', 'http://www.wikidata.org/entity/Q108084314', 'http://www.wikidata.org/entity/Q108293356', 'http://www.wikidata.org/entity/Q10860196', 'http://www.wikidata.org/entity/Q108605363', 'http://www.wikidata.org/entity/Q10862359', 'http://www.wikidata.org/entity/Q10862557', 'http://www.wikidata.org/entity/Q108744469', 'http://www.wikidata.org/entity/Q108919301', 'http://www.wikidata.org/entity/Q1090737', 'http://www.wikidata.org/entity/Q109538749', 'http://www.wikidata.org/entity/Q109556784', 'http://www.wikidata.org/entity/Q109587838', 'http://www.wikidata.org/entity/Q109729135', 'http://www.wikidata.org/entity/Q110033838', 'http://www.wikidata.org/entity/Q110040047', 'http://www.wikidata.org/entity/Q110323699', 'http://www.wikidata.org/entity/Q1103638', 'http://www.wikidata.org/entity/Q110365', 'http://www.wikidata.org/entity/Q110613399', 'http://www.wikidata.org/entity/Q110651456', 'http://www.wikidata.org/entity/Q1106764', 'http://www.wikidata.org/entity/Q110726232', 'http://www.wikidata.org/entity/Q110892400', 'http://www.wikidata.org/entity/Q111043036', 'http://www.wikidata.org/entity/Q111309399', 'http://www.wikidata.org/entity/Q111309402', 'http://www.wikidata.org/entity/Q111309418', 'http://www.wikidata.org/entity/Q111309419', 'http://www.wikidata.org/entity/Q111309435', 'http://www.wikidata.org/entity/Q111309437', 'http://www.wikidata.org/entity/Q111309446', 'http://www.wikidata.org/entity/Q111309449', 'http://www.wikidata.org/entity/Q111309452', 'http://www.wikidata.org/entity/Q111309470', 'http://www.wikidata.org/entity/Q111309481', 'http://www.wikidata.org/entity/Q111309486', 'http://www.wikidata.org/entity/Q111530750', 'http://www.wikidata.org/entity/Q111600223', 'http://www.wikidata.org/entity/Q111667985', 'http://www.wikidata.org/entity/Q111905529', 'http://www.wikidata.org/entity/Q111985803', 'http://www.wikidata.org/entity/Q112034047', 'http://www.wikidata.org/entity/Q112133367', 'http://www.wikidata.org/entity/Q1126097', 'http://www.wikidata.org/entity/Q1127630', 'http://www.wikidata.org/entity/Q112869060', 'http://www.wikidata.org/entity/Q112977212', 'http://www.wikidata.org/entity/Q113362750', 'http://www.wikidata.org/entity/Q1134037', 'http://www.wikidata.org/entity/Q113446650', 'http://www.wikidata.org/entity/Q113487140', 'http://www.wikidata.org/entity/Q113679841', 'http://www.wikidata.org/entity/Q113731765', 'http://www.wikidata.org/entity/Q11394785', 'http://www.wikidata.org/entity/Q1141731', 'http://www.wikidata.org/entity/Q1142950', 'http://www.wikidata.org/entity/Q114456172', 'http://www.wikidata.org/entity/Q114687415', 'http://www.wikidata.org/entity/Q114730010', 'http://www.wikidata.org/entity/Q114958631', 'http://www.wikidata.org/entity/Q115162773', 'http://www.wikidata.org/entity/Q115206376', 'http://www.wikidata.org/entity/Q115242546', 'http://www.wikidata.org/entity/Q115269607', 'http://www.wikidata.org/entity/Q115323752', 'http://www.wikidata.org/entity/Q115739625', 'http://www.wikidata.org/entity/Q115751588', 'http://www.wikidata.org/entity/Q115942832', 'http://www.wikidata.org/entity/Q116141774', 'http://www.wikidata.org/entity/Q116141777', 'http://www.wikidata.org/entity/Q116141779', 'http://www.wikidata.org/entity/Q116141782', 'http://www.wikidata.org/entity/Q116141790', 'http://www.wikidata.org/entity/Q116141792', 'http://www.wikidata.org/entity/Q116141794', 'http://www.wikidata.org/entity/Q116141797', 'http://www.wikidata.org/entity/Q116141803', 'http://www.wikidata.org/entity/Q116141827', 'http://www.wikidata.org/entity/Q116141830', 'http://www.wikidata.org/entity/Q116141831', 'http://www.wikidata.org/entity/Q116141832', 'http://www.wikidata.org/entity/Q116141833', 'http://www.wikidata.org/entity/Q116141834', 'http://www.wikidata.org/entity/Q116141836', 'http://www.wikidata.org/entity/Q116141838', 'http://www.wikidata.org/entity/Q116141839', 'http://www.wikidata.org/entity/Q116141845', 'http://www.wikidata.org/entity/Q116141846', 'http://www.wikidata.org/entity/Q116141853', 'http://www.wikidata.org/entity/Q116141854', 'http://www.wikidata.org/entity/Q116141866', 'http://www.wikidata.org/entity/Q116141868', 'http://www.wikidata.org/entity/Q116141869', 'http://www.wikidata.org/entity/Q116141871', 'http://www.wikidata.org/entity/Q116141872', 'http://www.wikidata.org/entity/Q116141873', 'http://www.wikidata.org/entity/Q116141874', 'http://www.wikidata.org/entity/Q116141899', 'http://www.wikidata.org/entity/Q116141904', 'http://www.wikidata.org/entity/Q116141906', 'http://www.wikidata.org/entity/Q116141909', 'http://www.wikidata.org/entity/Q116141910', 'http://www.wikidata.org/entity/Q116141911', 'http://www.wikidata.org/entity/Q116327000', 'http://www.wikidata.org/entity/Q116385276', 'http://www.wikidata.org/entity/Q1165090', 'http://www.wikidata.org/entity/Q116678683', 'http://www.wikidata.org/entity/Q116687153', 'http://www.wikidata.org/entity/Q1167202', 'http://www.wikidata.org/entity/Q116868452', 'http://www.wikidata.org/entity/Q116923177', 'http://www.wikidata.org/entity/Q117310836', 'http://www.wikidata.org/entity/Q117310838', 'http://www.wikidata.org/entity/Q117310839', 'http://www.wikidata.org/entity/Q117310840', 'http://www.wikidata.org/entity/Q117310841', 'http://www.wikidata.org/entity/Q117310842', 'http://www.wikidata.org/entity/Q117310844', 'http://www.wikidata.org/entity/Q117310845', 'http://www.wikidata.org/entity/Q117310846', 'http://www.wikidata.org/entity/Q117310847', 'http://www.wikidata.org/entity/Q117310848', 'http://www.wikidata.org/entity/Q117310849', 'http://www.wikidata.org/entity/Q117310851', 'http://www.wikidata.org/entity/Q117310852', 'http://www.wikidata.org/entity/Q117310853', 'http://www.wikidata.org/entity/Q117310854', 'http://www.wikidata.org/entity/Q117310855', 'http://www.wikidata.org/entity/Q117310856', 'http://www.wikidata.org/entity/Q117310857', 'http://www.wikidata.org/entity/Q117310859', 'http://www.wikidata.org/entity/Q117310861', 'http://www.wikidata.org/entity/Q117310862', 'http://www.wikidata.org/entity/Q117310863', 'http://www.wikidata.org/entity/Q117310864', 'http://www.wikidata.org/entity/Q117310865', 'http://www.wikidata.org/entity/Q117310866', 'http://www.wikidata.org/entity/Q117310868', 'http://www.wikidata.org/entity/Q117310869', 'http://www.wikidata.org/entity/Q117310870', 'http://www.wikidata.org/entity/Q117310871', 'http://www.wikidata.org/entity/Q117310873', 'http://www.wikidata.org/entity/Q117310874', 'http://www.wikidata.org/entity/Q117310876', 'http://www.wikidata.org/entity/Q117310877', 'http://www.wikidata.org/entity/Q117310878', 'http://www.wikidata.org/entity/Q117310879', 'http://www.wikidata.org/entity/Q117310881', 'http://www.wikidata.org/entity/Q117310882', 'http://www.wikidata.org/entity/Q117310883', 'http://www.wikidata.org/entity/Q117310884', 'http://www.wikidata.org/entity/Q117310885', 'http://www.wikidata.org/entity/Q117310886', 'http://www.wikidata.org/entity/Q117310888', 'http://www.wikidata.org/entity/Q117310889', 'http://www.wikidata.org/entity/Q117310890', 'http://www.wikidata.org/entity/Q117310891', 'http://www.wikidata.org/entity/Q117310892', 'http://www.wikidata.org/entity/Q117310894', 'http://www.wikidata.org/entity/Q117310895', 'http://www.wikidata.org/entity/Q117310896', 'http://www.wikidata.org/entity/Q117310897', 'http://www.wikidata.org/entity/Q117310899', 'http://www.wikidata.org/entity/Q117310900', 'http://www.wikidata.org/entity/Q117310901', 'http://www.wikidata.org/entity/Q117310902', 'http://www.wikidata.org/entity/Q117310903', 'http://www.wikidata.org/entity/Q117310905', 'http://www.wikidata.org/entity/Q117310906', 'http://www.wikidata.org/entity/Q117310907', 'http://www.wikidata.org/entity/Q117310908', 'http://www.wikidata.org/entity/Q117310909', 'http://www.wikidata.org/entity/Q117310910', 'http://www.wikidata.org/entity/Q117310911', 'http://www.wikidata.org/entity/Q117310912', 'http://www.wikidata.org/entity/Q117310913', 'http://www.wikidata.org/entity/Q117310914', 'http://www.wikidata.org/entity/Q117310915', 'http://www.wikidata.org/entity/Q117310916', 'http://www.wikidata.org/entity/Q117310917', 'http://www.wikidata.org/entity/Q117310918', 'http://www.wikidata.org/entity/Q117310920', 'http://www.wikidata.org/entity/Q117310921', 'http://www.wikidata.org/entity/Q117310922', 'http://www.wikidata.org/entity/Q117310923', 'http://www.wikidata.org/entity/Q117310924', 'http://www.wikidata.org/entity/Q117310925', 'http://www.wikidata.org/entity/Q117310927', 'http://www.wikidata.org/entity/Q117310928', 'http://www.wikidata.org/entity/Q117310929', 'http://www.wikidata.org/entity/Q117310930', 'http://www.wikidata.org/entity/Q117310931', 'http://www.wikidata.org/entity/Q117310932', 'http://www.wikidata.org/entity/Q117310934', 'http://www.wikidata.org/entity/Q117310935', 'http://www.wikidata.org/entity/Q117310936', 'http://www.wikidata.org/entity/Q117310937', 'http://www.wikidata.org/entity/Q117310938', 'http://www.wikidata.org/entity/Q117310940', 'http://www.wikidata.org/entity/Q117310941', 'http://www.wikidata.org/entity/Q117310942', 'http://www.wikidata.org/entity/Q117310943', 'http://www.wikidata.org/entity/Q117310944', 'http://www.wikidata.org/entity/Q117310947', 'http://www.wikidata.org/entity/Q117310948', 'http://www.wikidata.org/entity/Q117310949', 'http://www.wikidata.org/entity/Q117310951', 'http://www.wikidata.org/entity/Q117310952', 'http://www.wikidata.org/entity/Q117310953', 'http://www.wikidata.org/entity/Q117310954', 'http://www.wikidata.org/entity/Q117310956', 'http://www.wikidata.org/entity/Q117310957', 'http://www.wikidata.org/entity/Q117310958', 'http://www.wikidata.org/entity/Q117310959', 'http://www.wikidata.org/entity/Q117310960', 'http://www.wikidata.org/entity/Q117310962', 'http://www.wikidata.org/entity/Q117310963', 'http://www.wikidata.org/entity/Q117310964', 'http://www.wikidata.org/entity/Q117310965', 'http://www.wikidata.org/entity/Q117310968', 'http://www.wikidata.org/entity/Q117310969', 'http://www.wikidata.org/entity/Q117310970', 'http://www.wikidata.org/entity/Q117310971', 'http://www.wikidata.org/entity/Q117310972', 'http://www.wikidata.org/entity/Q117310974', 'http://www.wikidata.org/entity/Q117310976', 'http://www.wikidata.org/entity/Q117310977', 'http://www.wikidata.org/entity/Q117310978', 'http://www.wikidata.org/entity/Q117310979', 'http://www.wikidata.org/entity/Q117310981', 'http://www.wikidata.org/entity/Q117310982', 'http://www.wikidata.org/entity/Q117310983', 'http://www.wikidata.org/entity/Q117310984', 'http://www.wikidata.org/entity/Q117310985', 'http://www.wikidata.org/entity/Q117310987', 'http://www.wikidata.org/entity/Q117310988', 'http://www.wikidata.org/entity/Q117310989', 'http://www.wikidata.org/entity/Q117310990', 'http://www.wikidata.org/entity/Q117310991', 'http://www.wikidata.org/entity/Q117310992', 'http://www.wikidata.org/entity/Q117310993', 'http://www.wikidata.org/entity/Q117310995', 'http://www.wikidata.org/entity/Q117310996', 'http://www.wikidata.org/entity/Q117310997', 'http://www.wikidata.org/entity/Q117310998', 'http://www.wikidata.org/entity/Q117310999', 'http://www.wikidata.org/entity/Q117311000', 'http://www.wikidata.org/entity/Q117311002', 'http://www.wikidata.org/entity/Q117311003', 'http://www.wikidata.org/entity/Q117311004', 'http://www.wikidata.org/entity/Q117311005', 'http://www.wikidata.org/entity/Q117311006', 'http://www.wikidata.org/entity/Q117311007', 'http://www.wikidata.org/entity/Q117311009', 'http://www.wikidata.org/entity/Q117311010', 'http://www.wikidata.org/entity/Q117311011', 'http://www.wikidata.org/entity/Q117311012', 'http://www.wikidata.org/entity/Q117311014', 'http://www.wikidata.org/entity/Q117311016', 'http://www.wikidata.org/entity/Q117311017', 'http://www.wikidata.org/entity/Q117311018', 'http://www.wikidata.org/entity/Q117311019', 'http://www.wikidata.org/entity/Q117311020', 'http://www.wikidata.org/entity/Q117311022', 'http://www.wikidata.org/entity/Q117311023', 'http://www.wikidata.org/entity/Q117311024', 'http://www.wikidata.org/entity/Q117311025', 'http://www.wikidata.org/entity/Q117311026', 'http://www.wikidata.org/entity/Q117311027', 'http://www.wikidata.org/entity/Q117311028', 'http://www.wikidata.org/entity/Q117311029', 'http://www.wikidata.org/entity/Q117311031', 'http://www.wikidata.org/entity/Q117311033', 'http://www.wikidata.org/entity/Q117311035', 'http://www.wikidata.org/entity/Q117311036', 'http://www.wikidata.org/entity/Q117311037', 'http://www.wikidata.org/entity/Q117311038', 'http://www.wikidata.org/entity/Q117311039', 'http://www.wikidata.org/entity/Q117311041', 'http://www.wikidata.org/entity/Q117311042', 'http://www.wikidata.org/entity/Q117311043', 'http://www.wikidata.org/entity/Q117311044', 'http://www.wikidata.org/entity/Q117311045', 'http://www.wikidata.org/entity/Q117311047', 'http://www.wikidata.org/entity/Q117311048', 'http://www.wikidata.org/entity/Q117311049', 'http://www.wikidata.org/entity/Q117311051', 'http://www.wikidata.org/entity/Q117311053', 'http://www.wikidata.org/entity/Q117311054', 'http://www.wikidata.org/entity/Q117311055', 'http://www.wikidata.org/entity/Q117311056', 'http://www.wikidata.org/entity/Q117311057', 'http://www.wikidata.org/entity/Q117311059', 'http://www.wikidata.org/entity/Q117311060', 'http://www.wikidata.org/entity/Q117311061', 'http://www.wikidata.org/entity/Q117311062', 'http://www.wikidata.org/entity/Q117311063', 'http://www.wikidata.org/entity/Q117311065', 'http://www.wikidata.org/entity/Q117311066', 'http://www.wikidata.org/entity/Q117311067', 'http://www.wikidata.org/entity/Q117311068', 'http://www.wikidata.org/entity/Q117311069', 'http://www.wikidata.org/entity/Q117311070', 'http://www.wikidata.org/entity/Q117311072', 'http://www.wikidata.org/entity/Q117311073', 'http://www.wikidata.org/entity/Q117311074', 'http://www.wikidata.org/entity/Q117311075', 'http://www.wikidata.org/entity/Q117311076', 'http://www.wikidata.org/entity/Q117311077', 'http://www.wikidata.org/entity/Q117311079', 'http://www.wikidata.org/entity/Q117311080', 'http://www.wikidata.org/entity/Q117311081', 'http://www.wikidata.org/entity/Q117311082', 'http://www.wikidata.org/entity/Q117311083', 'http://www.wikidata.org/entity/Q117311085', 'http://www.wikidata.org/entity/Q117311086', 'http://www.wikidata.org/entity/Q117311087', 'http://www.wikidata.org/entity/Q117311088', 'http://www.wikidata.org/entity/Q117311089', 'http://www.wikidata.org/entity/Q117311090', 'http://www.wikidata.org/entity/Q117311091', 'http://www.wikidata.org/entity/Q117311092', 'http://www.wikidata.org/entity/Q117311093', 'http://www.wikidata.org/entity/Q117311095', 'http://www.wikidata.org/entity/Q117311096', 'http://www.wikidata.org/entity/Q117311097', 'http://www.wikidata.org/entity/Q117311098', 'http://www.wikidata.org/entity/Q117311099', 'http://www.wikidata.org/entity/Q117311100', 'http://www.wikidata.org/entity/Q117311101', 'http://www.wikidata.org/entity/Q117311102', 'http://www.wikidata.org/entity/Q117311103', 'http://www.wikidata.org/entity/Q117311104', 'http://www.wikidata.org/entity/Q117311106', 'http://www.wikidata.org/entity/Q117311107', 'http://www.wikidata.org/entity/Q117311108', 'http://www.wikidata.org/entity/Q117311109', 'http://www.wikidata.org/entity/Q117311110', 'http://www.wikidata.org/entity/Q117311111', 'http://www.wikidata.org/entity/Q117311112', 'http://www.wikidata.org/entity/Q117311113', 'http://www.wikidata.org/entity/Q117311114', 'http://www.wikidata.org/entity/Q117311115', 'http://www.wikidata.org/entity/Q117311116', 'http://www.wikidata.org/entity/Q117311117', 'http://www.wikidata.org/entity/Q117311118', 'http://www.wikidata.org/entity/Q117311119', 'http://www.wikidata.org/entity/Q117311120', 'http://www.wikidata.org/entity/Q117311121', 'http://www.wikidata.org/entity/Q117311122', 'http://www.wikidata.org/entity/Q117311123', 'http://www.wikidata.org/entity/Q117311124', 'http://www.wikidata.org/entity/Q117311125', 'http://www.wikidata.org/entity/Q117311126', 'http://www.wikidata.org/entity/Q117311127', 'http://www.wikidata.org/entity/Q117311128', 'http://www.wikidata.org/entity/Q117311129', 'http://www.wikidata.org/entity/Q117311130', 'http://www.wikidata.org/entity/Q117311131', 'http://www.wikidata.org/entity/Q117311132', 'http://www.wikidata.org/entity/Q117311133', 'http://www.wikidata.org/entity/Q117311134', 'http://www.wikidata.org/entity/Q117311135', 'http://www.wikidata.org/entity/Q117311136', 'http://www.wikidata.org/entity/Q117311137', 'http://www.wikidata.org/entity/Q117311138', 'http://www.wikidata.org/entity/Q117311139', 'http://www.wikidata.org/entity/Q117311140', 'http://www.wikidata.org/entity/Q117311141', 'http://www.wikidata.org/entity/Q117311142', 'http://www.wikidata.org/entity/Q117311143', 'http://www.wikidata.org/entity/Q117311144', 'http://www.wikidata.org/entity/Q117311145', 'http://www.wikidata.org/entity/Q117311146', 'http://www.wikidata.org/entity/Q117311147', 'http://www.wikidata.org/entity/Q117311148', 'http://www.wikidata.org/entity/Q117311149', 'http://www.wikidata.org/entity/Q117311150', 'http://www.wikidata.org/entity/Q117311152', 'http://www.wikidata.org/entity/Q117311153', 'http://www.wikidata.org/entity/Q117311156', 'http://www.wikidata.org/entity/Q117311157', 'http://www.wikidata.org/entity/Q117311159', 'http://www.wikidata.org/entity/Q117311160', 'http://www.wikidata.org/entity/Q117311161', 'http://www.wikidata.org/entity/Q117311162', 'http://www.wikidata.org/entity/Q117311163', 'http://www.wikidata.org/entity/Q117311164', 'http://www.wikidata.org/entity/Q117311165', 'http://www.wikidata.org/entity/Q117311166', 'http://www.wikidata.org/entity/Q117311167', 'http://www.wikidata.org/entity/Q117311169', 'http://www.wikidata.org/entity/Q117311170', 'http://www.wikidata.org/entity/Q117311171', 'http://www.wikidata.org/entity/Q117311172', 'http://www.wikidata.org/entity/Q117311174', 'http://www.wikidata.org/entity/Q117311175', 'http://www.wikidata.org/entity/Q117311176', 'http://www.wikidata.org/entity/Q117311177', 'http://www.wikidata.org/entity/Q117311178', 'http://www.wikidata.org/entity/Q117311179', 'http://www.wikidata.org/entity/Q117311180', 'http://www.wikidata.org/entity/Q117311181', 'http://www.wikidata.org/entity/Q117311182', 'http://www.wikidata.org/entity/Q117311183', 'http://www.wikidata.org/entity/Q117311184', 'http://www.wikidata.org/entity/Q117311185', 'http://www.wikidata.org/entity/Q117311187', 'http://www.wikidata.org/entity/Q117311188', 'http://www.wikidata.org/entity/Q117311189', 'http://www.wikidata.org/entity/Q117311190', 'http://www.wikidata.org/entity/Q117311191', 'http://www.wikidata.org/entity/Q117311192', 'http://www.wikidata.org/entity/Q117311193', 'http://www.wikidata.org/entity/Q117311194', 'http://www.wikidata.org/entity/Q117311195', 'http://www.wikidata.org/entity/Q117311197', 'http://www.wikidata.org/entity/Q117311198', 'http://www.wikidata.org/entity/Q11735883', 'http://www.wikidata.org/entity/Q117378', 'http://www.wikidata.org/entity/Q11750103', 'http://www.wikidata.org/entity/Q11752161', 'http://www.wikidata.org/entity/Q11766799', 'http://www.wikidata.org/entity/Q117828841', 'http://www.wikidata.org/entity/Q117839902', 'http://www.wikidata.org/entity/Q117843336', 'http://www.wikidata.org/entity/Q1179100', 'http://www.wikidata.org/entity/Q1180628', 'http://www.wikidata.org/entity/Q11813146', 'http://www.wikidata.org/entity/Q118773870', 'http://www.wikidata.org/entity/Q118877515', 'http://www.wikidata.org/entity/Q11895713', 'http://www.wikidata.org/entity/Q1192010', 'http://www.wikidata.org/entity/Q1193228', 'http://www.wikidata.org/entity/Q1193235', 'http://www.wikidata.org/entity/Q1193606', 'http://www.wikidata.org/entity/Q11959981', 'http://www.wikidata.org/entity/Q11963321', 'http://www.wikidata.org/entity/Q11968504', 'http://www.wikidata.org/entity/Q119719693', 'http://www.wikidata.org/entity/Q11973255', 'http://www.wikidata.org/entity/Q11975896', 'http://www.wikidata.org/entity/Q11976727', 'http://www.wikidata.org/entity/Q11989359', 'http://www.wikidata.org/entity/Q11991849', 'http://www.wikidata.org/entity/Q11992822', 'http://www.wikidata.org/entity/Q12000812', 'http://www.wikidata.org/entity/Q12001708', 'http://www.wikidata.org/entity/Q12001773', 'http://www.wikidata.org/entity/Q12005098', 'http://www.wikidata.org/entity/Q12008450', 'http://www.wikidata.org/entity/Q12021405', 'http://www.wikidata.org/entity/Q120476405', 'http://www.wikidata.org/entity/Q120892325', 'http://www.wikidata.org/entity/Q12112241', 'http://www.wikidata.org/entity/Q1212397', 'http://www.wikidata.org/entity/Q121268638', 'http://www.wikidata.org/entity/Q121268641', 'http://www.wikidata.org/entity/Q121268646', 'http://www.wikidata.org/entity/Q121268647', 'http://www.wikidata.org/entity/Q121268650', 'http://www.wikidata.org/entity/Q121268661', 'http://www.wikidata.org/entity/Q121268664', 'http://www.wikidata.org/entity/Q121268669', 'http://www.wikidata.org/entity/Q121268679', 'http://www.wikidata.org/entity/Q121268680', 'http://www.wikidata.org/entity/Q121268682', 'http://www.wikidata.org/entity/Q121268686', 'http://www.wikidata.org/entity/Q121268699', 'http://www.wikidata.org/entity/Q121268702', 'http://www.wikidata.org/entity/Q121268704', 'http://www.wikidata.org/entity/Q121302517', 'http://www.wikidata.org/entity/Q121302518', 'http://www.wikidata.org/entity/Q121302519', 'http://www.wikidata.org/entity/Q121302520', 'http://www.wikidata.org/entity/Q121302521', 'http://www.wikidata.org/entity/Q121302522', 'http://www.wikidata.org/entity/Q121302523', 'http://www.wikidata.org/entity/Q121302524', 'http://www.wikidata.org/entity/Q121302526', 'http://www.wikidata.org/entity/Q121302527', 'http://www.wikidata.org/entity/Q121302528', 'http://www.wikidata.org/entity/Q121302529', 'http://www.wikidata.org/entity/Q121302530', 'http://www.wikidata.org/entity/Q121302531', 'http://www.wikidata.org/entity/Q121302533', 'http://www.wikidata.org/entity/Q121302534', 'http://www.wikidata.org/entity/Q121302535', 'http://www.wikidata.org/entity/Q121302536', 'http://www.wikidata.org/entity/Q121302538', 'http://www.wikidata.org/entity/Q121302539', 'http://www.wikidata.org/entity/Q121302541', 'http://www.wikidata.org/entity/Q121302542', 'http://www.wikidata.org/entity/Q121302543', 'http://www.wikidata.org/entity/Q121302544', 'http://www.wikidata.org/entity/Q121302545', 'http://www.wikidata.org/entity/Q121302546', 'http://www.wikidata.org/entity/Q121302547', 'http://www.wikidata.org/entity/Q121302548', 'http://www.wikidata.org/entity/Q121302549', 'http://www.wikidata.org/entity/Q121302550', 'http://www.wikidata.org/entity/Q121302551', 'http://www.wikidata.org/entity/Q121302552', 'http://www.wikidata.org/entity/Q121302553', 'http://www.wikidata.org/entity/Q121302554', 'http://www.wikidata.org/entity/Q121302555', 'http://www.wikidata.org/entity/Q121302556', 'http://www.wikidata.org/entity/Q121302557', 'http://www.wikidata.org/entity/Q121302558', 'http://www.wikidata.org/entity/Q121302560', 'http://www.wikidata.org/entity/Q121302561', 'http://www.wikidata.org/entity/Q121302562', 'http://www.wikidata.org/entity/Q121302563', 'http://www.wikidata.org/entity/Q121302564', 'http://www.wikidata.org/entity/Q121302565', 'http://www.wikidata.org/entity/Q121302566', 'http://www.wikidata.org/entity/Q121302567', 'http://www.wikidata.org/entity/Q121302568', 'http://www.wikidata.org/entity/Q121302569', 'http://www.wikidata.org/entity/Q121302570', 'http://www.wikidata.org/entity/Q121302571', 'http://www.wikidata.org/entity/Q121302573', 'http://www.wikidata.org/entity/Q121302574', 'http://www.wikidata.org/entity/Q121302575', 'http://www.wikidata.org/entity/Q121302576', 'http://www.wikidata.org/entity/Q121302579', 'http://www.wikidata.org/entity/Q121302580', 'http://www.wikidata.org/entity/Q121302581', 'http://www.wikidata.org/entity/Q121302582', 'http://www.wikidata.org/entity/Q121302583', 'http://www.wikidata.org/entity/Q121302584', 'http://www.wikidata.org/entity/Q121302585', 'http://www.wikidata.org/entity/Q121302586', 'http://www.wikidata.org/entity/Q121302588', 'http://www.wikidata.org/entity/Q121302589', 'http://www.wikidata.org/entity/Q121302591', 'http://www.wikidata.org/entity/Q121302592', 'http://www.wikidata.org/entity/Q121302593', 'http://www.wikidata.org/entity/Q121302594', 'http://www.wikidata.org/entity/Q121302595', 'http://www.wikidata.org/entity/Q121302596', 'http://www.wikidata.org/entity/Q121302597', 'http://www.wikidata.org/entity/Q121302598', 'http://www.wikidata.org/entity/Q121302599', 'http://www.wikidata.org/entity/Q121302600', 'http://www.wikidata.org/entity/Q121302601', 'http://www.wikidata.org/entity/Q121302602', 'http://www.wikidata.org/entity/Q121302603', 'http://www.wikidata.org/entity/Q121302604', 'http://www.wikidata.org/entity/Q121302605', 'http://www.wikidata.org/entity/Q121302607', 'http://www.wikidata.org/entity/Q121302608', 'http://www.wikidata.org/entity/Q121302609', 'http://www.wikidata.org/entity/Q121302610', 'http://www.wikidata.org/entity/Q121302611', 'http://www.wikidata.org/entity/Q121302612', 'http://www.wikidata.org/entity/Q121302613', 'http://www.wikidata.org/entity/Q121302614', 'http://www.wikidata.org/entity/Q121302615', 'http://www.wikidata.org/entity/Q121302617', 'http://www.wikidata.org/entity/Q121302618', 'http://www.wikidata.org/entity/Q121302619', 'http://www.wikidata.org/entity/Q121302620', 'http://www.wikidata.org/entity/Q121302621', 'http://www.wikidata.org/entity/Q121302622', 'http://www.wikidata.org/entity/Q121302624', 'http://www.wikidata.org/entity/Q121302625', 'http://www.wikidata.org/entity/Q121302626', 'http://www.wikidata.org/entity/Q121302627', 'http://www.wikidata.org/entity/Q121302628', 'http://www.wikidata.org/entity/Q121302629', 'http://www.wikidata.org/entity/Q121302630', 'http://www.wikidata.org/entity/Q121302631', 'http://www.wikidata.org/entity/Q121302632', 'http://www.wikidata.org/entity/Q121302633', 'http://www.wikidata.org/entity/Q121302634', 'http://www.wikidata.org/entity/Q121302635', 'http://www.wikidata.org/entity/Q121302636', 'http://www.wikidata.org/entity/Q121302637', 'http://www.wikidata.org/entity/Q121302638', 'http://www.wikidata.org/entity/Q121302639', 'http://www.wikidata.org/entity/Q121302640', 'http://www.wikidata.org/entity/Q121302642', 'http://www.wikidata.org/entity/Q121302643', 'http://www.wikidata.org/entity/Q121302644', 'http://www.wikidata.org/entity/Q121302645', 'http://www.wikidata.org/entity/Q121302646', 'http://www.wikidata.org/entity/Q121302647', 'http://www.wikidata.org/entity/Q121302648', 'http://www.wikidata.org/entity/Q121302649', 'http://www.wikidata.org/entity/Q121302650', 'http://www.wikidata.org/entity/Q121302651', 'http://www.wikidata.org/entity/Q121302652', 'http://www.wikidata.org/entity/Q121302653', 'http://www.wikidata.org/entity/Q121302654', 'http://www.wikidata.org/entity/Q121302655', 'http://www.wikidata.org/entity/Q121302656', 'http://www.wikidata.org/entity/Q121302657', 'http://www.wikidata.org/entity/Q121302658', 'http://www.wikidata.org/entity/Q121302659', 'http://www.wikidata.org/entity/Q121302660', 'http://www.wikidata.org/entity/Q121302661', 'http://www.wikidata.org/entity/Q121302662', 'http://www.wikidata.org/entity/Q121302663', 'http://www.wikidata.org/entity/Q121302664', 'http://www.wikidata.org/entity/Q121302665', 'http://www.wikidata.org/entity/Q121302666', 'http://www.wikidata.org/entity/Q121302667', 'http://www.wikidata.org/entity/Q121302668', 'http://www.wikidata.org/entity/Q121302669', 'http://www.wikidata.org/entity/Q121302670', 'http://www.wikidata.org/entity/Q121302671', 'http://www.wikidata.org/entity/Q121302672', 'http://www.wikidata.org/entity/Q121302673', 'http://www.wikidata.org/entity/Q121302674', 'http://www.wikidata.org/entity/Q121302675', 'http://www.wikidata.org/entity/Q121302676', 'http://www.wikidata.org/entity/Q121302677', 'http://www.wikidata.org/entity/Q121302678', 'http://www.wikidata.org/entity/Q121302679', 'http://www.wikidata.org/entity/Q121302681', 'http://www.wikidata.org/entity/Q121302682', 'http://www.wikidata.org/entity/Q121302683', 'http://www.wikidata.org/entity/Q121302684', 'http://www.wikidata.org/entity/Q121302685', 'http://www.wikidata.org/entity/Q121302686', 'http://www.wikidata.org/entity/Q121302687', 'http://www.wikidata.org/entity/Q121302688', 'http://www.wikidata.org/entity/Q121302689', 'http://www.wikidata.org/entity/Q121302690', 'http://www.wikidata.org/entity/Q121302691', 'http://www.wikidata.org/entity/Q121302692', 'http://www.wikidata.org/entity/Q121302693', 'http://www.wikidata.org/entity/Q121302694', 'http://www.wikidata.org/entity/Q121302695', 'http://www.wikidata.org/entity/Q121302696', 'http://www.wikidata.org/entity/Q121302697', 'http://www.wikidata.org/entity/Q121302698', 'http://www.wikidata.org/entity/Q121302699', 'http://www.wikidata.org/entity/Q121302700', 'http://www.wikidata.org/entity/Q121302701', 'http://www.wikidata.org/entity/Q121302703', 'http://www.wikidata.org/entity/Q121302704', 'http://www.wikidata.org/entity/Q121302706', 'http://www.wikidata.org/entity/Q121302707', 'http://www.wikidata.org/entity/Q121302708', 'http://www.wikidata.org/entity/Q121302709', 'http://www.wikidata.org/entity/Q121302710', 'http://www.wikidata.org/entity/Q121302711', 'http://www.wikidata.org/entity/Q121302712', 'http://www.wikidata.org/entity/Q121302713', 'http://www.wikidata.org/entity/Q121302714', 'http://www.wikidata.org/entity/Q121302715', 'http://www.wikidata.org/entity/Q121302716', 'http://www.wikidata.org/entity/Q121302717', 'http://www.wikidata.org/entity/Q121302718', 'http://www.wikidata.org/entity/Q121302720', 'http://www.wikidata.org/entity/Q1</t>
         </is>
       </c>
-      <c r="D28" t="b">
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>What is the largest country in the world?</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q124003554']</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q159']</t>
+        </is>
+      </c>
+      <c r="D31" t="b">
         <v>0</v>
       </c>
     </row>
